--- a/pulley.xlsx
+++ b/pulley.xlsx
@@ -13,7 +13,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -93,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -111,11 +243,33 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -127,6 +281,28 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,10 +321,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">

--- a/pulley.xlsx
+++ b/pulley.xlsx
@@ -13,7 +13,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -225,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -265,11 +331,22 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -303,6 +380,17 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,16 +403,16 @@
   <dimension ref="A1:B802"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
@@ -337,6402 +425,6402 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>10.013316191873985</v>
+        <v>10.005260095187392</v>
       </c>
       <c r="B3" s="0">
-        <v>0.063355591224628111</v>
+        <v>0.015264386424991349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>10.026233354167211</v>
+        <v>10.010496916309753</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12665032396971479</v>
+        <v>0.030532256781496674</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>10.038754218647059</v>
+        <v>10.015710484001087</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18988206805958338</v>
+        <v>0.045803598089555995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>10.05088150784152</v>
+        <v>10.020900818765268</v>
       </c>
       <c r="B6" s="0">
-        <v>0.25304873228004504</v>
+        <v>0.06107839748807551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>10.06261793482436</v>
+        <v>10.026067940975999</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31614826385924999</v>
+        <v>0.076356642234241739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>10.073966203007808</v>
+        <v>10.031211870876755</v>
       </c>
       <c r="B8" s="0">
-        <v>0.37917864795353484</v>
+        <v>0.091638319702941923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>10.084929005942598</v>
+        <v>10.036332628580762</v>
       </c>
       <c r="B9" s="0">
-        <v>0.44213790713859769</v>
+        <v>0.10692341738620129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>10.095509027125175</v>
+        <v>10.041430234070935</v>
       </c>
       <c r="B10" s="0">
-        <v>0.50502410090568994</v>
+        <v>0.12221192289260313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>10.105708939811949</v>
+        <v>10.046504707199837</v>
       </c>
       <c r="B11" s="0">
-        <v>0.56783532516308799</v>
+        <v>0.13750382394672803</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>10.115531406840388</v>
+        <v>10.051556067689647</v>
       </c>
       <c r="B12" s="0">
-        <v>0.63056971174253718</v>
+        <v>0.15279910838860142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>10.124979080456839</v>
+        <v>10.056584335132095</v>
       </c>
       <c r="B13" s="0">
-        <v>0.69322542791099029</v>
+        <v>0.16809776417310801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>10.134054602150877</v>
+        <v>10.061589528988435</v>
       </c>
       <c r="B14" s="0">
-        <v>0.75580067588724553</v>
+        <v>0.18339977936945759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>10.142760602496104</v>
+        <v>10.066571668589392</v>
       </c>
       <c r="B15" s="0">
-        <v>0.81829369236379179</v>
+        <v>0.19870514216062132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>10.151099700997147</v>
+        <v>10.071530773135111</v>
       </c>
       <c r="B16" s="0">
-        <v>0.88070274803368209</v>
+        <v>0.21401384084277938</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>10.159074505942819</v>
+        <v>10.076466861695115</v>
       </c>
       <c r="B17" s="0">
-        <v>0.94302614712238708</v>
+        <v>0.22932586382478651</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>10.166687614265234</v>
+        <v>10.081379953208266</v>
       </c>
       <c r="B18" s="0">
-        <v>1.0052622269246763</v>
+        <v>0.24464119962762013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>10.173941611404741</v>
+        <v>10.086270066482699</v>
       </c>
       <c r="B19" s="0">
-        <v>1.0674093573465808</v>
+        <v>0.25995983688383872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>10.180839071180591</v>
+        <v>10.091137220195792</v>
       </c>
       <c r="B20" s="0">
-        <v>1.1294659404521248</v>
+        <v>0.27528176433703566</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>10.187382555667128</v>
+        <v>10.095981432894105</v>
       </c>
       <c r="B21" s="0">
-        <v>1.1914304100152078</v>
+        <v>0.29060697084132697</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10.193574615075438</v>
+        <v>10.100802722993334</v>
       </c>
       <c r="B22" s="0">
-        <v>1.253301231076215</v>
+        <v>0.30593544536080231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.199417787640305</v>
+        <v>10.105601108778268</v>
       </c>
       <c r="B23" s="0">
-        <v>1.3150768995036477</v>
+        <v>0.32126717696899371</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>10.204914599512332</v>
+        <v>10.110376608402728</v>
       </c>
       <c r="B24" s="0">
-        <v>1.3767559415605104</v>
+        <v>0.33660215484838607</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>10.210067564655121</v>
+        <v>10.115129239889523</v>
       </c>
       <c r="B25" s="0">
-        <v>1.4383369134756117</v>
+        <v>0.35194036828983383</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>10.214879184747396</v>
+        <v>10.119859021130399</v>
       </c>
       <c r="B26" s="0">
-        <v>1.4998184010195583</v>
+        <v>0.3672818066920987</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>10.21935194908994</v>
+        <v>10.124565969885973</v>
       </c>
       <c r="B27" s="0">
-        <v>1.5611990190856633</v>
+        <v>0.38262645956129943</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>10.223488334517221</v>
+        <v>10.129250103785704</v>
       </c>
       <c r="B28" s="0">
-        <v>1.6224774112754239</v>
+        <v>0.39797431651041959</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>10.227290805313624</v>
+        <v>10.133911440327818</v>
       </c>
       <c r="B29" s="0">
-        <v>1.6836522494888582</v>
+        <v>0.41332536725877872</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>10.230761813134135</v>
+        <v>10.138549996879268</v>
       </c>
       <c r="B30" s="0">
-        <v>1.7447222335194172</v>
+        <v>0.42867960163155006</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>10.23390379692942</v>
+        <v>10.14316579067567</v>
       </c>
       <c r="B31" s="0">
-        <v>1.8056860906536101</v>
+        <v>0.44403700955922748</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>10.236719182875126</v>
+        <v>10.147758838821249</v>
       </c>
       <c r="B32" s="0">
-        <v>1.8665425752751754</v>
+        <v>0.45939758107714657</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>10.239210384305355</v>
+        <v>10.152329158288783</v>
       </c>
       <c r="B33" s="0">
-        <v>1.9272904684739085</v>
+        <v>0.47476130632498287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>10.241379801650204</v>
+        <v>10.156876765919549</v>
       </c>
       <c r="B34" s="0">
-        <v>1.9879285776589635</v>
+        <v>0.490128175546242</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>10.243229822377224</v>
+        <v>10.161401678423264</v>
       </c>
       <c r="B35" s="0">
-        <v>2.0484557361767308</v>
+        <v>0.50549817908778705</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>10.244762820936733</v>
+        <v>10.16590391237802</v>
       </c>
       <c r="B36" s="0">
-        <v>2.1088708029331249</v>
+        <v>0.52087130739935028</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>10.245981158710908</v>
+        <v>10.170383484230236</v>
       </c>
       <c r="B37" s="0">
-        <v>2.1691726620204226</v>
+        <v>0.53624755103302524</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>10.246887183966521</v>
+        <v>10.17484041029458</v>
       </c>
       <c r="B38" s="0">
-        <v>2.2293602223483724</v>
+        <v>0.55162690064280273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>10.247483231811216</v>
+        <v>10.179274706753928</v>
       </c>
       <c r="B39" s="0">
-        <v>2.2894324172798211</v>
+        <v>0.56700934698408401</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>10.247771624153309</v>
+        <v>10.18368638965929</v>
       </c>
       <c r="B40" s="0">
-        <v>2.3493882042705709</v>
+        <v>0.58239488091320402</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>10.247754669664932</v>
+        <v>10.188075474929743</v>
       </c>
       <c r="B41" s="0">
-        <v>2.4092265645136326</v>
+        <v>0.59778349338695225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>10.247434663748503</v>
+        <v>10.192441978352379</v>
       </c>
       <c r="B42" s="0">
-        <v>2.4689465025876443</v>
+        <v>0.61317517546212497</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>10.246813888506384</v>
+        <v>10.196785915582238</v>
       </c>
       <c r="B43" s="0">
-        <v>2.5285470461096571</v>
+        <v>0.62856991829501208</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>10.245894612713695</v>
+        <v>10.201107302142228</v>
       </c>
       <c r="B44" s="0">
-        <v>2.5880272453919746</v>
+        <v>0.64396771314097434</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>10.24467909179414</v>
+        <v>10.20540615342308</v>
       </c>
       <c r="B45" s="0">
-        <v>2.647386173103317</v>
+        <v>0.65936855135395067</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>10.243169567798846</v>
+        <v>10.209682484683261</v>
       </c>
       <c r="B46" s="0">
-        <v>2.7066229239339199</v>
+        <v>0.67477242438601881</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>10.241368269388042</v>
+        <v>10.213936311048915</v>
       </c>
       <c r="B47" s="0">
-        <v>2.7657366142649265</v>
+        <v>0.69017932378691749</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>10.239277411815584</v>
+        <v>10.2181676475138</v>
       </c>
       <c r="B48" s="0">
-        <v>2.8247263818416615</v>
+        <v>0.70558924120361755</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>10.236899196916186</v>
+        <v>10.222376508939201</v>
       </c>
       <c r="B49" s="0">
-        <v>2.8835913854510662</v>
+        <v>0.7210021683798421</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>10.234235813095351</v>
+        <v>10.226562910053866</v>
       </c>
       <c r="B50" s="0">
-        <v>2.9423308046029648</v>
+        <v>0.73641809715563833</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>10.231289435321848</v>
+        <v>10.230726865453947</v>
       </c>
       <c r="B51" s="0">
-        <v>3.0009438392154504</v>
+        <v>0.75183701946691595</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>10.22806222512274</v>
+        <v>10.234868389602894</v>
       </c>
       <c r="B52" s="0">
-        <v>3.0594297093040019</v>
+        <v>0.76725892734501278</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>10.224556330580835</v>
+        <v>10.238987496831419</v>
       </c>
       <c r="B53" s="0">
-        <v>3.1177876546746348</v>
+        <v>0.78268381291625932</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>10.220773886334564</v>
+        <v>10.243084201337389</v>
       </c>
       <c r="B54" s="0">
-        <v>3.176016934620729</v>
+        <v>0.7981116684015237</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>10.216717013580098</v>
+        <v>10.247158517185765</v>
       </c>
       <c r="B55" s="0">
-        <v>3.2341168276238208</v>
+        <v>0.8135424861157855</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>10.212387820075799</v>
+        <v>10.251210458308519</v>
       </c>
       <c r="B56" s="0">
-        <v>3.2920866310580168</v>
+        <v>0.82897625846770839</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>10.2077884001488</v>
+        <v>10.255240038504555</v>
       </c>
       <c r="B57" s="0">
-        <v>3.3499256608982209</v>
+        <v>0.84441297795920045</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>10.202920834703734</v>
+        <v>10.259247271439632</v>
       </c>
       <c r="B58" s="0">
-        <v>3.4076332514319954</v>
+        <v>0.85985263718498695</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>10.197787191233516</v>
+        <v>10.263232170646278</v>
       </c>
       <c r="B59" s="0">
-        <v>3.465208754975138</v>
+        <v>0.8752952288321918</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>10.192389523832146</v>
+        <v>10.267194749523707</v>
       </c>
       <c r="B60" s="0">
-        <v>3.5226515415908062</v>
+        <v>0.89074074567992467</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>10.186729873209432</v>
+        <v>10.271135021337743</v>
       </c>
       <c r="B61" s="0">
-        <v>3.5799609988122834</v>
+        <v>0.90618918059883091</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>10.180810266707629</v>
+        <v>10.275052999220723</v>
       </c>
       <c r="B62" s="0">
-        <v>3.6371365313692228</v>
+        <v>0.92164052655070672</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>10.174632718319893</v>
+        <v>10.278948696171417</v>
       </c>
       <c r="B63" s="0">
-        <v>3.6941775609175016</v>
+        <v>0.93709477658805884</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>10.168199228710519</v>
+        <v>10.282822125054944</v>
       </c>
       <c r="B64" s="0">
-        <v>3.7510835257724238</v>
+        <v>0.95255192385371523</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>10.161511785236906</v>
+        <v>10.286673298602677</v>
       </c>
       <c r="B65" s="0">
-        <v>3.8078538806454754</v>
+        <v>0.96801196158041025</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>10.154572361973207</v>
+        <v>10.290502229412152</v>
       </c>
       <c r="B66" s="0">
-        <v>3.8644880963843788</v>
+        <v>0.98347488309036624</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>10.147382919735566</v>
+        <v>10.294308929946981</v>
       </c>
       <c r="B67" s="0">
-        <v>3.9209856597166208</v>
+        <v>0.99894068179489659</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>10.13994540610897</v>
+        <v>10.298093412536762</v>
       </c>
       <c r="B68" s="0">
-        <v>3.9773460729962009</v>
+        <v>1.0144093511940167</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>10.132261755475598</v>
+        <v>10.301855689376971</v>
       </c>
       <c r="B69" s="0">
-        <v>4.0335688539537751</v>
+        <v>1.029880884876021</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>10.124333889044657</v>
+        <v>10.305595772528884</v>
       </c>
       <c r="B70" s="0">
-        <v>4.089653535449969</v>
+        <v>1.0453552765171028</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>10.116163714883641</v>
+        <v>10.309313673919469</v>
       </c>
       <c r="B71" s="0">
-        <v>4.1455996652320088</v>
+        <v>1.0608325198809776</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>10.107753127950982</v>
+        <v>10.313009405341294</v>
       </c>
       <c r="B72" s="0">
-        <v>4.2014068056934546</v>
+        <v>1.0763126088184489</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>10.099104010130027</v>
+        <v>10.316682978452414</v>
       </c>
       <c r="B73" s="0">
-        <v>4.2570745336371854</v>
+        <v>1.0917955372670491</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>10.090218230264334</v>
+        <v>10.32033440477629</v>
       </c>
       <c r="B74" s="0">
-        <v>4.3126024400413749</v>
+        <v>1.1072812992506569</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>10.081097644194191</v>
+        <v>10.323963695701671</v>
       </c>
       <c r="B75" s="0">
-        <v>4.3679901298287334</v>
+        <v>1.1227698888790929</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>10.071744094794377</v>
+        <v>10.327570862482501</v>
       </c>
       <c r="B76" s="0">
-        <v>4.4232372216386153</v>
+        <v>1.1382613003477562</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>10.062159412013068</v>
+        <v>10.331155916237801</v>
       </c>
       <c r="B77" s="0">
-        <v>4.4783433476023049</v>
+        <v>1.1537555279372451</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>10.05234541291189</v>
+        <v>10.334718867951571</v>
       </c>
       <c r="B78" s="0">
-        <v>4.533308153121185</v>
+        <v>1.16925256601297</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>10.042303901707069</v>
+        <v>10.338259728472684</v>
       </c>
       <c r="B79" s="0">
-        <v>4.5881312966478909</v>
+        <v>1.1847524090247834</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>10.03203666981161</v>
+        <v>10.341778508514764</v>
       </c>
       <c r="B80" s="0">
-        <v>4.6428124494704353</v>
+        <v>1.200255051506617</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>10.021545495878517</v>
+        <v>10.34527521865609</v>
       </c>
       <c r="B81" s="0">
-        <v>4.6973512954991508</v>
+        <v>1.2157604880761008</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>10.010832145845008</v>
+        <v>10.348749869339466</v>
       </c>
       <c r="B82" s="0">
-        <v>4.7517475310564787</v>
+        <v>1.2312687134342095</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>9.9998983729776167</v>
+        <v>10.352202470872124</v>
       </c>
       <c r="B83" s="0">
-        <v>4.8060008646696719</v>
+        <v>1.2467797223648946</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>9.9887459179182745</v>
+        <v>10.355633033425594</v>
       </c>
       <c r="B84" s="0">
-        <v>4.8601110168662203</v>
+        <v>1.2622935097347163</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>9.9773765087312309</v>
+        <v>10.359041567035593</v>
       </c>
       <c r="B85" s="0">
-        <v>4.9140777199720267</v>
+        <v>1.2778100704924862</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>9.9657918609508194</v>
+        <v>10.362428081601903</v>
       </c>
       <c r="B86" s="0">
-        <v>4.9679007179123449</v>
+        <v>1.2933293996689177</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>9.953993677630061</v>
+        <v>10.365792586888251</v>
       </c>
       <c r="B87" s="0">
-        <v>5.02157976601538</v>
+        <v>1.3088514923762695</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>9.9419836493900124</v>
+        <v>10.369135092522182</v>
       </c>
       <c r="B88" s="0">
-        <v>5.0751146308186144</v>
+        <v>1.3243763438079823</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>9.9297634544698905</v>
+        <v>10.372455607994947</v>
       </c>
       <c r="B89" s="0">
-        <v>5.1285050898776881</v>
+        <v>1.3399039492383626</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>9.917334758777919</v>
+        <v>10.375754142661359</v>
       </c>
       <c r="B90" s="0">
-        <v>5.1817509315779127</v>
+        <v>1.3554343040221883</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>9.9046992159428431</v>
+        <v>10.379030705739682</v>
       </c>
       <c r="B91" s="0">
-        <v>5.2348519549483949</v>
+        <v>1.3709674035943966</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>9.8918584673661254</v>
+        <v>10.382285306311482</v>
       </c>
       <c r="B92" s="0">
-        <v>5.2878079694786422</v>
+        <v>1.386503243469736</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>9.8788141422747717</v>
+        <v>10.385517953321523</v>
       </c>
       <c r="B93" s="0">
-        <v>5.3406187949377353</v>
+        <v>1.4020418192424193</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>9.8655678577747601</v>
+        <v>10.388728655577605</v>
       </c>
       <c r="B94" s="0">
-        <v>5.3932842611959213</v>
+        <v>1.4175831265857863</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>9.8521212189050704</v>
+        <v>10.391917421750447</v>
       </c>
       <c r="B95" s="0">
-        <v>5.4458042080486946</v>
+        <v>1.4331271612519885</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>9.8384758186922276</v>
+        <v>10.395084260373549</v>
       </c>
       <c r="B96" s="0">
-        <v>5.4981784850433391</v>
+        <v>1.4486739190716276</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>9.8246332382054096</v>
+        <v>10.398229179843046</v>
       </c>
       <c r="B97" s="0">
-        <v>5.550406951307794</v>
+        <v>1.4642233959534372</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>9.8105950466120628</v>
+        <v>10.401352188417569</v>
       </c>
       <c r="B98" s="0">
-        <v>5.6024894753818977</v>
+        <v>1.4797755878839538</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>9.7963628012339719</v>
+        <v>10.404453294218106</v>
       </c>
       <c r="B99" s="0">
-        <v>5.6544259350510115</v>
+        <v>1.4953304909271963</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>9.7819380476037878</v>
+        <v>10.407532505227861</v>
       </c>
       <c r="B100" s="0">
-        <v>5.7062162171819439</v>
+        <v>1.5108881012243394</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>9.7673223195220373</v>
+        <v>10.410589829292105</v>
       </c>
       <c r="B101" s="0">
-        <v>5.757860217561074</v>
+        <v>1.5264484149933815</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>9.7525171391144774</v>
+        <v>10.413625274118017</v>
       </c>
       <c r="B102" s="0">
-        <v>5.8093578407348669</v>
+        <v>1.5420114285288435</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>9.7375240168898927</v>
+        <v>10.416638847274557</v>
       </c>
       <c r="B103" s="0">
-        <v>5.8607089998524673</v>
+        <v>1.5575771382014327</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>9.7223444517982269</v>
+        <v>10.41963055619229</v>
       </c>
       <c r="B104" s="0">
-        <v>5.9119136165106312</v>
+        <v>1.5731455404577424</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>9.7069799312890925</v>
+        <v>10.422600408163246</v>
       </c>
       <c r="B105" s="0">
-        <v>5.9629716206006842</v>
+        <v>1.5887166318199393</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>9.6914319313705857</v>
+        <v>10.42554841034077</v>
       </c>
       <c r="B106" s="0">
-        <v>6.0138829501577638</v>
+        <v>1.6042904088854333</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>9.6757019166684071</v>
+        <v>10.428474569739345</v>
       </c>
       <c r="B107" s="0">
-        <v>6.0646475512120759</v>
+        <v>1.6198668683266126</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>9.659791340485306</v>
+        <v>10.431378893234445</v>
       </c>
       <c r="B108" s="0">
-        <v>6.1152653776422969</v>
+        <v>1.6354460068904857</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>9.6437016448607515</v>
+        <v>10.434261387562373</v>
       </c>
       <c r="B109" s="0">
-        <v>6.1657363910310101</v>
+        <v>1.6510278213984109</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>9.6274342606308814</v>
+        <v>10.437122059320094</v>
       </c>
       <c r="B110" s="0">
-        <v>6.2160605605222212</v>
+        <v>1.666612308745786</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>9.6109906074886844</v>
+        <v>10.43996091496507</v>
       </c>
       <c r="B111" s="0">
-        <v>6.2662378626808382</v>
+        <v>1.6821994659017465</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>9.5943720940443864</v>
+        <v>10.442777960815091</v>
       </c>
       <c r="B112" s="0">
-        <v>6.3162682813541808</v>
+        <v>1.6977892899088893</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>9.5775801178860611</v>
+        <v>10.445573203048106</v>
       </c>
       <c r="B113" s="0">
-        <v>6.3661518075354273</v>
+        <v>1.7133817778829386</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>9.5606160656403887</v>
+        <v>10.448346647702046</v>
       </c>
       <c r="B114" s="0">
-        <v>6.4158884392290298</v>
+        <v>1.7289769270124857</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>9.5434813130336238</v>
+        <v>10.451098300674655</v>
       </c>
       <c r="B115" s="0">
-        <v>6.4654781813179962</v>
+        <v>1.7445747345586868</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>9.5261772249526846</v>
+        <v>10.453828167723309</v>
       </c>
       <c r="B116" s="0">
-        <v>6.5149210454331374</v>
+        <v>1.7601751978549804</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>9.5087051555063908</v>
+        <v>10.456536254464847</v>
       </c>
       <c r="B117" s="0">
-        <v>6.5642170498240793</v>
+        <v>1.7757783143067867</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>9.4910664480868334</v>
+        <v>10.45922256637537</v>
       </c>
       <c r="B118" s="0">
-        <v>6.6133662192322333</v>
+        <v>1.7913840813912529</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>9.4732624354308239</v>
+        <v>10.46188710879008</v>
       </c>
       <c r="B119" s="0">
-        <v>6.6623685847654777</v>
+        <v>1.8069924966569391</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>9.4552944396814844</v>
+        <v>10.464529886903073</v>
       </c>
       <c r="B120" s="0">
-        <v>6.7112241837747204</v>
+        <v>1.8226035577235538</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>9.4371637724498694</v>
+        <v>10.467150905767166</v>
       </c>
       <c r="B121" s="0">
-        <v>6.7599330597321732</v>
+        <v>1.8382172622816795</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>9.4188717348766797</v>
+        <v>10.469750170293702</v>
       </c>
       <c r="B122" s="0">
-        <v>6.8084952621114345</v>
+        <v>1.8538336080924926</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>9.4004196176940393</v>
+        <v>10.472327685252356</v>
       </c>
       <c r="B123" s="0">
-        <v>6.8569108462692272</v>
+        <v>1.8694525929874839</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>9.3818087012873033</v>
+        <v>10.474883455270943</v>
       </c>
       <c r="B124" s="0">
-        <v>6.9051798733289145</v>
+        <v>1.8850742148682162</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>9.3630402557568821</v>
+        <v>10.477417484835213</v>
       </c>
       <c r="B125" s="0">
-        <v>6.9533024100656462</v>
+        <v>1.9006984717060103</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>9.3441155409801038</v>
+        <v>10.479929778288659</v>
       </c>
       <c r="B126" s="0">
-        <v>7.0012785287932209</v>
+        <v>1.9163253615417155</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>9.3250358066730907</v>
+        <v>10.482420339832311</v>
       </c>
       <c r="B127" s="0">
-        <v>7.0491083072525029</v>
+        <v>1.9319548824854225</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>9.3058022924525954</v>
+        <v>10.48488917352454</v>
       </c>
       <c r="B128" s="0">
-        <v>7.0967918285015701</v>
+        <v>1.9475870327162168</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>9.286416227897865</v>
+        <v>10.487336283280824</v>
       </c>
       <c r="B129" s="0">
-        <v>7.1443291808073468</v>
+        <v>1.9632218104819084</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>9.2668788326124485</v>
+        <v>10.489761672873579</v>
       </c>
       <c r="B130" s="0">
-        <v>7.1917204575389002</v>
+        <v>1.9788592140987842</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>9.2471913162859831</v>
+        <v>10.492165345931909</v>
       </c>
       <c r="B131" s="0">
-        <v>7.2389657570622417</v>
+        <v>1.9944992419513303</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>9.2273548787559143</v>
+        <v>10.494547305941417</v>
       </c>
       <c r="B132" s="0">
-        <v>7.2860651826367153</v>
+        <v>2.0101418924920011</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>9.2073707100692044</v>
+        <v>10.49690755624397</v>
       </c>
       <c r="B133" s="0">
-        <v>7.3330188423128035</v>
+        <v>2.0257871642409513</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>9.1872399905439117</v>
+        <v>10.499246100037492</v>
       </c>
       <c r="B134" s="0">
-        <v>7.3798268488315752</v>
+        <v>2.0414350557857985</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>9.1669638908307771</v>
+        <v>10.501562940375736</v>
       </c>
       <c r="B135" s="0">
-        <v>7.4264893195254507</v>
+        <v>2.057085565781358</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>9.1465435719746324</v>
+        <v>10.503858080168056</v>
       </c>
       <c r="B136" s="0">
-        <v>7.4730063762205612</v>
+        <v>2.072738692949422</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>9.1259801854758003</v>
+        <v>10.506131522179183</v>
       </c>
       <c r="B137" s="0">
-        <v>7.5193781451404496</v>
+        <v>2.0883944360784925</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>9.1052748733513518</v>
+        <v>10.508383269029</v>
       </c>
       <c r="B138" s="0">
-        <v>7.5656047568112443</v>
+        <v>2.1040527940235454</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>9.0844287681962612</v>
+        <v>10.510613323192292</v>
       </c>
       <c r="B139" s="0">
-        <v>7.6116863459681872</v>
+        <v>2.1197137657057996</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>9.063442993244454</v>
+        <v>10.512821686998532</v>
       </c>
       <c r="B140" s="0">
-        <v>7.6576230514636157</v>
+        <v>2.1353773501124698</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>9.042318662429718</v>
+        <v>10.515008362631624</v>
       </c>
       <c r="B141" s="0">
-        <v>7.7034150161762067</v>
+        <v>2.1510435462965285</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>9.0210568804465066</v>
+        <v>10.517173352129673</v>
       </c>
       <c r="B142" s="0">
-        <v>7.7490623869216568</v>
+        <v>2.1667123533764951</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>8.999658742810583</v>
+        <v>10.519316657384733</v>
       </c>
       <c r="B143" s="0">
-        <v>7.7945653143646245</v>
+        <v>2.1823837705361693</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>8.9781253359195201</v>
+        <v>10.521438280142569</v>
       </c>
       <c r="B144" s="0">
-        <v>7.839923952932029</v>
+        <v>2.1980577970244255</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>8.9564577371130714</v>
+        <v>10.523538222002397</v>
       </c>
       <c r="B145" s="0">
-        <v>7.8851384607275898</v>
+        <v>2.2137344321549786</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>8.9346570147333573</v>
+        <v>10.52561648441664</v>
       </c>
       <c r="B146" s="0">
-        <v>7.9302089994476974</v>
+        <v>2.2294136753061529</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>8.9127242281849064</v>
+        <v>10.527673068690669</v>
       </c>
       <c r="B147" s="0">
-        <v>7.9751357342984823</v>
+        <v>2.2450955259206764</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>8.8906604279945132</v>
+        <v>10.529707975982543</v>
       </c>
       <c r="B148" s="0">
-        <v>8.0199188339141774</v>
+        <v>2.2607799835054379</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>8.8684666558709413</v>
+        <v>10.531721207302748</v>
       </c>
       <c r="B149" s="0">
-        <v>8.0645584702766442</v>
+        <v>2.2764670476312756</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>8.8461439447644086</v>
+        <v>10.533712763513936</v>
       </c>
       <c r="B150" s="0">
-        <v>8.1090548186361673</v>
+        <v>2.2921567179327611</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>8.8236933189259279</v>
+        <v>10.535682645330658</v>
       </c>
       <c r="B151" s="0">
-        <v>8.153408057433392</v>
+        <v>2.3078489941079843</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>8.8011157939664297</v>
+        <v>10.537630853319085</v>
       </c>
       <c r="B152" s="0">
-        <v>8.1976183682224661</v>
+        <v>2.3235438759183342</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>8.7784123769156874</v>
+        <v>10.539557387896743</v>
       </c>
       <c r="B153" s="0">
-        <v>8.2416859355953083</v>
+        <v>2.3392413631882931</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>8.7555840662810738</v>
+        <v>10.541462249332238</v>
       </c>
       <c r="B154" s="0">
-        <v>8.2856109471070241</v>
+        <v>2.3549414558052351</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>8.7326318521060298</v>
+        <v>10.543345437744964</v>
       </c>
       <c r="B155" s="0">
-        <v>8.3293935932025178</v>
+        <v>2.370644153719188</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>8.7095567160284304</v>
+        <v>10.545206953104843</v>
       </c>
       <c r="B156" s="0">
-        <v>8.3730340671441024</v>
+        <v>2.3863494569426638</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>8.686359631338668</v>
+        <v>10.547046795232012</v>
       </c>
       <c r="B157" s="0">
-        <v>8.4165325649402494</v>
+        <v>2.4020573655504269</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>8.6630415630375168</v>
+        <v>10.548864963796552</v>
       </c>
       <c r="B158" s="0">
-        <v>8.4598892852754748</v>
+        <v>2.4177678796793125</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>8.6396034678937834</v>
+        <v>10.550661458318196</v>
       </c>
       <c r="B159" s="0">
-        <v>8.5031044294412226</v>
+        <v>2.4334809995280207</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>8.6160462945017429</v>
+        <v>10.55243627816602</v>
       </c>
       <c r="B160" s="0">
-        <v>8.5461782012678356</v>
+        <v>2.4491967253569067</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>8.5923709833383342</v>
+        <v>10.554189422558158</v>
       </c>
       <c r="B161" s="0">
-        <v>8.5891108070575086</v>
+        <v>2.4649150574877989</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>8.5685784668201279</v>
+        <v>10.555920890561501</v>
       </c>
       <c r="B162" s="0">
-        <v>8.6319024555183308</v>
+        <v>2.4806359963038003</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>8.5446696693600011</v>
+        <v>10.557630681091375</v>
       </c>
       <c r="B163" s="0">
-        <v>8.6745533576993452</v>
+        <v>2.4963595422490967</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>8.5206455074236711</v>
+        <v>10.559318792911245</v>
       </c>
       <c r="B164" s="0">
-        <v>8.7170637269265061</v>
+        <v>2.5120856958287652</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>8.4965068895858931</v>
+        <v>10.560985224632409</v>
       </c>
       <c r="B165" s="0">
-        <v>8.759433778739707</v>
+        <v>2.5278144576085815</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>8.4722547165864697</v>
+        <v>10.562629974713673</v>
       </c>
       <c r="B166" s="0">
-        <v>8.8016637308307306</v>
+        <v>2.5435458282148544</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>8.447889881385958</v>
+        <v>10.564253041461027</v>
       </c>
       <c r="B167" s="0">
-        <v>8.8437538029822012</v>
+        <v>2.5592798083342148</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>8.4234132692211574</v>
+        <v>10.565854423027339</v>
       </c>
       <c r="B168" s="0">
-        <v>8.8857042170074152</v>
+        <v>2.5750163987134438</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>8.3988257576603598</v>
+        <v>10.567434117412015</v>
       </c>
       <c r="B169" s="0">
-        <v>8.9275151966911146</v>
+        <v>2.5907556001592988</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>8.3741282166582796</v>
+        <v>10.568992122460674</v>
       </c>
       <c r="B170" s="0">
-        <v>8.9691869677312166</v>
+        <v>2.6064974135383201</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>8.3493215086107675</v>
+        <v>10.570528435864825</v>
       </c>
       <c r="B171" s="0">
-        <v>9.0107197576813931</v>
+        <v>2.6222418397766827</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>8.3244064884092541</v>
+        <v>10.572043055161512</v>
       </c>
       <c r="B172" s="0">
-        <v>9.052113795894579</v>
+        <v>2.6379888798599826</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>8.2993840034949233</v>
+        <v>10.573535977732991</v>
       </c>
       <c r="B173" s="0">
-        <v>9.0933693134673081</v>
+        <v>2.6537385348330944</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>8.2742548939126142</v>
+        <v>10.575007200806372</v>
       </c>
       <c r="B174" s="0">
-        <v>9.1344865431849644</v>
+        <v>2.6694908057999873</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>8.2490199923644436</v>
+        <v>10.576456721453289</v>
       </c>
       <c r="B175" s="0">
-        <v>9.1754657194678604</v>
+        <v>2.6852456939235547</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>8.2236801242631969</v>
+        <v>10.577884536589535</v>
       </c>
       <c r="B176" s="0">
-        <v>9.2163070783181524</v>
+        <v>2.7010032004254576</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>8.1982361077853874</v>
+        <v>10.579290642974705</v>
       </c>
       <c r="B177" s="0">
-        <v>9.2570108572675753</v>
+        <v>2.7167633265859572</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>8.172688753924092</v>
+        <v>10.580675037211854</v>
       </c>
       <c r="B178" s="0">
-        <v>9.2975772953260272</v>
+        <v>2.7325260737437409</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>8.1470388665414735</v>
+        <v>10.582037715747125</v>
       </c>
       <c r="B179" s="0">
-        <v>9.3380066329309237</v>
+        <v>2.7482914432957664</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>8.1212872424210314</v>
+        <v>10.583378674869371</v>
       </c>
       <c r="B180" s="0">
-        <v>9.3782991118973786</v>
+        <v>2.7640594366971096</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>8.0954346713196159</v>
+        <v>10.58469791070981</v>
       </c>
       <c r="B181" s="0">
-        <v>9.4184549753690945</v>
+        <v>2.7798300554607986</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>8.0694819360190806</v>
+        <v>10.58599541924163</v>
       </c>
       <c r="B182" s="0">
-        <v>9.4584744677701416</v>
+        <v>2.7956033011576569</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>8.0434298123777115</v>
+        <v>10.587271196279625</v>
       </c>
       <c r="B183" s="0">
-        <v>9.4983578347573907</v>
+        <v>2.8113791754161697</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>8.0172790693813667</v>
+        <v>10.588525237479804</v>
       </c>
       <c r="B184" s="0">
-        <v>9.5381053231737436</v>
+        <v>2.8271576799223017</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>7.9910304691943113</v>
+        <v>10.589757538339006</v>
       </c>
       <c r="B185" s="0">
-        <v>9.5777171810020896</v>
+        <v>2.8429388164193652</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>7.96468476720979</v>
+        <v>10.590968094194519</v>
       </c>
       <c r="B186" s="0">
-        <v>9.6171936573199943</v>
+        <v>2.8587225867078678</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>7.9382427121002745</v>
+        <v>10.592156900223678</v>
       </c>
       <c r="B187" s="0">
-        <v>9.6565350022551044</v>
+        <v>2.8745089926453748</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>7.9117050458674605</v>
+        <v>10.59332395144347</v>
       </c>
       <c r="B188" s="0">
-        <v>9.6957414669412714</v>
+        <v>2.8902980361463437</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>7.8850725038919887</v>
+        <v>10.594469242710128</v>
       </c>
       <c r="B189" s="0">
-        <v>9.7348133034753221</v>
+        <v>2.9060897191820203</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>7.8583458149828145</v>
+        <v>10.595592768718729</v>
       </c>
       <c r="B190" s="0">
-        <v>9.7737507648745847</v>
+        <v>2.9218840437802545</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>7.8315257014263464</v>
+        <v>10.596694524002789</v>
       </c>
       <c r="B191" s="0">
-        <v>9.8125541050350549</v>
+        <v>2.9376810120253838</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>7.8046128790352629</v>
+        <v>10.597774502933833</v>
       </c>
       <c r="B192" s="0">
-        <v>9.8512235786902362</v>
+        <v>2.9534806260580999</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>7.7776080571970798</v>
+        <v>10.598832699720987</v>
       </c>
       <c r="B193" s="0">
-        <v>9.8897594413705985</v>
+        <v>2.9692828880753011</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>7.7505119389223465</v>
+        <v>10.599869108410557</v>
       </c>
       <c r="B194" s="0">
-        <v>9.9281619493637692</v>
+        <v>2.9850878003299846</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>7.7233252208926491</v>
+        <v>10.600883722885591</v>
       </c>
       <c r="B195" s="0">
-        <v>9.9664313596752923</v>
+        <v>3.000895365131079</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>7.6960485935082525</v>
+        <v>10.601876536865456</v>
       </c>
       <c r="B196" s="0">
-        <v>10.004567929990021</v>
+        <v>3.0167055848433466</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>7.6686827409354503</v>
+        <v>10.6028475439054</v>
       </c>
       <c r="B197" s="0">
-        <v>10.042571918634186</v>
+        <v>3.0325184618872369</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>7.6412283411536963</v>
+        <v>10.603796737396106</v>
       </c>
       <c r="B198" s="0">
-        <v>10.080443584537992</v>
+        <v>3.0483339987387756</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>7.6136860660023347</v>
+        <v>10.60472411056325</v>
       </c>
       <c r="B199" s="0">
-        <v>10.1181831871989</v>
+        <v>3.0641521979294279</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>7.5860565812271368</v>
+        <v>10.605629656467052</v>
       </c>
       <c r="B200" s="0">
-        <v>10.155790986645419</v>
+        <v>3.0799730620459878</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>7.558340546526483</v>
+        <v>10.606513368001819</v>
       </c>
       <c r="B201" s="0">
-        <v>10.193267243401573</v>
+        <v>3.095796593730463</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>7.5305386155972727</v>
+        <v>10.607375237895493</v>
       </c>
       <c r="B202" s="0">
-        <v>10.230612218451851</v>
+        <v>3.1116227956799336</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>7.5026514361805479</v>
+        <v>10.608215258709166</v>
       </c>
       <c r="B203" s="0">
-        <v>10.267826173206803</v>
+        <v>3.1274516706464621</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>7.4746796501068156</v>
+        <v>10.609033422836642</v>
       </c>
       <c r="B204" s="0">
-        <v>10.304909369469142</v>
+        <v>3.1432832214369726</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>7.4466238933410835</v>
+        <v>10.609829722503942</v>
       </c>
       <c r="B205" s="0">
-        <v>10.341862069400422</v>
+        <v>3.1591174509131168</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>7.4184847960275961</v>
+        <v>10.610604149768829</v>
       </c>
       <c r="B206" s="0">
-        <v>10.378684535488251</v>
+        <v>3.1749543619912148</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>7.3902629825342876</v>
+        <v>10.611356696520328</v>
       </c>
       <c r="B207" s="0">
-        <v>10.415377030514041</v>
+        <v>3.1907939576420881</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>7.3619590714969521</v>
+        <v>10.612087354478245</v>
       </c>
       <c r="B208" s="0">
-        <v>10.451939817521277</v>
+        <v>3.206636240890989</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>7.3335736758630761</v>
+        <v>10.612796115192658</v>
       </c>
       <c r="B209" s="0">
-        <v>10.488373159784341</v>
+        <v>3.2224812148174973</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>7.3051074029354739</v>
+        <v>10.613482970043428</v>
       </c>
       <c r="B210" s="0">
-        <v>10.524677320777752</v>
+        <v>3.2383288825553969</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>7.2765608544155143</v>
+        <v>10.614147910239701</v>
       </c>
       <c r="B211" s="0">
-        <v>10.560852564146053</v>
+        <v>3.2541792472925906</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>7.2479346264461615</v>
+        <v>10.614790926819394</v>
       </c>
       <c r="B212" s="0">
-        <v>10.596899153674059</v>
+        <v>3.2700323122709949</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>7.219229309654664</v>
+        <v>10.615412010648681</v>
       </c>
       <c r="B213" s="0">
-        <v>10.632817353257673</v>
+        <v>3.2858880807864637</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>7.1904454891949863</v>
+        <v>10.616011152421477</v>
       </c>
       <c r="B214" s="0">
-        <v>10.668607426875148</v>
+        <v>3.3017465561886588</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>7.1615837447899198</v>
+        <v>10.616588342658915</v>
       </c>
       <c r="B215" s="0">
-        <v>10.704269638558857</v>
+        <v>3.3176077418809773</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>7.1326446507729582</v>
+        <v>10.617143571708818</v>
       </c>
       <c r="B216" s="0">
-        <v>10.739804252367477</v>
+        <v>3.3334716413204637</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>7.1036287761298347</v>
+        <v>10.617676829745159</v>
       </c>
       <c r="B217" s="0">
-        <v>10.775211532358695</v>
+        <v>3.3493382580177107</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>7.074536684539809</v>
+        <v>10.618188106767535</v>
       </c>
       <c r="B218" s="0">
-        <v>10.810491742562295</v>
+        <v>3.3652075955367891</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>7.0453689344166257</v>
+        <v>10.618677392600606</v>
       </c>
       <c r="B219" s="0">
-        <v>10.845645146953782</v>
+        <v>3.3810796574951341</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>7.0161260789492603</v>
+        <v>10.619144676893558</v>
       </c>
       <c r="B220" s="0">
-        <v>10.88067200942834</v>
+        <v>3.3969544475634885</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>6.9868086661422968</v>
+        <v>10.619589949119538</v>
       </c>
       <c r="B221" s="0">
-        <v>10.915572593775325</v>
+        <v>3.41283196946581</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>6.9574172388560829</v>
+        <v>10.6200131985751</v>
       </c>
       <c r="B222" s="0">
-        <v>10.950347163653099</v>
+        <v>3.4287122269791923</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>6.9279523348465908</v>
+        <v>10.620414414379637</v>
       </c>
       <c r="B223" s="0">
-        <v>10.984995982564339</v>
+        <v>3.4445952239337885</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>6.8984144868049642</v>
+        <v>10.6207935854748</v>
       </c>
       <c r="B224" s="0">
-        <v>11.019519313831726</v>
+        <v>3.4604809642127377</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>6.8688042223968324</v>
+        <v>10.621150700623936</v>
       </c>
       <c r="B225" s="0">
-        <v>11.053917420574077</v>
+        <v>3.4763694517520936</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>6.8391220643013071</v>
+        <v>10.621485748411493</v>
       </c>
       <c r="B226" s="0">
-        <v>11.088190565682828</v>
+        <v>3.4922606905407454</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>6.8093685302497198</v>
+        <v>10.621798717242424</v>
       </c>
       <c r="B227" s="0">
-        <v>11.122339011798953</v>
+        <v>3.5081546846203477</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>6.7795441330640847</v>
+        <v>10.622089595341611</v>
       </c>
       <c r="B228" s="0">
-        <v>11.156363021290241</v>
+        <v>3.5240514380852659</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>6.7496493806952431</v>
+        <v>10.622358370753251</v>
       </c>
       <c r="B229" s="0">
-        <v>11.190262856229012</v>
+        <v>3.539950955082491</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>6.7196847762608218</v>
+        <v>10.622605031340248</v>
       </c>
       <c r="B230" s="0">
-        <v>11.224038778370096</v>
+        <v>3.5558532398116025</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>6.6896508180827965</v>
+        <v>10.622829564783604</v>
       </c>
       <c r="B231" s="0">
-        <v>11.257691049129328</v>
+        <v>3.5717582965246737</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>6.659547999724901</v>
+        <v>10.623031958581794</v>
       </c>
       <c r="B232" s="0">
-        <v>11.291219929562267</v>
+        <v>3.5876661295262431</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>6.6293768100296466</v>
+        <v>10.623212200050155</v>
       </c>
       <c r="B233" s="0">
-        <v>11.324625680343409</v>
+        <v>3.6035767431732313</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>6.5991377331551941</v>
+        <v>10.623370276320234</v>
       </c>
       <c r="B234" s="0">
-        <v>11.357908561745607</v>
+        <v>3.6194901418749019</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>6.5688312486118372</v>
+        <v>10.623506174339166</v>
       </c>
       <c r="B235" s="0">
-        <v>11.391068833619986</v>
+        <v>3.6354063300927946</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>6.5384578312982953</v>
+        <v>10.623619880869018</v>
       </c>
       <c r="B236" s="0">
-        <v>11.42410675537608</v>
+        <v>3.6513253123406972</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>6.5080179515377017</v>
+        <v>10.623711382486153</v>
       </c>
       <c r="B237" s="0">
-        <v>11.45702258596239</v>
+        <v>3.6672470931845647</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>6.4775120751133493</v>
+        <v>10.623780665580561</v>
       </c>
       <c r="B238" s="0">
-        <v>11.489816583847213</v>
+        <v>3.6831716772424858</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>6.4469406633041215</v>
+        <v>10.623827716355194</v>
       </c>
       <c r="B239" s="0">
-        <v>11.52248900699985</v>
+        <v>3.6990990691846406</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>6.4163041729197223</v>
+        <v>10.623852520825315</v>
       </c>
       <c r="B240" s="0">
-        <v>11.55504011287208</v>
+        <v>3.715029273733248</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>6.3856030563355999</v>
+        <v>10.623855064817793</v>
       </c>
       <c r="B241" s="0">
-        <v>11.587470158379999</v>
+        <v>3.7309622956625419</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>6.3548377615275999</v>
+        <v>10.623835333970447</v>
       </c>
       <c r="B242" s="0">
-        <v>11.619779399886154</v>
+        <v>3.7468981397987018</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>6.3240087321063916</v>
+        <v>10.623793313731333</v>
       </c>
       <c r="B243" s="0">
-        <v>11.651968093181962</v>
+        <v>3.7628368110198434</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>6.2931164073516319</v>
+        <v>10.623728989358071</v>
       </c>
       <c r="B244" s="0">
-        <v>11.684036493470447</v>
+        <v>3.7787783142559572</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>6.2621612222458047</v>
+        <v>10.623642345917117</v>
       </c>
       <c r="B245" s="0">
-        <v>11.715984855349289</v>
+        <v>3.7947226544889019</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>6.2311436075078914</v>
+        <v>10.623533368283073</v>
       </c>
       <c r="B246" s="0">
-        <v>11.747813432794143</v>
+        <v>3.8106698367523433</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>6.2000639896267202</v>
+        <v>10.623402041137957</v>
       </c>
       <c r="B247" s="0">
-        <v>11.779522479142241</v>
+        <v>3.8266198661317534</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>6.1689227908941016</v>
+        <v>10.62324834897049</v>
       </c>
       <c r="B248" s="0">
-        <v>11.811112247076293</v>
+        <v>3.8425727477643625</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>6.1377204294376728</v>
+        <v>10.623072276075346</v>
       </c>
       <c r="B249" s="0">
-        <v>11.842582988608651</v>
+        <v>3.8585284868391416</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>6.1064573192535097</v>
+        <v>10.622873806552432</v>
       </c>
       <c r="B250" s="0">
-        <v>11.87393495506576</v>
+        <v>3.8744870885967724</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>6.0751338702384725</v>
+        <v>10.622652924306136</v>
       </c>
       <c r="B251" s="0">
-        <v>11.905168397072879</v>
+        <v>3.8904485583296347</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>6.0437504882223383</v>
+        <v>10.622409613044571</v>
       </c>
       <c r="B252" s="0">
-        <v>11.936283564539025</v>
+        <v>3.9064129013817781</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>6.0123075749996238</v>
+        <v>10.622143856278818</v>
       </c>
       <c r="B253" s="0">
-        <v>11.967280706642233</v>
+        <v>3.9223801231489213</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>5.9808055283612029</v>
+        <v>10.621855637322151</v>
       </c>
       <c r="B254" s="0">
-        <v>11.998160071815049</v>
+        <v>3.9383502290784094</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>5.9492447421256553</v>
+        <v>10.621544939289278</v>
       </c>
       <c r="B255" s="0">
-        <v>12.028921907730265</v>
+        <v>3.9543232246692197</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>5.9176256061703985</v>
+        <v>10.621211745095531</v>
       </c>
       <c r="B256" s="0">
-        <v>12.059566461286895</v>
+        <v>3.9702991154719531</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>5.8859485064625368</v>
+        <v>10.620856037456102</v>
       </c>
       <c r="B257" s="0">
-        <v>12.09009397859643</v>
+        <v>3.9862779070888128</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>5.8542138250894862</v>
+        <v>10.620477798885236</v>
       </c>
       <c r="B258" s="0">
-        <v>12.120504704969289</v>
+        <v>4.0022596051736015</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>5.8224219402893516</v>
+        <v>10.620077011695415</v>
       </c>
       <c r="B259" s="0">
-        <v>12.15079888490154</v>
+        <v>4.0182442154317188</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>5.7905732264810732</v>
+        <v>10.619653657996551</v>
       </c>
       <c r="B260" s="0">
-        <v>12.180976762061825</v>
+        <v>4.0342317436201682</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>5.7586680542943345</v>
+        <v>10.619207719695167</v>
       </c>
       <c r="B261" s="0">
-        <v>12.211038579278512</v>
+        <v>4.0502221955475362</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>5.7267067905992004</v>
+        <v>10.618739178493563</v>
       </c>
       <c r="B262" s="0">
-        <v>12.240984578527105</v>
+        <v>4.0662155770740052</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>5.6946897985355491</v>
+        <v>10.61824801588898</v>
       </c>
       <c r="B263" s="0">
-        <v>12.270815000917832</v>
+        <v>4.0822118941113557</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>5.6626174375422762</v>
+        <v>10.617734213172746</v>
       </c>
       <c r="B264" s="0">
-        <v>12.300530086683468</v>
+        <v>4.0982111526229712</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>5.6304900633862287</v>
+        <v>10.617197751429432</v>
       </c>
       <c r="B265" s="0">
-        <v>12.330130075167352</v>
+        <v>4.1142133586238643</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>5.5983080281909201</v>
+        <v>10.616638611535981</v>
       </c>
       <c r="B266" s="0">
-        <v>12.359615204811657</v>
+        <v>4.1302185181806488</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>5.5660716804650372</v>
+        <v>10.616056774160844</v>
       </c>
       <c r="B267" s="0">
-        <v>12.388985713145805</v>
+        <v>4.1462266374115835</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>5.5337813651306851</v>
+        <v>10.615452219763087</v>
       </c>
       <c r="B268" s="0">
-        <v>12.418241836775126</v>
+        <v>4.162237722486581</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>5.5014374235514207</v>
+        <v>10.614824928591519</v>
       </c>
       <c r="B269" s="0">
-        <v>12.447383811369672</v>
+        <v>4.1782517796272138</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>5.4690401935600397</v>
+        <v>10.614174880683773</v>
       </c>
       <c r="B270" s="0">
-        <v>12.476411871653299</v>
+        <v>4.1942688151067449</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>5.4365900094861432</v>
+        <v>10.613502055865428</v>
       </c>
       <c r="B271" s="0">
-        <v>12.505326251392853</v>
+        <v>4.2102888352501404</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>5.4040872021835256</v>
+        <v>10.612806433749068</v>
       </c>
       <c r="B272" s="0">
-        <v>12.534127183387588</v>
+        <v>4.226311846434113</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>5.3715320990572399</v>
+        <v>10.612087993733374</v>
       </c>
       <c r="B273" s="0">
-        <v>12.562814899458768</v>
+        <v>4.2423378550871176</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>5.3389250240905284</v>
+        <v>10.611346715002178</v>
       </c>
       <c r="B274" s="0">
-        <v>12.591389630439442</v>
+        <v>4.2583668676893973</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>5.3062662978715034</v>
+        <v>10.610582576523534</v>
       </c>
       <c r="B275" s="0">
-        <v>12.619851606164392</v>
+        <v>4.2743988907730159</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>5.2735562376195748</v>
+        <v>10.609795557048756</v>
       </c>
       <c r="B276" s="0">
-        <v>12.648201055460261</v>
+        <v>4.2904339309218784</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>5.2407951572117275</v>
+        <v>10.608985635111468</v>
       </c>
       <c r="B277" s="0">
-        <v>12.676438206135835</v>
+        <v>4.3064719947717895</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>5.207983367208505</v>
+        <v>10.608152789026622</v>
       </c>
       <c r="B278" s="0">
-        <v>12.704563284972531</v>
+        <v>4.3225130890104557</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>5.175121174879818</v>
+        <v>10.607296996889522</v>
       </c>
       <c r="B279" s="0">
-        <v>12.732576517715014</v>
+        <v>4.338557220377556</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>5.1422088842305564</v>
+        <v>10.606418236574845</v>
       </c>
       <c r="B280" s="0">
-        <v>12.760478129061967</v>
+        <v>4.3546043956647704</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>5.1092467960259311</v>
+        <v>10.60551648573562</v>
       </c>
       <c r="B281" s="0">
-        <v>12.788268342657064</v>
+        <v>4.3706546217158273</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>5.0762352078166506</v>
+        <v>10.604591721802244</v>
       </c>
       <c r="B282" s="0">
-        <v>12.815947381080061</v>
+        <v>4.3867079054265368</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>5.043174413963869</v>
+        <v>10.603643921981449</v>
       </c>
       <c r="B283" s="0">
-        <v>12.84351546583804</v>
+        <v>4.4027642537448761</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>5.0100647056639094</v>
+        <v>10.602673063255267</v>
       </c>
       <c r="B284" s="0">
-        <v>12.870972817356837</v>
+        <v>4.418823673670996</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>4.9769063709728174</v>
+        <v>10.601679122380013</v>
       </c>
       <c r="B285" s="0">
-        <v>12.898319654972557</v>
+        <v>4.4348861722573094</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>4.9436996948306593</v>
+        <v>10.600662075885214</v>
       </c>
       <c r="B286" s="0">
-        <v>12.925556196923299</v>
+        <v>4.4509517566085215</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>4.9104449590856571</v>
+        <v>10.59962190007256</v>
       </c>
       <c r="B287" s="0">
-        <v>12.952682660340972</v>
+        <v>4.4670204338817108</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>4.8771424425180712</v>
+        <v>10.598558571014836</v>
       </c>
       <c r="B288" s="0">
-        <v>12.979699261243271</v>
+        <v>4.4830922112863707</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>4.8437924208639336</v>
+        <v>10.597472064554831</v>
       </c>
       <c r="B289" s="0">
-        <v>13.006606214525776</v>
+        <v>4.4991670960845003</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>4.8103951668385374</v>
+        <v>10.596362356304262</v>
       </c>
       <c r="B290" s="0">
-        <v>13.033403733954211</v>
+        <v>4.5152450955906351</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>4.7769509501597307</v>
+        <v>10.59522942164266</v>
       </c>
       <c r="B291" s="0">
-        <v>13.06009203215679</v>
+        <v>4.53132621717194</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>4.7434600375710367</v>
+        <v>10.594073235716262</v>
       </c>
       <c r="B292" s="0">
-        <v>13.086671320616729</v>
+        <v>4.5474104682482785</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>4.7099226928645397</v>
+        <v>10.592893773436892</v>
       </c>
       <c r="B293" s="0">
-        <v>13.113141809664857</v>
+        <v>4.5634978562922761</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>4.67633917690359</v>
+        <v>10.591691009480815</v>
       </c>
       <c r="B294" s="0">
-        <v>13.139503708472361</v>
+        <v>4.5795883888293973</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>4.6427097476453039</v>
+        <v>10.5904649182876</v>
       </c>
       <c r="B295" s="0">
-        <v>13.165757225043667</v>
+        <v>4.5956820734380424</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>4.6090346601629077</v>
+        <v>10.589215474058962</v>
       </c>
       <c r="B296" s="0">
-        <v>13.191902566209379</v>
+        <v>4.6117789177496089</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>4.5753141666678268</v>
+        <v>10.587942650757592</v>
       </c>
       <c r="B297" s="0">
-        <v>13.217939937619406</v>
+        <v>4.6278789294485749</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>4.5415485165316012</v>
+        <v>10.586646422105973</v>
       </c>
       <c r="B298" s="0">
-        <v>13.24386954373616</v>
+        <v>4.6439821162726034</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>4.5077379563076416</v>
+        <v>10.585326761585199</v>
       </c>
       <c r="B299" s="0">
-        <v>13.269691587827872</v>
+        <v>4.6600884860126044</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>4.4738827297527761</v>
+        <v>10.583983642433758</v>
       </c>
       <c r="B300" s="0">
-        <v>13.295406271961998</v>
+        <v>4.6761980465128641</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>4.43998307784857</v>
+        <v>10.582617037646321</v>
       </c>
       <c r="B301" s="0">
-        <v>13.321013796998766</v>
+        <v>4.6923108056711031</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>4.4060392388225154</v>
+        <v>10.581226919972526</v>
       </c>
       <c r="B302" s="0">
-        <v>13.346514362584808</v>
+        <v>4.7084267714385861</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>4.3720514481690103</v>
+        <v>10.579813261915719</v>
       </c>
       <c r="B303" s="0">
-        <v>13.371908167146865</v>
+        <v>4.7245459518202289</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>4.3380199386701319</v>
+        <v>10.578376035731713</v>
       </c>
       <c r="B304" s="0">
-        <v>13.39719540788564</v>
+        <v>4.7406683548746926</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>4.3039449404162644</v>
+        <v>10.576915213427524</v>
       </c>
       <c r="B305" s="0">
-        <v>13.42237628076971</v>
+        <v>4.7567939887144899</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>4.2698266808264993</v>
+        <v>10.575430766760091</v>
       </c>
       <c r="B306" s="0">
-        <v>13.447450980529545</v>
+        <v>4.7729228615060908</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>4.235665384668887</v>
+        <v>10.573922667234985</v>
       </c>
       <c r="B307" s="0">
-        <v>13.472419700651624</v>
+        <v>4.7890549814700467</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>4.2014612740805211</v>
+        <v>10.572390886105104</v>
       </c>
       <c r="B308" s="0">
-        <v>13.497282633372603</v>
+        <v>4.8051903568810825</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>4.1672145685873643</v>
+        <v>10.570835394369373</v>
       </c>
       <c r="B309" s="0">
-        <v>13.522039969673635</v>
+        <v>4.8213289960682246</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>4.1329254851239883</v>
+        <v>10.569256162771389</v>
       </c>
       <c r="B310" s="0">
-        <v>13.546691899274723</v>
+        <v>4.8374709074149225</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>4.0985942380530958</v>
+        <v>10.567653161798102</v>
       </c>
       <c r="B311" s="0">
-        <v>13.571238610629166</v>
+        <v>4.8536160993591579</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>4.0642210391848446</v>
+        <v>10.566026361678448</v>
       </c>
       <c r="B312" s="0">
-        <v>13.595680290918093</v>
+        <v>4.8697645803935901</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>4.0298060977960306</v>
+        <v>10.564375732381984</v>
       </c>
       <c r="B313" s="0">
-        <v>13.620017126045081</v>
+        <v>4.8859163590656634</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>3.9953496206490784</v>
+        <v>10.5627012436175</v>
       </c>
       <c r="B314" s="0">
-        <v>13.644249300630836</v>
+        <v>4.9020714439777437</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>3.9608518120108704</v>
+        <v>10.561002864831632</v>
       </c>
       <c r="B315" s="0">
-        <v>13.668376998007954</v>
+        <v>4.9182298437872536</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>3.9263128736714048</v>
+        <v>10.559280565207439</v>
       </c>
       <c r="B316" s="0">
-        <v>13.692400400215742</v>
+        <v>4.9343915672068137</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>3.891733004962235</v>
+        <v>10.557534313662989</v>
       </c>
       <c r="B317" s="0">
-        <v>13.716319687995151</v>
+        <v>4.9505566230043678</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>3.8571124027748178</v>
+        <v>10.55576407884992</v>
       </c>
       <c r="B318" s="0">
-        <v>13.740135040783722</v>
+        <v>4.9667250200033326</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>3.822451261578641</v>
+        <v>10.553969829151967</v>
       </c>
       <c r="B319" s="0">
-        <v>13.763846636710632</v>
+        <v>4.9828967670827637</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>3.7877497734391921</v>
+        <v>10.552151532683528</v>
       </c>
       <c r="B320" s="0">
-        <v>13.787454652591796</v>
+        <v>4.9990718731774546</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>3.7530081280357548</v>
+        <v>10.550309157288146</v>
       </c>
       <c r="B321" s="0">
-        <v>13.81095926392504</v>
+        <v>5.0152503472781387</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>3.7182265126790477</v>
+        <v>10.548442670537034</v>
       </c>
       <c r="B322" s="0">
-        <v>13.834360644885329</v>
+        <v>5.0314321984316095</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>3.683405112328721</v>
+        <v>10.546552039727557</v>
       </c>
       <c r="B323" s="0">
-        <v>13.857658968320029</v>
+        <v>5.0476174357408903</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>3.6485441096106466</v>
+        <v>10.544637231881696</v>
       </c>
       <c r="B324" s="0">
-        <v>13.880854405744273</v>
+        <v>5.0638060683654089</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>3.6136436848340439</v>
+        <v>10.54269821374451</v>
       </c>
       <c r="B325" s="0">
-        <v>13.903947127336366</v>
+        <v>5.079998105521133</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>3.5787040160084977</v>
+        <v>10.540734951782579</v>
       </c>
       <c r="B326" s="0">
-        <v>13.926937301933206</v>
+        <v>5.0961935564807588</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>3.5437252788607809</v>
+        <v>10.538747412182422</v>
       </c>
       <c r="B327" s="0">
-        <v>13.949825097025816</v>
+        <v>5.1123924305738671</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>3.5087076468514962</v>
+        <v>10.536735560848918</v>
       </c>
       <c r="B328" s="0">
-        <v>13.972610678754874</v>
+        <v>5.1285947371871075</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>3.4736512911915898</v>
+        <v>10.534699363403675</v>
       </c>
       <c r="B329" s="0">
-        <v>13.995294211906335</v>
+        <v>5.1448004857643674</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>3.4385563808586985</v>
+        <v>10.532638785183435</v>
       </c>
       <c r="B330" s="0">
-        <v>14.017875859907077</v>
+        <v>5.161009685806965</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>3.4034230826133438</v>
+        <v>10.530553791238406</v>
       </c>
       <c r="B331" s="0">
-        <v>14.040355784820569</v>
+        <v>5.1772223468738119</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>3.3682515610149681</v>
+        <v>10.528444346330632</v>
       </c>
       <c r="B332" s="0">
-        <v>14.062734147342628</v>
+        <v>5.1934384785816139</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>3.3330419784378069</v>
+        <v>10.526310414932299</v>
       </c>
       <c r="B333" s="0">
-        <v>14.0850111067972</v>
+        <v>5.209658090605056</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>3.2977944950865976</v>
+        <v>10.524151961224051</v>
       </c>
       <c r="B334" s="0">
-        <v>14.107186821132165</v>
+        <v>5.2258811926769981</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>3.2625092690121953</v>
+        <v>10.521968949093274</v>
       </c>
       <c r="B335" s="0">
-        <v>14.129261446915187</v>
+        <v>5.2421077945886676</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>3.2271864561269523</v>
+        <v>10.519761342132391</v>
       </c>
       <c r="B336" s="0">
-        <v>14.15123513932962</v>
+        <v>5.2583379061898743</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>3.1918262102200043</v>
+        <v>10.517529103637091</v>
       </c>
       <c r="B337" s="0">
-        <v>14.173108052170418</v>
+        <v>5.2745715373891899</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>3.1564286829723787</v>
+        <v>10.51527219660459</v>
       </c>
       <c r="B338" s="0">
-        <v>14.194880337840111</v>
+        <v>5.2908086981541711</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>3.1209940239719707</v>
+        <v>10.512990583731833</v>
       </c>
       <c r="B339" s="0">
-        <v>14.216552147344778</v>
+        <v>5.3070493985115679</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>3.0855223807283827</v>
+        <v>10.510684227413712</v>
       </c>
       <c r="B340" s="0">
-        <v>14.238123630290071</v>
+        <v>5.3232936485475379</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>3.0500138986875482</v>
+        <v>10.508353089741242</v>
       </c>
       <c r="B341" s="0">
-        <v>14.259594934877272</v>
+        <v>5.3395414584078553</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>3.0144687212463004</v>
+        <v>10.505997132499719</v>
       </c>
       <c r="B342" s="0">
-        <v>14.280966207899359</v>
+        <v>5.3557928382981652</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>2.9788869897667336</v>
+        <v>10.50361631716688</v>
       </c>
       <c r="B343" s="0">
-        <v>14.302237594737115</v>
+        <v>5.3720477984841528</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>2.9432688435904582</v>
+        <v>10.501210604911016</v>
       </c>
       <c r="B344" s="0">
-        <v>14.323409239355229</v>
+        <v>5.3883063492918275</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>2.9076144200526537</v>
+        <v>10.49877995658909</v>
       </c>
       <c r="B345" s="0">
-        <v>14.344481284298475</v>
+        <v>5.4045685011077209</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>2.8719238544960524</v>
+        <v>10.49632433274482</v>
       </c>
       <c r="B346" s="0">
-        <v>14.365453870687855</v>
+        <v>5.4208342643791276</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>2.8361972802847268</v>
+        <v>10.49384369360674</v>
       </c>
       <c r="B347" s="0">
-        <v>14.386327138216787</v>
+        <v>5.4371036496143805</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>2.8004348288177723</v>
+        <v>10.491337999086264</v>
       </c>
       <c r="B348" s="0">
-        <v>14.40710122514732</v>
+        <v>5.4533766673830426</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>2.7646366295428031</v>
+        <v>10.488807208775688</v>
       </c>
       <c r="B349" s="0">
-        <v>14.427776268306328</v>
+        <v>5.4696533283161868</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>2.7288028099693369</v>
+        <v>10.486251281946222</v>
       </c>
       <c r="B350" s="0">
-        <v>14.448352403081781</v>
+        <v>5.4859336431066419</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>2.6929334956820772</v>
+        <v>10.483670177545964</v>
       </c>
       <c r="B351" s="0">
-        <v>14.468829763418954</v>
+        <v>5.5022176225092494</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>2.6570288103539816</v>
+        <v>10.481063854197862</v>
       </c>
       <c r="B352" s="0">
-        <v>14.4892084818167</v>
+        <v>5.518505277341121</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>2.6210888757592263</v>
+        <v>10.478432270197663</v>
       </c>
       <c r="B353" s="0">
-        <v>14.50948868932373</v>
+        <v>5.5347966184818995</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>2.5851138117860644</v>
+        <v>10.475775383511831</v>
       </c>
       <c r="B354" s="0">
-        <v>14.529670515534868</v>
+        <v>5.5510916568740436</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>2.5491037364495028</v>
+        <v>10.473093151775444</v>
       </c>
       <c r="B355" s="0">
-        <v>14.549754088587351</v>
+        <v>5.5673904035230803</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>2.5130587659038861</v>
+        <v>10.470385532290084</v>
       </c>
       <c r="B356" s="0">
-        <v>14.569739535157108</v>
+        <v>5.5836928694978907</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>2.4769790144552624</v>
+        <v>10.467652482021677</v>
       </c>
       <c r="B357" s="0">
-        <v>14.589626980455062</v>
+        <v>5.5999990659309864</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>2.4408645945737408</v>
+        <v>10.464893957598333</v>
       </c>
       <c r="B358" s="0">
-        <v>14.609416548223431</v>
+        <v>5.6163090040188006</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>2.4047156169056332</v>
+        <v>10.462109915308156</v>
       </c>
       <c r="B359" s="0">
-        <v>14.629108360732003</v>
+        <v>5.6326226950219827</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>2.3685321902854524</v>
+        <v>10.459300311097035</v>
       </c>
       <c r="B360" s="0">
-        <v>14.648702538774465</v>
+        <v>5.6489401502656751</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>2.3323144217478378</v>
+        <v>10.456465100566392</v>
       </c>
       <c r="B361" s="0">
-        <v>14.668199201664679</v>
+        <v>5.6652613811398176</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>2.2960624165392933</v>
+        <v>10.453604238970938</v>
       </c>
       <c r="B362" s="0">
-        <v>14.687598467232995</v>
+        <v>5.6815863990994639</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>2.2597762781298529</v>
+        <v>10.450717681216377</v>
       </c>
       <c r="B363" s="0">
-        <v>14.706900451822513</v>
+        <v>5.6979152156650645</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>2.2234561082245623</v>
+        <v>10.447805381857101</v>
       </c>
       <c r="B364" s="0">
-        <v>14.726105270285398</v>
+        <v>5.7142478424228038</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>2.1871020067748459</v>
+        <v>10.444867295093861</v>
       </c>
       <c r="B365" s="0">
-        <v>14.745213035979139</v>
+        <v>5.730584291024889</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>2.1507140719897793</v>
+        <v>10.441903374771394</v>
       </c>
       <c r="B366" s="0">
-        <v>14.764223860762835</v>
+        <v>5.7469245731899044</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>2.114292400347189</v>
+        <v>10.438913574376059</v>
       </c>
       <c r="B367" s="0">
-        <v>14.783137854993432</v>
+        <v>5.763268700703108</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>2.0778370866046627</v>
+        <v>10.435897847033402</v>
       </c>
       <c r="B368" s="0">
-        <v>14.801955127521989</v>
+        <v>5.7796166854167659</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>2.0413482238104019</v>
+        <v>10.432856145505751</v>
       </c>
       <c r="B369" s="0">
-        <v>14.820675785689916</v>
+        <v>5.7959685392505023</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>2.0048259033139479</v>
+        <v>10.429788422189725</v>
       </c>
       <c r="B370" s="0">
-        <v>14.839299935325192</v>
+        <v>5.8123242741916208</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>1.968270214776848</v>
+        <v>10.426694629113761</v>
       </c>
       <c r="B371" s="0">
-        <v>14.857827680738565</v>
+        <v>5.8286839022954799</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>1.9316812461830986</v>
+        <v>10.423574717935605</v>
       </c>
       <c r="B372" s="0">
-        <v>14.876259124719756</v>
+        <v>5.845047435685796</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>1.895059083849528</v>
+        <v>10.420428639939747</v>
       </c>
       <c r="B373" s="0">
-        <v>14.894594368533621</v>
+        <v>5.8614148865550364</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>1.8584038124360462</v>
+        <v>10.417256346034872</v>
       </c>
       <c r="B374" s="0">
-        <v>14.912833511916324</v>
+        <v>5.8777862671647618</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>1.8217155149557744</v>
+        <v>10.414057786751259</v>
       </c>
       <c r="B375" s="0">
-        <v>14.930976653071447</v>
+        <v>5.8941615898459956</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>1.784994272785019</v>
+        <v>10.41083291223814</v>
       </c>
       <c r="B376" s="0">
-        <v>14.94902388866611</v>
+        <v>5.9105408669995976</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>1.7482401656731792</v>
+        <v>10.407581672261069</v>
       </c>
       <c r="B377" s="0">
-        <v>14.966975313827072</v>
+        <v>5.9269241110966187</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>1.7114532717524857</v>
+        <v>10.404304016199211</v>
       </c>
       <c r="B378" s="0">
-        <v>14.984831022136779</v>
+        <v>5.9433113346787279</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>1.6746336675476405</v>
+        <v>10.400999893042647</v>
       </c>
       <c r="B379" s="0">
-        <v>15.002591105629408</v>
+        <v>5.9597025503585419</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>1.6377814279853664</v>
+        <v>10.397669251389631</v>
       </c>
       <c r="B380" s="0">
-        <v>15.020255654786867</v>
+        <v>5.9760977708200462</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>1.6008966264037445</v>
+        <v>10.394312039443815</v>
       </c>
       <c r="B381" s="0">
-        <v>15.0378247585348</v>
+        <v>5.9924970088189911</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>1.5639793345615374</v>
+        <v>10.390928205011429</v>
       </c>
       <c r="B382" s="0">
-        <v>15.055298504238515</v>
+        <v>6.0089002771832956</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>1.5270296226473561</v>
+        <v>10.387517695498477</v>
       </c>
       <c r="B383" s="0">
-        <v>15.072676977698913</v>
+        <v>6.0253075888134378</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>1.490047559288675</v>
+        <v>10.384080457907846</v>
       </c>
       <c r="B384" s="0">
-        <v>15.089960263148374</v>
+        <v>6.0417189566828888</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>1.4530332115607751</v>
+        <v>10.380616438836421</v>
       </c>
       <c r="B385" s="0">
-        <v>15.107148443246617</v>
+        <v>6.0581343938385173</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>1.4159866449955534</v>
+        <v>10.377125584472148</v>
       </c>
       <c r="B386" s="0">
-        <v>15.124241599076507</v>
+        <v>6.074553913401024</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>1.378907923590206</v>
+        <v>10.373607840591083</v>
       </c>
       <c r="B387" s="0">
-        <v>15.141239810139833</v>
+        <v>6.090977528565368</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>1.3417971098158328</v>
+        <v>10.37006315255439</v>
       </c>
       <c r="B388" s="0">
-        <v>15.158143154353063</v>
+        <v>6.1074052526011959</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>1.3046542646258532</v>
+        <v>10.366491465305304</v>
       </c>
       <c r="B389" s="0">
-        <v>15.174951708043039</v>
+        <v>6.1238370988532997</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>1.2674794474644018</v>
+        <v>10.362892723366084</v>
       </c>
       <c r="B390" s="0">
-        <v>15.191665545942639</v>
+        <v>6.1402730807420625</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>1.2302727162745319</v>
+        <v>10.359266870834917</v>
       </c>
       <c r="B391" s="0">
-        <v>15.208284741186386</v>
+        <v>6.1567132117639005</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>1.1930341275063328</v>
+        <v>10.355613851382769</v>
       </c>
       <c r="B392" s="0">
-        <v>15.224809365306049</v>
+        <v>6.17315750549173</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>1.1557637361249471</v>
+        <v>10.35193360825024</v>
       </c>
       <c r="B393" s="0">
-        <v>15.241239488226142</v>
+        <v>6.1896059755754367</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>1.1184615956184656</v>
+        <v>10.348226084244343</v>
       </c>
       <c r="B394" s="0">
-        <v>15.25757517825943</v>
+        <v>6.2060586357423615</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>1.0811277580056835</v>
+        <v>10.344491221735286</v>
       </c>
       <c r="B395" s="0">
-        <v>15.273816502102347</v>
+        <v>6.2225154997977512</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>1.0437622738437837</v>
+        <v>10.340728962653179</v>
       </c>
       <c r="B396" s="0">
-        <v>15.289963524830396</v>
+        <v>6.2389765816252751</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>1.0063651922358821</v>
+        <v>10.336939248484734</v>
       </c>
       <c r="B397" s="0">
-        <v>15.306016309893478</v>
+        <v>6.2554418951874915</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>0.96893656083847757</v>
+        <v>10.333122020269911</v>
       </c>
       <c r="B398" s="0">
-        <v>15.32197491911117</v>
+        <v>6.2719114545263732</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>0.93147642586876611</v>
+        <v>10.32927721859854</v>
       </c>
       <c r="B399" s="0">
-        <v>15.337839412667954</v>
+        <v>6.2883852737637884</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>0.89398483211187607</v>
+        <v>10.325404783606874</v>
       </c>
       <c r="B400" s="0">
-        <v>15.353609849108402</v>
+        <v>6.3048633671020342</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>0.85646182292795081</v>
+        <v>10.321504654974143</v>
       </c>
       <c r="B401" s="0">
-        <v>15.369286285332281</v>
+        <v>6.321345748824359</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>0.81890744025918449</v>
+        <v>10.317576771919052</v>
       </c>
       <c r="B402" s="0">
-        <v>15.384868776589617</v>
+        <v>6.3378324332954605</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>0.78132172463667526</v>
+        <v>10.313621073196218</v>
       </c>
       <c r="B403" s="0">
-        <v>15.400357376475682</v>
+        <v>6.354323434962053</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>0.74370471518720738</v>
+        <v>10.309637497092604</v>
       </c>
       <c r="B404" s="0">
-        <v>15.415752136925958</v>
+        <v>6.3708187683533888</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>0.70605644963991232</v>
+        <v>10.305625981423876</v>
       </c>
       <c r="B405" s="0">
-        <v>15.431053108210989</v>
+        <v>6.3873184480818113</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>0.66837696433284932</v>
+        <v>10.301586463530747</v>
       </c>
       <c r="B406" s="0">
-        <v>15.4462603389312</v>
+        <v>6.4038224888433302</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>0.63066629421944043</v>
+        <v>10.297518880275256</v>
       </c>
       <c r="B407" s="0">
-        <v>15.461373876011645</v>
+        <v>6.4203309054181501</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>0.59292447287479566</v>
+        <v>10.29342316803703</v>
       </c>
       <c r="B408" s="0">
-        <v>15.476393764696688</v>
+        <v>6.4368437126712621</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>0.5551515325019355</v>
+        <v>10.289299262709466</v>
       </c>
       <c r="B409" s="0">
-        <v>15.491320048544608</v>
+        <v>6.453360925553028</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>0.51734750393795892</v>
+        <v>10.285147099695905</v>
       </c>
       <c r="B410" s="0">
-        <v>15.506152769422144</v>
+        <v>6.4698825590997533</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>0.47951241666000877</v>
+        <v>10.280966613905749</v>
       </c>
       <c r="B411" s="0">
-        <v>15.520891967498955</v>
+        <v>6.4864086284342815</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>0.4416462987911865</v>
+        <v>10.276757739750497</v>
       </c>
       <c r="B412" s="0">
-        <v>15.535537681242031</v>
+        <v>6.5029391487666093</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>0.40374917710635377</v>
+        <v>10.272520411139817</v>
       </c>
       <c r="B413" s="0">
-        <v>15.550089947410008</v>
+        <v>6.5194741353944998</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>0.3658210770378208</v>
+        <v>10.268254561477482</v>
       </c>
       <c r="B414" s="0">
-        <v>15.564548801047398</v>
+        <v>6.5360136037040668</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>0.32786202268092718</v>
+        <v>10.263960123657318</v>
       </c>
       <c r="B415" s="0">
-        <v>15.578914275478773</v>
+        <v>6.5525575691704443</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>0.28987203679950158</v>
+        <v>10.259637030059078</v>
       </c>
       <c r="B416" s="0">
-        <v>15.59318640230285</v>
+        <v>6.5691060473583853</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>0.25185114083122701</v>
+        <v>10.255285212544274</v>
       </c>
       <c r="B417" s="0">
-        <v>15.607365211386496</v>
+        <v>6.5856590539229423</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>0.21379935489292443</v>
+        <v>10.250904602451957</v>
       </c>
       <c r="B418" s="0">
-        <v>15.621450730858635</v>
+        <v>6.6022166046100912</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>0.17571669778566665</v>
+        <v>10.246495130594456</v>
       </c>
       <c r="B419" s="0">
-        <v>15.635442987104113</v>
+        <v>6.6187787152573989</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>0.13760318699983626</v>
+        <v>10.242056727253056</v>
       </c>
       <c r="B420" s="0">
-        <v>15.649342004757431</v>
+        <v>6.6353454017946909</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>0.099458838720081572</v>
+        <v>10.237589322173626</v>
       </c>
       <c r="B421" s="0">
-        <v>15.663147806696413</v>
+        <v>6.6519166802447458</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>0.061283667830092176</v>
+        <v>10.233092844562201</v>
       </c>
       <c r="B422" s="0">
-        <v>15.676860414035785</v>
+        <v>6.6684925667239607</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>0.023077687917371477</v>
+        <v>10.228567223080505</v>
       </c>
       <c r="B423" s="0">
-        <v>15.69047984612066</v>
+        <v>6.6850730774430573</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>-0.015159088722179312</v>
+        <v>10.224012385841419</v>
       </c>
       <c r="B424" s="0">
-        <v>15.704006120519917</v>
+        <v>6.7016582287078021</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>-0.053426651079760509</v>
+        <v>10.219428260404403</v>
       </c>
       <c r="B425" s="0">
-        <v>15.717439253019512</v>
+        <v>6.7182480369197011</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>-0.091724989429209827</v>
+        <v>10.214814773770856</v>
       </c>
       <c r="B426" s="0">
-        <v>15.730779257615655</v>
+        <v>6.7348425185767349</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>-0.13005409532282125</v>
+        <v>10.210171852379423</v>
       </c>
       <c r="B427" s="0">
-        <v>15.744026146507936</v>
+        <v>6.7514416902740866</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>-0.16841396158708288</v>
+        <v>10.205499422101237</v>
       </c>
       <c r="B428" s="0">
-        <v>15.757179930092308</v>
+        <v>6.7680455687048928</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>-0.20680458231857954</v>
+        <v>10.200797408235118</v>
       </c>
       <c r="B429" s="0">
-        <v>15.770240616953986</v>
+        <v>6.7846541706610131</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>-0.24522595288010227</v>
+        <v>10.1960657355027</v>
       </c>
       <c r="B430" s="0">
-        <v>15.783208213860249</v>
+        <v>6.8012675130337588</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>-0.28367806989673094</v>
+        <v>10.191304328043508</v>
       </c>
       <c r="B431" s="0">
-        <v>15.796082725753116</v>
+        <v>6.8178856128147007</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>-0.32216093125208628</v>
+        <v>10.186513109409967</v>
       </c>
       <c r="B432" s="0">
-        <v>15.808864155741942</v>
+        <v>6.8345084870964348</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>-0.36067453608469235</v>
+        <v>10.181692002562354</v>
       </c>
       <c r="B433" s="0">
-        <v>15.821552505095877</v>
+        <v>6.8511361530733925</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>-0.39921888478440015</v>
+        <v>10.176840929863696</v>
       </c>
       <c r="B434" s="0">
-        <v>15.834147773236207</v>
+        <v>6.8677686280426364</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>-0.43779397898902239</v>
+        <v>10.171959813074581</v>
       </c>
       <c r="B435" s="0">
-        <v>15.846649957728644</v>
+        <v>6.884405929404684</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>-0.47639982158095878</v>
+        <v>10.167048573347932</v>
       </c>
       <c r="B436" s="0">
-        <v>15.859059054275416</v>
+        <v>6.901048074664339</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>-0.5150364166839585</v>
+        <v>10.162107131223703</v>
       </c>
       <c r="B437" s="0">
-        <v>15.871375056707288</v>
+        <v>6.9176950814315203</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>-0.55370376966009083</v>
+        <v>10.157135406623507</v>
       </c>
       <c r="B438" s="0">
-        <v>15.883597956975461</v>
+        <v>6.9343469674221234</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>-0.59240188710667097</v>
+        <v>10.152133318845193</v>
       </c>
       <c r="B439" s="0">
-        <v>15.895727745143338</v>
+        <v>6.9510037504588729</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>-0.63113077685339813</v>
+        <v>10.147100786557324</v>
       </c>
       <c r="B440" s="0">
-        <v>15.907764409378162</v>
+        <v>6.9676654484722054</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>-0.66989044795959451</v>
+        <v>10.142037727793619</v>
       </c>
       <c r="B441" s="0">
-        <v>15.919707935942544</v>
+        <v>6.9843320795011596</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>-0.70868091071145856</v>
+        <v>10.136944059947314</v>
       </c>
       <c r="B442" s="0">
-        <v>15.931558309185842</v>
+        <v>7.0010036616942619</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>-0.74750217661960261</v>
+        <v>10.131819699765446</v>
       </c>
       <c r="B443" s="0">
-        <v>15.943315511535435</v>
+        <v>7.0176802133104399</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>-0.78635425841653361</v>
+        <v>10.126664563343057</v>
       </c>
       <c r="B444" s="0">
-        <v>15.954979523487845</v>
+        <v>7.0343617527199545</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>-0.82523717005429142</v>
+        <v>10.121478566117361</v>
       </c>
       <c r="B445" s="0">
-        <v>15.966550323599712</v>
+        <v>7.0510482984053136</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>-0.86415092670229321</v>
+        <v>10.116261622861792</v>
       </c>
       <c r="B446" s="0">
-        <v>15.978027888478678</v>
+        <v>7.0677398689622448</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>-0.90309554474513964</v>
+        <v>10.111013647680009</v>
       </c>
       <c r="B447" s="0">
-        <v>15.989412192774076</v>
+        <v>7.0844364831006414</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>-0.94207104178064094</v>
+        <v>10.105734553999806</v>
       </c>
       <c r="B448" s="0">
-        <v>16.000703209167515</v>
+        <v>7.1011381596455445</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>-0.98107743661790403</v>
+        <v>10.100424254566953</v>
       </c>
       <c r="B449" s="0">
-        <v>16.011900908363302</v>
+        <v>7.1178449175381227</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>-1.0201147492755192</v>
+        <v>10.095082661438965</v>
       </c>
       <c r="B450" s="0">
-        <v>16.023005259078712</v>
+        <v>7.134556775836665</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>-1.0591830009799366</v>
+        <v>10.089709685978772</v>
       </c>
       <c r="B451" s="0">
-        <v>16.034016228034147</v>
+        <v>7.1512737537176134</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>-1.0982822141638844</v>
+        <v>10.084305238848314</v>
       </c>
       <c r="B452" s="0">
-        <v>16.04493377994309</v>
+        <v>7.1679958704765809</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>-1.1374124124648659</v>
+        <v>10.078869230002073</v>
       </c>
       <c r="B453" s="0">
-        <v>16.055757877501925</v>
+        <v>7.1847231455293992</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>-1.1765736207239104</v>
+        <v>10.073401568680493</v>
       </c>
       <c r="B454" s="0">
-        <v>16.066488481379622</v>
+        <v>7.2014555984131636</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>-1.2157658649842868</v>
+        <v>10.067902163403341</v>
       </c>
       <c r="B455" s="0">
-        <v>16.077125550207224</v>
+        <v>7.2181932487873084</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>-1.254989172490423</v>
+        <v>10.062370921962945</v>
       </c>
       <c r="B456" s="0">
-        <v>16.08766904056721</v>
+        <v>7.2349361164347075</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>-1.2942435716869067</v>
+        <v>10.056807751417388</v>
       </c>
       <c r="B457" s="0">
-        <v>16.098118906982659</v>
+        <v>7.2516842212627495</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>-1.3335290922175944</v>
+        <v>10.051212558083586</v>
       </c>
       <c r="B458" s="0">
-        <v>16.108475101906254</v>
+        <v>7.2684375833044719</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>-1.3728457649248775</v>
+        <v>10.045585247530283</v>
       </c>
       <c r="B459" s="0">
-        <v>16.118737575709133</v>
+        <v>7.2851962227196836</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>-1.4121936218490336</v>
+        <v>10.039925724570944</v>
       </c>
       <c r="B460" s="0">
-        <v>16.128906276669557</v>
+        <v>7.301960159796125</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>-1.451572696227672</v>
+        <v>10.034233893256562</v>
       </c>
       <c r="B461" s="0">
-        <v>16.138981150961364</v>
+        <v>7.3187294149506164</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>-1.4909830224953569</v>
+        <v>10.028509656868394</v>
       </c>
       <c r="B462" s="0">
-        <v>16.148962142642336</v>
+        <v>7.3355040087302354</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>-1.5304246362833138</v>
+        <v>10.022752917910546</v>
       </c>
       <c r="B463" s="0">
-        <v>16.158849193642254</v>
+        <v>7.3522839618135283</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>-1.5698975744192516</v>
+        <v>10.01696357810251</v>
       </c>
       <c r="B464" s="0">
-        <v>16.168642243750895</v>
+        <v>7.3690692950116974</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
-        <v>-1.60940187492732</v>
+        <v>10.011141538371572</v>
       </c>
       <c r="B465" s="0">
-        <v>16.178341230605753</v>
+        <v>7.3858600292698693</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
-        <v>-1.6489375770281691</v>
+        <v>10.005286698845136</v>
       </c>
       <c r="B466" s="0">
-        <v>16.187946089679585</v>
+        <v>7.4026561856683006</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
-        <v>-1.6885047211391613</v>
+        <v>9.9993989588429368</v>
       </c>
       <c r="B467" s="0">
-        <v>16.197456754267805</v>
+        <v>7.4194577854236625</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
-        <v>-1.728103348874684</v>
+        <v>9.9934782168691445</v>
       </c>
       <c r="B468" s="0">
-        <v>16.20687315547563</v>
+        <v>7.4362648498903194</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
-        <v>-1.7677335030465759</v>
+        <v>9.9875243706043708</v>
       </c>
       <c r="B469" s="0">
-        <v>16.21619522220502</v>
+        <v>7.4530774005616243</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
-        <v>-1.8073952276647103</v>
+        <v>9.981537316897569</v>
       </c>
       <c r="B470" s="0">
-        <v>16.22542288114148</v>
+        <v>7.4698954590712363</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>-1.8470885679376723</v>
+        <v>9.9755169517578022</v>
       </c>
       <c r="B471" s="0">
-        <v>16.234556056740551</v>
+        <v>7.4867190471944802</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
-        <v>-1.8868135702735929</v>
+        <v>9.9694631703459375</v>
       </c>
       <c r="B472" s="0">
-        <v>16.24359467121419</v>
+        <v>7.5035481868496632</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
-        <v>-1.9265702822810828</v>
+        <v>9.963375866966194</v>
       </c>
       <c r="B473" s="0">
-        <v>16.25253864451685</v>
+        <v>7.5203829000994755</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
-        <v>-1.9663587527702573</v>
+        <v>9.957254935057577</v>
       </c>
       <c r="B474" s="0">
-        <v>16.26138789433141</v>
+        <v>7.5372232091523816</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
-        <v>-2.0061790317540265</v>
+        <v>9.951100267185236</v>
       </c>
       <c r="B475" s="0">
-        <v>16.270142336054818</v>
+        <v>7.5540691363640251</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>-2.0460311704493828</v>
+        <v>9.9449117550316437</v>
       </c>
       <c r="B476" s="0">
-        <v>16.278801882783558</v>
+        <v>7.5709207042386675</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>-2.0859152212788148</v>
+        <v>9.9386892893876873</v>
       </c>
       <c r="B477" s="0">
-        <v>16.287366445298844</v>
+        <v>7.5877779354306591</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
-        <v>-2.1258312378719868</v>
+        <v>9.9324327601436426</v>
       </c>
       <c r="B478" s="0">
-        <v>16.295835932051624</v>
+        <v>7.6046408527458951</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
-        <v>-2.1657792750674183</v>
+        <v>9.9261420562800033</v>
       </c>
       <c r="B479" s="0">
-        <v>16.304210249147303</v>
+        <v>7.6215094791433078</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
-        <v>-2.205759388914343</v>
+        <v>9.919817065858199</v>
       </c>
       <c r="B480" s="0">
-        <v>16.312489300330238</v>
+        <v>7.6383838377364066</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
-        <v>-2.2457716366747462</v>
+        <v>9.913457676011161</v>
       </c>
       <c r="B481" s="0">
-        <v>16.320672986967995</v>
+        <v>7.6552639517948053</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>-2.2858160768254225</v>
+        <v>9.9070637729337925</v>
       </c>
       <c r="B482" s="0">
-        <v>16.328761208035338</v>
+        <v>7.6721498447457783</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>-2.325892769060347</v>
+        <v>9.9006352418732551</v>
       </c>
       <c r="B483" s="0">
-        <v>16.336753860097978</v>
+        <v>7.6890415401758787</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>-2.3660017742930206</v>
+        <v>9.8941719671191795</v>
       </c>
       <c r="B484" s="0">
-        <v>16.344650837296044</v>
+        <v>7.7059390618325034</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>-2.4061431546590346</v>
+        <v>9.8876738319936788</v>
       </c>
       <c r="B485" s="0">
-        <v>16.352452031327307</v>
+        <v>7.7228424336255515</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
-        <v>-2.4463169735187864</v>
+        <v>9.8811407188412641</v>
       </c>
       <c r="B486" s="0">
-        <v>16.360157331430109</v>
+        <v>7.7397516796290722</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
-        <v>-2.4865232954603096</v>
+        <v>9.8745725090185896</v>
       </c>
       <c r="B487" s="0">
-        <v>16.367766624366062</v>
+        <v>7.7566668240829459</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>-2.5267621863022547</v>
+        <v>9.8679690828840609</v>
       </c>
       <c r="B488" s="0">
-        <v>16.37527979440241</v>
+        <v>7.7735878913945999</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>-2.5670337130970258</v>
+        <v>9.861330319787303</v>
       </c>
       <c r="B489" s="0">
-        <v>16.382696723294153</v>
+        <v>7.7905149061407197</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>-2.6073379441340454</v>
+        <v>9.8546560980584665</v>
       </c>
       <c r="B490" s="0">
-        <v>16.390017290265856</v>
+        <v>7.8074478930690123</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
-        <v>-2.6476749489432034</v>
+        <v>9.8479462949973744</v>
       </c>
       <c r="B491" s="0">
-        <v>16.397241371993193</v>
+        <v>7.824386877099994</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
-        <v>-2.6880447982984577</v>
+        <v>9.8412007868625437</v>
       </c>
       <c r="B492" s="0">
-        <v>16.404368842584145</v>
+        <v>7.8413318833287899</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>-2.7284475642214803</v>
+        <v>9.834419448859995</v>
       </c>
       <c r="B493" s="0">
-        <v>16.411399573559937</v>
+        <v>7.8582829370269662</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>-2.7688833199856613</v>
+        <v>9.8276021551319506</v>
       </c>
       <c r="B494" s="0">
-        <v>16.418333433835652</v>
+        <v>7.875240063644406</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
-        <v>-2.8093521401200765</v>
+        <v>9.8207487787453385</v>
       </c>
       <c r="B495" s="0">
-        <v>16.425170289700521</v>
+        <v>7.8922032888111939</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
-        <v>-2.8498541004137206</v>
+        <v>9.8138591916801428</v>
       </c>
       <c r="B496" s="0">
-        <v>16.431910004797889</v>
+        <v>7.9091726383395189</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>-2.8903892779198577</v>
+        <v>9.8069332648175767</v>
       </c>
       <c r="B497" s="0">
-        <v>16.438552440104885</v>
+        <v>7.9261481382256438</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>-2.9309577509605433</v>
+        <v>9.7999708679280726</v>
       </c>
       <c r="B498" s="0">
-        <v>16.445097453911714</v>
+        <v>7.943129814651865</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>-2.9715595991313335</v>
+        <v>9.7929718696591248</v>
       </c>
       <c r="B499" s="0">
-        <v>16.451544901800645</v>
+        <v>7.9601176939885239</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>-3.0121949033061362</v>
+        <v>9.7859361375229046</v>
       </c>
       <c r="B500" s="0">
-        <v>16.457894636624658</v>
+        <v>7.977111802796057</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>-3.0528637456421976</v>
+        <v>9.7788635378837476</v>
       </c>
       <c r="B501" s="0">
-        <v>16.464146508485701</v>
+        <v>7.9941121678270362</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>-3.0935662095853322</v>
+        <v>9.7717539359454104</v>
       </c>
       <c r="B502" s="0">
-        <v>16.470300364712628</v>
+        <v>8.0111188160282918</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>-3.134302379875304</v>
+        <v>9.7646071957381544</v>
       </c>
       <c r="B503" s="0">
-        <v>16.476356049838756</v>
+        <v>8.0281317745430236</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>-3.175072342551323</v>
+        <v>9.757423180105631</v>
       </c>
       <c r="B504" s="0">
-        <v>16.482313405579067</v>
+        <v>8.0451510707129916</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>-3.2158761849577582</v>
+        <v>9.7502017506915877</v>
       </c>
       <c r="B505" s="0">
-        <v>16.488172270807013</v>
+        <v>8.0621767320806832</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>-3.2567139957500735</v>
+        <v>9.7429427679263423</v>
       </c>
       <c r="B506" s="0">
-        <v>16.493932481530951</v>
+        <v>8.079208786391554</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>-3.2975858649008973</v>
+        <v>9.7356460910130682</v>
       </c>
       <c r="B507" s="0">
-        <v>16.499593870870182</v>
+        <v>8.0962472615963161</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>-3.3384918837062232</v>
+        <v>9.7283115779138907</v>
       </c>
       <c r="B508" s="0">
-        <v>16.505156269030596</v>
+        <v>8.1132921858531972</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>-3.3794321447919362</v>
+        <v>9.7209390853357256</v>
       </c>
       <c r="B509" s="0">
-        <v>16.510619503279916</v>
+        <v>8.1303435875303105</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>-3.4204067421204085</v>
+        <v>9.7135284687159533</v>
       </c>
       <c r="B510" s="0">
-        <v>16.515983397922497</v>
+        <v>8.1474014952080047</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>-3.461415770997311</v>
+        <v>9.7060795822078383</v>
       </c>
       <c r="B511" s="0">
-        <v>16.521247774273775</v>
+        <v>8.1644659376812818</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>-3.5024593280786798</v>
+        <v>9.6985922786657142</v>
       </c>
       <c r="B512" s="0">
-        <v>16.526412450634194</v>
+        <v>8.1815369439622643</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>-3.5435375113780663</v>
+        <v>9.6910664096299897</v>
       </c>
       <c r="B513" s="0">
-        <v>16.531477242262781</v>
+        <v>8.1986145432826394</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>-3.5846504202740226</v>
+        <v>9.6835018253118772</v>
       </c>
       <c r="B514" s="0">
-        <v>16.536441961350242</v>
+        <v>8.2156987650962137</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>-3.6257981555176824</v>
+        <v>9.6758983745778995</v>
       </c>
       <c r="B515" s="0">
-        <v>16.541306416991574</v>
+        <v>8.2327896390814725</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>-3.6669808192405915</v>
+        <v>9.668255904934151</v>
       </c>
       <c r="B516" s="0">
-        <v>16.546070415158301</v>
+        <v>8.2498871951441775</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>-3.7081985149627403</v>
+        <v>9.6605742625103233</v>
       </c>
       <c r="B517" s="0">
-        <v>16.550733758670116</v>
+        <v>8.2669914634200161</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>-3.7494513476008215</v>
+        <v>9.6528532920434511</v>
       </c>
       <c r="B518" s="0">
-        <v>16.555296247166179</v>
+        <v>8.2841024742773133</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>-3.7907394234766714</v>
+        <v>9.645092836861453</v>
       </c>
       <c r="B519" s="0">
-        <v>16.55975767707584</v>
+        <v>8.3012202583197201</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
-        <v>-3.832062850325979</v>
+        <v>9.6372927388663516</v>
       </c>
       <c r="B520" s="0">
-        <v>16.564117841588875</v>
+        <v>8.3183448463890226</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
-        <v>-3.8734217373071225</v>
+        <v>9.6294528385172811</v>
       </c>
       <c r="B521" s="0">
-        <v>16.568376530625233</v>
+        <v>8.3354762695679501</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>-3.9148161950103799</v>
+        <v>9.62157297481318</v>
       </c>
       <c r="B522" s="0">
-        <v>16.572533530804289</v>
+        <v>8.3526145591830492</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>-3.9562463354672217</v>
+        <v>9.6136529852752375</v>
       </c>
       <c r="B523" s="0">
-        <v>16.5765886254135</v>
+        <v>8.3697597468075742</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>-3.9977122721599208</v>
+        <v>9.6056927059290267</v>
       </c>
       <c r="B524" s="0">
-        <v>16.580541594376601</v>
+        <v>8.3869118642644924</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
-        <v>-4.0392141200313452</v>
+        <v>9.5976919712864088</v>
       </c>
       <c r="B525" s="0">
-        <v>16.584392214221207</v>
+        <v>8.4040709436294492</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>-4.0807519954950777</v>
+        <v>9.5896506143270752</v>
       </c>
       <c r="B526" s="0">
-        <v>16.588140258045865</v>
+        <v>8.4212370172338318</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
-        <v>-4.1223260164456521</v>
+        <v>9.5815684664798297</v>
       </c>
       <c r="B527" s="0">
-        <v>16.591785495486555</v>
+        <v>8.4384101176678978</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
-        <v>-4.1639363022691729</v>
+        <v>9.5734453576035552</v>
       </c>
       <c r="B528" s="0">
-        <v>16.595327692682602</v>
+        <v>8.4555902777839194</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>-4.2055829738540469</v>
+        <v>9.5652811159678901</v>
       </c>
       <c r="B529" s="0">
-        <v>16.59876661224197</v>
+        <v>8.4727775306993927</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
-        <v>-4.2472661536021201</v>
+        <v>9.5570755682335324</v>
       </c>
       <c r="B530" s="0">
-        <v>16.602102013206004</v>
+        <v>8.4899719098003157</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
-        <v>-4.2889859654399523</v>
+        <v>9.5488285394322947</v>
       </c>
       <c r="B531" s="0">
-        <v>16.605333651013513</v>
+        <v>8.5071734487444939</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>-4.3307425348303941</v>
+        <v>9.5405398529467735</v>
       </c>
       <c r="B532" s="0">
-        <v>16.608461277464254</v>
+        <v>8.5243821814649152</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
-        <v>-4.3725359887844784</v>
+        <v>9.532209330489696</v>
       </c>
       <c r="B533" s="0">
-        <v>16.611484640681752</v>
+        <v>8.5415981421731857</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
-        <v>-4.4143664558735392</v>
+        <v>9.5238367920829461</v>
       </c>
       <c r="B534" s="0">
-        <v>16.614403485075492</v>
+        <v>8.5588213653630127</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
-        <v>-4.456234066241608</v>
+        <v>9.5154220560361988</v>
       </c>
       <c r="B535" s="0">
-        <v>16.617217551302424</v>
+        <v>8.5760518858137704</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
-        <v>-4.4981389516181176</v>
+        <v>9.5069649389252326</v>
       </c>
       <c r="B536" s="0">
-        <v>16.619926576227808</v>
+        <v>8.5932897385940787</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
-        <v>-4.5400812453308488</v>
+        <v>9.4984652555698563</v>
       </c>
       <c r="B537" s="0">
-        <v>16.622530292885344</v>
+        <v>8.6105349590654914</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
-        <v>-4.5820610823192682</v>
+        <v>9.489922819011479</v>
       </c>
       <c r="B538" s="0">
-        <v>16.625028430436615</v>
+        <v>8.6277875828862189</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
-        <v>-4.6240785991480671</v>
+        <v>9.4813374404902806</v>
       </c>
       <c r="B539" s="0">
-        <v>16.627420714129801</v>
+        <v>8.645047646014925</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
-        <v>-4.666133934021012</v>
+        <v>9.4727089294220121</v>
       </c>
       <c r="B540" s="0">
-        <v>16.629706865257642</v>
+        <v>8.6623151847145898</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
-        <v>-4.7082272267951844</v>
+        <v>9.4640370933743867</v>
       </c>
       <c r="B541" s="0">
-        <v>16.631886601114683</v>
+        <v>8.6795902355564305</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0">
-        <v>-4.7503586189954694</v>
+        <v>9.4553217380430681</v>
       </c>
       <c r="B542" s="0">
-        <v>16.633959634953719</v>
+        <v>8.6968728354239158</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0">
-        <v>-4.7925282538293787</v>
+        <v>9.4465626672272602</v>
       </c>
       <c r="B543" s="0">
-        <v>16.635925675941458</v>
+        <v>8.7141630215167947</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0">
-        <v>-4.8347362762022046</v>
+        <v>9.4377596828048489</v>
       </c>
       <c r="B544" s="0">
-        <v>16.637784429113424</v>
+        <v>8.7314608313552533</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0">
-        <v>-4.8769828327324918</v>
+        <v>9.42891258470714</v>
       </c>
       <c r="B545" s="0">
-        <v>16.639535595327985</v>
+        <v>8.74876630278413</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0">
-        <v>-4.9192680717679274</v>
+        <v>9.4200211708931398</v>
       </c>
       <c r="B546" s="0">
-        <v>16.641178871219594</v>
+        <v>8.7660794739771681</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0">
-        <v>-4.9615921434014503</v>
+        <v>9.4110852373233804</v>
       </c>
       <c r="B547" s="0">
-        <v>16.642713949151165</v>
+        <v>8.7834003834414069</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0">
-        <v>-5.0039551994878062</v>
+        <v>9.402104577933315</v>
       </c>
       <c r="B548" s="0">
-        <v>16.644140517165553</v>
+        <v>8.8007290700215837</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0">
-        <v>-5.046357393660462</v>
+        <v>9.3930789846062126</v>
       </c>
       <c r="B549" s="0">
-        <v>16.645458258936191</v>
+        <v>8.8180655729046631</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0">
-        <v>-5.0887988813488478</v>
+        <v>9.3840082471455961</v>
       </c>
       <c r="B550" s="0">
-        <v>16.646666853716795</v>
+        <v>8.8354099316244223</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0">
-        <v>-5.1312798197959761</v>
+        <v>9.374892153247167</v>
       </c>
       <c r="B551" s="0">
-        <v>16.647765976290152</v>
+        <v>8.8527621860661281</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0">
-        <v>-5.1738003680764981</v>
+        <v>9.365730488470259</v>
       </c>
       <c r="B552" s="0">
-        <v>16.648755296915919</v>
+        <v>8.8701223764712971</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0">
-        <v>-5.2163606871150501</v>
+        <v>9.3565230362087615</v>
       </c>
       <c r="B553" s="0">
-        <v>16.649634481277552</v>
+        <v>8.8874905434425298</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
-        <v>-5.2589609397051147</v>
+        <v>9.3472695776615158</v>
       </c>
       <c r="B554" s="0">
-        <v>16.650403190428143</v>
+        <v>8.904866727948459</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0">
-        <v>-5.3016012905282288</v>
+        <v>9.3379698918021994</v>
       </c>
       <c r="B555" s="0">
-        <v>16.651061080735296</v>
+        <v>8.9222509713287526</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0">
-        <v>-5.3442819061735465</v>
+        <v>9.3286237553486497</v>
       </c>
       <c r="B556" s="0">
-        <v>16.651607803824984</v>
+        <v>8.9396433152992376</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0">
-        <v>-5.3870029551579695</v>
+        <v>9.3192309427316271</v>
       </c>
       <c r="B557" s="0">
-        <v>16.652043006524323</v>
+        <v>8.9570438019570933</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0">
-        <v>-5.4297646079465718</v>
+        <v>9.3097912260630142</v>
       </c>
       <c r="B558" s="0">
-        <v>16.652366330803286</v>
+        <v>8.9744524737861724</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0">
-        <v>-5.4725670369735475</v>
+        <v>9.300304375103428</v>
       </c>
       <c r="B559" s="0">
-        <v>16.652577413715292</v>
+        <v>8.9918693736623894</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0">
-        <v>-5.5154104166635616</v>
+        <v>9.2907701572292449</v>
       </c>
       <c r="B560" s="0">
-        <v>16.652675887336727</v>
+        <v>9.0092945448592126</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
-        <v>-5.5582949234535608</v>
+        <v>9.2811883373990085</v>
       </c>
       <c r="B561" s="0">
-        <v>16.652661378705218</v>
+        <v>9.026728031053274</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
-        <v>-5.6012207358151338</v>
+        <v>9.2715586781192076</v>
       </c>
       <c r="B562" s="0">
-        <v>16.652533509756829</v>
+        <v>9.0441698763300771</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
-        <v>-5.6441880342772297</v>
+        <v>9.2618809394094335</v>
       </c>
       <c r="B563" s="0">
-        <v>16.652291897261986</v>
+        <v>9.0616201251898048</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
-        <v>-5.6871970014494257</v>
+        <v>9.2521548787668664</v>
       </c>
       <c r="B564" s="0">
-        <v>16.651936152760214</v>
+        <v>9.0790788225532406</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0">
-        <v>-5.7302478220457269</v>
+        <v>9.2423802511301059</v>
       </c>
       <c r="B565" s="0">
-        <v>16.651465882493554</v>
+        <v>9.0965460137677994</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0">
-        <v>-5.7733406829088167</v>
+        <v>9.23255680884232</v>
       </c>
       <c r="B566" s="0">
-        <v>16.650880687338791</v>
+        <v>9.1140217446136997</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0">
-        <v>-5.8164757730348482</v>
+        <v>9.2226843016136861</v>
       </c>
       <c r="B567" s="0">
-        <v>16.650180162738252</v>
+        <v>9.1315060613101977</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
-        <v>-5.8596532835988082</v>
+        <v>9.2127624764831246</v>
       </c>
       <c r="B568" s="0">
-        <v>16.649363898629336</v>
+        <v>9.1489990105219796</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0">
-        <v>-5.902873407980314</v>
+        <v>9.2027910777793007</v>
       </c>
       <c r="B569" s="0">
-        <v>16.648431479372629</v>
+        <v>9.1665006393656832</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0">
-        <v>-5.9461363417901447</v>
+        <v>9.1927698470808732</v>
       </c>
       <c r="B570" s="0">
-        <v>16.647382483678637</v>
+        <v>9.1840109954165179</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0">
-        <v>-5.9894422828971923</v>
+        <v>9.1826985231759739</v>
       </c>
       <c r="B571" s="0">
-        <v>16.646216484533014</v>
+        <v>9.2015301267150456</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0">
-        <v>-6.0327914314559985</v>
+        <v>9.1725768420209182</v>
       </c>
       <c r="B572" s="0">
-        <v>16.644933049120397</v>
+        <v>9.2190580817740404</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0">
-        <v>-6.0761839899350312</v>
+        <v>9.1624045366981015</v>
       </c>
       <c r="B573" s="0">
-        <v>16.643531738746645</v>
+        <v>9.2365949095855449</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0">
-        <v>-6.119620163145397</v>
+        <v>9.1521813373730598</v>
       </c>
       <c r="B574" s="0">
-        <v>16.642012108759594</v>
+        <v>9.2541406596280211</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0">
-        <v>-6.1631001582702929</v>
+        <v>9.1419069712507124</v>
       </c>
       <c r="B575" s="0">
-        <v>16.640373708468172</v>
+        <v>9.2716953818736716</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
-        <v>-6.2066241848950012</v>
+        <v>9.1315811625307344</v>
       </c>
       <c r="B576" s="0">
-        <v>16.638616081059936</v>
+        <v>9.2892591267958657</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
-        <v>-6.2501924550376549</v>
+        <v>9.1212036323620307</v>
       </c>
       <c r="B577" s="0">
-        <v>16.636738763516917</v>
+        <v>9.3068319453767767</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0">
-        <v>-6.2938051831805604</v>
+        <v>9.1107740987963268</v>
       </c>
       <c r="B578" s="0">
-        <v>16.634741286529774</v>
+        <v>9.3244138891150889</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0">
-        <v>-6.3374625863022791</v>
+        <v>9.1002922767408183</v>
       </c>
       <c r="B579" s="0">
-        <v>16.632623174410188</v>
+        <v>9.3420050100339367</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0">
-        <v>-6.3811648839103121</v>
+        <v>9.0897578779098822</v>
       </c>
       <c r="B580" s="0">
-        <v>16.630383945001491</v>
+        <v>9.3596053606889438</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0">
-        <v>-6.424912298074644</v>
+        <v>9.0791706107757957</v>
       </c>
       <c r="B581" s="0">
-        <v>16.628023109587463</v>
+        <v>9.3772149941764802</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0">
-        <v>-6.4687050534619024</v>
+        <v>9.0685301805184704</v>
       </c>
       <c r="B582" s="0">
-        <v>16.625540172799209</v>
+        <v>9.3948339641420446</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0">
-        <v>-6.5125433773703003</v>
+        <v>9.0578362889741815</v>
       </c>
       <c r="B583" s="0">
-        <v>16.622934632520192</v>
+        <v>9.4124623247888071</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0">
-        <v>-6.5564274997653422</v>
+        <v>9.0470886345832078</v>
       </c>
       <c r="B584" s="0">
-        <v>16.620205979789212</v>
+        <v>9.4301001308863945</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0">
-        <v>-6.6003576533163626</v>
+        <v>9.0362869123364291</v>
       </c>
       <c r="B585" s="0">
-        <v>16.617353698701436</v>
+        <v>9.4477474377797783</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0">
-        <v>-6.6443340734338037</v>
+        <v>9.0254308137208348</v>
       </c>
       <c r="B586" s="0">
-        <v>16.614377266307301</v>
+        <v>9.4654043013983991</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0">
-        <v>-6.6883569983073645</v>
+        <v>9.0145200266638419</v>
       </c>
       <c r="B587" s="0">
-        <v>16.611276152509358</v>
+        <v>9.4830707782654482</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0">
-        <v>-6.7324266689449583</v>
+        <v>9.0035542354765354</v>
       </c>
       <c r="B588" s="0">
-        <v>16.608049819956857</v>
+        <v>9.5007469255073627</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0">
-        <v>-6.7765433292125969</v>
+        <v>8.9925331207956489</v>
       </c>
       <c r="B589" s="0">
-        <v>16.604697723938191</v>
+        <v>9.5184328008635397</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0">
-        <v>-6.8207072258750978</v>
+        <v>8.9814563595243886</v>
       </c>
       <c r="B590" s="0">
-        <v>16.601219312270988</v>
+        <v>9.5361284626961691</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0">
-        <v>-6.8649186086377529</v>
+        <v>8.9703236247719627</v>
       </c>
       <c r="B591" s="0">
-        <v>16.597614025189873</v>
+        <v>9.5538339700003903</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0">
-        <v>-6.9091777301888815</v>
+        <v>8.9591345857918476</v>
       </c>
       <c r="B592" s="0">
-        <v>16.593881295231849</v>
+        <v>9.5715493824145863</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0">
-        <v>-6.9534848462433967</v>
+        <v>8.9478889079187436</v>
       </c>
       <c r="B593" s="0">
-        <v>16.59002054711917</v>
+        <v>9.5892747602309125</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0">
-        <v>-6.9978402155873338</v>
+        <v>8.9365862525041546</v>
       </c>
       <c r="B594" s="0">
-        <v>16.586031197639699</v>
+        <v>9.6070101644060841</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0">
-        <v>-7.0422441001233675</v>
+        <v>8.9252262768506263</v>
       </c>
       <c r="B595" s="0">
-        <v>16.581912655524654</v>
+        <v>9.6247556565723347</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0">
-        <v>-7.086696764917348</v>
+        <v>8.9138086341445195</v>
       </c>
       <c r="B596" s="0">
-        <v>16.577664321323731</v>
+        <v>9.642511299048687</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0">
-        <v>-7.1311984782459792</v>
+        <v>8.9023329733873506</v>
       </c>
       <c r="B597" s="0">
-        <v>16.573285587277411</v>
+        <v>9.6602771548524</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0">
-        <v>-7.1757495116455114</v>
+        <v>8.8907989393256148</v>
       </c>
       <c r="B598" s="0">
-        <v>16.568775837186518</v>
+        <v>9.6780532877107177</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0">
-        <v>-7.2203501399615613</v>
+        <v>8.8792061723790852</v>
       </c>
       <c r="B599" s="0">
-        <v>16.56413444627886</v>
+        <v>9.6958397620728309</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0">
-        <v>-7.2650006414000767</v>
+        <v>8.867554308567529</v>
       </c>
       <c r="B600" s="0">
-        <v>16.559360781072915</v>
+        <v>9.7136366431221539</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0">
-        <v>-7.3097012975795277</v>
+        <v>8.855842979435776</v>
       </c>
       <c r="B601" s="0">
-        <v>16.554454199238474</v>
+        <v>9.731443996788844</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0">
-        <v>-7.3544523935842463</v>
+        <v>8.8440718119771624</v>
       </c>
       <c r="B602" s="0">
-        <v>16.549414049454153</v>
+        <v>9.7492618897625789</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0">
-        <v>-7.3992542180190339</v>
+        <v>8.8322404285552274</v>
       </c>
       <c r="B603" s="0">
-        <v>16.544239671261693</v>
+        <v>9.7670903895056682</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0">
-        <v>-7.4441070630650019</v>
+        <v>8.8203484468236653</v>
       </c>
       <c r="B604" s="0">
-        <v>16.538930394916946</v>
+        <v>9.7849295642664238</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0">
-        <v>-7.4890112245368199</v>
+        <v>8.8083954796444477</v>
       </c>
       <c r="B605" s="0">
-        <v>16.533485541237525</v>
+        <v>9.8027794830928521</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0">
-        <v>-7.5339670019412139</v>
+        <v>8.7963811350041041</v>
       </c>
       <c r="B606" s="0">
-        <v>16.527904421446863</v>
+        <v>9.8206402158466712</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0">
-        <v>-7.5789746985368662</v>
+        <v>8.7843050159281102</v>
       </c>
       <c r="B607" s="0">
-        <v>16.522186337014833</v>
+        <v>9.8385118332175789</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0">
-        <v>-7.6240346213957491</v>
+        <v>8.7721667203932476</v>
       </c>
       <c r="B608" s="0">
-        <v>16.516330579494547</v>
+        <v>9.8563944067379552</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0">
-        <v>-7.6691470814659288</v>
+        <v>8.759965841238019</v>
       </c>
       <c r="B609" s="0">
-        <v>16.510336430355466</v>
+        <v>9.8742880087978033</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0">
-        <v>-7.7143123936358746</v>
+        <v>8.7477019660709168</v>
       </c>
       <c r="B610" s="0">
-        <v>16.504203160812562</v>
+        <v>9.8921927126601119</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0">
-        <v>-7.7595308768002091</v>
+        <v>8.7353746771766065</v>
       </c>
       <c r="B611" s="0">
-        <v>16.497930031651517</v>
+        <v>9.9101085924765346</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0">
-        <v>-7.8048028539272343</v>
+        <v>8.722983551419885</v>
       </c>
       <c r="B612" s="0">
-        <v>16.49151629304977</v>
+        <v>9.9280357233034415</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0">
-        <v>-7.850128652127907</v>
+        <v>8.710528160147355</v>
       </c>
       <c r="B613" s="0">
-        <v>16.484961184393356</v>
+        <v>9.9459741811183928</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0">
-        <v>-7.8955086027265899</v>
+        <v>8.6980080690868391</v>
       </c>
       <c r="B614" s="0">
-        <v>16.478263934089366</v>
+        <v>9.9639240428369114</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0">
-        <v>-7.9409430413334965</v>
+        <v>8.6854228382443228</v>
       </c>
       <c r="B615" s="0">
-        <v>16.471423759373941</v>
+        <v>9.9818853863297594</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0">
-        <v>-7.9864323079188848</v>
+        <v>8.6727720217984725</v>
       </c>
       <c r="B616" s="0">
-        <v>16.464439866115647</v>
+        <v>9.9998582904405513</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0">
-        <v>-8.0319767468892049</v>
+        <v>8.6600551679926134</v>
       </c>
       <c r="B617" s="0">
-        <v>16.457311448614082</v>
+        <v>10.017842835003835</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0">
-        <v>-8.0775767071649547</v>
+        <v>8.6472718190240521</v>
       </c>
       <c r="B618" s="0">
-        <v>16.4500376893936</v>
+        <v>10.035839100863608</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0">
-        <v>-8.123232542260526</v>
+        <v>8.6344215109307871</v>
       </c>
       <c r="B619" s="0">
-        <v>16.442617758992039</v>
+        <v>10.053847169892238</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0">
-        <v>-8.168944610366168</v>
+        <v>8.6215037734753626</v>
       </c>
       <c r="B620" s="0">
-        <v>16.435050815744187</v>
+        <v>10.07186712500992</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0">
-        <v>-8.2147132744318228</v>
+        <v>8.6085181300259155</v>
       </c>
       <c r="B621" s="0">
-        <v>16.427336005559994</v>
+        <v>10.089899050204542</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0">
-        <v>-8.260538902253181</v>
+        <v>8.5954640974342649</v>
       </c>
       <c r="B622" s="0">
-        <v>16.41947246169719</v>
+        <v>10.107943030552104</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0">
-        <v>-8.3064218665599174</v>
+        <v>8.5823411859109662</v>
       </c>
       <c r="B623" s="0">
-        <v>16.411459304528304</v>
+        <v>10.12599915223759</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0">
-        <v>-8.3523625451060646</v>
+        <v>8.5691488988972289</v>
       </c>
       <c r="B624" s="0">
-        <v>16.403295641301842</v>
+        <v>10.144067502576423</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0">
-        <v>-8.3983613207628753</v>
+        <v>8.5558867329336579</v>
       </c>
       <c r="B625" s="0">
-        <v>16.39498056589737</v>
+        <v>10.162148170036396</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0">
-        <v>-8.4444185816139292</v>
+        <v>8.5425541775256217</v>
       </c>
       <c r="B626" s="0">
-        <v>16.386513158574463</v>
+        <v>10.180241244260195</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0">
-        <v>-8.4905347210526863</v>
+        <v>8.5291507150052155</v>
       </c>
       <c r="B627" s="0">
-        <v>16.37789248571525</v>
+        <v>10.19834681608849</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0">
-        <v>-8.5367101378827339</v>
+        <v>8.5156758203896867</v>
       </c>
       <c r="B628" s="0">
-        <v>16.369117599560294</v>
+        <v>10.216464977583637</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0">
-        <v>-8.5829452364204304</v>
+        <v>8.5021289612362452</v>
       </c>
       <c r="B629" s="0">
-        <v>16.360187537937747</v>
+        <v>10.234595822053928</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0">
-        <v>-8.6292404266004272</v>
+        <v>8.4885095974930476</v>
       </c>
       <c r="B630" s="0">
-        <v>16.35110132398545</v>
+        <v>10.252739444078564</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0">
-        <v>-8.6755961240838655</v>
+        <v>8.4748171813463866</v>
       </c>
       <c r="B631" s="0">
-        <v>16.341857965865731</v>
+        <v>10.270895939533183</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0">
-        <v>-8.7220127503694336</v>
+        <v>8.4610511570638209</v>
       </c>
       <c r="B632" s="0">
-        <v>16.332456456472865</v>
+        <v>10.289065405616107</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0">
-        <v>-8.7684907329074644</v>
+        <v>8.4472109608331696</v>
       </c>
       <c r="B633" s="0">
-        <v>16.322895773132668</v>
+        <v>10.307247940875298</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0">
-        <v>-8.8150305052170701</v>
+        <v>8.4332960205972824</v>
       </c>
       <c r="B634" s="0">
-        <v>16.313174877294205</v>
+        <v>10.325443645235978</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0">
-        <v>-8.8616325070062931</v>
+        <v>8.4193057558843503</v>
       </c>
       <c r="B635" s="0">
-        <v>16.303292714213281</v>
+        <v>10.343652620029028</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0">
-        <v>-8.9082971842957317</v>
+        <v>8.4052395776337079</v>
       </c>
       <c r="B636" s="0">
-        <v>16.293248212627397</v>
+        <v>10.361874968020139</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0">
-        <v>-8.9550249895453984</v>
+        <v>8.3910968880169214</v>
       </c>
       <c r="B637" s="0">
-        <v>16.28304028442194</v>
+        <v>10.380110793439723</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0">
-        <v>-9.0018163817850265</v>
+        <v>8.3768770802539922</v>
       </c>
       <c r="B638" s="0">
-        <v>16.272667824287343</v>
+        <v>10.398360202013681</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0">
-        <v>-9.0486718267480821</v>
+        <v>8.3625795384245958</v>
       </c>
       <c r="B639" s="0">
-        <v>16.262129709366832</v>
+        <v>10.416623300994972</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0">
-        <v>-9.0955917970093552</v>
+        <v>8.3482036372740751</v>
       </c>
       <c r="B640" s="0">
-        <v>16.25142479889454</v>
+        <v>10.434900199196077</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0">
-        <v>-9.142576772126505</v>
+        <v>8.3337487420140892</v>
       </c>
       <c r="B641" s="0">
-        <v>16.240551933823561</v>
+        <v>10.453191007022369</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0">
-        <v>-9.1896272387855085</v>
+        <v>8.3192142081177298</v>
       </c>
       <c r="B642" s="0">
-        <v>16.22950993644368</v>
+        <v>10.471495836506362</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0">
-        <v>-9.2367436909501848</v>
+        <v>8.3045993811088845</v>
       </c>
       <c r="B643" s="0">
-        <v>16.218297609988426</v>
+        <v>10.489814801342968</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0">
-        <v>-9.283926630016019</v>
+        <v>8.2899035963456651</v>
       </c>
       <c r="B644" s="0">
-        <v>16.206913738231037</v>
+        <v>10.508148016925741</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0">
-        <v>-9.3311765649683469</v>
+        <v>8.2751261787976773</v>
       </c>
       <c r="B645" s="0">
-        <v>16.195357085068945</v>
+        <v>10.526495600384132</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0">
-        <v>-9.3784940125450653</v>
+        <v>8.2602664428169792</v>
       </c>
       <c r="B646" s="0">
-        <v>16.183626394096436</v>
+        <v>10.544857670621814</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0">
-        <v>-9.4258794974040967</v>
+        <v>8.2453236919024153</v>
       </c>
       <c r="B647" s="0">
-        <v>16.171720388165053</v>
+        <v>10.563234348356117</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0">
-        <v>-9.4733335522955695</v>
+        <v>8.2302972184571246</v>
       </c>
       <c r="B648" s="0">
-        <v>16.159637768931304</v>
+        <v>10.581625756158617</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0">
-        <v>-9.5208567182392709</v>
+        <v>8.2151863035390758</v>
       </c>
       <c r="B649" s="0">
-        <v>16.147377216391174</v>
+        <v>10.600032018496838</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0">
-        <v>-9.5684495447071249</v>
+        <v>8.1999902166041796</v>
       </c>
       <c r="B650" s="0">
-        <v>16.134937388401035</v>
+        <v>10.618453261777276</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0">
-        <v>-9.6161125898110935</v>
+        <v>8.1847082152419226</v>
       </c>
       <c r="B651" s="0">
-        <v>16.122316920184506</v>
+        <v>10.636889614389613</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0">
-        <v>-9.6638464204967907</v>
+        <v>8.1693395449030888</v>
       </c>
       <c r="B652" s="0">
-        <v>16.109514423824578</v>
+        <v>10.655341206752281</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0">
-        <v>-9.7116516127428039</v>
+        <v>8.1538834386193706</v>
       </c>
       <c r="B653" s="0">
-        <v>16.096528487740677</v>
+        <v>10.673808171359399</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0">
-        <v>-9.759528751766025</v>
+        <v>8.1383391167145565</v>
       </c>
       <c r="B654" s="0">
-        <v>16.083357676149969</v>
+        <v>10.692290642829063</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0">
-        <v>-9.8074784322332587</v>
+        <v>8.1227057865069394</v>
       </c>
       <c r="B655" s="0">
-        <v>16.070000528512388</v>
+        <v>10.710788757953171</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0">
-        <v>-9.8555012584793058</v>
+        <v>8.1069826420026754</v>
       </c>
       <c r="B656" s="0">
-        <v>16.056455558958753</v>
+        <v>10.729302655748729</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0">
-        <v>-9.9035978447317365</v>
+        <v>8.0911688635797123</v>
       </c>
       <c r="B657" s="0">
-        <v>16.042721255701338</v>
+        <v>10.747832477510737</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0">
-        <v>-9.9517688153426178</v>
+        <v>8.075263617661939</v>
       </c>
       <c r="B658" s="0">
-        <v>16.028796080426297</v>
+        <v>10.766378366866723</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0">
-        <v>-10.000014805027458</v>
+        <v>8.0592660563832208</v>
       </c>
       <c r="B659" s="0">
-        <v>16.014678467667149</v>
+        <v>10.784940469832941</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0">
-        <v>-10.04833645911177</v>
+        <v>8.0431753172408378</v>
       </c>
       <c r="B660" s="0">
-        <v>16.00036682415865</v>
+        <v>10.803518934872409</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0">
-        <v>-10.096734433785253</v>
+        <v>8.0269905227380587</v>
       </c>
       <c r="B661" s="0">
-        <v>15.985859528170346</v>
+        <v>10.822113912954665</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0">
-        <v>-10.145209396364221</v>
+        <v>8.0107107800152821</v>
       </c>
       <c r="B662" s="0">
-        <v>15.971154928818923</v>
+        <v>10.840725557617541</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0">
-        <v>-10.193762025562311</v>
+        <v>7.9943351804693963</v>
       </c>
       <c r="B663" s="0">
-        <v>15.956251345358607</v>
+        <v>10.859354025030818</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0">
-        <v>-10.242393011770099</v>
+        <v>7.9778627993608389</v>
       </c>
       <c r="B664" s="0">
-        <v>15.941147066448663</v>
+        <v>10.877999474062017</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0">
-        <v>-10.291103057343653</v>
+        <v>7.9612926954078862</v>
       </c>
       <c r="B665" s="0">
-        <v>15.925840349397184</v>
+        <v>10.896662066344284</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0">
-        <v>-10.339892876902638</v>
+        <v>7.9446239103676906</v>
       </c>
       <c r="B666" s="0">
-        <v>15.910329419380156</v>
+        <v>10.91534196634648</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0">
-        <v>-10.388763197638172</v>
+        <v>7.9278554686034717</v>
       </c>
       <c r="B667" s="0">
-        <v>15.894612468634801</v>
+        <v>10.934039341445635</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0">
-        <v>-10.437714759631014</v>
+        <v>7.9109863766373083</v>
       </c>
       <c r="B668" s="0">
-        <v>15.878687655626202</v>
+        <v>10.952754362001775</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0">
-        <v>-10.486748316180327</v>
+        <v>7.8940156226880145</v>
       </c>
       <c r="B669" s="0">
-        <v>15.862553104186086</v>
+        <v>10.971487201435252</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0">
-        <v>-10.535864634143593</v>
+        <v>7.8769421761933787</v>
       </c>
       <c r="B670" s="0">
-        <v>15.846206902622558</v>
+        <v>10.990238036306712</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0">
-        <v>-10.585064494287939</v>
+        <v>7.8597649873161766</v>
       </c>
       <c r="B671" s="0">
-        <v>15.829647102799784</v>
+        <v>11.009007046399759</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0">
-        <v>-10.634348691653731</v>
+        <v>7.8424829864332857</v>
       </c>
       <c r="B672" s="0">
-        <v>15.812871719186058</v>
+        <v>11.027794414806436</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0">
-        <v>-10.683718035930481</v>
+        <v>7.8250950836071516</v>
       </c>
       <c r="B673" s="0">
-        <v>15.795878727869194</v>
+        <v>11.046600328015693</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0">
-        <v>-10.733173351845961</v>
+        <v>7.8076001680388778</v>
       </c>
       <c r="B674" s="0">
-        <v>15.778666065537742</v>
+        <v>11.065424976004904</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0">
-        <v>-10.782715479568845</v>
+        <v>7.7899971075021117</v>
       </c>
       <c r="B675" s="0">
-        <v>15.76123162842654</v>
+        <v>11.084268552334617</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0">
-        <v>-10.832345275125707</v>
+        <v>7.7722847477569914</v>
       </c>
       <c r="B676" s="0">
-        <v>15.743573271225088</v>
+        <v>11.103131254246609</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0">
-        <v>-10.882063610832713</v>
+        <v>7.7544619119431424</v>
       </c>
       <c r="B677" s="0">
-        <v>15.72568880594719</v>
+        <v>11.122013282765506</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0">
-        <v>-10.931871375742915</v>
+        <v>7.7365273999509485</v>
       </c>
       <c r="B678" s="0">
-        <v>15.707576000760035</v>
+        <v>11.140914842803967</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0">
-        <v>-10.981769476109571</v>
+        <v>7.718479987770035</v>
       </c>
       <c r="B679" s="0">
-        <v>15.689232578771081</v>
+        <v>11.159836143271736</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0">
-        <v>-11.031758835866563</v>
+        <v>7.7003184268139702</v>
       </c>
       <c r="B680" s="0">
-        <v>15.670656216770693</v>
+        <v>11.178777397188661</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0">
-        <v>-11.081840397126289</v>
+        <v>7.6820414432201396</v>
       </c>
       <c r="B681" s="0">
-        <v>15.651844543928702</v>
+        <v>11.197738821801842</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0">
-        <v>-11.132015120696062</v>
+        <v>7.6636477371236458</v>
       </c>
       <c r="B682" s="0">
-        <v>15.632795140442687</v>
+        <v>11.216720638707171</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0">
-        <v>-11.1822839866138</v>
+        <v>7.6451359819040148</v>
       </c>
       <c r="B683" s="0">
-        <v>15.613505536135838</v>
+        <v>11.235723073975402</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0">
-        <v>-11.232647994703942</v>
+        <v>7.626504823403546</v>
       </c>
       <c r="B684" s="0">
-        <v>15.593973209002046</v>
+        <v>11.254746358282935</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0">
-        <v>-11.283108165154401</v>
+        <v>7.6077528791158651</v>
       </c>
       <c r="B685" s="0">
-        <v>15.574195583695767</v>
+        <v>11.273790727047647</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0">
-        <v>-11.3336655391157</v>
+        <v>7.5888787373433724</v>
       </c>
       <c r="B686" s="0">
-        <v>15.554170029964087</v>
+        <v>11.292856420569889</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0">
-        <v>-11.384321179323141</v>
+        <v>7.5698809563220575</v>
       </c>
       <c r="B687" s="0">
-        <v>15.533893861018296</v>
+        <v>11.311943684178953</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0">
-        <v>-11.435076170743445</v>
+        <v>7.5507580633121609</v>
       </c>
       <c r="B688" s="0">
-        <v>15.513364331841904</v>
+        <v>11.331052768385261</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0">
-        <v>-11.485931621246584</v>
+        <v>7.531508553652996</v>
       </c>
       <c r="B689" s="0">
-        <v>15.492578637432356</v>
+        <v>11.350183929038552</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0">
-        <v>-11.536888662304388</v>
+        <v>7.5121308897802352</v>
       </c>
       <c r="B690" s="0">
-        <v>15.471533910972919</v>
+        <v>11.369337427492344</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0">
-        <v>-11.587948449717107</v>
+        <v>7.4926235002037762</v>
       </c>
       <c r="B691" s="0">
-        <v>15.450227221931488</v>
+        <v>11.388513530774986</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0">
-        <v>-11.639112164369301</v>
+        <v>7.4729847784442516</v>
       </c>
       <c r="B692" s="0">
-        <v>15.428655574082665</v>
+        <v>11.407712511767665</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0">
-        <v>-11.690381013016552</v>
+        <v>7.4532130819260995</v>
       </c>
       <c r="B693" s="0">
-        <v>15.406815903449287</v>
+        <v>11.426934649389647</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0">
-        <v>-11.74175622910451</v>
+        <v>7.4333067308250707</v>
       </c>
       <c r="B694" s="0">
-        <v>15.384705076159305</v>
+        <v>11.446180228791164</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0">
-        <v>-11.793239073621923</v>
+        <v>7.4132640068677187</v>
       </c>
       <c r="B695" s="0">
-        <v>15.362319886213822</v>
+        <v>11.465449541554335</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0">
-        <v>-11.844830835989491</v>
+        <v>7.3930831520805835</v>
       </c>
       <c r="B696" s="0">
-        <v>15.339657053161572</v>
+        <v>11.484742885902497</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0">
-        <v>-11.896532834986216</v>
+        <v>7.3727623674862945</v>
       </c>
       <c r="B697" s="0">
-        <v>15.316713219675163</v>
+        <v>11.504060566918424</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0">
-        <v>-11.948346419715419</v>
+        <v>7.3522998117438956</v>
       </c>
       <c r="B698" s="0">
-        <v>15.293484949023792</v>
+        <v>11.523402896771893</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0">
-        <v>-12.000272970612219</v>
+        <v>7.3316935997304533</v>
       </c>
       <c r="B699" s="0">
-        <v>15.269968722437195</v>
+        <v>11.542770194957068</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0">
-        <v>-12.052313900495159</v>
+        <v>7.3109418010607596</v>
       </c>
       <c r="B700" s="0">
-        <v>15.246160936354663</v>
+        <v>11.562162788540242</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0">
-        <v>-12.104470655663777</v>
+        <v>7.2900424385418363</v>
       </c>
       <c r="B701" s="0">
-        <v>15.2220578995534</v>
+        <v>11.581581012418498</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0">
-        <v>-12.156744717045093</v>
+        <v>7.2689934865586956</v>
       </c>
       <c r="B702" s="0">
-        <v>15.197655830149266</v>
+        <v>11.601025209589851</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0">
-        <v>-12.209137601391419</v>
+        <v>7.247792869387494</v>
       </c>
       <c r="B703" s="0">
-        <v>15.172950852463165</v>
+        <v>11.620495731435605</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0">
-        <v>-12.261650862532484</v>
+        <v>7.2264384594321749</v>
       </c>
       <c r="B704" s="0">
-        <v>15.147938993745452</v>
+        <v>11.639992938015428</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0">
-        <v>-12.314286092684862</v>
+        <v>7.2049280753801952</v>
       </c>
       <c r="B705" s="0">
-        <v>15.122616180750514</v>
+        <v>11.659517198376045</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0">
-        <v>-12.36704492382191</v>
+        <v>7.1832594802728176</v>
       </c>
       <c r="B706" s="0">
-        <v>15.096978236153019</v>
+        <v>11.679068890874188</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0">
-        <v>-12.41992902910771</v>
+        <v>7.1614303794849716</v>
       </c>
       <c r="B707" s="0">
-        <v>15.071020874796746</v>
+        <v>11.698648403514706</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0">
-        <v>-12.472940124398818</v>
+        <v>7.1394384186096564</v>
       </c>
       <c r="B708" s="0">
-        <v>15.044739699766314</v>
+        <v>11.718256134304617</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0">
-        <v>-12.526079969817543</v>
+        <v>7.1172811812410162</v>
       </c>
       <c r="B709" s="0">
-        <v>15.018130198271541</v>
+        <v>11.73789249162415</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0">
-        <v>-12.579350371401279</v>
+        <v>7.0949561866503164</v>
       </c>
       <c r="B710" s="0">
-        <v>14.991187737333233</v>
+        <v>11.75755789461571</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0">
-        <v>-12.632753182832051</v>
+        <v>7.0724608873483215</v>
       </c>
       <c r="B711" s="0">
-        <v>14.963907559258733</v>
+        <v>11.777252773591835</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0">
-        <v>-12.686290307251639</v>
+        <v>7.0497926665271837</v>
       </c>
       <c r="B712" s="0">
-        <v>14.936284776894283</v>
+        <v>11.796977570463351</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0">
-        <v>-12.739963699166925</v>
+        <v>7.026948835374589</v>
       </c>
       <c r="B713" s="0">
-        <v>14.908314368640843</v>
+        <v>11.816732739188868</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0">
-        <v>-12.793775366451456</v>
+        <v>7.0039266302520859</v>
       </c>
       <c r="B714" s="0">
-        <v>14.879991173218601</v>
+        <v>11.83651874624703</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0">
-        <v>-12.847727372449066</v>
+        <v>6.9807232097292751</v>
       </c>
       <c r="B715" s="0">
-        <v>14.851309884164515</v>
+        <v>11.856336071132896</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0">
-        <v>-12.901821838186038</v>
+        <v>6.9573356514646125</v>
       </c>
       <c r="B716" s="0">
-        <v>14.822265044045995</v>
+        <v>11.876185206879972</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0">
-        <v>-12.956060944698661</v>
+        <v>6.933760948923112</v>
       </c>
       <c r="B717" s="0">
-        <v>14.792851038372726</v>
+        <v>11.896066660609556</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0">
-        <v>-13.010446935483762</v>
+        <v>6.9099960079202303</v>
       </c>
       <c r="B718" s="0">
-        <v>14.763062089186908</v>
+        <v>11.915980954109184</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0">
-        <v>-13.064982119080179</v>
+        <v>6.8860376429808232</v>
       </c>
       <c r="B719" s="0">
-        <v>14.732892248311037</v>
+        <v>11.93592862444198</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0">
-        <v>-13.119668871789953</v>
+        <v>6.861882573500524</v>
       </c>
       <c r="B720" s="0">
-        <v>14.702335390230433</v>
+        <v>11.955910224589136</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0">
-        <v>-13.174509640548402</v>
+        <v>6.8375274196966318</v>
       </c>
       <c r="B721" s="0">
-        <v>14.671385204586123</v>
+        <v>11.97592632412757</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0">
-        <v>-13.229506945953366</v>
+        <v>6.8129686983339752</v>
       </c>
       <c r="B722" s="0">
-        <v>14.640035188251572</v>
+        <v>11.995977509945289</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0">
-        <v>-13.284663385464544</v>
+        <v>6.7882028182103635</v>
       </c>
       <c r="B723" s="0">
-        <v>14.608278636964654</v>
+        <v>12.016064386996939</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0">
-        <v>-13.339981636784682</v>
+        <v>6.7632260753848144</v>
       </c>
       <c r="B724" s="0">
-        <v>14.576108636483941</v>
+        <v>12.036187579102478</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0">
-        <v>-13.395464461435413</v>
+        <v>6.7380346481304869</v>
       </c>
       <c r="B725" s="0">
-        <v>14.543518053235799</v>
+        <v>12.05634772979182</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0">
-        <v>-13.451114708541855</v>
+        <v>6.7126245915924914</v>
       </c>
       <c r="B726" s="0">
-        <v>14.510499524415787</v>
+        <v>12.076545503198977</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0">
-        <v>-13.506935318840728</v>
+        <v>6.6869918321292712</v>
       </c>
       <c r="B727" s="0">
-        <v>14.477045447505098</v>
+        <v>12.096781585009106</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0">
-        <v>-13.562929328928822</v>
+        <v>6.6611321613143595</v>
       </c>
       <c r="B728" s="0">
-        <v>14.443147969158849</v>
+        <v>12.117056683462398</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0">
-        <v>-13.619099875769269</v>
+        <v>6.6350412295731038</v>
       </c>
       <c r="B729" s="0">
-        <v>14.408798973419779</v>
+        <v>12.13737153041907</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0">
-        <v>-13.675450201475225</v>
+        <v>6.6087145394269085</v>
       </c>
       <c r="B730" s="0">
-        <v>14.373990069206442</v>
+        <v>12.157726882490074</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0">
-        <v>-13.731983658392325</v>
+        <v>6.5821474383149399</v>
       </c>
       <c r="B731" s="0">
-        <v>14.33871257702028</v>
+        <v>12.178123522238453</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0">
-        <v>-13.78870371450272</v>
+        <v>6.5553351109604732</v>
       </c>
       <c r="B732" s="0">
-        <v>14.302957514811331</v>
+        <v>12.198562259456978</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0">
-        <v>-13.845613959176285</v>
+        <v>6.5282725712460383</v>
       </c>
       <c r="B733" s="0">
-        <v>14.266715582936181</v>
+        <v>12.219043932527978</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0">
-        <v>-13.90271810929643</v>
+        <v>6.5009546535581961</v>
       </c>
       <c r="B734" s="0">
-        <v>14.229977148135935</v>
+        <v>12.239569409871899</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0">
-        <v>-13.960020015791159</v>
+        <v>6.4733760035588519</v>
       </c>
       <c r="B735" s="0">
-        <v>14.192732226454673</v>
+        <v>12.260139591491891</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0">
-        <v>-14.017523670602353</v>
+        <v>6.4455310683359963</v>
       </c>
       <c r="B736" s="0">
-        <v>14.154970465011539</v>
+        <v>12.280755410622243</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0">
-        <v>-14.075233214129959</v>
+        <v>6.4174140858820925</v>
       </c>
       <c r="B737" s="0">
-        <v>14.116681122530787</v>
+        <v>12.301417835489318</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0">
-        <v>-14.133152943191375</v>
+        <v>6.3890190738429169</v>
       </c>
       <c r="B738" s="0">
-        <v>14.077853048524464</v>
+        <v>12.322127871194626</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0">
-        <v>-14.191287319540315</v>
+        <v>6.3603398174741805</v>
       </c>
       <c r="B739" s="0">
-        <v>14.038474661011914</v>
+        <v>12.342886561730479</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0">
-        <v>-14.249640978993966</v>
+        <v>6.3313698567365329</v>
       </c>
       <c r="B740" s="0">
-        <v>13.9985339226482</v>
+        <v>12.363694992139834</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0">
-        <v>-14.30821874122268</v>
+        <v>6.3021024724522325</v>
       </c>
       <c r="B741" s="0">
-        <v>13.958018315119968</v>
+        <v>12.384554290833206</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0">
-        <v>-14.367025620261707</v>
+        <v>6.2725306714387949</v>
       </c>
       <c r="B742" s="0">
-        <v>13.916914811652553</v>
+        <v>12.405465632076789</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0">
-        <v>-14.426066835811739</v>
+        <v>6.2426471705254603</v>
       </c>
       <c r="B743" s="0">
-        <v>13.875209847454553</v>
+        <v>12.426430238667551</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0">
-        <v>-14.4853478254014</v>
+        <v>6.2124443793481108</v>
       </c>
       <c r="B744" s="0">
-        <v>13.832889287907609</v>
+        <v>12.447449384812769</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0">
-        <v>-14.544874257494033</v>
+        <v>6.1819143818063553</v>
       </c>
       <c r="B745" s="0">
-        <v>13.789938394286867</v>
+        <v>12.468524399233511</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0">
-        <v>-14.604652045629647</v>
+        <v>6.1510489160534139</v>
       </c>
       <c r="B746" s="0">
-        <v>13.746341786773723</v>
+        <v>12.489656668513607</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0">
-        <v>-14.664687363704441</v>
+        <v>6.1198393528740889</v>
       </c>
       <c r="B747" s="0">
-        <v>13.702083404493829</v>
+        <v>12.510847640718499</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0">
-        <v>-14.724986662501363</v>
+        <v>6.0882766722892327</v>
       </c>
       <c r="B748" s="0">
-        <v>13.657146462282803</v>
+        <v>12.532098829310808</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0">
-        <v>-14.785556687599827</v>
+        <v>6.0563514382053736</v>
       </c>
       <c r="B749" s="0">
-        <v>13.611513403845073</v>
+        <v>12.553411817393146</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0">
-        <v>-14.846404498807878</v>
+        <v>6.0240537709058195</v>
       </c>
       <c r="B750" s="0">
-        <v>13.565165850930869</v>
+        <v>12.57478826231217</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0">
-        <v>-14.907537491278433</v>
+        <v>5.9913733171543209</v>
       </c>
       <c r="B751" s="0">
-        <v>13.518084548108872</v>
+        <v>12.596229900662228</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0">
-        <v>-14.968963418491514</v>
+        <v>5.9582992176525655</v>
       </c>
       <c r="B752" s="0">
-        <v>13.470249302658413</v>
+        <v>12.617738553731849</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0">
-        <v>-15.030690417308559</v>
+        <v>5.9248200715594317</v>
       </c>
       <c r="B753" s="0">
-        <v>13.421638919042504</v>
+        <v>12.639316133442026</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0">
-        <v>-15.09272703533191</v>
+        <v>5.8909238977407732</v>
       </c>
       <c r="B754" s="0">
-        <v>13.372231127351807</v>
+        <v>12.660964648831706</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0">
-        <v>-15.155082260834805</v>
+        <v>5.8565980923735159</v>
       </c>
       <c r="B755" s="0">
-        <v>13.322002505026015</v>
+        <v>12.682686213153403</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0">
-        <v>-15.217765555563384</v>
+        <v>5.8218293824755634</v>
       </c>
       <c r="B756" s="0">
-        <v>13.270928391063611</v>
+        <v>12.704483051650731</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0">
-        <v>-15.280786890755556</v>
+        <v>5.7866037748720931</v>
       </c>
       <c r="B757" s="0">
-        <v>13.218982791818354</v>
+        <v>12.726357510099715</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0">
-        <v>-15.344156786771354</v>
+        <v>5.7509065000378987</v>
       </c>
       <c r="B758" s="0">
-        <v>13.16613827735029</v>
+        <v>12.748312064207676</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0">
-        <v>-15.407886356788117</v>
+        <v>5.7147219501720086</v>
       </c>
       <c r="B759" s="0">
-        <v>13.112365867145874</v>
+        <v>12.770349329977471</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0">
-        <v>-15.471987355082518</v>
+        <v>5.6780336107633458</v>
       </c>
       <c r="B760" s="0">
-        <v>13.057634903841597</v>
+        <v>12.792472075161047</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0">
-        <v>-15.536472230502717</v>
+        <v>5.6408239847901767</v>
       </c>
       <c r="B761" s="0">
-        <v>13.001912913373419</v>
+        <v>12.814683231945917</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0">
-        <v>-15.601354185830214</v>
+        <v>5.6030745085601756</v>
       </c>
       <c r="B762" s="0">
-        <v>12.945165449722367</v>
+        <v>12.836985911040669</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0">
-        <v>-15.666647243845224</v>
+        <v>5.56476545803487</v>
       </c>
       <c r="B763" s="0">
-        <v>12.887355922128089</v>
+        <v>12.859383417353097</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0">
-        <v>-15.732366321045497</v>
+        <v>5.5258758442888833</v>
       </c>
       <c r="B764" s="0">
-        <v>12.828445402285441</v>
+        <v>12.881879267486779</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0">
-        <v>-15.798527310132467</v>
+        <v>5.4863832965214963</v>
       </c>
       <c r="B765" s="0">
-        <v>12.76839240861128</v>
+        <v>12.904477209321007</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0">
-        <v>-15.865147172575059</v>
+        <v>5.4462639307587937</v>
       </c>
       <c r="B766" s="0">
-        <v>12.707152664154242</v>
+        <v>12.927181243985567</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0">
-        <v>-15.932244042800011</v>
+        <v>5.4054922020455392</v>
       </c>
       <c r="B767" s="0">
-        <v>12.644678824096852</v>
+        <v>12.94999565059886</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0">
-        <v>-15.999837345846636</v>
+        <v>5.3640407375147268</v>
       </c>
       <c r="B768" s="0">
-        <v>12.580920168042914</v>
+        <v>12.972925014206394</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0">
-        <v>-16.067947930678198</v>
+        <v>5.3218801472194643</v>
       </c>
       <c r="B769" s="0">
-        <v>12.515822251356726</v>
+        <v>12.995974257441139</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0">
-        <v>-16.136598221776804</v>
+        <v>5.2789788089934238</v>
       </c>
       <c r="B770" s="0">
-        <v>12.449326508684004</v>
+        <v>13.019148676530603</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0">
-        <v>-16.205812392186548</v>
+        <v>5.2353026228415382</v>
       </c>
       <c r="B771" s="0">
-        <v>12.381369801377495</v>
+        <v>13.042453982403558</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0">
-        <v>-16.275616561838</v>
+        <v>5.1908147294117502</v>
       </c>
       <c r="B772" s="0">
-        <v>12.311883898801916</v>
+        <v>13.065896347808312</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0">
-        <v>-16.346039025825288</v>
+        <v>5.1454751859071388</v>
       </c>
       <c r="B773" s="0">
-        <v>12.240794881301625</v>
+        <v>13.089482461554086</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0">
-        <v>-16.417110518362307</v>
+        <v>5.0992405912961729</v>
       </c>
       <c r="B774" s="0">
-        <v>12.168022449853451</v>
+        <v>13.113219591238153</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0">
-        <v>-16.488864519486825</v>
+        <v>5.052063650770517</v>
       </c>
       <c r="B775" s="0">
-        <v>12.093479123917621</v>
+        <v>13.137115656140862</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0">
-        <v>-16.561337613298512</v>
+        <v>5.0038926669559984</v>
       </c>
       <c r="B776" s="0">
-        <v>12.017069304507489</v>
+        <v>13.161179312379735</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0">
-        <v>-16.634569908736054</v>
+        <v>4.9546709422262172</v>
       </c>
       <c r="B777" s="0">
-        <v>11.938688173695677</v>
+        <v>13.185420052941989</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0">
-        <v>-16.708605536789587</v>
+        <v>4.9043360723549325</v>
       </c>
       <c r="B778" s="0">
-        <v>11.858220394212394</v>
+        <v>13.209848325903215</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0">
-        <v>-16.783493241850518</v>
+        <v>4.8528191063283268</v>
       </c>
       <c r="B779" s="0">
-        <v>11.775538562838515</v>
+        <v>13.234475675046426</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0">
-        <v>-16.859287089961736</v>
+        <v>4.8000435399372421</v>
       </c>
       <c r="B780" s="0">
-        <v>11.690501358059187</v>
+        <v>13.259314908300714</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0">
-        <v>-16.936047323540567</v>
+        <v>4.7459241010798348</v>
       </c>
       <c r="B781" s="0">
-        <v>11.602951304634962</v>
+        <v>13.284380301040516</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0">
-        <v>-17.013841401420223</v>
+        <v>4.6903652715080879</v>
       </c>
       <c r="B782" s="0">
-        <v>11.512712053493869</v>
+        <v>13.309687843495295</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0">
-        <v>-17.092745275857517</v>
+        <v>4.6332594715325355</v>
       </c>
       <c r="B783" s="0">
-        <v>11.419585041865965</v>
+        <v>13.335255544568628</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0">
-        <v>-17.172844976085987</v>
+        <v>4.5744848086772141</v>
       </c>
       <c r="B784" s="0">
-        <v>11.323345351683729</v>
+        <v>13.361103808637271</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0">
-        <v>-17.254238593520842</v>
+        <v>4.5139022549424483</v>
       </c>
       <c r="B785" s="0">
-        <v>11.223736517508899</v>
+        <v>13.387255907981967</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0">
-        <v>-17.337038800707624</v>
+        <v>4.4513520646843672</v>
       </c>
       <c r="B786" s="0">
-        <v>11.120463938514389</v>
+        <v>13.413738582313371</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0">
-        <v>-17.421376090758653</v>
+        <v>4.3866491673187138</v>
       </c>
       <c r="B787" s="0">
-        <v>11.013186406114432</v>
+        <v>13.440582809877723</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0">
-        <v>-17.507403006558082</v>
+        <v>4.3195771515493391</v>
       </c>
       <c r="B788" s="0">
-        <v>10.901505042969468</v>
+        <v>13.467824814293687</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0">
-        <v>-17.595299756757221</v>
+        <v>4.2498802759469179</v>
       </c>
       <c r="B789" s="0">
-        <v>10.78494861500231</v>
+        <v>13.495507401711484</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0">
-        <v>-17.685281818818918</v>
+        <v>4.1772526513174224</v>
       </c>
       <c r="B790" s="0">
-        <v>10.662953646518096</v>
+        <v>13.523681771318818</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0">
-        <v>-17.777610463057822</v>
+        <v>4.1013232651320655</v>
       </c>
       <c r="B791" s="0">
-        <v>10.534836895798794</v>
+        <v>13.552410021745205</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0">
-        <v>-17.872607699663941</v>
+        <v>4.0216347093519573</v>
       </c>
       <c r="B792" s="0">
-        <v>10.399756262898295</v>
+        <v>13.581768711305241</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0">
-        <v>-17.970678159194758</v>
+        <v>3.9376120366891882</v>
       </c>
       <c r="B793" s="0">
-        <v>10.256653563755513</v>
+        <v>13.611854070408</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0">
-        <v>-18.072342298431423</v>
+        <v>3.8485154906709189</v>
       </c>
       <c r="B794" s="0">
-        <v>10.104167684132626</v>
+        <v>13.642789912946807</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0">
-        <v>-18.178289047966494</v>
+        <v>3.7533655497582656</v>
       </c>
       <c r="B795" s="0">
-        <v>9.9404968859618297</v>
+        <v>13.674740181380661</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0">
-        <v>-18.28946394581963</v>
+        <v>3.6508174324547702</v>
       </c>
       <c r="B796" s="0">
-        <v>9.7631683041058785</v>
+        <v>13.707929950337945</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0">
-        <v>-18.407227286486105</v>
+        <v>3.5389358763956227</v>
       </c>
       <c r="B797" s="0">
-        <v>9.568624325883011</v>
+        <v>13.742683120985628</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0">
-        <v>-18.533665339962916</v>
+        <v>3.4147518701336352</v>
       </c>
       <c r="B798" s="0">
-        <v>9.3514086338373215</v>
+        <v>13.779496609148126</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0">
-        <v>-18.672287538503699</v>
+        <v>3.2732695165723618</v>
       </c>
       <c r="B799" s="0">
-        <v>9.1023427947263649</v>
+        <v>13.819206562805748</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0">
-        <v>-18.82993171217954</v>
+        <v>3.1047516575118999</v>
       </c>
       <c r="B800" s="0">
-        <v>8.8035433371141458</v>
+        <v>13.863442656813955</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0">
-        <v>-19.024237549180864</v>
+        <v>2.8840708637998946</v>
       </c>
       <c r="B801" s="0">
-        <v>8.4088757836383401</v>
+        <v>13.916410377270982</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0">
-        <v>-19.440696278201077</v>
+        <v>2.3468684494194112</v>
       </c>
       <c r="B802" s="0">
-        <v>7.4332094405847418</v>
+        <v>14.022354437898969</v>
       </c>
     </row>
   </sheetData>

--- a/pulley.xlsx
+++ b/pulley.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -291,7 +375,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -342,11 +426,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -391,6 +489,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,16 +515,16 @@
   <dimension ref="A1:B802"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
@@ -425,6402 +537,6402 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>10.005260095187392</v>
+        <v>10.020521354369052</v>
       </c>
       <c r="B3" s="0">
-        <v>0.015264386424991349</v>
+        <v>0.17163260093314472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>10.010496916309753</v>
+        <v>10.038127973028773</v>
       </c>
       <c r="B4" s="0">
-        <v>0.030532256781496674</v>
+        <v>0.3428789024573608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>10.015710484001087</v>
+        <v>10.052857264683807</v>
       </c>
       <c r="B5" s="0">
-        <v>0.045803598089555995</v>
+        <v>0.51369286606444653</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>10.020900818765268</v>
+        <v>10.064746906381089</v>
       </c>
       <c r="B6" s="0">
-        <v>0.06107839748807551</v>
+        <v>0.68402987789772418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>10.026067940975999</v>
+        <v>10.07383480956341</v>
       </c>
       <c r="B7" s="0">
-        <v>0.076356642234241739</v>
+        <v>0.85384672519167126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>10.031211870876755</v>
+        <v>10.080159087452051</v>
       </c>
       <c r="B8" s="0">
-        <v>0.091638319702941923</v>
+        <v>1.0231015725684109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>10.036332628580762</v>
+        <v>10.083758023723966</v>
       </c>
       <c r="B9" s="0">
-        <v>0.10692341738620129</v>
+        <v>1.191753938224372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>10.041430234070935</v>
+        <v>10.084670042449339</v>
       </c>
       <c r="B10" s="0">
-        <v>0.12221192289260313</v>
+        <v>1.3597646700391977</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>10.046504707199837</v>
+        <v>10.082933679255675</v>
       </c>
       <c r="B11" s="0">
-        <v>0.13750382394672803</v>
+        <v>1.5270959216366724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>10.051556067689647</v>
+        <v>10.078587553685008</v>
       </c>
       <c r="B12" s="0">
-        <v>0.15279910838860142</v>
+        <v>1.6937111284259057</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>10.056584335132095</v>
+        <v>10.071670342711201</v>
       </c>
       <c r="B13" s="0">
-        <v>0.16809776417310801</v>
+        <v>1.8595749836494004</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>10.061589528988435</v>
+        <v>10.062220755384798</v>
       </c>
       <c r="B14" s="0">
-        <v>0.18339977936945759</v>
+        <v>2.024653414462803</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>10.066571668589392</v>
+        <v>10.050277508573263</v>
       </c>
       <c r="B15" s="0">
-        <v>0.19870514216062132</v>
+        <v>2.1889135580700612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>10.071530773135111</v>
+        <v>10.035879303765061</v>
       </c>
       <c r="B16" s="0">
-        <v>0.21401384084277938</v>
+        <v>2.3523237379355844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>10.076466861695115</v>
+        <v>10.019064804906412</v>
       </c>
       <c r="B17" s="0">
-        <v>0.22932586382478651</v>
+        <v>2.5148534400942579</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>10.081379953208266</v>
+        <v>9.9998726172401344</v>
       </c>
       <c r="B18" s="0">
-        <v>0.24464119962762013</v>
+        <v>2.6764732895784622</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>10.086270066482699</v>
+        <v>9.9783412671165195</v>
       </c>
       <c r="B19" s="0">
-        <v>0.25995983688383872</v>
+        <v>2.8371550269799819</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>10.091137220195792</v>
+        <v>9.9545091827466869</v>
       </c>
       <c r="B20" s="0">
-        <v>0.27528176433703566</v>
+        <v>2.9968714851636618</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>10.095981432894105</v>
+        <v>9.9284146758694831</v>
       </c>
       <c r="B21" s="0">
-        <v>0.29060697084132697</v>
+        <v>3.1555965661481555</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10.100802722993334</v>
+        <v>9.9000959243034465</v>
       </c>
       <c r="B22" s="0">
-        <v>0.30593544536080231</v>
+        <v>3.3133052181685319</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.105601108778268</v>
+        <v>9.8695909553560277</v>
       </c>
       <c r="B23" s="0">
-        <v>0.32126717696899371</v>
+        <v>3.4699734129338209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>10.110376608402728</v>
+        <v>9.8369376300627938</v>
       </c>
       <c r="B24" s="0">
-        <v>0.33660215484838607</v>
+        <v>3.6255781230919268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>10.115129239889523</v>
+        <v>9.8021736282298573</v>
       </c>
       <c r="B25" s="0">
-        <v>0.35194036828983383</v>
+        <v>3.7800972999134532</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>10.119859021130399</v>
+        <v>9.7653364342534061</v>
       </c>
       <c r="B26" s="0">
-        <v>0.3672818066920987</v>
+        <v>3.9335098512047812</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>10.124565969885973</v>
+        <v>9.7264633236908011</v>
       </c>
       <c r="B27" s="0">
-        <v>0.38262645956129943</v>
+        <v>4.0857956194600114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>10.129250103785704</v>
+        <v>9.6855913505582389</v>
       </c>
       <c r="B28" s="0">
-        <v>0.39797431651041959</v>
+        <v>4.2369353602604933</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>10.133911440327818</v>
+        <v>9.6427573353305114</v>
       </c>
       <c r="B29" s="0">
-        <v>0.41332536725877872</v>
+        <v>4.3869107209301381</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>10.138549996879268</v>
+        <v>9.5979978536191535</v>
       </c>
       <c r="B30" s="0">
-        <v>0.42867960163155006</v>
+        <v>4.5357042194533372</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>10.14316579067567</v>
+        <v>9.5513492255055255</v>
       </c>
       <c r="B31" s="0">
-        <v>0.44403700955922748</v>
+        <v>4.6832992236623907</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>10.147758838821249</v>
+        <v>9.5028475055063222</v>
       </c>
       <c r="B32" s="0">
-        <v>0.45939758107714657</v>
+        <v>4.8296799306999212</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>10.152329158288783</v>
+        <v>9.4525284731491865</v>
       </c>
       <c r="B33" s="0">
-        <v>0.47476130632498287</v>
+        <v>4.9748313467617633</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>10.156876765919549</v>
+        <v>9.4004276241369773</v>
       </c>
       <c r="B34" s="0">
-        <v>0.490128175546242</v>
+        <v>5.1187392671245435</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>10.161401678423264</v>
+        <v>9.3465801620795439</v>
       </c>
       <c r="B35" s="0">
-        <v>0.50549817908778705</v>
+        <v>5.2613902564623283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>10.16590391237802</v>
+        <v>9.2910209907726262</v>
       </c>
       <c r="B36" s="0">
-        <v>0.52087130739935028</v>
+        <v>5.4027716294553763</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>10.170383484230236</v>
+        <v>9.2337847070038368</v>
       </c>
       <c r="B37" s="0">
-        <v>0.53624755103302524</v>
+        <v>5.5428714316942225</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>10.17484041029458</v>
+        <v>9.1749055938663524</v>
       </c>
       <c r="B38" s="0">
-        <v>0.55162690064280273</v>
+        <v>5.6816784208813509</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>10.179274706753928</v>
+        <v>9.1144176145613933</v>
       </c>
       <c r="B39" s="0">
-        <v>0.56700934698408401</v>
+        <v>5.8191820483325198</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>10.18368638965929</v>
+        <v>9.052354406671169</v>
       </c>
       <c r="B40" s="0">
-        <v>0.58239488091320402</v>
+        <v>5.9553724407791346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>10.188075474929743</v>
+        <v>8.9887492768843238</v>
       </c>
       <c r="B41" s="0">
-        <v>0.59778349338695225</v>
+        <v>6.0902403824729978</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>10.192441978352379</v>
+        <v>8.9236351961566278</v>
       </c>
       <c r="B42" s="0">
-        <v>0.61317517546212497</v>
+        <v>6.2237772975938972</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>10.196785915582238</v>
+        <v>8.8570447952899336</v>
       </c>
       <c r="B43" s="0">
-        <v>0.62856991829501208</v>
+        <v>6.3559752329607022</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>10.201107302142228</v>
+        <v>8.7890103609130836</v>
       </c>
       <c r="B44" s="0">
-        <v>0.64396771314097434</v>
+        <v>6.4868268410457182</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>10.20540615342308</v>
+        <v>8.7195638318488342</v>
       </c>
       <c r="B45" s="0">
-        <v>0.65936855135395067</v>
+        <v>6.6163253632921748</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>10.209682484683261</v>
+        <v>8.6487367958513062</v>
       </c>
       <c r="B46" s="0">
-        <v>0.67477242438601881</v>
+        <v>6.7444646137342046</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>10.213936311048915</v>
+        <v>8.5765604866990373</v>
       </c>
       <c r="B47" s="0">
-        <v>0.69017932378691749</v>
+        <v>6.8712389629184081</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>10.2181676475138</v>
+        <v>8.5030657816290827</v>
       </c>
       <c r="B48" s="0">
-        <v>0.70558924120361755</v>
+        <v>6.996643322125867</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>10.222376508939201</v>
+        <v>8.4282831990979705</v>
       </c>
       <c r="B49" s="0">
-        <v>0.7210021683798421</v>
+        <v>7.1206731278933146</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>10.226562910053866</v>
+        <v>8.3522428968559783</v>
       </c>
       <c r="B50" s="0">
-        <v>0.73641809715563833</v>
+        <v>7.2433243268316856</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>10.230726865453947</v>
+        <v>8.2749746703214129</v>
       </c>
       <c r="B51" s="0">
-        <v>0.75183701946691595</v>
+        <v>7.3645933607403071</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>10.234868389602894</v>
+        <v>8.1965079512420225</v>
       </c>
       <c r="B52" s="0">
-        <v>0.76725892734501278</v>
+        <v>7.4844771520147164</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>10.238987496831419</v>
+        <v>8.1168718066311794</v>
       </c>
       <c r="B53" s="0">
-        <v>0.78268381291625932</v>
+        <v>7.6029730893458645</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>10.243084201337389</v>
+        <v>8.0360949379667161</v>
       </c>
       <c r="B54" s="0">
-        <v>0.7981116684015237</v>
+        <v>7.7200790137082942</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>10.247158517185765</v>
+        <v>7.9542056806408707</v>
       </c>
       <c r="B55" s="0">
-        <v>0.8135424861157855</v>
+        <v>7.8357932046347818</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>10.251210458308519</v>
+        <v>7.8712320036498955</v>
       </c>
       <c r="B56" s="0">
-        <v>0.82897625846770839</v>
+        <v>7.9501143667747884</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>10.255240038504555</v>
+        <v>7.7872015095125899</v>
       </c>
       <c r="B57" s="0">
-        <v>0.84441297795920045</v>
+        <v>8.0630416167338357</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>10.259247271439632</v>
+        <v>7.7021414344070385</v>
       </c>
       <c r="B58" s="0">
-        <v>0.85985263718498695</v>
+        <v>8.174574470190942</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>10.263232170646278</v>
+        <v>7.6160786485155541</v>
       </c>
       <c r="B59" s="0">
-        <v>0.8752952288321918</v>
+        <v>8.2847128292909193</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>10.267194749523707</v>
+        <v>7.5290396565676811</v>
       </c>
       <c r="B60" s="0">
-        <v>0.89074074567992467</v>
+        <v>8.3934569703086392</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>10.271135021337743</v>
+        <v>7.4410505985720024</v>
       </c>
       <c r="B61" s="0">
-        <v>0.90618918059883091</v>
+        <v>8.5008075315817333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>10.275052999220723</v>
+        <v>7.3521372507273801</v>
       </c>
       <c r="B62" s="0">
-        <v>0.92164052655070672</v>
+        <v>8.6067655017085727</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>10.278948696171417</v>
+        <v>7.2623250265047119</v>
       </c>
       <c r="B63" s="0">
-        <v>0.93709477658805884</v>
+        <v>8.7113322080081641</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>10.282822125054944</v>
+        <v>7.1716389778907264</v>
       </c>
       <c r="B64" s="0">
-        <v>0.95255192385371523</v>
+        <v>8.8145093052383334</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>10.286673298602677</v>
+        <v>7.080103796785461</v>
       </c>
       <c r="B65" s="0">
-        <v>0.96801196158041025</v>
+        <v>8.9162987645687934</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>10.290502229412152</v>
+        <v>6.9877438165454029</v>
       </c>
       <c r="B66" s="0">
-        <v>0.98347488309036624</v>
+        <v>9.0167028628055164</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>10.294308929946981</v>
+        <v>6.8945830136645867</v>
       </c>
       <c r="B67" s="0">
-        <v>0.99894068179489659</v>
+        <v>9.1157241718627464</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>10.298093412536762</v>
+        <v>6.8006450095862396</v>
       </c>
       <c r="B68" s="0">
-        <v>1.0144093511940167</v>
+        <v>9.213365548479052</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>10.301855689376971</v>
+        <v>6.7059530726377474</v>
       </c>
       <c r="B69" s="0">
-        <v>1.029880884876021</v>
+        <v>9.3096301241736654</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>10.305595772528884</v>
+        <v>6.610530120082033</v>
       </c>
       <c r="B70" s="0">
-        <v>1.0453552765171028</v>
+        <v>9.4045212954394817</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>10.309313673919469</v>
+        <v>6.5143987202786811</v>
       </c>
       <c r="B71" s="0">
-        <v>1.0608325198809776</v>
+        <v>9.4980427141689301</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>10.313009405341294</v>
+        <v>6.4175810949484067</v>
       </c>
       <c r="B72" s="0">
-        <v>1.0763126088184489</v>
+        <v>9.590198278309007</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>10.316682978452414</v>
+        <v>6.3200991215346329</v>
       </c>
       <c r="B73" s="0">
-        <v>1.0917955372670491</v>
+        <v>9.6809921227416602</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>10.32033440477629</v>
+        <v>6.2219743356562942</v>
       </c>
       <c r="B74" s="0">
-        <v>1.1072812992506569</v>
+        <v>9.7704286103858635</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>10.323963695701671</v>
+        <v>6.1232279336460191</v>
       </c>
       <c r="B75" s="0">
-        <v>1.1227698888790929</v>
+        <v>9.8585123235175391</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>10.327570862482501</v>
+        <v>6.0238807751683501</v>
       </c>
       <c r="B76" s="0">
-        <v>1.1382613003477562</v>
+        <v>9.9452480553035816</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>10.331155916237801</v>
+        <v>5.9239533859124398</v>
       </c>
       <c r="B77" s="0">
-        <v>1.1537555279372451</v>
+        <v>10.03064080154633</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>10.334718867951571</v>
+        <v>5.8234659603544801</v>
       </c>
       <c r="B78" s="0">
-        <v>1.16925256601297</v>
+        <v>10.114695752634564</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>10.338259728472684</v>
+        <v>5.7224383645845416</v>
       </c>
       <c r="B79" s="0">
-        <v>1.1847524090247834</v>
+        <v>10.197418285697518</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>10.341778508514764</v>
+        <v>5.6208901391934782</v>
       </c>
       <c r="B80" s="0">
-        <v>1.200255051506617</v>
+        <v>10.278813956958034</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>10.34527521865609</v>
+        <v>5.5188405022151654</v>
       </c>
       <c r="B81" s="0">
-        <v>1.2157604880761008</v>
+        <v>10.358888494281251</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>10.348749869339466</v>
+        <v>5.416308352119799</v>
       </c>
       <c r="B82" s="0">
-        <v>1.2312687134342095</v>
+        <v>10.437647789915125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>10.352202470872124</v>
+        <v>5.3133122708540181</v>
       </c>
       <c r="B83" s="0">
-        <v>1.2467797223648946</v>
+        <v>10.51509789341922</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>10.355633033425594</v>
+        <v>5.2098705269239893</v>
       </c>
       <c r="B84" s="0">
-        <v>1.2622935097347163</v>
+        <v>10.591245004777997</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>10.359041567035593</v>
+        <v>5.1060010785174175</v>
       </c>
       <c r="B85" s="0">
-        <v>1.2778100704924862</v>
+        <v>10.666095467695223</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>10.362428081601903</v>
+        <v>5.0017215766609944</v>
       </c>
       <c r="B86" s="0">
-        <v>1.2933293996689177</v>
+        <v>10.739655763065755</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>10.365792586888251</v>
+        <v>4.8970493684096592</v>
       </c>
       <c r="B87" s="0">
-        <v>1.3088514923762695</v>
+        <v>10.811932502621294</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>10.369135092522182</v>
+        <v>4.7920015000642486</v>
       </c>
       <c r="B88" s="0">
-        <v>1.3243763438079823</v>
+        <v>10.88293242274661</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>10.372455607994947</v>
+        <v>4.6865947204143952</v>
       </c>
       <c r="B89" s="0">
-        <v>1.3399039492383626</v>
+        <v>10.95266237846274</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>10.375754142661359</v>
+        <v>4.5808454840036203</v>
       </c>
       <c r="B90" s="0">
-        <v>1.3554343040221883</v>
+        <v>11.021129337573765</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>10.379030705739682</v>
+        <v>4.4747699544133992</v>
       </c>
       <c r="B91" s="0">
-        <v>1.3709674035943966</v>
+        <v>11.08834037497386</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>10.382285306311482</v>
+        <v>4.3683840075636935</v>
       </c>
       <c r="B92" s="0">
-        <v>1.386503243469736</v>
+        <v>11.154302667111178</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>10.385517953321523</v>
+        <v>4.2617032350270412</v>
       </c>
       <c r="B93" s="0">
-        <v>1.4020418192424193</v>
+        <v>11.219023486605321</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>10.388728655577605</v>
+        <v>4.1547429473536717</v>
       </c>
       <c r="B94" s="0">
-        <v>1.4175831265857863</v>
+        <v>11.282510197015169</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>10.391917421750447</v>
+        <v>4.0475181774051503</v>
       </c>
       <c r="B95" s="0">
-        <v>1.4331271612519885</v>
+        <v>11.344770247753823</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>10.395084260373549</v>
+        <v>3.9400436836942583</v>
       </c>
       <c r="B96" s="0">
-        <v>1.4486739190716276</v>
+        <v>11.405811169147512</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>10.398229179843046</v>
+        <v>3.8323339537287491</v>
       </c>
       <c r="B97" s="0">
-        <v>1.4642233959534372</v>
+        <v>11.465640567635337</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>10.401352188417569</v>
+        <v>3.7244032073569859</v>
       </c>
       <c r="B98" s="0">
-        <v>1.4797755878839538</v>
+        <v>11.524266121106766</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>10.404453294218106</v>
+        <v>3.6162654001132832</v>
       </c>
       <c r="B99" s="0">
-        <v>1.4953304909271963</v>
+        <v>11.581695574373862</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>10.407532505227861</v>
+        <v>3.5079342265610012</v>
       </c>
       <c r="B100" s="0">
-        <v>1.5108881012243394</v>
+        <v>11.637936734775257</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>10.410589829292105</v>
+        <v>3.3994231236317516</v>
       </c>
       <c r="B101" s="0">
-        <v>1.5264484149933815</v>
+        <v>11.692997467908894</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>10.413625274118017</v>
+        <v>3.2907452739586485</v>
       </c>
       <c r="B102" s="0">
-        <v>1.5420114285288435</v>
+        <v>11.746885693490679</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>10.416638847274557</v>
+        <v>3.1819136092022089</v>
       </c>
       <c r="B103" s="0">
-        <v>1.5575771382014327</v>
+        <v>11.79960938133617</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>10.41963055619229</v>
+        <v>3.0729408133670471</v>
       </c>
       <c r="B104" s="0">
-        <v>1.5731455404577424</v>
+        <v>11.851176547462536</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>10.422600408163246</v>
+        <v>2.9638393261081788</v>
       </c>
       <c r="B105" s="0">
-        <v>1.5887166318199393</v>
+        <v>11.901595250307931</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>10.42554841034077</v>
+        <v>2.8546213460251653</v>
       </c>
       <c r="B106" s="0">
-        <v>1.6042904088854333</v>
+        <v>11.950873587065697</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>10.428474569739345</v>
+        <v>2.7452988339430662</v>
       </c>
       <c r="B107" s="0">
-        <v>1.6198668683266126</v>
+        <v>11.999019690130597</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>10.431378893234445</v>
+        <v>2.6358835161786129</v>
       </c>
       <c r="B108" s="0">
-        <v>1.6354460068904857</v>
+        <v>12.046041723654589</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>10.434261387562373</v>
+        <v>2.5263868877906765</v>
       </c>
       <c r="B109" s="0">
-        <v>1.6510278213984109</v>
+        <v>12.091947880209446</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>10.437122059320094</v>
+        <v>2.4168202158136718</v>
       </c>
       <c r="B110" s="0">
-        <v>1.666612308745786</v>
+        <v>12.136746377553759</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>10.43996091496507</v>
+        <v>2.3071945424729541</v>
       </c>
       <c r="B111" s="0">
-        <v>1.6821994659017465</v>
+        <v>12.180445455501829</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>10.442777960815091</v>
+        <v>2.1975206883811866</v>
       </c>
       <c r="B112" s="0">
-        <v>1.6977892899088893</v>
+        <v>12.223053372891959</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>10.445573203048106</v>
+        <v>2.0878092557145611</v>
       </c>
       <c r="B113" s="0">
-        <v>1.7133817778829386</v>
+        <v>12.264578404651857</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>10.448346647702046</v>
+        <v>1.9780706313682566</v>
       </c>
       <c r="B114" s="0">
-        <v>1.7289769270124857</v>
+        <v>12.305028838958659</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>10.451098300674655</v>
+        <v>1.8683149900900158</v>
       </c>
       <c r="B115" s="0">
-        <v>1.7445747345586868</v>
+        <v>12.344412974491384</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>10.453828167723309</v>
+        <v>1.7585522975912811</v>
       </c>
       <c r="B116" s="0">
-        <v>1.7601751978549804</v>
+        <v>12.382739117773488</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>10.456536254464847</v>
+        <v>1.6487923136350107</v>
       </c>
       <c r="B117" s="0">
-        <v>1.7757783143067867</v>
+        <v>12.420015580603309</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>10.45922256637537</v>
+        <v>1.53904459509944</v>
       </c>
       <c r="B118" s="0">
-        <v>1.7913840813912529</v>
+        <v>12.456250677570281</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>10.46188710879008</v>
+        <v>1.4293184990174024</v>
       </c>
       <c r="B119" s="0">
-        <v>1.8069924966569391</v>
+        <v>12.491452723654691</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>10.464529886903073</v>
+        <v>1.3196231855903664</v>
       </c>
       <c r="B120" s="0">
-        <v>1.8226035577235538</v>
+        <v>12.525630031908937</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>10.467150905767166</v>
+        <v>1.2099676211766726</v>
       </c>
       <c r="B121" s="0">
-        <v>1.8382172622816795</v>
+        <v>12.558790911218267</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>10.469750170293702</v>
+        <v>1.1003605812536263</v>
       </c>
       <c r="B122" s="0">
-        <v>1.8538336080924926</v>
+        <v>12.590943664138921</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>10.472327685252356</v>
+        <v>0.99081065335278173</v>
       </c>
       <c r="B123" s="0">
-        <v>1.8694525929874839</v>
+        <v>12.622096584811748</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>10.474883455270943</v>
+        <v>0.88132623996809445</v>
       </c>
       <c r="B124" s="0">
-        <v>1.8850742148682162</v>
+        <v>12.652257956949382</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>10.477417484835213</v>
+        <v>0.77191556143655105</v>
       </c>
       <c r="B125" s="0">
-        <v>1.9006984717060103</v>
+        <v>12.681436051895044</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>10.479929778288659</v>
+        <v>0.66258665879081979</v>
       </c>
       <c r="B126" s="0">
-        <v>1.9163253615417155</v>
+        <v>12.709639126751172</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>10.482420339832311</v>
+        <v>0.55334739658378218</v>
       </c>
       <c r="B127" s="0">
-        <v>1.9319548824854225</v>
+        <v>12.736875422576016</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>10.48488917352454</v>
+        <v>0.44420546568443475</v>
       </c>
       <c r="B128" s="0">
-        <v>1.9475870327162168</v>
+        <v>12.763153162646478</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>10.487336283280824</v>
+        <v>0.33516838604506116</v>
       </c>
       <c r="B129" s="0">
-        <v>1.9632218104819084</v>
+        <v>12.788480550785421</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>10.489761672873579</v>
+        <v>0.22624350943938498</v>
       </c>
       <c r="B130" s="0">
-        <v>1.9788592140987842</v>
+        <v>12.812865769751763</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>10.492165345931909</v>
+        <v>0.1174380221715272</v>
       </c>
       <c r="B131" s="0">
-        <v>1.9944992419513303</v>
+        <v>12.836316979691713</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>10.494547305941417</v>
+        <v>0.0087589477554929768</v>
       </c>
       <c r="B132" s="0">
-        <v>2.0101418924920011</v>
+        <v>12.858842316649485</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>10.49690755624397</v>
+        <v>-0.099786850434785412</v>
       </c>
       <c r="B133" s="0">
-        <v>2.0257871642409513</v>
+        <v>12.88044989113595</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>10.499246100037492</v>
+        <v>-0.20819266654516078</v>
       </c>
       <c r="B134" s="0">
-        <v>2.0414350557857985</v>
+        <v>12.901147786753617</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>10.501562940375736</v>
+        <v>-0.31645194965066348</v>
       </c>
       <c r="B135" s="0">
-        <v>2.057085565781358</v>
+        <v>12.92094405887646</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>10.503858080168056</v>
+        <v>-0.4245583011948546</v>
       </c>
       <c r="B136" s="0">
-        <v>2.072738692949422</v>
+        <v>12.939846733383103</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>10.506131522179183</v>
+        <v>-0.53250547245895241</v>
       </c>
       <c r="B137" s="0">
-        <v>2.0883944360784925</v>
+        <v>12.957863805441885</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>10.508383269029</v>
+        <v>-0.64028736206108183</v>
       </c>
       <c r="B138" s="0">
-        <v>2.1040527940235454</v>
+        <v>12.97500323834641</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>10.510613323192292</v>
+        <v>-0.74789801348523166</v>
       </c>
       <c r="B139" s="0">
-        <v>2.1197137657057996</v>
+        <v>12.991272962400172</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>10.512821686998532</v>
+        <v>-0.85533161264047464</v>
       </c>
       <c r="B140" s="0">
-        <v>2.1353773501124698</v>
+        <v>13.006680873848916</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>10.515008362631624</v>
+        <v>-0.96258248544988356</v>
       </c>
       <c r="B141" s="0">
-        <v>2.1510435462965285</v>
+        <v>13.021234833859404</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>10.517173352129673</v>
+        <v>-1.0696450954695245</v>
       </c>
       <c r="B142" s="0">
-        <v>2.1667123533764951</v>
+        <v>13.034942667543268</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>10.519316657384733</v>
+        <v>-1.176514041537176</v>
       </c>
       <c r="B143" s="0">
-        <v>2.1823837705361693</v>
+        <v>13.047812163024732</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>10.521438280142569</v>
+        <v>-1.2831840554509315</v>
       </c>
       <c r="B144" s="0">
-        <v>2.1980577970244255</v>
+        <v>13.0598510705509</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>10.523538222002397</v>
+        <v>-1.3896499996774923</v>
       </c>
       <c r="B145" s="0">
-        <v>2.2137344321549786</v>
+        <v>13.071067101643486</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>10.52561648441664</v>
+        <v>-1.4959068650901028</v>
       </c>
       <c r="B146" s="0">
-        <v>2.2294136753061529</v>
+        <v>13.081467928290712</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>10.527673068690669</v>
+        <v>-1.6019497687359043</v>
       </c>
       <c r="B147" s="0">
-        <v>2.2450955259206764</v>
+        <v>13.091061182178301</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>10.529707975982543</v>
+        <v>-1.7077739516328378</v>
       </c>
       <c r="B148" s="0">
-        <v>2.2607799835054379</v>
+        <v>13.099854453958409</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>10.531721207302748</v>
+        <v>-1.8133747765956476</v>
       </c>
       <c r="B149" s="0">
-        <v>2.2764670476312756</v>
+        <v>13.107855292555371</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>10.533712763513936</v>
+        <v>-1.9187477260911361</v>
       </c>
       <c r="B150" s="0">
-        <v>2.2921567179327611</v>
+        <v>13.115071204507254</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>10.535682645330658</v>
+        <v>-2.0238884001223338</v>
       </c>
       <c r="B151" s="0">
-        <v>2.3078489941079843</v>
+        <v>13.121509653342109</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>10.537630853319085</v>
+        <v>-2.1287925141414621</v>
       </c>
       <c r="B152" s="0">
-        <v>2.3235438759183342</v>
+        <v>13.127178058987942</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>10.539557387896743</v>
+        <v>-2.2334558969916003</v>
       </c>
       <c r="B153" s="0">
-        <v>2.3392413631882931</v>
+        <v>13.132083797215371</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>10.541462249332238</v>
+        <v>-2.3378744888767442</v>
       </c>
       <c r="B154" s="0">
-        <v>2.3549414558052351</v>
+        <v>13.136234199112037</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>10.543345437744964</v>
+        <v>-2.4420443393602125</v>
       </c>
       <c r="B155" s="0">
-        <v>2.370644153719188</v>
+        <v>13.139636550587808</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>10.545206953104843</v>
+        <v>-2.5459616053910854</v>
       </c>
       <c r="B156" s="0">
-        <v>2.3863494569426638</v>
+        <v>13.14229809190981</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>10.547046795232012</v>
+        <v>-2.649622549358523</v>
       </c>
       <c r="B157" s="0">
-        <v>2.4020573655504269</v>
+        <v>13.144226017266469</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>10.548864963796552</v>
+        <v>-2.7530235371737963</v>
       </c>
       <c r="B158" s="0">
-        <v>2.4177678796793125</v>
+        <v>13.145427474359577</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>10.550661458318196</v>
+        <v>-2.8561610363797589</v>
       </c>
       <c r="B159" s="0">
-        <v>2.4334809995280207</v>
+        <v>13.145909564023626</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>10.55243627816602</v>
+        <v>-2.9590316142875306</v>
       </c>
       <c r="B160" s="0">
-        <v>2.4491967253569067</v>
+        <v>13.145679339871499</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>10.554189422558158</v>
+        <v>-3.0616319361402646</v>
       </c>
       <c r="B161" s="0">
-        <v>2.4649150574877989</v>
+        <v>13.144743807965746</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>10.555920890561501</v>
+        <v>-3.1639587633036546</v>
       </c>
       <c r="B162" s="0">
-        <v>2.4806359963038003</v>
+        <v>13.143109926514603</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>10.557630681091375</v>
+        <v>-3.2660089514829633</v>
       </c>
       <c r="B163" s="0">
-        <v>2.4963595422490967</v>
+        <v>13.14078460559206</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>10.559318792911245</v>
+        <v>-3.3677794489664574</v>
       </c>
       <c r="B164" s="0">
-        <v>2.5120856958287652</v>
+        <v>13.137774706881119</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>10.560985224632409</v>
+        <v>-3.4692672948948524</v>
       </c>
       <c r="B165" s="0">
-        <v>2.5278144576085815</v>
+        <v>13.134087043439587</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>10.562629974713673</v>
+        <v>-3.5704696175565731</v>
       </c>
       <c r="B166" s="0">
-        <v>2.5435458282148544</v>
+        <v>13.129728379487647</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>10.564253041461027</v>
+        <v>-3.6713836327086309</v>
       </c>
       <c r="B167" s="0">
-        <v>2.5592798083342148</v>
+        <v>13.12470543021651</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>10.565854423027339</v>
+        <v>-3.7720066419228351</v>
       </c>
       <c r="B168" s="0">
-        <v>2.5750163987134438</v>
+        <v>13.119024861617492</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>10.567434117412015</v>
+        <v>-3.8723360309570434</v>
       </c>
       <c r="B169" s="0">
-        <v>2.5907556001592988</v>
+        <v>13.112693290330805</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>10.568992122460674</v>
+        <v>-3.9723692681512475</v>
       </c>
       <c r="B170" s="0">
-        <v>2.6064974135383201</v>
+        <v>13.105717283513465</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>10.570528435864825</v>
+        <v>-4.0721039028481947</v>
       </c>
       <c r="B171" s="0">
-        <v>2.6222418397766827</v>
+        <v>13.098103358725664</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>10.572043055161512</v>
+        <v>-4.171537563838343</v>
       </c>
       <c r="B172" s="0">
-        <v>2.6379888798599826</v>
+        <v>13.089857983834975</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>10.573535977732991</v>
+        <v>-4.2706679578288771</v>
       </c>
       <c r="B173" s="0">
-        <v>2.6537385348330944</v>
+        <v>13.080987576937812</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>10.575007200806372</v>
+        <v>-4.3694928679363985</v>
       </c>
       <c r="B174" s="0">
-        <v>2.6694908057999873</v>
+        <v>13.071498506297592</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>10.576456721453289</v>
+        <v>-4.4680101522032221</v>
       </c>
       <c r="B175" s="0">
-        <v>2.6852456939235547</v>
+        <v>13.06139709029897</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>10.577884536589535</v>
+        <v>-4.5662177421368906</v>
       </c>
       <c r="B176" s="0">
-        <v>2.7010032004254576</v>
+        <v>13.050689597417621</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>10.579290642974705</v>
+        <v>-4.6641136412726478</v>
       </c>
       <c r="B177" s="0">
-        <v>2.7167633265859572</v>
+        <v>13.039382246205069</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>10.580675037211854</v>
+        <v>-4.7616959237586505</v>
       </c>
       <c r="B178" s="0">
-        <v>2.7325260737437409</v>
+        <v>13.027481205287987</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>10.582037715747125</v>
+        <v>-4.8589627329636107</v>
       </c>
       <c r="B179" s="0">
-        <v>2.7482914432957664</v>
+        <v>13.014992593381479</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>10.583378674869371</v>
+        <v>-4.9559122801066318</v>
       </c>
       <c r="B180" s="0">
-        <v>2.7640594366971096</v>
+        <v>13.001922479315866</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>10.58469791070981</v>
+        <v>-5.0525428429089709</v>
       </c>
       <c r="B181" s="0">
-        <v>2.7798300554607986</v>
+        <v>12.988276882076464</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>10.58599541924163</v>
+        <v>-5.1488527642673949</v>
       </c>
       <c r="B182" s="0">
-        <v>2.7956033011576569</v>
+        <v>12.97406177085591</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>10.587271196279625</v>
+        <v>-5.2448404509489972</v>
       </c>
       <c r="B183" s="0">
-        <v>2.8113791754161697</v>
+        <v>12.959283065118555</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>10.588525237479804</v>
+        <v>-5.3405043723070733</v>
       </c>
       <c r="B184" s="0">
-        <v>2.8271576799223017</v>
+        <v>12.943946634676529</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>10.589757538339006</v>
+        <v>-5.4358430590178735</v>
       </c>
       <c r="B185" s="0">
-        <v>2.8429388164193652</v>
+        <v>12.928058299776955</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>10.590968094194519</v>
+        <v>-5.5308551018379219</v>
       </c>
       <c r="B186" s="0">
-        <v>2.8587225867078678</v>
+        <v>12.911623831200027</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>10.592156900223678</v>
+        <v>-5.6255391503817025</v>
       </c>
       <c r="B187" s="0">
-        <v>2.8745089926453748</v>
+        <v>12.894648950367385</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>10.59332395144347</v>
+        <v>-5.7198939119193692</v>
       </c>
       <c r="B188" s="0">
-        <v>2.8902980361463437</v>
+        <v>12.877139329460533</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>10.594469242710128</v>
+        <v>-5.8139181501942554</v>
       </c>
       <c r="B189" s="0">
-        <v>2.9060897191820203</v>
+        <v>12.859100591548829</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>10.595592768718729</v>
+        <v>-5.9076106842599803</v>
       </c>
       <c r="B190" s="0">
-        <v>2.9218840437802545</v>
+        <v>12.840538310726682</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>10.596694524002789</v>
+        <v>-6.0009703873367313</v>
       </c>
       <c r="B191" s="0">
-        <v>2.9376810120253838</v>
+        <v>12.821458012259649</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>10.597774502933833</v>
+        <v>-6.0939961856867075</v>
       </c>
       <c r="B192" s="0">
-        <v>2.9534806260580999</v>
+        <v>12.801865172738978</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>10.598832699720987</v>
+        <v>-6.1866870575082249</v>
       </c>
       <c r="B193" s="0">
-        <v>2.9692828880753011</v>
+        <v>12.78176522024434</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>10.599869108410557</v>
+        <v>-6.2790420318483902</v>
       </c>
       <c r="B194" s="0">
-        <v>2.9850878003299846</v>
+        <v>12.761163534514392</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>10.600883722885591</v>
+        <v>-6.3710601875339705</v>
       </c>
       <c r="B195" s="0">
-        <v>3.000895365131079</v>
+        <v>12.740065447124818</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>10.601876536865456</v>
+        <v>-6.4627406521204174</v>
       </c>
       <c r="B196" s="0">
-        <v>3.0167055848433466</v>
+        <v>12.718476241673541</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>10.6028475439054</v>
+        <v>-6.5540826008584911</v>
       </c>
       <c r="B197" s="0">
-        <v>3.0325184618872369</v>
+        <v>12.696401153972834</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>10.603796737396106</v>
+        <v>-6.6450852556784943</v>
       </c>
       <c r="B198" s="0">
-        <v>3.0483339987387756</v>
+        <v>12.673845372248008</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>10.60472411056325</v>
+        <v>-6.7357478841917082</v>
       </c>
       <c r="B199" s="0">
-        <v>3.0641521979294279</v>
+        <v>12.650814037342364</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>10.605629656467052</v>
+        <v>-6.8260697987089713</v>
       </c>
       <c r="B200" s="0">
-        <v>3.0799730620459878</v>
+        <v>12.627312242928154</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>10.606513368001819</v>
+        <v>-6.916050355275873</v>
       </c>
       <c r="B201" s="0">
-        <v>3.095796593730463</v>
+        <v>12.603345035723306</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>10.607375237895493</v>
+        <v>-7.0056889527246682</v>
       </c>
       <c r="B202" s="0">
-        <v>3.1116227956799336</v>
+        <v>12.578917415713557</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>10.608215258709166</v>
+        <v>-7.0949850317423104</v>
       </c>
       <c r="B203" s="0">
-        <v>3.1274516706464621</v>
+        <v>12.554034336379873</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>10.609033422836642</v>
+        <v>-7.1839380739547538</v>
       </c>
       <c r="B204" s="0">
-        <v>3.1432832214369726</v>
+        <v>12.528700704930742</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>10.609829722503942</v>
+        <v>-7.272547601026897</v>
       </c>
       <c r="B205" s="0">
-        <v>3.1591174509131168</v>
+        <v>12.502921382539276</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>10.610604149768829</v>
+        <v>-7.3608131737782925</v>
       </c>
       <c r="B206" s="0">
-        <v>3.1749543619912148</v>
+        <v>12.476701184584712</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>10.611356696520328</v>
+        <v>-7.4487343913141233</v>
       </c>
       <c r="B207" s="0">
-        <v>3.1907939576420881</v>
+        <v>12.450044880898222</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>10.612087354478245</v>
+        <v>-7.5363108901713636</v>
       </c>
       <c r="B208" s="0">
-        <v>3.206636240890989</v>
+        <v>12.422957196012758</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>10.612796115192658</v>
+        <v>-7.6235423434798877</v>
       </c>
       <c r="B209" s="0">
-        <v>3.2224812148174973</v>
+        <v>12.395442809416661</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>10.613482970043428</v>
+        <v>-7.7104284601382407</v>
       </c>
       <c r="B210" s="0">
-        <v>3.2383288825553969</v>
+        <v>12.367506355810949</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>10.614147910239701</v>
+        <v>-7.7969689840038905</v>
       </c>
       <c r="B211" s="0">
-        <v>3.2541792472925906</v>
+        <v>12.339152425369978</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>10.614790926819394</v>
+        <v>-7.8831636930978091</v>
       </c>
       <c r="B212" s="0">
-        <v>3.2700323122709949</v>
+        <v>12.310385564005301</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>10.615412010648681</v>
+        <v>-7.9690123988229535</v>
       </c>
       <c r="B213" s="0">
-        <v>3.2858880807864637</v>
+        <v>12.281210273632613</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>10.616011152421477</v>
+        <v>-8.0545149451967593</v>
       </c>
       <c r="B214" s="0">
-        <v>3.3017465561886588</v>
+        <v>12.251631012441463</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>10.616588342658915</v>
+        <v>-8.1396712080971252</v>
       </c>
       <c r="B215" s="0">
-        <v>3.3176077418809773</v>
+        <v>12.221652195167675</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>10.617143571708818</v>
+        <v>-8.2244810945218756</v>
       </c>
       <c r="B216" s="0">
-        <v>3.3334716413204637</v>
+        <v>12.191278193368229</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>10.617676829745159</v>
+        <v>-8.3089445418613757</v>
       </c>
       <c r="B217" s="0">
-        <v>3.3493382580177107</v>
+        <v>12.160513335698512</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>10.618188106767535</v>
+        <v>-8.3930615171842184</v>
       </c>
       <c r="B218" s="0">
-        <v>3.3652075955367891</v>
+        <v>12.129361908191672</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>10.618677392600606</v>
+        <v>-8.4768320165356368</v>
       </c>
       <c r="B219" s="0">
-        <v>3.3810796574951341</v>
+        <v>12.097828154540018</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>10.619144676893558</v>
+        <v>-8.5602560642486107</v>
       </c>
       <c r="B220" s="0">
-        <v>3.3969544475634885</v>
+        <v>12.065916276378235</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>10.619589949119538</v>
+        <v>-8.6433337122672764</v>
       </c>
       <c r="B221" s="0">
-        <v>3.41283196946581</v>
+        <v>12.033630433568351</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>10.6200131985751</v>
+        <v>-8.7260650394826023</v>
       </c>
       <c r="B222" s="0">
-        <v>3.4287122269791923</v>
+        <v>12.000974744486244</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>10.620414414379637</v>
+        <v>-8.8084501510800877</v>
       </c>
       <c r="B223" s="0">
-        <v>3.4445952239337885</v>
+        <v>11.967953286309553</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>10.6207935854748</v>
+        <v>-8.8904891778992816</v>
       </c>
       <c r="B224" s="0">
-        <v>3.4604809642127377</v>
+        <v>11.934570095306912</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>10.621150700623936</v>
+        <v>-8.9721822758049061</v>
       </c>
       <c r="B225" s="0">
-        <v>3.4763694517520936</v>
+        <v>11.900829167128354</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>10.621485748411493</v>
+        <v>-9.0535296250695065</v>
       </c>
       <c r="B226" s="0">
-        <v>3.4922606905407454</v>
+        <v>11.866734457096717</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>10.621798717242424</v>
+        <v>-9.1345314297672715</v>
       </c>
       <c r="B227" s="0">
-        <v>3.5081546846203477</v>
+        <v>11.832289880500014</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>10.622089595341611</v>
+        <v>-9.2151879171790885</v>
       </c>
       <c r="B228" s="0">
-        <v>3.5240514380852659</v>
+        <v>11.797499312884565</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>10.622358370753251</v>
+        <v>-9.2954993372083443</v>
       </c>
       <c r="B229" s="0">
-        <v>3.539950955082491</v>
+        <v>11.762366590348861</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>10.622605031340248</v>
+        <v>-9.3754659618076204</v>
       </c>
       <c r="B230" s="0">
-        <v>3.5558532398116025</v>
+        <v>11.726895509837965</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>10.622829564783604</v>
+        <v>-9.4550880844158272</v>
       </c>
       <c r="B231" s="0">
-        <v>3.5717582965246737</v>
+        <v>11.691089829438432</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>10.623031958581794</v>
+        <v>-9.5343660194058053</v>
       </c>
       <c r="B232" s="0">
-        <v>3.5876661295262431</v>
+        <v>11.654953268673585</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>10.623212200050155</v>
+        <v>-9.6133001015421424</v>
       </c>
       <c r="B233" s="0">
-        <v>3.6035767431732313</v>
+        <v>11.618489508799064</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>10.623370276320234</v>
+        <v>-9.6918906854490086</v>
       </c>
       <c r="B234" s="0">
-        <v>3.6194901418749019</v>
+        <v>11.581702193098575</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>10.623506174339166</v>
+        <v>-9.7701381450878984</v>
       </c>
       <c r="B235" s="0">
-        <v>3.6354063300927946</v>
+        <v>11.544594927179732</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>10.623619880869018</v>
+        <v>-9.8480428732451806</v>
       </c>
       <c r="B236" s="0">
-        <v>3.6513253123406972</v>
+        <v>11.507171279269853</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>10.623711382486153</v>
+        <v>-9.9256052810290498</v>
       </c>
       <c r="B237" s="0">
-        <v>3.6672470931845647</v>
+        <v>11.469434780511794</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>10.623780665580561</v>
+        <v>-10.002825797376053</v>
       </c>
       <c r="B238" s="0">
-        <v>3.6831716772424858</v>
+        <v>11.431388925259485</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>10.623827716355194</v>
+        <v>-10.079704868566822</v>
       </c>
       <c r="B239" s="0">
-        <v>3.6990990691846406</v>
+        <v>11.393037171373297</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>10.623852520825315</v>
+        <v>-10.156242957750825</v>
       </c>
       <c r="B240" s="0">
-        <v>3.715029273733248</v>
+        <v>11.354382940515128</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>10.623855064817793</v>
+        <v>-10.232440544480211</v>
       </c>
       <c r="B241" s="0">
-        <v>3.7309622956625419</v>
+        <v>11.315429618443003</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>10.623835333970447</v>
+        <v>-10.308298124252319</v>
       </c>
       <c r="B242" s="0">
-        <v>3.7468981397987018</v>
+        <v>11.276180555305318</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>10.623793313731333</v>
+        <v>-10.383816208060967</v>
       </c>
       <c r="B243" s="0">
-        <v>3.7628368110198434</v>
+        <v>11.23663906593446</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>10.623728989358071</v>
+        <v>-10.458995321956143</v>
       </c>
       <c r="B244" s="0">
-        <v>3.7787783142559572</v>
+        <v>11.196808430139937</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>10.623642345917117</v>
+        <v>-10.533836006612113</v>
       </c>
       <c r="B245" s="0">
-        <v>3.7947226544889019</v>
+        <v>11.156691893000769</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>10.623533368283073</v>
+        <v>-10.608338816903775</v>
       </c>
       <c r="B246" s="0">
-        <v>3.8106698367523433</v>
+        <v>11.116292665157198</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>10.623402041137957</v>
+        <v>-10.682504321491038</v>
       </c>
       <c r="B247" s="0">
-        <v>3.8266198661317534</v>
+        <v>11.075613923101654</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>10.62324834897049</v>
+        <v>-10.756333102411213</v>
       </c>
       <c r="B248" s="0">
-        <v>3.8425727477643625</v>
+        <v>11.034658809468828</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>10.623072276075346</v>
+        <v>-10.829825754679172</v>
       </c>
       <c r="B249" s="0">
-        <v>3.8585284868391416</v>
+        <v>10.993430433324932</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>10.622873806552432</v>
+        <v>-10.902982885895227</v>
       </c>
       <c r="B250" s="0">
-        <v>3.8744870885967724</v>
+        <v>10.951931870455983</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>10.622652924306136</v>
+        <v>-10.975805115860505</v>
       </c>
       <c r="B251" s="0">
-        <v>3.8904485583296347</v>
+        <v>10.910166163655122</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>10.622409613044571</v>
+        <v>-11.048293076199807</v>
       </c>
       <c r="B252" s="0">
-        <v>3.9064129013817781</v>
+        <v>10.868136323008915</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>10.622143856278818</v>
+        <v>-11.120447409991742</v>
       </c>
       <c r="B253" s="0">
-        <v>3.9223801231489213</v>
+        <v>10.825845326182547</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>10.621855637322151</v>
+        <v>-11.192268771405969</v>
       </c>
       <c r="B254" s="0">
-        <v>3.9383502290784094</v>
+        <v>10.783296118703964</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>10.621544939289278</v>
+        <v>-11.263757825347612</v>
       </c>
       <c r="B255" s="0">
-        <v>3.9543232246692197</v>
+        <v>10.740491614246759</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>10.621211745095531</v>
+        <v>-11.334915247108466</v>
       </c>
       <c r="B256" s="0">
-        <v>3.9702991154719531</v>
+        <v>10.697434694911973</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>10.620856037456102</v>
+        <v>-11.405741722025082</v>
       </c>
       <c r="B257" s="0">
-        <v>3.9862779070888128</v>
+        <v>10.654128211508585</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>10.620477798885236</v>
+        <v>-11.476237945143524</v>
       </c>
       <c r="B258" s="0">
-        <v>4.0022596051736015</v>
+        <v>10.610574983832771</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>10.620077011695415</v>
+        <v>-11.546404620890707</v>
       </c>
       <c r="B259" s="0">
-        <v>4.0182442154317188</v>
+        <v>10.566777800945806</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>10.619653657996551</v>
+        <v>-11.616242462752162</v>
       </c>
       <c r="B260" s="0">
-        <v>4.0342317436201682</v>
+        <v>10.522739421450721</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>10.619207719695167</v>
+        <v>-11.685752192956157</v>
       </c>
       <c r="B261" s="0">
-        <v>4.0502221955475362</v>
+        <v>10.478462573767514</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>10.618739178493563</v>
+        <v>-11.754934542164081</v>
       </c>
       <c r="B262" s="0">
-        <v>4.0662155770740052</v>
+        <v>10.433949956406973</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>10.61824801588898</v>
+        <v>-11.823790249166915</v>
       </c>
       <c r="B263" s="0">
-        <v>4.0822118941113557</v>
+        <v>10.389204238243108</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>10.617734213172746</v>
+        <v>-11.892320060587723</v>
       </c>
       <c r="B264" s="0">
-        <v>4.0982111526229712</v>
+        <v>10.344228058784104</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>10.617197751429432</v>
+        <v>-11.960524730590082</v>
       </c>
       <c r="B265" s="0">
-        <v>4.1142133586238643</v>
+        <v>10.299024028441799</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>10.616638611535981</v>
+        <v>-12.028405020592272</v>
       </c>
       <c r="B266" s="0">
-        <v>4.1302185181806488</v>
+        <v>10.253594728799683</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>10.616056774160844</v>
+        <v>-12.095961698987233</v>
       </c>
       <c r="B267" s="0">
-        <v>4.1462266374115835</v>
+        <v>10.207942712879319</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>10.615452219763087</v>
+        <v>-12.163195540868053</v>
       </c>
       <c r="B268" s="0">
-        <v>4.162237722486581</v>
+        <v>10.162070505405296</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>10.614824928591519</v>
+        <v>-12.230107327759031</v>
       </c>
       <c r="B269" s="0">
-        <v>4.1782517796272138</v>
+        <v>10.115980603068534</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>10.614174880683773</v>
+        <v>-12.296697847352091</v>
       </c>
       <c r="B270" s="0">
-        <v>4.1942688151067449</v>
+        <v>10.069675474788061</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>10.613502055865428</v>
+        <v>-12.362967893248539</v>
       </c>
       <c r="B271" s="0">
-        <v>4.2102888352501404</v>
+        <v>10.023157561971166</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>10.612806433749068</v>
+        <v>-12.428918264706038</v>
       </c>
       <c r="B272" s="0">
-        <v>4.226311846434113</v>
+        <v>9.9764292787719153</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>10.612087993733374</v>
+        <v>-12.494549766390653</v>
       </c>
       <c r="B273" s="0">
-        <v>4.2423378550871176</v>
+        <v>9.9294930123480931</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>10.611346715002178</v>
+        <v>-12.559863208134006</v>
       </c>
       <c r="B274" s="0">
-        <v>4.2583668676893973</v>
+        <v>9.8823511231164076</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>10.610582576523534</v>
+        <v>-12.624859404695318</v>
       </c>
       <c r="B275" s="0">
-        <v>4.2743988907730159</v>
+        <v>9.8350059450060865</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>10.609795557048756</v>
+        <v>-12.689539175528319</v>
       </c>
       <c r="B276" s="0">
-        <v>4.2904339309218784</v>
+        <v>9.7874597857107961</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>10.608985635111468</v>
+        <v>-12.753903344552919</v>
       </c>
       <c r="B277" s="0">
-        <v>4.3064719947717895</v>
+        <v>9.7397149269388574</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>10.608152789026622</v>
+        <v>-12.817952739931574</v>
       </c>
       <c r="B278" s="0">
-        <v>4.3225130890104557</v>
+        <v>9.6917736246617281</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>10.607296996889522</v>
+        <v>-12.881688193850191</v>
       </c>
       <c r="B279" s="0">
-        <v>4.338557220377556</v>
+        <v>9.643638109360877</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>10.606418236574845</v>
+        <v>-12.945110542303651</v>
       </c>
       <c r="B280" s="0">
-        <v>4.3546043956647704</v>
+        <v>9.5953105862728147</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>10.60551648573562</v>
+        <v>-13.008220624885645</v>
       </c>
       <c r="B281" s="0">
-        <v>4.3706546217158273</v>
+        <v>9.5467932356324692</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>10.604591721802244</v>
+        <v>-13.07101928458294</v>
       </c>
       <c r="B282" s="0">
-        <v>4.3867079054265368</v>
+        <v>9.4980882129148281</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>10.603643921981449</v>
+        <v>-13.133507367573859</v>
       </c>
       <c r="B283" s="0">
-        <v>4.4027642537448761</v>
+        <v>9.4491976490748133</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>10.602673063255267</v>
+        <v>-13.195685723031005</v>
       </c>
       <c r="B284" s="0">
-        <v>4.418823673670996</v>
+        <v>9.4001236507854049</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>10.601679122380013</v>
+        <v>-13.257555202928055</v>
       </c>
       <c r="B285" s="0">
-        <v>4.4348861722573094</v>
+        <v>9.3508683006740529</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>10.600662075885214</v>
+        <v>-13.319116661850634</v>
       </c>
       <c r="B286" s="0">
-        <v>4.4509517566085215</v>
+        <v>9.3014336575572685</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>10.59962190007256</v>
+        <v>-13.380370956811097</v>
       </c>
       <c r="B287" s="0">
-        <v>4.4670204338817108</v>
+        <v>9.2518217566735377</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>10.598558571014836</v>
+        <v>-13.441318947067286</v>
       </c>
       <c r="B288" s="0">
-        <v>4.4830922112863707</v>
+        <v>9.2020346099143531</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>10.597472064554831</v>
+        <v>-13.501961493945041</v>
       </c>
       <c r="B289" s="0">
-        <v>4.4991670960845003</v>
+        <v>9.1520742060535909</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>10.596362356304262</v>
+        <v>-13.562299460664473</v>
       </c>
       <c r="B290" s="0">
-        <v>4.5152450955906351</v>
+        <v>9.1019425109750749</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>10.59522942164266</v>
+        <v>-13.622333712169958</v>
       </c>
       <c r="B291" s="0">
-        <v>4.53132621717194</v>
+        <v>9.0516414678983228</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>10.594073235716262</v>
+        <v>-13.682065114963677</v>
       </c>
       <c r="B292" s="0">
-        <v>4.5474104682482785</v>
+        <v>9.001172997602632</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>10.592893773436892</v>
+        <v>-13.741494536942801</v>
       </c>
       <c r="B293" s="0">
-        <v>4.5634978562922761</v>
+        <v>8.9505389986492254</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>10.591691009480815</v>
+        <v>-13.800622847240014</v>
       </c>
       <c r="B294" s="0">
-        <v>4.5795883888293973</v>
+        <v>8.8997413476018341</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>10.5904649182876</v>
+        <v>-13.859450916067615</v>
       </c>
       <c r="B295" s="0">
-        <v>4.5956820734380424</v>
+        <v>8.8487818992453011</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>10.589215474058962</v>
+        <v>-13.917979614564818</v>
       </c>
       <c r="B296" s="0">
-        <v>4.6117789177496089</v>
+        <v>8.7976624868025759</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>10.587942650757592</v>
+        <v>-13.976209814648472</v>
       </c>
       <c r="B297" s="0">
-        <v>4.6278789294485749</v>
+        <v>8.7463849221498275</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>10.586646422105973</v>
+        <v>-14.034142388866913</v>
       </c>
       <c r="B298" s="0">
-        <v>4.6439821162726034</v>
+        <v>8.6949509960298492</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>10.585326761585199</v>
+        <v>-14.091778210257022</v>
       </c>
       <c r="B299" s="0">
-        <v>4.6600884860126044</v>
+        <v>8.6433624782637146</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>10.583983642433758</v>
+        <v>-14.149118152204414</v>
       </c>
       <c r="B300" s="0">
-        <v>4.6761980465128641</v>
+        <v>8.5916211179605657</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>10.582617037646321</v>
+        <v>-14.206163088306589</v>
       </c>
       <c r="B301" s="0">
-        <v>4.6923108056711031</v>
+        <v>8.5397286437258071</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>10.581226919972526</v>
+        <v>-14.262913892239197</v>
       </c>
       <c r="B302" s="0">
-        <v>4.7084267714385861</v>
+        <v>8.4876867638673783</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>10.579813261915719</v>
+        <v>-14.319371437625124</v>
       </c>
       <c r="B303" s="0">
-        <v>4.7245459518202289</v>
+        <v>8.4354971666004079</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>10.578376035731713</v>
+        <v>-14.375536597906542</v>
       </c>
       <c r="B304" s="0">
-        <v>4.7406683548746926</v>
+        <v>8.3831615202499972</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>10.576915213427524</v>
+        <v>-14.431410246219707</v>
       </c>
       <c r="B305" s="0">
-        <v>4.7567939887144899</v>
+        <v>8.3306814734524011</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>10.575430766760091</v>
+        <v>-14.486993255272569</v>
       </c>
       <c r="B306" s="0">
-        <v>4.7729228615060908</v>
+        <v>8.278058655354366</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>10.573922667234985</v>
+        <v>-14.542286497225133</v>
       </c>
       <c r="B307" s="0">
-        <v>4.7890549814700467</v>
+        <v>8.225294675810737</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>10.572390886105104</v>
+        <v>-14.597290843572404</v>
       </c>
       <c r="B308" s="0">
-        <v>4.8051903568810825</v>
+        <v>8.1723911255804005</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>10.570835394369373</v>
+        <v>-14.652007165029998</v>
       </c>
       <c r="B309" s="0">
-        <v>4.8213289960682246</v>
+        <v>8.1193495765204844</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>10.569256162771389</v>
+        <v>-14.706436331422312</v>
       </c>
       <c r="B310" s="0">
-        <v>4.8374709074149225</v>
+        <v>8.0661715817788018</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>10.567653161798102</v>
+        <v>-14.760579211573187</v>
       </c>
       <c r="B311" s="0">
-        <v>4.8536160993591579</v>
+        <v>8.0128586759846421</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>10.566026361678448</v>
+        <v>-14.814436673199069</v>
       </c>
       <c r="B312" s="0">
-        <v>4.8697645803935901</v>
+        <v>7.9594123754378279</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>10.564375732381984</v>
+        <v>-14.868009582804543</v>
       </c>
       <c r="B313" s="0">
-        <v>4.8859163590656634</v>
+        <v>7.9058341782960904</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>10.5627012436175</v>
+        <v>-14.921298805580282</v>
       </c>
       <c r="B314" s="0">
-        <v>4.9020714439777437</v>
+        <v>7.8521255647607466</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>10.561002864831632</v>
+        <v>-14.974305205303294</v>
       </c>
       <c r="B315" s="0">
-        <v>4.9182298437872536</v>
+        <v>7.7982879972607222</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>10.559280565207439</v>
+        <v>-15.027029644239455</v>
       </c>
       <c r="B316" s="0">
-        <v>4.9343915672068137</v>
+        <v>7.7443229206348461</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>10.557534313662989</v>
+        <v>-15.079472983048266</v>
       </c>
       <c r="B317" s="0">
-        <v>4.9505566230043678</v>
+        <v>7.6902317623125809</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>10.55576407884992</v>
+        <v>-15.131636080689825</v>
       </c>
       <c r="B318" s="0">
-        <v>4.9667250200033326</v>
+        <v>7.6360159324929713</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>10.553969829151967</v>
+        <v>-15.183519794333929</v>
       </c>
       <c r="B319" s="0">
-        <v>4.9828967670827637</v>
+        <v>7.5816768243220318</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>10.552151532683528</v>
+        <v>-15.23512497927126</v>
       </c>
       <c r="B320" s="0">
-        <v>4.9990718731774546</v>
+        <v>7.5272158140684944</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>10.550309157288146</v>
+        <v>-15.286452488826692</v>
       </c>
       <c r="B321" s="0">
-        <v>5.0152503472781387</v>
+        <v>7.4726342612978653</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>10.548442670537034</v>
+        <v>-15.337503174274563</v>
       </c>
       <c r="B322" s="0">
-        <v>5.0314321984316095</v>
+        <v>7.4179335090449037</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>10.546552039727557</v>
+        <v>-15.388277884755961</v>
       </c>
       <c r="B323" s="0">
-        <v>5.0476174357408903</v>
+        <v>7.3631148839844824</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>10.544637231881696</v>
+        <v>-15.438777467197925</v>
       </c>
       <c r="B324" s="0">
-        <v>5.0638060683654089</v>
+        <v>7.3081796966008605</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>10.54269821374451</v>
+        <v>-15.48900276623459</v>
       </c>
       <c r="B325" s="0">
-        <v>5.079998105521133</v>
+        <v>7.253129241355305</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>10.540734951782579</v>
+        <v>-15.53895462413019</v>
       </c>
       <c r="B326" s="0">
-        <v>5.0961935564807588</v>
+        <v>7.1979647968521281</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>10.538747412182422</v>
+        <v>-15.588633880703824</v>
       </c>
       <c r="B327" s="0">
-        <v>5.1123924305738671</v>
+        <v>7.1426876260032603</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>10.536735560848918</v>
+        <v>-15.638041373256115</v>
       </c>
       <c r="B328" s="0">
-        <v>5.1285947371871075</v>
+        <v>7.0872989761911258</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>10.534699363403675</v>
+        <v>-15.687177936497536</v>
       </c>
       <c r="B329" s="0">
-        <v>5.1448004857643674</v>
+        <v>7.0318000794299937</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>10.532638785183435</v>
+        <v>-15.73604440247852</v>
       </c>
       <c r="B330" s="0">
-        <v>5.161009685806965</v>
+        <v>6.976192152525817</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>10.530553791238406</v>
+        <v>-15.784641600521208</v>
       </c>
       <c r="B331" s="0">
-        <v>5.1772223468738119</v>
+        <v>6.920476397234494</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>10.528444346330632</v>
+        <v>-15.832970357152879</v>
       </c>
       <c r="B332" s="0">
-        <v>5.1934384785816139</v>
+        <v>6.8646540004186223</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>10.526310414932299</v>
+        <v>-15.881031496040979</v>
       </c>
       <c r="B333" s="0">
-        <v>5.209658090605056</v>
+        <v>6.8087261342027015</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>10.524151961224051</v>
+        <v>-15.928825837929717</v>
       </c>
       <c r="B334" s="0">
-        <v>5.2258811926769981</v>
+        <v>6.7526939561269224</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>10.521968949093274</v>
+        <v>-15.976354200578257</v>
       </c>
       <c r="B335" s="0">
-        <v>5.2421077945886676</v>
+        <v>6.6965586092992737</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>10.519761342132391</v>
+        <v>-16.023617398700399</v>
       </c>
       <c r="B336" s="0">
-        <v>5.2583379061898743</v>
+        <v>6.6403212225463504</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>10.517529103637091</v>
+        <v>-16.070616243905743</v>
       </c>
       <c r="B337" s="0">
-        <v>5.2745715373891899</v>
+        <v>6.5839829105625762</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>10.51527219660459</v>
+        <v>-16.117351544642304</v>
       </c>
       <c r="B338" s="0">
-        <v>5.2908086981541711</v>
+        <v>6.5275447740579748</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>10.512990583731833</v>
+        <v>-16.163824106140581</v>
       </c>
       <c r="B339" s="0">
-        <v>5.3070493985115679</v>
+        <v>6.4710078999045031</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>10.510684227413712</v>
+        <v>-16.210034730358995</v>
       </c>
       <c r="B340" s="0">
-        <v>5.3232936485475379</v>
+        <v>6.4143733612809202</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>10.508353089741242</v>
+        <v>-16.255984215930699</v>
       </c>
       <c r="B341" s="0">
-        <v>5.3395414584078553</v>
+        <v>6.3576422178161902</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>10.505997132499719</v>
+        <v>-16.301673358111731</v>
       </c>
       <c r="B342" s="0">
-        <v>5.3557928382981652</v>
+        <v>6.3008155157315429</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>10.50361631716688</v>
+        <v>-16.34710294873047</v>
       </c>
       <c r="B343" s="0">
-        <v>5.3720477984841528</v>
+        <v>6.2438942879809787</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>10.501210604911016</v>
+        <v>-16.392273776138374</v>
       </c>
       <c r="B344" s="0">
-        <v>5.3883063492918275</v>
+        <v>6.1868795543905355</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>10.49877995658909</v>
+        <v>-16.437186625161964</v>
       </c>
       <c r="B345" s="0">
-        <v>5.4045685011077209</v>
+        <v>6.1297723217959916</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>10.49632433274482</v>
+        <v>-16.481842277056042</v>
       </c>
       <c r="B346" s="0">
-        <v>5.4208342643791276</v>
+        <v>6.0725735841793052</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>10.49384369360674</v>
+        <v>-16.526241509458114</v>
       </c>
       <c r="B347" s="0">
-        <v>5.4371036496143805</v>
+        <v>6.0152843228036081</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>10.491337999086264</v>
+        <v>-16.570385096343973</v>
       </c>
       <c r="B348" s="0">
-        <v>5.4533766673830426</v>
+        <v>5.9579055063468775</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>10.488807208775688</v>
+        <v>-16.614273807984446</v>
       </c>
       <c r="B349" s="0">
-        <v>5.4696533283161868</v>
+        <v>5.9004380910341965</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>10.486251281946222</v>
+        <v>-16.657908410903229</v>
       </c>
       <c r="B350" s="0">
-        <v>5.4859336431066419</v>
+        <v>5.8428830207687428</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>10.483670177545964</v>
+        <v>-16.701289667835855</v>
       </c>
       <c r="B351" s="0">
-        <v>5.5022176225092494</v>
+        <v>5.7852412272613938</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>10.481063854197862</v>
+        <v>-16.744418337689748</v>
       </c>
       <c r="B352" s="0">
-        <v>5.518505277341121</v>
+        <v>5.727513630158974</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>10.478432270197663</v>
+        <v>-16.787295175505271</v>
       </c>
       <c r="B353" s="0">
-        <v>5.5347966184818995</v>
+        <v>5.6697011371712955</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>10.475775383511831</v>
+        <v>-16.829920932417849</v>
       </c>
       <c r="B354" s="0">
-        <v>5.5510916568740436</v>
+        <v>5.6118046441967806</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>10.473093151775444</v>
+        <v>-16.872296355621078</v>
       </c>
       <c r="B355" s="0">
-        <v>5.5673904035230803</v>
+        <v>5.5538250354468737</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>10.470385532290084</v>
+        <v>-16.9144221883308</v>
       </c>
       <c r="B356" s="0">
-        <v>5.5836928694978907</v>
+        <v>5.4957631835691085</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>10.467652482021677</v>
+        <v>-16.956299169750174</v>
       </c>
       <c r="B357" s="0">
-        <v>5.5999990659309864</v>
+        <v>5.4376199497689601</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>10.464893957598333</v>
+        <v>-16.997928035035635</v>
       </c>
       <c r="B358" s="0">
-        <v>5.6163090040188006</v>
+        <v>5.3793961839303748</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>10.462109915308156</v>
+        <v>-17.039309515263824</v>
       </c>
       <c r="B359" s="0">
-        <v>5.6326226950219827</v>
+        <v>5.3210927247351067</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>10.459300311097035</v>
+        <v>-17.080444337399328</v>
       </c>
       <c r="B360" s="0">
-        <v>5.6489401502656751</v>
+        <v>5.2627103997807838</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>10.456465100566392</v>
+        <v>-17.12133322426341</v>
       </c>
       <c r="B361" s="0">
-        <v>5.6652613811398176</v>
+        <v>5.2042500256977045</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>10.453604238970938</v>
+        <v>-17.161976894503468</v>
       </c>
       <c r="B362" s="0">
-        <v>5.6815863990994639</v>
+        <v>5.1457124082645169</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>10.450717681216377</v>
+        <v>-17.20237606256341</v>
       </c>
       <c r="B363" s="0">
-        <v>5.6979152156650645</v>
+        <v>5.0870983425225615</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>10.447805381857101</v>
+        <v>-17.242531438654822</v>
       </c>
       <c r="B364" s="0">
-        <v>5.7142478424228038</v>
+        <v>5.0284086128890912</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>10.444867295093861</v>
+        <v>-17.282443728728893</v>
       </c>
       <c r="B365" s="0">
-        <v>5.730584291024889</v>
+        <v>4.9696439932693046</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>10.441903374771394</v>
+        <v>-17.32211363444917</v>
       </c>
       <c r="B366" s="0">
-        <v>5.7469245731899044</v>
+        <v>4.9108052471671542</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>10.438913574376059</v>
+        <v>-17.361541853165008</v>
       </c>
       <c r="B367" s="0">
-        <v>5.763268700703108</v>
+        <v>4.8518931277950044</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>10.435897847033402</v>
+        <v>-17.400729077885817</v>
       </c>
       <c r="B368" s="0">
-        <v>5.7796166854167659</v>
+        <v>4.7929083781821511</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>10.432856145505751</v>
+        <v>-17.439675997255982</v>
       </c>
       <c r="B369" s="0">
-        <v>5.7959685392505023</v>
+        <v>4.7338517312821322</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>10.429788422189725</v>
+        <v>-17.478383295530492</v>
       </c>
       <c r="B370" s="0">
-        <v>5.8123242741916208</v>
+        <v>4.6747239100789564</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>10.426694629113761</v>
+        <v>-17.516851652551281</v>
       </c>
       <c r="B371" s="0">
-        <v>5.8286839022954799</v>
+        <v>4.6155256276921968</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>10.423574717935605</v>
+        <v>-17.55508174372418</v>
       </c>
       <c r="B372" s="0">
-        <v>5.845047435685796</v>
+        <v>4.5562575874808964</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>10.420428639939747</v>
+        <v>-17.593074239996572</v>
       </c>
       <c r="B373" s="0">
-        <v>5.8614148865550364</v>
+        <v>4.4969204831464547</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>10.417256346034872</v>
+        <v>-17.630829807835642</v>
       </c>
       <c r="B374" s="0">
-        <v>5.8777862671647618</v>
+        <v>4.4375149988343248</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>10.414057786751259</v>
+        <v>-17.668349109207263</v>
       </c>
       <c r="B375" s="0">
-        <v>5.8941615898459956</v>
+        <v>4.3780418092347082</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>10.41083291223814</v>
+        <v>-17.705632801555478</v>
       </c>
       <c r="B376" s="0">
-        <v>5.9105408669995976</v>
+        <v>4.3185015796820734</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>10.407581672261069</v>
+        <v>-17.742681537782527</v>
       </c>
       <c r="B377" s="0">
-        <v>5.9269241110966187</v>
+        <v>4.2588949662536706</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>10.404304016199211</v>
+        <v>-17.779495966229518</v>
       </c>
       <c r="B378" s="0">
-        <v>5.9433113346787279</v>
+        <v>4.1992226158669688</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>10.400999893042647</v>
+        <v>-17.816076730657588</v>
       </c>
       <c r="B379" s="0">
-        <v>5.9597025503585419</v>
+        <v>4.1394851663759757</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>10.397669251389631</v>
+        <v>-17.852424470229614</v>
       </c>
       <c r="B380" s="0">
-        <v>5.9760977708200462</v>
+        <v>4.0796832466666215</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>10.394312039443815</v>
+        <v>-17.888539819492436</v>
       </c>
       <c r="B381" s="0">
-        <v>5.9924970088189911</v>
+        <v>4.0198174767510517</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>10.390928205011429</v>
+        <v>-17.924423408359655</v>
       </c>
       <c r="B382" s="0">
-        <v>6.0089002771832956</v>
+        <v>3.959888467860829</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>10.387517695498477</v>
+        <v>-17.960075862094808</v>
       </c>
       <c r="B383" s="0">
-        <v>6.0253075888134378</v>
+        <v>3.8998968225392234</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>10.384080457907846</v>
+        <v>-17.99549780129513</v>
       </c>
       <c r="B384" s="0">
-        <v>6.0417189566828888</v>
+        <v>3.8398431347324853</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>10.380616438836421</v>
+        <v>-18.03068984187572</v>
       </c>
       <c r="B385" s="0">
-        <v>6.0581343938385173</v>
+        <v>3.7797279898800111</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>10.377125584472148</v>
+        <v>-18.065652595054175</v>
       </c>
       <c r="B386" s="0">
-        <v>6.074553913401024</v>
+        <v>3.719551965003614</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>10.373607840591083</v>
+        <v>-18.100386667335645</v>
       </c>
       <c r="B387" s="0">
-        <v>6.090977528565368</v>
+        <v>3.6593156287958624</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>10.37006315255439</v>
+        <v>-18.134892660498352</v>
       </c>
       <c r="B388" s="0">
-        <v>6.1074052526011959</v>
+        <v>3.599019541707277</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>10.366491465305304</v>
+        <v>-18.169171171579489</v>
       </c>
       <c r="B389" s="0">
-        <v>6.1238370988532997</v>
+        <v>3.53866425603271</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>10.362892723366084</v>
+        <v>-18.20322279286151</v>
       </c>
       <c r="B390" s="0">
-        <v>6.1402730807420625</v>
+        <v>3.4782503159967106</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>10.359266870834917</v>
+        <v>-18.237048111858837</v>
       </c>
       <c r="B391" s="0">
-        <v>6.1567132117639005</v>
+        <v>3.4177782578379747</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>10.355613851382769</v>
+        <v>-18.270647711304907</v>
       </c>
       <c r="B392" s="0">
-        <v>6.17315750549173</v>
+        <v>3.3572486098928165</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>10.35193360825024</v>
+        <v>-18.304022169139596</v>
       </c>
       <c r="B393" s="0">
-        <v>6.1896059755754367</v>
+        <v>3.2966618926777493</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>10.348226084244343</v>
+        <v>-18.337172058497007</v>
       </c>
       <c r="B394" s="0">
-        <v>6.2060586357423615</v>
+        <v>3.2360186189711184</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>10.344491221735286</v>
+        <v>-18.370097947693559</v>
       </c>
       <c r="B395" s="0">
-        <v>6.2225154997977512</v>
+        <v>3.1753192938938124</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>10.340728962653179</v>
+        <v>-18.402800400216414</v>
       </c>
       <c r="B396" s="0">
-        <v>6.2389765816252751</v>
+        <v>3.1145644149891489</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>10.336939248484734</v>
+        <v>-18.435279974712255</v>
       </c>
       <c r="B397" s="0">
-        <v>6.2554418951874915</v>
+        <v>3.0537544723017387</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>10.333122020269911</v>
+        <v>-18.467537224976287</v>
       </c>
       <c r="B398" s="0">
-        <v>6.2719114545263732</v>
+        <v>2.992889948455582</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>10.32927721859854</v>
+        <v>-18.499572699941623</v>
       </c>
       <c r="B399" s="0">
-        <v>6.2883852737637884</v>
+        <v>2.9319713187312044</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>10.325404783606874</v>
+        <v>-18.531386943668863</v>
       </c>
       <c r="B400" s="0">
-        <v>6.3048633671020342</v>
+        <v>2.8709990511419554</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>10.321504654974143</v>
+        <v>-18.562980495335996</v>
       </c>
       <c r="B401" s="0">
-        <v>6.321345748824359</v>
+        <v>2.8099736065094598</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>10.317576771919052</v>
+        <v>-18.59435388922854</v>
       </c>
       <c r="B402" s="0">
-        <v>6.3378324332954605</v>
+        <v>2.7488954385381708</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>10.313621073196218</v>
+        <v>-18.62550765472994</v>
       </c>
       <c r="B403" s="0">
-        <v>6.354323434962053</v>
+        <v>2.6877649938890911</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>10.309637497092604</v>
+        <v>-18.656442316312177</v>
       </c>
       <c r="B404" s="0">
-        <v>6.3708187683533888</v>
+        <v>2.6265827122527008</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>10.305625981423876</v>
+        <v>-18.687158393526641</v>
       </c>
       <c r="B405" s="0">
-        <v>6.3873184480818113</v>
+        <v>2.5653490264209777</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>10.301586463530747</v>
+        <v>-18.717656400995189</v>
       </c>
       <c r="B406" s="0">
-        <v>6.4038224888433302</v>
+        <v>2.5040643623586498</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>10.297518880275256</v>
+        <v>-18.747936848401409</v>
       </c>
       <c r="B407" s="0">
-        <v>6.4203309054181501</v>
+        <v>2.4427291392735961</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>10.29342316803703</v>
+        <v>-18.778000240482122</v>
       </c>
       <c r="B408" s="0">
-        <v>6.4368437126712621</v>
+        <v>2.3813437696864685</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>10.289299262709466</v>
+        <v>-18.807847077019009</v>
       </c>
       <c r="B409" s="0">
-        <v>6.453360925553028</v>
+        <v>2.3199086594995095</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>10.285147099695905</v>
+        <v>-18.83747785283046</v>
       </c>
       <c r="B410" s="0">
-        <v>6.4698825590997533</v>
+        <v>2.2584242080645223</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>10.280966613905749</v>
+        <v>-18.866893057763569</v>
       </c>
       <c r="B411" s="0">
-        <v>6.4864086284342815</v>
+        <v>2.1968908082501359</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>10.276757739750497</v>
+        <v>-18.896093176686307</v>
       </c>
       <c r="B412" s="0">
-        <v>6.5029391487666093</v>
+        <v>2.1353088465082206</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>10.272520411139817</v>
+        <v>-18.92507868947979</v>
       </c>
       <c r="B413" s="0">
-        <v>6.5194741353944998</v>
+        <v>2.0736787029395969</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>10.268254561477482</v>
+        <v>-18.953850071030775</v>
       </c>
       <c r="B414" s="0">
-        <v>6.5360136037040668</v>
+        <v>2.0120007513589235</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>10.263960123657318</v>
+        <v>-18.982407791224208</v>
       </c>
       <c r="B415" s="0">
-        <v>6.5525575691704443</v>
+        <v>1.950275359358834</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>10.259637030059078</v>
+        <v>-19.010752314935921</v>
       </c>
       <c r="B416" s="0">
-        <v>6.5691060473583853</v>
+        <v>1.8885028883733312</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>10.255285212544274</v>
+        <v>-19.038884102025438</v>
       </c>
       <c r="B417" s="0">
-        <v>6.5856590539229423</v>
+        <v>1.8266836937404765</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>10.250904602451957</v>
+        <v>-19.066803607328918</v>
       </c>
       <c r="B418" s="0">
-        <v>6.6022166046100912</v>
+        <v>1.7648181247642809</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>10.246495130594456</v>
+        <v>-19.094511280652121</v>
       </c>
       <c r="B419" s="0">
-        <v>6.6187787152573989</v>
+        <v>1.702906524775875</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>10.242056727253056</v>
+        <v>-19.122007566763525</v>
       </c>
       <c r="B420" s="0">
-        <v>6.6353454017946909</v>
+        <v>1.640949231194015</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>10.237589322173626</v>
+        <v>-19.14929290538749</v>
       </c>
       <c r="B421" s="0">
-        <v>6.6519166802447458</v>
+        <v>1.5789465755847816</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>10.233092844562201</v>
+        <v>-19.176367731197509</v>
       </c>
       <c r="B422" s="0">
-        <v>6.6684925667239607</v>
+        <v>1.5168988837206172</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>10.228567223080505</v>
+        <v>-19.2032324738095</v>
       </c>
       <c r="B423" s="0">
-        <v>6.6850730774430573</v>
+        <v>1.4548064756386831</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>10.224012385841419</v>
+        <v>-19.229887557775161</v>
       </c>
       <c r="B424" s="0">
-        <v>6.7016582287078021</v>
+        <v>1.3926696656984432</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>10.219428260404403</v>
+        <v>-19.256333402575368</v>
       </c>
       <c r="B425" s="0">
-        <v>6.7182480369197011</v>
+        <v>1.3304887626386428</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>10.214814773770856</v>
+        <v>-19.282570422613624</v>
       </c>
       <c r="B426" s="0">
-        <v>6.7348425185767349</v>
+        <v>1.2682640696335377</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>10.210171852379423</v>
+        <v>-19.308599027209507</v>
       </c>
       <c r="B427" s="0">
-        <v>6.7514416902740866</v>
+        <v>1.2059958843484573</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>10.205499422101237</v>
+        <v>-19.334419620592165</v>
       </c>
       <c r="B428" s="0">
-        <v>6.7680455687048928</v>
+        <v>1.1436844989947585</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>10.200797408235118</v>
+        <v>-19.36003260189381</v>
       </c>
       <c r="B429" s="0">
-        <v>6.7846541706610131</v>
+        <v>1.081330200383946</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>10.1960657355027</v>
+        <v>-19.385438365143219</v>
       </c>
       <c r="B430" s="0">
-        <v>6.8012675130337588</v>
+        <v>1.0189332699813698</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>10.191304328043508</v>
+        <v>-19.410637299259243</v>
       </c>
       <c r="B431" s="0">
-        <v>6.8178856128147007</v>
+        <v>0.95649398395904428</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>10.186513109409967</v>
+        <v>-19.435629788044292</v>
       </c>
       <c r="B432" s="0">
-        <v>6.8345084870964348</v>
+        <v>0.89401261324795589</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>10.181692002562354</v>
+        <v>-19.460416210177808</v>
       </c>
       <c r="B433" s="0">
-        <v>6.8511361530733925</v>
+        <v>0.83148942358968614</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>10.176840929863696</v>
+        <v>-19.484996939209708</v>
       </c>
       <c r="B434" s="0">
-        <v>6.8677686280426364</v>
+        <v>0.7689246755873772</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>10.171959813074581</v>
+        <v>-19.50937234355381</v>
       </c>
       <c r="B435" s="0">
-        <v>6.884405929404684</v>
+        <v>0.70631862475608209</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>10.167048573347932</v>
+        <v>-19.533542786481192</v>
       </c>
       <c r="B436" s="0">
-        <v>6.901048074664339</v>
+        <v>0.64367152157251284</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>10.162107131223703</v>
+        <v>-19.557508626113531</v>
       </c>
       <c r="B437" s="0">
-        <v>6.9176950814315203</v>
+        <v>0.58098361152410205</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>10.157135406623507</v>
+        <v>-19.581270215416364</v>
       </c>
       <c r="B438" s="0">
-        <v>6.9343469674221234</v>
+        <v>0.51825513515752553</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>10.152133318845193</v>
+        <v>-19.604827902192309</v>
       </c>
       <c r="B439" s="0">
-        <v>6.9510037504588729</v>
+        <v>0.4554863281265657</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>10.147100786557324</v>
+        <v>-19.628182029074182</v>
       </c>
       <c r="B440" s="0">
-        <v>6.9676654484722054</v>
+        <v>0.39267742123938359</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>10.142037727793619</v>
+        <v>-19.651332933518088</v>
       </c>
       <c r="B441" s="0">
-        <v>6.9843320795011596</v>
+        <v>0.32982864050520211</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>10.136944059947314</v>
+        <v>-19.674280947796369</v>
       </c>
       <c r="B442" s="0">
-        <v>7.0010036616942619</v>
+        <v>0.26694020718031958</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>10.131819699765446</v>
+        <v>-19.697026398990527</v>
       </c>
       <c r="B443" s="0">
-        <v>7.0176802133104399</v>
+        <v>0.20401233781367412</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>10.126664563343057</v>
+        <v>-19.719569608983974</v>
       </c>
       <c r="B444" s="0">
-        <v>7.0343617527199545</v>
+        <v>0.14104524429171314</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>10.121478566117361</v>
+        <v>-19.741910894454744</v>
       </c>
       <c r="B445" s="0">
-        <v>7.0510482984053136</v>
+        <v>0.078039133882708694</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>10.116261622861792</v>
+        <v>-19.76405056686805</v>
       </c>
       <c r="B446" s="0">
-        <v>7.0677398689622448</v>
+        <v>0.014994209280499757</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>10.111013647680009</v>
+        <v>-19.785988932468719</v>
       </c>
       <c r="B447" s="0">
-        <v>7.0844364831006414</v>
+        <v>-0.048089331352284444</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>10.105734553999806</v>
+        <v>-19.807726292273568</v>
       </c>
       <c r="B448" s="0">
-        <v>7.1011381596455445</v>
+        <v>-0.11121129434172308</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>10.100424254566953</v>
+        <v>-19.829262942063529</v>
       </c>
       <c r="B449" s="0">
-        <v>7.1178449175381227</v>
+        <v>-0.17437149046041153</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>10.095082661438965</v>
+        <v>-19.850599172375748</v>
       </c>
       <c r="B450" s="0">
-        <v>7.134556775836665</v>
+        <v>-0.23756973488606173</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>10.089709685978772</v>
+        <v>-19.87173526849546</v>
       </c>
       <c r="B451" s="0">
-        <v>7.1512737537176134</v>
+        <v>-0.30080584716056141</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>10.084305238848314</v>
+        <v>-19.892671510447748</v>
       </c>
       <c r="B452" s="0">
-        <v>7.1679958704765809</v>
+        <v>-0.36407965114951896</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>10.078869230002073</v>
+        <v>-19.913408172989122</v>
       </c>
       <c r="B453" s="0">
-        <v>7.1847231455293992</v>
+        <v>-0.42739097500246132</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>10.073401568680493</v>
+        <v>-19.93394552559894</v>
       </c>
       <c r="B454" s="0">
-        <v>7.2014555984131636</v>
+        <v>-0.49073965111349171</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>10.067902163403341</v>
+        <v>-19.954283832470644</v>
       </c>
       <c r="B455" s="0">
-        <v>7.2181932487873084</v>
+        <v>-0.55412551608254867</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>10.062370921962945</v>
+        <v>-19.974423352502814</v>
       </c>
       <c r="B456" s="0">
-        <v>7.2349361164347075</v>
+        <v>-0.61754841067708177</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>10.056807751417388</v>
+        <v>-19.994364339290055</v>
       </c>
       <c r="B457" s="0">
-        <v>7.2516842212627495</v>
+        <v>-0.68100817979438211</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>10.051212558083586</v>
+        <v>-20.01410704111364</v>
       </c>
       <c r="B458" s="0">
-        <v>7.2684375833044719</v>
+        <v>-0.7445046724244101</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>10.045585247530283</v>
+        <v>-20.033651700932001</v>
       </c>
       <c r="B459" s="0">
-        <v>7.2851962227196836</v>
+        <v>-0.8080377416129978</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>10.039925724570944</v>
+        <v>-20.052998556370966</v>
       </c>
       <c r="B460" s="0">
-        <v>7.301960159796125</v>
+        <v>-0.87160724442578685</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>10.034233893256562</v>
+        <v>-20.072147839713807</v>
       </c>
       <c r="B461" s="0">
-        <v>7.3187294149506164</v>
+        <v>-0.93521304191250576</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>10.028509656868394</v>
+        <v>-20.09109977789106</v>
       </c>
       <c r="B462" s="0">
-        <v>7.3355040087302354</v>
+        <v>-0.99885499907182895</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>10.022752917910546</v>
+        <v>-20.109854592470075</v>
       </c>
       <c r="B463" s="0">
-        <v>7.3522839618135283</v>
+        <v>-1.0625329848167235</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>10.01696357810251</v>
+        <v>-20.128412499644408</v>
       </c>
       <c r="B464" s="0">
-        <v>7.3690692950116974</v>
+        <v>-1.1262468719402721</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
-        <v>10.011141538371572</v>
+        <v>-20.14677371022286</v>
       </c>
       <c r="B465" s="0">
-        <v>7.3858600292698693</v>
+        <v>-1.1899965370820613</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
-        <v>10.005286698845136</v>
+        <v>-20.164938429618346</v>
       </c>
       <c r="B466" s="0">
-        <v>7.4026561856683006</v>
+        <v>-1.2537818606949078</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
-        <v>9.9993989588429368</v>
+        <v>-20.182906857836482</v>
       </c>
       <c r="B467" s="0">
-        <v>7.4194577854236625</v>
+        <v>-1.3176027270123243</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
-        <v>9.9934782168691445</v>
+        <v>-20.200679189463873</v>
       </c>
       <c r="B468" s="0">
-        <v>7.4362648498903194</v>
+        <v>-1.3814590240161653</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
-        <v>9.9875243706043708</v>
+        <v>-20.218255613656165</v>
       </c>
       <c r="B469" s="0">
-        <v>7.4530774005616243</v>
+        <v>-1.4453506434050298</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
-        <v>9.981537316897569</v>
+        <v>-20.235636314125792</v>
       </c>
       <c r="B470" s="0">
-        <v>7.4698954590712363</v>
+        <v>-1.5092774805629547</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>9.9755169517578022</v>
+        <v>-20.252821469129426</v>
       </c>
       <c r="B471" s="0">
-        <v>7.4867190471944802</v>
+        <v>-1.5732394345286589</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
-        <v>9.9694631703459375</v>
+        <v>-20.26981125145517</v>
       </c>
       <c r="B472" s="0">
-        <v>7.5035481868496632</v>
+        <v>-1.6372364079652522</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
-        <v>9.963375866966194</v>
+        <v>-20.286605828409375</v>
       </c>
       <c r="B473" s="0">
-        <v>7.5203829000994755</v>
+        <v>-1.7012683071304251</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
-        <v>9.957254935057577</v>
+        <v>-20.303205361803226</v>
       </c>
       <c r="B474" s="0">
-        <v>7.5372232091523816</v>
+        <v>-1.765335041847059</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
-        <v>9.951100267185236</v>
+        <v>-20.319610007938934</v>
       </c>
       <c r="B475" s="0">
-        <v>7.5540691363640251</v>
+        <v>-1.8294365254743554</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>9.9449117550316437</v>
+        <v>-20.335819917595646</v>
       </c>
       <c r="B476" s="0">
-        <v>7.5709207042386675</v>
+        <v>-1.8935726748793706</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>9.9386892893876873</v>
+        <v>-20.351835236015013</v>
       </c>
       <c r="B477" s="0">
-        <v>7.5877779354306591</v>
+        <v>-1.957743410409015</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
-        <v>9.9324327601436426</v>
+        <v>-20.367656102886372</v>
       </c>
       <c r="B478" s="0">
-        <v>7.6046408527458951</v>
+        <v>-2.0219486558626079</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
-        <v>9.9261420562800033</v>
+        <v>-20.383282652331655</v>
       </c>
       <c r="B479" s="0">
-        <v>7.6215094791433078</v>
+        <v>-2.0861883384646869</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
-        <v>9.919817065858199</v>
+        <v>-20.398715012889848</v>
       </c>
       <c r="B480" s="0">
-        <v>7.6383838377364066</v>
+        <v>-2.1504623888384784</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
-        <v>9.913457676011161</v>
+        <v>-20.413953307501171</v>
       </c>
       <c r="B481" s="0">
-        <v>7.6552639517948053</v>
+        <v>-2.2147707409796209</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>9.9070637729337925</v>
+        <v>-20.428997653490779</v>
       </c>
       <c r="B482" s="0">
-        <v>7.6721498447457783</v>
+        <v>-2.2791133322304971</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>9.9006352418732551</v>
+        <v>-20.443848162552193</v>
       </c>
       <c r="B483" s="0">
-        <v>7.6890415401758787</v>
+        <v>-2.3434901032549074</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>9.8941719671191795</v>
+        <v>-20.458504940730244</v>
       </c>
       <c r="B484" s="0">
-        <v>7.7059390618325034</v>
+        <v>-2.4079009980132033</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>9.8876738319936788</v>
+        <v>-20.472968088403665</v>
       </c>
       <c r="B485" s="0">
-        <v>7.7228424336255515</v>
+        <v>-2.4723459637378582</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
-        <v>9.8811407188412641</v>
+        <v>-20.487237700267258</v>
       </c>
       <c r="B486" s="0">
-        <v>7.7397516796290722</v>
+        <v>-2.5368249509095162</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
-        <v>9.8745725090185896</v>
+        <v>-20.501313865313655</v>
       </c>
       <c r="B487" s="0">
-        <v>7.7566668240829459</v>
+        <v>-2.6013379132333792</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>9.8679690828840609</v>
+        <v>-20.515196666814614</v>
       </c>
       <c r="B488" s="0">
-        <v>7.7735878913945999</v>
+        <v>-2.6658848076161075</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>9.861330319787303</v>
+        <v>-20.528886182301939</v>
       </c>
       <c r="B489" s="0">
-        <v>7.7905149061407197</v>
+        <v>-2.7304655941431357</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>9.8546560980584665</v>
+        <v>-20.5423824835479</v>
       </c>
       <c r="B490" s="0">
-        <v>7.8074478930690123</v>
+        <v>-2.7950802360563749</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
-        <v>9.8479462949973744</v>
+        <v>-20.555685636545235</v>
       </c>
       <c r="B491" s="0">
-        <v>7.824386877099994</v>
+        <v>-2.8597286997323694</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
-        <v>9.8412007868625437</v>
+        <v>-20.568795701486643</v>
       </c>
       <c r="B492" s="0">
-        <v>7.8413318833287899</v>
+        <v>-2.9244109546608663</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>9.834419448859995</v>
+        <v>-20.581712732743878</v>
       </c>
       <c r="B493" s="0">
-        <v>7.8582829370269662</v>
+        <v>-2.9891269734238497</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>9.8276021551319506</v>
+        <v>-20.59443677884628</v>
       </c>
       <c r="B494" s="0">
-        <v>7.875240063644406</v>
+        <v>-3.0538767316748547</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
-        <v>9.8207487787453385</v>
+        <v>-20.606967882458875</v>
       </c>
       <c r="B495" s="0">
-        <v>7.8922032888111939</v>
+        <v>-3.1186602081189352</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
-        <v>9.8138591916801428</v>
+        <v>-20.619306080359927</v>
       </c>
       <c r="B496" s="0">
-        <v>7.9091726383395189</v>
+        <v>-3.1834773844928148</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>9.8069332648175767</v>
+        <v>-20.631451403418023</v>
       </c>
       <c r="B497" s="0">
-        <v>7.9261481382256438</v>
+        <v>-3.2483282455455988</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>9.7999708679280726</v>
+        <v>-20.643403876568588</v>
       </c>
       <c r="B498" s="0">
-        <v>7.943129814651865</v>
+        <v>-3.313212779019802</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>9.7929718696591248</v>
+        <v>-20.655163518789905</v>
       </c>
       <c r="B499" s="0">
-        <v>7.9601176939885239</v>
+        <v>-3.3781309756328892</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>9.7859361375229046</v>
+        <v>-20.666730343078587</v>
       </c>
       <c r="B500" s="0">
-        <v>7.977111802796057</v>
+        <v>-3.4430828290591546</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>9.7788635378837476</v>
+        <v>-20.678104356424466</v>
       </c>
       <c r="B501" s="0">
-        <v>7.9941121678270362</v>
+        <v>-3.5080683359120433</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>9.7717539359454104</v>
+        <v>-20.689285559784953</v>
       </c>
       <c r="B502" s="0">
-        <v>8.0111188160282918</v>
+        <v>-3.573087495726837</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>9.7646071957381544</v>
+        <v>-20.700273948058808</v>
       </c>
       <c r="B503" s="0">
-        <v>8.0281317745430236</v>
+        <v>-3.6381403109438648</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>9.757423180105631</v>
+        <v>-20.711069510059321</v>
       </c>
       <c r="B504" s="0">
-        <v>8.0451510707129916</v>
+        <v>-3.7032267868919004</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>9.7502017506915877</v>
+        <v>-20.721672228486902</v>
       </c>
       <c r="B505" s="0">
-        <v>8.0621767320806832</v>
+        <v>-3.7683469317722533</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>9.7429427679263423</v>
+        <v>-20.732082079901058</v>
       </c>
       <c r="B506" s="0">
-        <v>8.079208786391554</v>
+        <v>-3.8335007566430441</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>9.7356460910130682</v>
+        <v>-20.742299034691751</v>
       </c>
       <c r="B507" s="0">
-        <v>8.0962472615963161</v>
+        <v>-3.8986882754039609</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>9.7283115779138907</v>
+        <v>-20.752323057050123</v>
       </c>
       <c r="B508" s="0">
-        <v>8.1132921858531972</v>
+        <v>-3.9639095047814092</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>9.7209390853357256</v>
+        <v>-20.762154104938563</v>
       </c>
       <c r="B509" s="0">
-        <v>8.1303435875303105</v>
+        <v>-4.0291644643141336</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>9.7135284687159533</v>
+        <v>-20.771792130060145</v>
       </c>
       <c r="B510" s="0">
-        <v>8.1474014952080047</v>
+        <v>-4.0944531763391154</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>9.7060795822078383</v>
+        <v>-20.781237077827374</v>
       </c>
       <c r="B511" s="0">
-        <v>8.1644659376812818</v>
+        <v>-4.1597756659779765</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>9.6985922786657142</v>
+        <v>-20.790488887330238</v>
       </c>
       <c r="B512" s="0">
-        <v>8.1815369439622643</v>
+        <v>-4.2251319611237825</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>9.6910664096299897</v>
+        <v>-20.79954749130361</v>
       </c>
       <c r="B513" s="0">
-        <v>8.1986145432826394</v>
+        <v>-4.2905220924281675</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>9.6835018253118772</v>
+        <v>-20.808412816093888</v>
       </c>
       <c r="B514" s="0">
-        <v>8.2156987650962137</v>
+        <v>-4.3559460932889564</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>9.6758983745778995</v>
+        <v>-20.817084781624949</v>
       </c>
       <c r="B515" s="0">
-        <v>8.2327896390814725</v>
+        <v>-4.421403999838124</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>9.668255904934151</v>
+        <v>-20.825563301363321</v>
       </c>
       <c r="B516" s="0">
-        <v>8.2498871951441775</v>
+        <v>-4.4868958509302503</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>9.6605742625103233</v>
+        <v>-20.833848282282688</v>
       </c>
       <c r="B517" s="0">
-        <v>8.2669914634200161</v>
+        <v>-4.5524216881312229</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>9.6528532920434511</v>
+        <v>-20.841939624827525</v>
       </c>
       <c r="B518" s="0">
-        <v>8.2841024742773133</v>
+        <v>-4.617981555707515</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>9.645092836861453</v>
+        <v>-20.849837222876022</v>
       </c>
       <c r="B519" s="0">
-        <v>8.3012202583197201</v>
+        <v>-4.6835755006157376</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
-        <v>9.6372927388663516</v>
+        <v>-20.85754096370221</v>
       </c>
       <c r="B520" s="0">
-        <v>8.3183448463890226</v>
+        <v>-4.7492035724927124</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
-        <v>9.6294528385172811</v>
+        <v>-20.865050727937231</v>
       </c>
       <c r="B521" s="0">
-        <v>8.3354762695679501</v>
+        <v>-4.8148658236458237</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>9.62157297481318</v>
+        <v>-20.87236638952983</v>
       </c>
       <c r="B522" s="0">
-        <v>8.3526145591830492</v>
+        <v>-4.8805623090438974</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>9.6136529852752375</v>
+        <v>-20.879487815705978</v>
       </c>
       <c r="B523" s="0">
-        <v>8.3697597468075742</v>
+        <v>-4.9462930863083967</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>9.6056927059290267</v>
+        <v>-20.886414866927655</v>
       </c>
       <c r="B524" s="0">
-        <v>8.3869118642644924</v>
+        <v>-5.0120582157050988</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
-        <v>9.5976919712864088</v>
+        <v>-20.893147396850722</v>
       </c>
       <c r="B525" s="0">
-        <v>8.4040709436294492</v>
+        <v>-5.0778577601361361</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>9.5896506143270752</v>
+        <v>-20.899685252281955</v>
       </c>
       <c r="B526" s="0">
-        <v>8.4212370172338318</v>
+        <v>-5.1436917851324528</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
-        <v>9.5815684664798297</v>
+        <v>-20.90602827313511</v>
       </c>
       <c r="B527" s="0">
-        <v>8.4384101176678978</v>
+        <v>-5.2095603588467112</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
-        <v>9.5734453576035552</v>
+        <v>-20.9121762923861</v>
       </c>
       <c r="B528" s="0">
-        <v>8.4555902777839194</v>
+        <v>-5.2754635520465367</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>9.5652811159678901</v>
+        <v>-20.918129136027225</v>
       </c>
       <c r="B529" s="0">
-        <v>8.4727775306993927</v>
+        <v>-5.3414014381082886</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
-        <v>9.5570755682335324</v>
+        <v>-20.923886623020412</v>
       </c>
       <c r="B530" s="0">
-        <v>8.4899719098003157</v>
+        <v>-5.4073740930111427</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
-        <v>9.5488285394322947</v>
+        <v>-20.929448565249498</v>
       </c>
       <c r="B531" s="0">
-        <v>8.5071734487444939</v>
+        <v>-5.4733815953316807</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>9.5405398529467735</v>
+        <v>-20.934814767471472</v>
       </c>
       <c r="B532" s="0">
-        <v>8.5243821814649152</v>
+        <v>-5.5394240262387848</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
-        <v>9.532209330489696</v>
+        <v>-20.939985027266761</v>
       </c>
       <c r="B533" s="0">
-        <v>8.5415981421731857</v>
+        <v>-5.6055014694891323</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
-        <v>9.5238367920829461</v>
+        <v>-20.944959134988416</v>
       </c>
       <c r="B534" s="0">
-        <v>8.5588213653630127</v>
+        <v>-5.671614011422939</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
-        <v>9.5154220560361988</v>
+        <v>-20.949736873710229</v>
       </c>
       <c r="B535" s="0">
-        <v>8.5760518858137704</v>
+        <v>-5.7377617409602086</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
-        <v>9.5069649389252326</v>
+        <v>-20.954318019173812</v>
       </c>
       <c r="B536" s="0">
-        <v>8.5932897385940787</v>
+        <v>-5.8039447495974761</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
-        <v>9.4984652555698563</v>
+        <v>-20.958702339734536</v>
       </c>
       <c r="B537" s="0">
-        <v>8.6105349590654914</v>
+        <v>-5.8701631314048468</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
-        <v>9.489922819011479</v>
+        <v>-20.962889596306344</v>
       </c>
       <c r="B538" s="0">
-        <v>8.6277875828862189</v>
+        <v>-5.936416983023566</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
-        <v>9.4813374404902806</v>
+        <v>-20.966879542305424</v>
       </c>
       <c r="B539" s="0">
-        <v>8.645047646014925</v>
+        <v>-6.0027064036640176</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
-        <v>9.4727089294220121</v>
+        <v>-20.970671923592686</v>
       </c>
       <c r="B540" s="0">
-        <v>8.6623151847145898</v>
+        <v>-6.0690314951041548</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
-        <v>9.4640370933743867</v>
+        <v>-20.974266478415061</v>
       </c>
       <c r="B541" s="0">
-        <v>8.6795902355564305</v>
+        <v>-6.1353923616883357</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0">
-        <v>9.4553217380430681</v>
+        <v>-20.977662937345563</v>
       </c>
       <c r="B542" s="0">
-        <v>8.6968728354239158</v>
+        <v>-6.2017891103266738</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0">
-        <v>9.4465626672272602</v>
+        <v>-20.980861023222115</v>
       </c>
       <c r="B543" s="0">
-        <v>8.7141630215167947</v>
+        <v>-6.2682218504948368</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0">
-        <v>9.4377596828048489</v>
+        <v>-20.983860451085079</v>
       </c>
       <c r="B544" s="0">
-        <v>8.7314608313552533</v>
+        <v>-6.3346906942342098</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0">
-        <v>9.42891258470714</v>
+        <v>-20.986660928113512</v>
       </c>
       <c r="B545" s="0">
-        <v>8.74876630278413</v>
+        <v>-6.4011957561526351</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0">
-        <v>9.4200211708931398</v>
+        <v>-20.98926215356007</v>
       </c>
       <c r="B546" s="0">
-        <v>8.7660794739771681</v>
+        <v>-6.4677371534255341</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0">
-        <v>9.4110852373233804</v>
+        <v>-20.991663818684565</v>
       </c>
       <c r="B547" s="0">
-        <v>8.7834003834414069</v>
+        <v>-6.5343150057975636</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0">
-        <v>9.402104577933315</v>
+        <v>-20.993865606686171</v>
       </c>
       <c r="B548" s="0">
-        <v>8.8007290700215837</v>
+        <v>-6.6009294355846562</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0">
-        <v>9.3930789846062126</v>
+        <v>-20.995867192634147</v>
       </c>
       <c r="B549" s="0">
-        <v>8.8180655729046631</v>
+        <v>-6.6675805676766053</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0">
-        <v>9.3840082471455961</v>
+        <v>-20.997668243397179</v>
       </c>
       <c r="B550" s="0">
-        <v>8.8354099316244223</v>
+        <v>-6.734268529540139</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0">
-        <v>9.374892153247167</v>
+        <v>-20.999268417571241</v>
       </c>
       <c r="B551" s="0">
-        <v>8.8527621860661281</v>
+        <v>-6.8009934512224168</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0">
-        <v>9.365730488470259</v>
+        <v>-21.00066736540591</v>
       </c>
       <c r="B552" s="0">
-        <v>8.8701223764712971</v>
+        <v>-6.8677554653550983</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0">
-        <v>9.3565230362087615</v>
+        <v>-21.001864728729231</v>
       </c>
       <c r="B553" s="0">
-        <v>8.8874905434425298</v>
+        <v>-6.9345547071587852</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
-        <v>9.3472695776615158</v>
+        <v>-21.00286014087089</v>
       </c>
       <c r="B554" s="0">
-        <v>8.904866727948459</v>
+        <v>-7.0013913144481315</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0">
-        <v>9.3379698918021994</v>
+        <v>-21.0036532265839</v>
       </c>
       <c r="B555" s="0">
-        <v>8.9222509713287526</v>
+        <v>-7.0682654276373178</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0">
-        <v>9.3286237553486497</v>
+        <v>-21.00424360196461</v>
       </c>
       <c r="B556" s="0">
-        <v>8.9396433152992376</v>
+        <v>-7.1351771897460923</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0">
-        <v>9.3192309427316271</v>
+        <v>-21.004630874371003</v>
       </c>
       <c r="B557" s="0">
-        <v>8.9570438019570933</v>
+        <v>-7.2021267464063747</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0">
-        <v>9.3097912260630142</v>
+        <v>-21.004814642339355</v>
       </c>
       <c r="B558" s="0">
-        <v>8.9744524737861724</v>
+        <v>-7.2691142458692948</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0">
-        <v>9.300304375103428</v>
+        <v>-21.004794495499091</v>
       </c>
       <c r="B559" s="0">
-        <v>8.9918693736623894</v>
+        <v>-7.3361398390128567</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0">
-        <v>9.2907701572292449</v>
+        <v>-21.004570014485896</v>
       </c>
       <c r="B560" s="0">
-        <v>9.0092945448592126</v>
+        <v>-7.4032036793500167</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
-        <v>9.2811883373990085</v>
+        <v>-21.004140770852977</v>
       </c>
       <c r="B561" s="0">
-        <v>9.026728031053274</v>
+        <v>-7.470305923037496</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
-        <v>9.2715586781192076</v>
+        <v>-21.003506326980478</v>
       </c>
       <c r="B562" s="0">
-        <v>9.0441698763300771</v>
+        <v>-7.5374467288849623</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
-        <v>9.2618809394094335</v>
+        <v>-21.002666235983</v>
       </c>
       <c r="B563" s="0">
-        <v>9.0616201251898048</v>
+        <v>-7.6046262583648581</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
-        <v>9.2521548787668664</v>
+        <v>-21.001620041615123</v>
       </c>
       <c r="B564" s="0">
-        <v>9.0790788225532406</v>
+        <v>-7.6718446756228094</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0">
-        <v>9.2423802511301059</v>
+        <v>-21.000367278175016</v>
       </c>
       <c r="B565" s="0">
-        <v>9.0965460137677994</v>
+        <v>-7.7391021474885582</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0">
-        <v>9.23255680884232</v>
+        <v>-20.99890747040595</v>
       </c>
       <c r="B566" s="0">
-        <v>9.1140217446136997</v>
+        <v>-7.8063988434875533</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0">
-        <v>9.2226843016136861</v>
+        <v>-20.997240133395749</v>
       </c>
       <c r="B567" s="0">
-        <v>9.1315060613101977</v>
+        <v>-7.8737349358530375</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
-        <v>9.2127624764831246</v>
+        <v>-20.995364772474133</v>
       </c>
       <c r="B568" s="0">
-        <v>9.1489990105219796</v>
+        <v>-7.941110599538816</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0">
-        <v>9.2027910777793007</v>
+        <v>-20.993280883107833</v>
       </c>
       <c r="B569" s="0">
-        <v>9.1665006393656832</v>
+        <v>-8.0085260122326467</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0">
-        <v>9.1927698470808732</v>
+        <v>-20.990987950793553</v>
       </c>
       <c r="B570" s="0">
-        <v>9.1840109954165179</v>
+        <v>-8.0759813543701533</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0">
-        <v>9.1826985231759739</v>
+        <v>-20.988485450948588</v>
       </c>
       <c r="B571" s="0">
-        <v>9.2015301267150456</v>
+        <v>-8.1434768091494778</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0">
-        <v>9.1725768420209182</v>
+        <v>-20.985772848799133</v>
       </c>
       <c r="B572" s="0">
-        <v>9.2190580817740404</v>
+        <v>-8.2110125625465393</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0">
-        <v>9.1624045366981015</v>
+        <v>-20.982849599266231</v>
       </c>
       <c r="B573" s="0">
-        <v>9.2365949095855449</v>
+        <v>-8.278588803330873</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0">
-        <v>9.1521813373730598</v>
+        <v>-20.979715146849255</v>
       </c>
       <c r="B574" s="0">
-        <v>9.2541406596280211</v>
+        <v>-8.3462057230822833</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0">
-        <v>9.1419069712507124</v>
+        <v>-20.976368925506886</v>
       </c>
       <c r="B575" s="0">
-        <v>9.2716953818736716</v>
+        <v>-8.4138635162080071</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
-        <v>9.1315811625307344</v>
+        <v>-20.972810358535568</v>
       </c>
       <c r="B576" s="0">
-        <v>9.2892591267958657</v>
+        <v>-8.4815623799607049</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
-        <v>9.1212036323620307</v>
+        <v>-20.969038858445302</v>
       </c>
       <c r="B577" s="0">
-        <v>9.3068319453767767</v>
+        <v>-8.5493025144570147</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0">
-        <v>9.1107740987963268</v>
+        <v>-20.965053826832822</v>
       </c>
       <c r="B578" s="0">
-        <v>9.3244138891150889</v>
+        <v>-8.6170841226969603</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0">
-        <v>9.1002922767408183</v>
+        <v>-20.960854654251939</v>
       </c>
       <c r="B579" s="0">
-        <v>9.3420050100339367</v>
+        <v>-8.6849074105839676</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0">
-        <v>9.0897578779098822</v>
+        <v>-20.956440720081179</v>
       </c>
       <c r="B580" s="0">
-        <v>9.3596053606889438</v>
+        <v>-8.7527725869456567</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0">
-        <v>9.0791706107757957</v>
+        <v>-20.951811392388471</v>
       </c>
       <c r="B581" s="0">
-        <v>9.3772149941764802</v>
+        <v>-8.8206798635553962</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0">
-        <v>9.0685301805184704</v>
+        <v>-20.946966027792897</v>
       </c>
       <c r="B582" s="0">
-        <v>9.3948339641420446</v>
+        <v>-8.888629455154641</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0">
-        <v>9.0578362889741815</v>
+        <v>-20.941903971323466</v>
       </c>
       <c r="B583" s="0">
-        <v>9.4124623247888071</v>
+        <v>-8.9566215794759945</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0">
-        <v>9.0470886345832078</v>
+        <v>-20.936624556274758</v>
       </c>
       <c r="B584" s="0">
-        <v>9.4301001308863945</v>
+        <v>-9.0246564572670724</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0">
-        <v>9.0362869123364291</v>
+        <v>-20.931127104059382</v>
       </c>
       <c r="B585" s="0">
-        <v>9.4477474377797783</v>
+        <v>-9.0927343123152706</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0">
-        <v>9.0254308137208348</v>
+        <v>-20.925410924057278</v>
       </c>
       <c r="B586" s="0">
-        <v>9.4654043013983991</v>
+        <v>-9.1608553714731844</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0">
-        <v>9.0145200266638419</v>
+        <v>-20.91947531346155</v>
       </c>
       <c r="B587" s="0">
-        <v>9.4830707782654482</v>
+        <v>-9.2290198646850783</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0">
-        <v>9.0035542354765354</v>
+        <v>-20.913319557121039</v>
       </c>
       <c r="B588" s="0">
-        <v>9.5007469255073627</v>
+        <v>-9.2972280250140482</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0">
-        <v>8.9925331207956489</v>
+        <v>-20.906942927379294</v>
       </c>
       <c r="B589" s="0">
-        <v>9.5184328008635397</v>
+        <v>-9.3654800886701288</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0">
-        <v>8.9814563595243886</v>
+        <v>-20.900344683909971</v>
       </c>
       <c r="B590" s="0">
-        <v>9.5361284626961691</v>
+        <v>-9.4337762950393227</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0">
-        <v>8.9703236247719627</v>
+        <v>-20.893524073548633</v>
       </c>
       <c r="B591" s="0">
-        <v>9.5538339700003903</v>
+        <v>-9.5021168867135124</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0">
-        <v>8.9591345857918476</v>
+        <v>-20.886480330120683</v>
       </c>
       <c r="B592" s="0">
-        <v>9.5715493824145863</v>
+        <v>-9.5705021095212839</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0">
-        <v>8.9478889079187436</v>
+        <v>-20.879212674265506</v>
       </c>
       <c r="B593" s="0">
-        <v>9.5892747602309125</v>
+        <v>-9.6389322125597534</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0">
-        <v>8.9365862525041546</v>
+        <v>-20.871720313256585</v>
       </c>
       <c r="B594" s="0">
-        <v>9.6070101644060841</v>
+        <v>-9.7074074482273716</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0">
-        <v>8.9252262768506263</v>
+        <v>-20.864002440817607</v>
       </c>
       <c r="B595" s="0">
-        <v>9.6247556565723347</v>
+        <v>-9.7759280722576669</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0">
-        <v>8.9138086341445195</v>
+        <v>-20.85605823693437</v>
       </c>
       <c r="B596" s="0">
-        <v>9.642511299048687</v>
+        <v>-9.8444943437540857</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0">
-        <v>8.9023329733873506</v>
+        <v>-20.847886867662371</v>
       </c>
       <c r="B597" s="0">
-        <v>9.6602771548524</v>
+        <v>-9.9131065252258317</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0">
-        <v>8.8907989393256148</v>
+        <v>-20.839487484930082</v>
       </c>
       <c r="B598" s="0">
-        <v>9.6780532877107177</v>
+        <v>-9.9817648826247805</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0">
-        <v>8.8792061723790852</v>
+        <v>-20.830859226337637</v>
       </c>
       <c r="B599" s="0">
-        <v>9.6958397620728309</v>
+        <v>-10.050469685383465</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0">
-        <v>8.867554308567529</v>
+        <v>-20.822001214950927</v>
       </c>
       <c r="B600" s="0">
-        <v>9.7136366431221539</v>
+        <v>-10.11922120645427</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0">
-        <v>8.855842979435776</v>
+        <v>-20.812912559090933</v>
       </c>
       <c r="B601" s="0">
-        <v>9.731443996788844</v>
+        <v>-10.188019722349621</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0">
-        <v>8.8440718119771624</v>
+        <v>-20.803592352118162</v>
       </c>
       <c r="B602" s="0">
-        <v>9.7492618897625789</v>
+        <v>-10.256865513183518</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0">
-        <v>8.8322404285552274</v>
+        <v>-20.794039672212111</v>
       </c>
       <c r="B603" s="0">
-        <v>9.7670903895056682</v>
+        <v>-10.325758862714107</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0">
-        <v>8.8203484468236653</v>
+        <v>-20.78425358214551</v>
       </c>
       <c r="B604" s="0">
-        <v>9.7849295642664238</v>
+        <v>-10.394700058387633</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0">
-        <v>8.8083954796444477</v>
+        <v>-20.774233129053361</v>
       </c>
       <c r="B605" s="0">
-        <v>9.8027794830928521</v>
+        <v>-10.463689391383459</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0">
-        <v>8.7963811350041041</v>
+        <v>-20.763977344196451</v>
       </c>
       <c r="B606" s="0">
-        <v>9.8206402158466712</v>
+        <v>-10.532727156660636</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0">
-        <v>8.7843050159281102</v>
+        <v>-20.753485242719357</v>
       </c>
       <c r="B607" s="0">
-        <v>9.8385118332175789</v>
+        <v>-10.601813653005582</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0">
-        <v>8.7721667203932476</v>
+        <v>-20.742755823402653</v>
       </c>
       <c r="B608" s="0">
-        <v>9.8563944067379552</v>
+        <v>-10.6709491830812</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0">
-        <v>8.759965841238019</v>
+        <v>-20.731788068409262</v>
       </c>
       <c r="B609" s="0">
-        <v>9.8742880087978033</v>
+        <v>-10.740134053477368</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0">
-        <v>8.7477019660709168</v>
+        <v>-20.720580943024693</v>
       </c>
       <c r="B610" s="0">
-        <v>9.8921927126601119</v>
+        <v>-10.809368574762916</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0">
-        <v>8.7353746771766065</v>
+        <v>-20.709133395391099</v>
       </c>
       <c r="B611" s="0">
-        <v>9.9101085924765346</v>
+        <v>-10.878653061538968</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0">
-        <v>8.722983551419885</v>
+        <v>-20.697444356234875</v>
       </c>
       <c r="B612" s="0">
-        <v>9.9280357233034415</v>
+        <v>-10.947987832493867</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0">
-        <v>8.710528160147355</v>
+        <v>-20.685512738587647</v>
       </c>
       <c r="B613" s="0">
-        <v>9.9459741811183928</v>
+        <v>-11.01737321045964</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0">
-        <v>8.6980080690868391</v>
+        <v>-20.673337437500557</v>
       </c>
       <c r="B614" s="0">
-        <v>9.9639240428369114</v>
+        <v>-11.086809522469991</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0">
-        <v>8.6854228382443228</v>
+        <v>-20.660917329751463</v>
       </c>
       <c r="B615" s="0">
-        <v>9.9818853863297594</v>
+        <v>-11.156297099819955</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0">
-        <v>8.6727720217984725</v>
+        <v>-20.648251273545036</v>
       </c>
       <c r="B616" s="0">
-        <v>9.9998582904405513</v>
+        <v>-11.225836278127264</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0">
-        <v>8.6600551679926134</v>
+        <v>-20.635338108205399</v>
       </c>
       <c r="B617" s="0">
-        <v>10.017842835003835</v>
+        <v>-11.295427397395356</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0">
-        <v>8.6472718190240521</v>
+        <v>-20.622176653861231</v>
       </c>
       <c r="B618" s="0">
-        <v>10.035839100863608</v>
+        <v>-11.365070802078193</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0">
-        <v>8.6344215109307871</v>
+        <v>-20.608765711122963</v>
       </c>
       <c r="B619" s="0">
-        <v>10.053847169892238</v>
+        <v>-11.434766841146883</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0">
-        <v>8.6215037734753626</v>
+        <v>-20.595104060751972</v>
       </c>
       <c r="B620" s="0">
-        <v>10.07186712500992</v>
+        <v>-11.504515868158146</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0">
-        <v>8.6085181300259155</v>
+        <v>-20.581190463321384</v>
       </c>
       <c r="B621" s="0">
-        <v>10.089899050204542</v>
+        <v>-11.574318241324775</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0">
-        <v>8.5954640974342649</v>
+        <v>-20.56702365886844</v>
       </c>
       <c r="B622" s="0">
-        <v>10.107943030552104</v>
+        <v>-11.644174323587929</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0">
-        <v>8.5823411859109662</v>
+        <v>-20.552602366537943</v>
       </c>
       <c r="B623" s="0">
-        <v>10.12599915223759</v>
+        <v>-11.714084482691607</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0">
-        <v>8.5691488988972289</v>
+        <v>-20.537925284216669</v>
       </c>
       <c r="B624" s="0">
-        <v>10.144067502576423</v>
+        <v>-11.784049091259092</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0">
-        <v>8.5558867329336579</v>
+        <v>-20.522991088158438</v>
       </c>
       <c r="B625" s="0">
-        <v>10.162148170036396</v>
+        <v>-11.854068526871593</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0">
-        <v>8.5425541775256217</v>
+        <v>-20.507798432599479</v>
       </c>
       <c r="B626" s="0">
-        <v>10.180241244260195</v>
+        <v>-11.924143172149151</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0">
-        <v>8.5291507150052155</v>
+        <v>-20.492345949363941</v>
       </c>
       <c r="B627" s="0">
-        <v>10.19834681608849</v>
+        <v>-11.994273414833643</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0">
-        <v>8.5156758203896867</v>
+        <v>-20.476632247459051</v>
       </c>
       <c r="B628" s="0">
-        <v>10.216464977583637</v>
+        <v>-12.064459647874385</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0">
-        <v>8.5021289612362452</v>
+        <v>-20.460655912659789</v>
       </c>
       <c r="B629" s="0">
-        <v>10.234595822053928</v>
+        <v>-12.134702269515939</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0">
-        <v>8.4885095974930476</v>
+        <v>-20.44441550708261</v>
       </c>
       <c r="B630" s="0">
-        <v>10.252739444078564</v>
+        <v>-12.205001683388508</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0">
-        <v>8.4748171813463866</v>
+        <v>-20.427909568747932</v>
       </c>
       <c r="B631" s="0">
-        <v>10.270895939533183</v>
+        <v>-12.275358298600821</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0">
-        <v>8.4610511570638209</v>
+        <v>-20.411136611131017</v>
       </c>
       <c r="B632" s="0">
-        <v>10.289065405616107</v>
+        <v>-12.345772529835793</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0">
-        <v>8.4472109608331696</v>
+        <v>-20.394095122700858</v>
       </c>
       <c r="B633" s="0">
-        <v>10.307247940875298</v>
+        <v>-12.416244797448806</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0">
-        <v>8.4332960205972824</v>
+        <v>-20.37678356644674</v>
       </c>
       <c r="B634" s="0">
-        <v>10.325443645235978</v>
+        <v>-12.486775527568774</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0">
-        <v>8.4193057558843503</v>
+        <v>-20.359200379392</v>
       </c>
       <c r="B635" s="0">
-        <v>10.343652620029028</v>
+        <v>-12.557365152202212</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0">
-        <v>8.4052395776337079</v>
+        <v>-20.341343972094631</v>
       </c>
       <c r="B636" s="0">
-        <v>10.361874968020139</v>
+        <v>-12.628014109340199</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0">
-        <v>8.3910968880169214</v>
+        <v>-20.323212728134273</v>
       </c>
       <c r="B637" s="0">
-        <v>10.380110793439723</v>
+        <v>-12.69872284306849</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0">
-        <v>8.3768770802539922</v>
+        <v>-20.304805003585106</v>
       </c>
       <c r="B638" s="0">
-        <v>10.398360202013681</v>
+        <v>-12.769491803680788</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0">
-        <v>8.3625795384245958</v>
+        <v>-20.286119126474283</v>
       </c>
       <c r="B639" s="0">
-        <v>10.416623300994972</v>
+        <v>-12.840321447795279</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0">
-        <v>8.3482036372740751</v>
+        <v>-20.267153396225286</v>
       </c>
       <c r="B640" s="0">
-        <v>10.434900199196077</v>
+        <v>-12.911212238474642</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0">
-        <v>8.3337487420140892</v>
+        <v>-20.247906083085809</v>
       </c>
       <c r="B641" s="0">
-        <v>10.453191007022369</v>
+        <v>-12.982164645349444</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0">
-        <v>8.3192142081177298</v>
+        <v>-20.228375427539564</v>
       </c>
       <c r="B642" s="0">
-        <v>10.471495836506362</v>
+        <v>-13.05317914474529</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0">
-        <v>8.3045993811088845</v>
+        <v>-20.208559639701534</v>
       </c>
       <c r="B643" s="0">
-        <v>10.489814801342968</v>
+        <v>-13.124256219813606</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0">
-        <v>8.2899035963456651</v>
+        <v>-20.188456898696003</v>
       </c>
       <c r="B644" s="0">
-        <v>10.508148016925741</v>
+        <v>-13.1953963606664</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0">
-        <v>8.2751261787976773</v>
+        <v>-20.168065352016956</v>
       </c>
       <c r="B645" s="0">
-        <v>10.526495600384132</v>
+        <v>-13.266600064514899</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0">
-        <v>8.2602664428169792</v>
+        <v>-20.147383114869957</v>
       </c>
       <c r="B646" s="0">
-        <v>10.544857670621814</v>
+        <v>-13.337867835812446</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0">
-        <v>8.2453236919024153</v>
+        <v>-20.126408269495155</v>
       </c>
       <c r="B647" s="0">
-        <v>10.563234348356117</v>
+        <v>-13.40920018640159</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0">
-        <v>8.2302972184571246</v>
+        <v>-20.10513886447054</v>
       </c>
       <c r="B648" s="0">
-        <v>10.581625756158617</v>
+        <v>-13.480597635665656</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0">
-        <v>8.2151863035390758</v>
+        <v>-20.083572913994828</v>
       </c>
       <c r="B649" s="0">
-        <v>10.600032018496838</v>
+        <v>-13.552060710684879</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0">
-        <v>8.1999902166041796</v>
+        <v>-20.061708397149307</v>
       </c>
       <c r="B650" s="0">
-        <v>10.618453261777276</v>
+        <v>-13.623589946397262</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0">
-        <v>8.1847082152419226</v>
+        <v>-20.039543257137712</v>
       </c>
       <c r="B651" s="0">
-        <v>10.636889614389613</v>
+        <v>-13.695185885764392</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0">
-        <v>8.1693395449030888</v>
+        <v>-20.0170754005036</v>
       </c>
       <c r="B652" s="0">
-        <v>10.655341206752281</v>
+        <v>-13.766849079942316</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0">
-        <v>8.1538834386193706</v>
+        <v>-19.994302696324109</v>
       </c>
       <c r="B653" s="0">
-        <v>10.673808171359399</v>
+        <v>-13.83858008845767</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0">
-        <v>8.1383391167145565</v>
+        <v>-19.971222975379508</v>
       </c>
       <c r="B654" s="0">
-        <v>10.692290642829063</v>
+        <v>-13.910379479389285</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0">
-        <v>8.1227057865069394</v>
+        <v>-19.947834029297411</v>
       </c>
       <c r="B655" s="0">
-        <v>10.710788757953171</v>
+        <v>-13.982247829555506</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0">
-        <v>8.1069826420026754</v>
+        <v>-19.924133609670939</v>
       </c>
       <c r="B656" s="0">
-        <v>10.729302655748729</v>
+        <v>-14.054185724707274</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0">
-        <v>8.0911688635797123</v>
+        <v>-19.90011942714964</v>
       </c>
       <c r="B657" s="0">
-        <v>10.747832477510737</v>
+        <v>-14.126193759727357</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0">
-        <v>8.075263617661939</v>
+        <v>-19.875789150502285</v>
       </c>
       <c r="B658" s="0">
-        <v>10.766378366866723</v>
+        <v>-14.198272538835941</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0">
-        <v>8.0592660563832208</v>
+        <v>-19.851140405650483</v>
       </c>
       <c r="B659" s="0">
-        <v>10.784940469832941</v>
+        <v>-14.2704226758026</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0">
-        <v>8.0431753172408378</v>
+        <v>-19.826170774671819</v>
       </c>
       <c r="B660" s="0">
-        <v>10.803518934872409</v>
+        <v>-14.34264479416529</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0">
-        <v>8.0269905227380587</v>
+        <v>-19.800877794771605</v>
       </c>
       <c r="B661" s="0">
-        <v>10.822113912954665</v>
+        <v>-14.414939527456246</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0">
-        <v>8.0107107800152821</v>
+        <v>-19.775258957221833</v>
       </c>
       <c r="B662" s="0">
-        <v>10.840725557617541</v>
+        <v>-14.487307519435216</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0">
-        <v>7.9943351804693963</v>
+        <v>-19.749311706266077</v>
       </c>
       <c r="B663" s="0">
-        <v>10.859354025030818</v>
+        <v>-14.559749424330397</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0">
-        <v>7.9778627993608389</v>
+        <v>-19.723033437989155</v>
       </c>
       <c r="B664" s="0">
-        <v>10.877999474062017</v>
+        <v>-14.632265907087163</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0">
-        <v>7.9612926954078862</v>
+        <v>-19.696421499149903</v>
       </c>
       <c r="B665" s="0">
-        <v>10.896662066344284</v>
+        <v>-14.704857643625093</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0">
-        <v>7.9446239103676906</v>
+        <v>-19.669473185975818</v>
       </c>
       <c r="B666" s="0">
-        <v>10.91534196634648</v>
+        <v>-14.777525321103568</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0">
-        <v>7.9278554686034717</v>
+        <v>-19.642185742917949</v>
       </c>
       <c r="B667" s="0">
-        <v>10.934039341445635</v>
+        <v>-14.850269638196114</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0">
-        <v>7.9109863766373083</v>
+        <v>-19.61455636136434</v>
       </c>
       <c r="B668" s="0">
-        <v>10.952754362001775</v>
+        <v>-14.92309130537417</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0">
-        <v>7.8940156226880145</v>
+        <v>-19.586582178310525</v>
       </c>
       <c r="B669" s="0">
-        <v>10.971487201435252</v>
+        <v>-14.995991045200363</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0">
-        <v>7.8769421761933787</v>
+        <v>-19.558260274985152</v>
       </c>
       <c r="B670" s="0">
-        <v>10.990238036306712</v>
+        <v>-15.068969592631811</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0">
-        <v>7.8597649873161766</v>
+        <v>-19.529587675428896</v>
       </c>
       <c r="B671" s="0">
-        <v>11.009007046399759</v>
+        <v>-15.142027695333864</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0">
-        <v>7.8424829864332857</v>
+        <v>-19.500561345024824</v>
       </c>
       <c r="B672" s="0">
-        <v>11.027794414806436</v>
+        <v>-15.215166114004736</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0">
-        <v>7.8250950836071516</v>
+        <v>-19.471178188977987</v>
       </c>
       <c r="B673" s="0">
-        <v>11.046600328015693</v>
+        <v>-15.288385622711417</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0">
-        <v>7.8076001680388778</v>
+        <v>-19.441435050742317</v>
       </c>
       <c r="B674" s="0">
-        <v>11.065424976004904</v>
+        <v>-15.361687009237327</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0">
-        <v>7.7899971075021117</v>
+        <v>-19.411328710392294</v>
       </c>
       <c r="B675" s="0">
-        <v>11.084268552334617</v>
+        <v>-15.4350710754424</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0">
-        <v>7.7722847477569914</v>
+        <v>-19.380855882937283</v>
       </c>
       <c r="B676" s="0">
-        <v>11.103131254246609</v>
+        <v>-15.508538637635869</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0">
-        <v>7.7544619119431424</v>
+        <v>-19.350013216575896</v>
       </c>
       <c r="B677" s="0">
-        <v>11.122013282765506</v>
+        <v>-15.582090526962439</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0">
-        <v>7.7365273999509485</v>
+        <v>-19.318797290887737</v>
       </c>
       <c r="B678" s="0">
-        <v>11.140914842803967</v>
+        <v>-15.655727589802483</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0">
-        <v>7.718479987770035</v>
+        <v>-19.287204614959833</v>
       </c>
       <c r="B679" s="0">
-        <v>11.159836143271736</v>
+        <v>-15.729450688186812</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0">
-        <v>7.7003184268139702</v>
+        <v>-19.255231625444893</v>
       </c>
       <c r="B680" s="0">
-        <v>11.178777397188661</v>
+        <v>-15.803260700226522</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0">
-        <v>7.6820414432201396</v>
+        <v>-19.222874684548152</v>
       </c>
       <c r="B681" s="0">
-        <v>11.197738821801842</v>
+        <v>-15.877158520558973</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0">
-        <v>7.6636477371236458</v>
+        <v>-19.19013007793977</v>
       </c>
       <c r="B682" s="0">
-        <v>11.216720638707171</v>
+        <v>-15.951145060810207</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0">
-        <v>7.6451359819040148</v>
+        <v>-19.156994012589312</v>
       </c>
       <c r="B683" s="0">
-        <v>11.235723073975402</v>
+        <v>-16.025221250074779</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0">
-        <v>7.626504823403546</v>
+        <v>-19.12346261451864</v>
       </c>
       <c r="B684" s="0">
-        <v>11.254746358282935</v>
+        <v>-16.099388035413828</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0">
-        <v>7.6077528791158651</v>
+        <v>-19.089531926469565</v>
       </c>
       <c r="B685" s="0">
-        <v>11.273790727047647</v>
+        <v>-16.173646382372123</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0">
-        <v>7.5888787373433724</v>
+        <v>-19.05519790548222</v>
       </c>
       <c r="B686" s="0">
-        <v>11.292856420569889</v>
+        <v>-16.247997275514976</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0">
-        <v>7.5698809563220575</v>
+        <v>-19.020456420379936</v>
       </c>
       <c r="B687" s="0">
-        <v>11.311943684178953</v>
+        <v>-16.322441718985989</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0">
-        <v>7.5507580633121609</v>
+        <v>-18.9853032491561</v>
       </c>
       <c r="B688" s="0">
-        <v>11.331052768385261</v>
+        <v>-16.396980737086778</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0">
-        <v>7.531508553652996</v>
+        <v>-18.949734076258405</v>
       </c>
       <c r="B689" s="0">
-        <v>11.350183929038552</v>
+        <v>-16.471615374879391</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0">
-        <v>7.5121308897802352</v>
+        <v>-18.913744489765485</v>
       </c>
       <c r="B690" s="0">
-        <v>11.369337427492344</v>
+        <v>-16.546346698812773</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0">
-        <v>7.4926235002037762</v>
+        <v>-18.877329978450586</v>
       </c>
       <c r="B691" s="0">
-        <v>11.388513530774986</v>
+        <v>-16.621175797374452</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0">
-        <v>7.4729847784442516</v>
+        <v>-18.8404859287268</v>
       </c>
       <c r="B692" s="0">
-        <v>11.407712511767665</v>
+        <v>-16.696103781768564</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0">
-        <v>7.4532130819260995</v>
+        <v>-18.803207621467934</v>
       </c>
       <c r="B693" s="0">
-        <v>11.426934649389647</v>
+        <v>-16.771131786621545</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0">
-        <v>7.4333067308250707</v>
+        <v>-18.765490228698688</v>
       </c>
       <c r="B694" s="0">
-        <v>11.446180228791164</v>
+        <v>-16.846260970717033</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0">
-        <v>7.4132640068677187</v>
+        <v>-18.727328810147664</v>
       </c>
       <c r="B695" s="0">
-        <v>11.465449541554335</v>
+        <v>-16.921492517761269</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0">
-        <v>7.3930831520805835</v>
+        <v>-18.688718309656</v>
       </c>
       <c r="B696" s="0">
-        <v>11.484742885902497</v>
+        <v>-16.996827637180644</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0">
-        <v>7.3727623674862945</v>
+        <v>-18.649653551434298</v>
       </c>
       <c r="B697" s="0">
-        <v>11.504060566918424</v>
+        <v>-17.072267564953098</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0">
-        <v>7.3522998117438956</v>
+        <v>-18.610129236159921</v>
       </c>
       <c r="B698" s="0">
-        <v>11.523402896771893</v>
+        <v>-17.14781356447499</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0">
-        <v>7.3316935997304533</v>
+        <v>-18.570139936906099</v>
       </c>
       <c r="B699" s="0">
-        <v>11.542770194957068</v>
+        <v>-17.223466927465484</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0">
-        <v>7.3109418010607596</v>
+        <v>-18.529680094894076</v>
       </c>
       <c r="B700" s="0">
-        <v>11.562162788540242</v>
+        <v>-17.29922897491037</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0">
-        <v>7.2900424385418363</v>
+        <v>-18.488744015058696</v>
       </c>
       <c r="B701" s="0">
-        <v>11.581581012418498</v>
+        <v>-17.375101058047353</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0">
-        <v>7.2689934865586956</v>
+        <v>-18.447325861417252</v>
       </c>
       <c r="B702" s="0">
-        <v>11.601025209589851</v>
+        <v>-17.451084559395223</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0">
-        <v>7.247792869387494</v>
+        <v>-18.405419652230975</v>
       </c>
       <c r="B703" s="0">
-        <v>11.620495731435605</v>
+        <v>-17.527180893829154</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0">
-        <v>7.2264384594321749</v>
+        <v>-18.363019254947442</v>
       </c>
       <c r="B704" s="0">
-        <v>11.639992938015428</v>
+        <v>-17.603391509704821</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0">
-        <v>7.2049280753801952</v>
+        <v>-18.320118380911875</v>
       </c>
       <c r="B705" s="0">
-        <v>11.659517198376045</v>
+        <v>-17.679717890033938</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0">
-        <v>7.1832594802728176</v>
+        <v>-18.276710579834035</v>
       </c>
       <c r="B706" s="0">
-        <v>11.679068890874188</v>
+        <v>-17.756161553714286</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0">
-        <v>7.1614303794849716</v>
+        <v>-18.232789233996986</v>
       </c>
       <c r="B707" s="0">
-        <v>11.698648403514706</v>
+        <v>-17.832724056817124</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0">
-        <v>7.1394384186096564</v>
+        <v>-18.188347552192614</v>
       </c>
       <c r="B708" s="0">
-        <v>11.718256134304617</v>
+        <v>-17.909406993935512</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0">
-        <v>7.1172811812410162</v>
+        <v>-18.143378563368039</v>
       </c>
       <c r="B709" s="0">
-        <v>11.73789249162415</v>
+        <v>-17.986211999596961</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0">
-        <v>7.0949561866503164</v>
+        <v>-18.097875109965926</v>
       </c>
       <c r="B710" s="0">
-        <v>11.75755789461571</v>
+        <v>-18.063140749744218</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0">
-        <v>7.0724608873483215</v>
+        <v>-18.051829840940268</v>
       </c>
       <c r="B711" s="0">
-        <v>11.777252773591835</v>
+        <v>-18.140194963288373</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0">
-        <v>7.0497926665271837</v>
+        <v>-18.005235204428228</v>
       </c>
       <c r="B712" s="0">
-        <v>11.796977570463351</v>
+        <v>-18.217376403738481</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0">
-        <v>7.026948835374589</v>
+        <v>-17.958083440057031</v>
       </c>
       <c r="B713" s="0">
-        <v>11.816732739188868</v>
+        <v>-18.294686880912401</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0">
-        <v>7.0039266302520859</v>
+        <v>-17.910366570863285</v>
       </c>
       <c r="B714" s="0">
-        <v>11.83651874624703</v>
+        <v>-18.372128252733969</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0">
-        <v>6.9807232097292751</v>
+        <v>-17.862076394800706</v>
       </c>
       <c r="B715" s="0">
-        <v>11.856336071132896</v>
+        <v>-18.449702427121821</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0">
-        <v>6.9573356514646125</v>
+        <v>-17.813204475810199</v>
       </c>
       <c r="B716" s="0">
-        <v>11.876185206879972</v>
+        <v>-18.527411363975542</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0">
-        <v>6.933760948923112</v>
+        <v>-17.763742134424316</v>
       </c>
       <c r="B717" s="0">
-        <v>11.896066660609556</v>
+        <v>-18.60525707726557</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0">
-        <v>6.9099960079202303</v>
+        <v>-17.7136804378761</v>
       </c>
       <c r="B718" s="0">
-        <v>11.915980954109184</v>
+        <v>-18.683241637233348</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0">
-        <v>6.8860376429808232</v>
+        <v>-17.66301018967987</v>
       </c>
       <c r="B719" s="0">
-        <v>11.93592862444198</v>
+        <v>-18.76136717270909</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0">
-        <v>6.861882573500524</v>
+        <v>-17.611721918648929</v>
       </c>
       <c r="B720" s="0">
-        <v>11.955910224589136</v>
+        <v>-18.839635873554816</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0">
-        <v>6.8375274196966318</v>
+        <v>-17.559805867312669</v>
       </c>
       <c r="B721" s="0">
-        <v>11.97592632412757</v>
+        <v>-18.918049993241112</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0">
-        <v>6.8129686983339752</v>
+        <v>-17.507251979692114</v>
       </c>
       <c r="B722" s="0">
-        <v>11.995977509945289</v>
+        <v>-18.99661185156673</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0">
-        <v>6.7882028182103635</v>
+        <v>-17.454049888389982</v>
       </c>
       <c r="B723" s="0">
-        <v>12.016064386996939</v>
+        <v>-19.075323837530721</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0">
-        <v>6.7632260753848144</v>
+        <v>-17.400188900947636</v>
       </c>
       <c r="B724" s="0">
-        <v>12.036187579102478</v>
+        <v>-19.154188412367734</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0">
-        <v>6.7380346481304869</v>
+        <v>-17.345657985417066</v>
       </c>
       <c r="B725" s="0">
-        <v>12.05634772979182</v>
+        <v>-19.23320811275812</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0">
-        <v>6.7126245915924914</v>
+        <v>-17.290445755092154</v>
       </c>
       <c r="B726" s="0">
-        <v>12.076545503198977</v>
+        <v>-19.312385554225106</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0">
-        <v>6.6869918321292712</v>
+        <v>-17.234540452338219</v>
       </c>
       <c r="B727" s="0">
-        <v>12.096781585009106</v>
+        <v>-19.391723434732604</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0">
-        <v>6.6611321613143595</v>
+        <v>-17.177929931453814</v>
       </c>
       <c r="B728" s="0">
-        <v>12.117056683462398</v>
+        <v>-19.471224538498628</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0">
-        <v>6.6350412295731038</v>
+        <v>-17.120601640492993</v>
       </c>
       <c r="B729" s="0">
-        <v>12.13737153041907</v>
+        <v>-19.550891740039866</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0">
-        <v>6.6087145394269085</v>
+        <v>-17.062542601969543</v>
       </c>
       <c r="B730" s="0">
-        <v>12.157726882490074</v>
+        <v>-19.630728008465244</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0">
-        <v>6.5821474383149399</v>
+        <v>-17.003739392358057</v>
       </c>
       <c r="B731" s="0">
-        <v>12.178123522238453</v>
+        <v>-19.710736412037221</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0">
-        <v>6.5553351109604732</v>
+        <v>-16.944178120298481</v>
       </c>
       <c r="B732" s="0">
-        <v>12.198562259456978</v>
+        <v>-19.79092012302165</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0">
-        <v>6.5282725712460383</v>
+        <v>-16.883844403402307</v>
       </c>
       <c r="B733" s="0">
-        <v>12.219043932527978</v>
+        <v>-19.871282422848971</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0">
-        <v>6.5009546535581961</v>
+        <v>-16.822723343549089</v>
       </c>
       <c r="B734" s="0">
-        <v>12.239569409871899</v>
+        <v>-19.951826707611254</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0">
-        <v>6.4733760035588519</v>
+        <v>-16.760799500550956</v>
       </c>
       <c r="B735" s="0">
-        <v>12.260139591491891</v>
+        <v>-20.032556493922627</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0">
-        <v>6.4455310683359963</v>
+        <v>-16.698056864051274</v>
       </c>
       <c r="B736" s="0">
-        <v>12.280755410622243</v>
+        <v>-20.11347542517268</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0">
-        <v>6.4174140858820925</v>
+        <v>-16.634478823510261</v>
       </c>
       <c r="B737" s="0">
-        <v>12.301417835489318</v>
+        <v>-20.194587278205582</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0">
-        <v>6.3890190738429169</v>
+        <v>-16.570048136115364</v>
       </c>
       <c r="B738" s="0">
-        <v>12.322127871194626</v>
+        <v>-20.275895970461267</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0">
-        <v>6.3603398174741805</v>
+        <v>-16.504746892438494</v>
       </c>
       <c r="B739" s="0">
-        <v>12.342886561730479</v>
+        <v>-20.357405567617835</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0">
-        <v>6.3313698567365329</v>
+        <v>-16.438556479642614</v>
       </c>
       <c r="B740" s="0">
-        <v>12.363694992139834</v>
+        <v>-20.439120291779641</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0">
-        <v>6.3021024724522325</v>
+        <v>-16.371457542020611</v>
       </c>
       <c r="B741" s="0">
-        <v>12.384554290833206</v>
+        <v>-20.521044530258983</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0">
-        <v>6.2725306714387949</v>
+        <v>-16.303429938625545</v>
       </c>
       <c r="B742" s="0">
-        <v>12.405465632076789</v>
+        <v>-20.603182845005183</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0">
-        <v>6.2426471705254603</v>
+        <v>-16.234452697725313</v>
       </c>
       <c r="B743" s="0">
-        <v>12.426430238667551</v>
+        <v>-20.685539982740433</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0">
-        <v>6.2124443793481108</v>
+        <v>-16.164503967785361</v>
       </c>
       <c r="B744" s="0">
-        <v>12.447449384812769</v>
+        <v>-20.768120885868466</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0">
-        <v>6.1819143818063553</v>
+        <v>-16.093560964649907</v>
       </c>
       <c r="B745" s="0">
-        <v>12.468524399233511</v>
+        <v>-20.850930704229171</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0">
-        <v>6.1510489160534139</v>
+        <v>-16.021599914554294</v>
       </c>
       <c r="B746" s="0">
-        <v>12.489656668513607</v>
+        <v>-20.933974807781105</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0">
-        <v>6.1198393528740889</v>
+        <v>-15.948595992558086</v>
       </c>
       <c r="B747" s="0">
-        <v>12.510847640718499</v>
+        <v>-21.01725880030326</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0">
-        <v>6.0882766722892327</v>
+        <v>-15.874523255940778</v>
       </c>
       <c r="B748" s="0">
-        <v>12.532098829310808</v>
+        <v>-21.100788534217845</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0">
-        <v>6.0563514382053736</v>
+        <v>-15.799354572045534</v>
       </c>
       <c r="B749" s="0">
-        <v>12.553411817393146</v>
+        <v>-21.184570126648818</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0">
-        <v>6.0240537709058195</v>
+        <v>-15.723061539993976</v>
       </c>
       <c r="B750" s="0">
-        <v>12.57478826231217</v>
+        <v>-21.268609976844473</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0">
-        <v>5.9913733171543209</v>
+        <v>-15.645614405622233</v>
       </c>
       <c r="B751" s="0">
-        <v>12.596229900662228</v>
+        <v>-21.352914785108727</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0">
-        <v>5.9582992176525655</v>
+        <v>-15.56698196890564</v>
       </c>
       <c r="B752" s="0">
-        <v>12.617738553731849</v>
+        <v>-21.437491573404124</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0">
-        <v>5.9248200715594317</v>
+        <v>-15.487131483043465</v>
       </c>
       <c r="B753" s="0">
-        <v>12.639316133442026</v>
+        <v>-21.522347707811104</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0">
-        <v>5.8909238977407732</v>
+        <v>-15.406028544265599</v>
       </c>
       <c r="B754" s="0">
-        <v>12.660964648831706</v>
+        <v>-21.607490923052087</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0">
-        <v>5.8565980923735159</v>
+        <v>-15.323636971294587</v>
       </c>
       <c r="B755" s="0">
-        <v>12.682686213153403</v>
+        <v>-21.692929349317939</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0">
-        <v>5.8218293824755634</v>
+        <v>-15.239918673249058</v>
       </c>
       <c r="B756" s="0">
-        <v>12.704483051650731</v>
+        <v>-21.778671541667002</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0">
-        <v>5.7866037748720931</v>
+        <v>-15.154833504602186</v>
       </c>
       <c r="B757" s="0">
-        <v>12.726357510099715</v>
+        <v>-21.864726512305129</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0">
-        <v>5.7509065000378987</v>
+        <v>-15.06833910560759</v>
       </c>
       <c r="B758" s="0">
-        <v>12.748312064207676</v>
+        <v>-21.951103766100093</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0">
-        <v>5.7147219501720086</v>
+        <v>-14.980390726369734</v>
       </c>
       <c r="B759" s="0">
-        <v>12.770349329977471</v>
+        <v>-22.037813339736125</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0">
-        <v>5.6780336107633458</v>
+        <v>-14.890941032458707</v>
       </c>
       <c r="B760" s="0">
-        <v>12.792472075161047</v>
+        <v>-22.124865844976043</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0">
-        <v>5.6408239847901767</v>
+        <v>-14.799939889643335</v>
       </c>
       <c r="B761" s="0">
-        <v>12.814683231945917</v>
+        <v>-22.212272516570703</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0">
-        <v>5.6030745085601756</v>
+        <v>-14.707334124929378</v>
       </c>
       <c r="B762" s="0">
-        <v>12.836985911040669</v>
+        <v>-22.300045265442151</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0">
-        <v>5.56476545803487</v>
+        <v>-14.613067260630496</v>
       </c>
       <c r="B763" s="0">
-        <v>12.859383417353097</v>
+        <v>-22.388196737868551</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0">
-        <v>5.5258758442888833</v>
+        <v>-14.517079217651034</v>
       </c>
       <c r="B764" s="0">
-        <v>12.881879267486779</v>
+        <v>-22.476740381521417</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0">
-        <v>5.4863832965214963</v>
+        <v>-14.419305983502619</v>
       </c>
       <c r="B765" s="0">
-        <v>12.904477209321007</v>
+        <v>-22.56569051935179</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0">
-        <v>5.4462639307587937</v>
+        <v>-14.31967923978541</v>
       </c>
       <c r="B766" s="0">
-        <v>12.927181243985567</v>
+        <v>-22.655062432497903</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0">
-        <v>5.4054922020455392</v>
+        <v>-14.218125942906941</v>
       </c>
       <c r="B767" s="0">
-        <v>12.94999565059886</v>
+        <v>-22.744872453600426</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0">
-        <v>5.3640407375147268</v>
+        <v>-14.114567850648417</v>
       </c>
       <c r="B768" s="0">
-        <v>12.972925014206394</v>
+        <v>-22.835138072169997</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0">
-        <v>5.3218801472194643</v>
+        <v>-14.008920985765688</v>
       </c>
       <c r="B769" s="0">
-        <v>12.995974257441139</v>
+        <v>-22.925878053968276</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0">
-        <v>5.2789788089934238</v>
+        <v>-13.901095026063832</v>
       </c>
       <c r="B770" s="0">
-        <v>13.019148676530603</v>
+        <v>-23.017112576753266</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0">
-        <v>5.2353026228415382</v>
+        <v>-13.790992608223748</v>
       </c>
       <c r="B771" s="0">
-        <v>13.042453982403558</v>
+        <v>-23.108863385220012</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0">
-        <v>5.1908147294117502</v>
+        <v>-13.678508529970989</v>
       </c>
       <c r="B772" s="0">
-        <v>13.065896347808312</v>
+        <v>-23.201153968566384</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0">
-        <v>5.1454751859071388</v>
+        <v>-13.563528831811549</v>
       </c>
       <c r="B773" s="0">
-        <v>13.089482461554086</v>
+        <v>-23.294009764862572</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0">
-        <v>5.0992405912961729</v>
+        <v>-13.445929735315126</v>
       </c>
       <c r="B774" s="0">
-        <v>13.113219591238153</v>
+        <v>-23.387458397347547</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0">
-        <v>5.052063650770517</v>
+        <v>-13.325576409535545</v>
       </c>
       <c r="B775" s="0">
-        <v>13.137115656140862</v>
+        <v>-23.481529948975556</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0">
-        <v>5.0038926669559984</v>
+        <v>-13.202321530254816</v>
       </c>
       <c r="B776" s="0">
-        <v>13.161179312379735</v>
+        <v>-23.57625728307195</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0">
-        <v>4.9546709422262172</v>
+        <v>-13.076003587821958</v>
       </c>
       <c r="B777" s="0">
-        <v>13.185420052941989</v>
+        <v>-23.671676419942081</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0">
-        <v>4.9043360723549325</v>
+        <v>-12.946444887739238</v>
       </c>
       <c r="B778" s="0">
-        <v>13.209848325903215</v>
+        <v>-23.767826981862711</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0">
-        <v>4.8528191063283268</v>
+        <v>-12.81344917285911</v>
       </c>
       <c r="B779" s="0">
-        <v>13.234475675046426</v>
+        <v>-23.864752722288102</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0">
-        <v>4.8000435399372421</v>
+        <v>-12.676798775717806</v>
       </c>
       <c r="B780" s="0">
-        <v>13.259314908300714</v>
+        <v>-23.962502159629448</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0">
-        <v>4.7459241010798348</v>
+        <v>-12.53625118217618</v>
       </c>
       <c r="B781" s="0">
-        <v>13.284380301040516</v>
+        <v>-24.061129342054429</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0">
-        <v>4.6903652715080879</v>
+        <v>-12.391534850280184</v>
       </c>
       <c r="B782" s="0">
-        <v>13.309687843495295</v>
+        <v>-24.160694778045858</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0">
-        <v>4.6332594715325355</v>
+        <v>-12.242344076824185</v>
       </c>
       <c r="B783" s="0">
-        <v>13.335255544568628</v>
+        <v>-24.261266578904682</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0">
-        <v>4.5744848086772141</v>
+        <v>-12.088332632062484</v>
       </c>
       <c r="B784" s="0">
-        <v>13.361103808637271</v>
+        <v>-24.362921875415235</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0">
-        <v>4.5139022549424483</v>
+        <v>-11.929105780470767</v>
       </c>
       <c r="B785" s="0">
-        <v>13.387255907981967</v>
+        <v>-24.465748593713005</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0">
-        <v>4.4513520646843672</v>
+        <v>-11.764210156887934</v>
       </c>
       <c r="B786" s="0">
-        <v>13.413738582313371</v>
+        <v>-24.569847708461243</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0">
-        <v>4.3866491673187138</v>
+        <v>-11.59312074784191</v>
       </c>
       <c r="B787" s="0">
-        <v>13.440582809877723</v>
+        <v>-24.67533614030107</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0">
-        <v>4.3195771515493391</v>
+        <v>-11.415223896337851</v>
       </c>
       <c r="B788" s="0">
-        <v>13.467824814293687</v>
+        <v>-24.782350538324035</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0">
-        <v>4.2498802759469179</v>
+        <v>-11.229794735314561</v>
       </c>
       <c r="B789" s="0">
-        <v>13.495507401711484</v>
+        <v>-24.891052302506417</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0">
-        <v>4.1772526513174224</v>
+        <v>-11.035966638696971</v>
       </c>
       <c r="B790" s="0">
-        <v>13.523681771318818</v>
+        <v>-25.001634382715999</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0">
-        <v>4.1013232651320655</v>
+        <v>-10.832688938806836</v>
       </c>
       <c r="B791" s="0">
-        <v>13.552410021745205</v>
+        <v>-25.114330689171009</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0">
-        <v>4.0216347093519573</v>
+        <v>-10.618666877599169</v>
       </c>
       <c r="B792" s="0">
-        <v>13.581768711305241</v>
+        <v>-25.229429456958059</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0">
-        <v>3.9376120366891882</v>
+        <v>-10.392273709142119</v>
       </c>
       <c r="B793" s="0">
-        <v>13.611854070408</v>
+        <v>-25.34729280859975</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0">
-        <v>3.8485154906709189</v>
+        <v>-10.15141731544459</v>
       </c>
       <c r="B794" s="0">
-        <v>13.642789912946807</v>
+        <v>-25.468386440181092</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0">
-        <v>3.7533655497582656</v>
+        <v>-9.8933287416809605</v>
       </c>
       <c r="B795" s="0">
-        <v>13.674740181380661</v>
+        <v>-25.593326685179896</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0">
-        <v>3.6508174324547702</v>
+        <v>-9.6142082225564298</v>
       </c>
       <c r="B796" s="0">
-        <v>13.707929950337945</v>
+        <v>-25.72295929522415</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0">
-        <v>3.5389358763956227</v>
+        <v>-9.3085900481976793</v>
       </c>
       <c r="B797" s="0">
-        <v>13.742683120985628</v>
+        <v>-25.85850079623059</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0">
-        <v>3.4147518701336352</v>
+        <v>-8.9680927824470498</v>
       </c>
       <c r="B798" s="0">
-        <v>13.779496609148126</v>
+        <v>-26.001816641181659</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0">
-        <v>3.2732695165723618</v>
+        <v>-8.578619728860863</v>
       </c>
       <c r="B799" s="0">
-        <v>13.819206562805748</v>
+        <v>-26.156044277460445</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0">
-        <v>3.1047516575118999</v>
+        <v>-8.112709082367104</v>
       </c>
       <c r="B800" s="0">
-        <v>13.863442656813955</v>
+        <v>-26.327295705425708</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0">
-        <v>2.8840708637998946</v>
+        <v>-7.4995291232169876</v>
       </c>
       <c r="B801" s="0">
-        <v>13.916410377270982</v>
+        <v>-26.531335380710861</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0">
-        <v>2.3468684494194112</v>
+        <v>-5.9944365361729695</v>
       </c>
       <c r="B802" s="0">
-        <v>14.022354437898969</v>
+        <v>-26.933892001040995</v>
       </c>
     </row>
   </sheetData>

--- a/pulley.xlsx
+++ b/pulley.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -375,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -440,11 +446,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -503,6 +510,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,15 +524,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">

--- a/pulley.xlsx
+++ b/pulley.xlsx
@@ -13,319 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Var1</t>
   </si>
@@ -381,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -395,63 +83,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -459,58 +95,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,15 +108,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.37890625" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">

--- a/pulley.xlsx
+++ b/pulley.xlsx
@@ -13,7 +13,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -69,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -83,11 +161,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -95,6 +186,19 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,10 +217,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">

--- a/pulley.xlsx
+++ b/pulley.xlsx
@@ -13,7 +13,793 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -147,7 +933,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="151">
     <border>
       <left/>
       <right/>
@@ -174,11 +960,142 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -199,6 +1116,137 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,16 +1259,16 @@
   <dimension ref="A1:B802"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="13.42578125" customWidth="true"/>
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
@@ -233,6402 +1281,6402 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>10.020521354369052</v>
+        <v>10.016727796975379</v>
       </c>
       <c r="B3" s="0">
-        <v>0.17163260093314472</v>
+        <v>0.34283022506273064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>10.038127973028773</v>
+        <v>10.021837953345303</v>
       </c>
       <c r="B4" s="0">
-        <v>0.3428789024573608</v>
+        <v>0.68448634643180295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>10.052857264683807</v>
+        <v>10.015507285876833</v>
       </c>
       <c r="B5" s="0">
-        <v>0.51369286606444653</v>
+        <v>1.0245884078460654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>10.064746906381089</v>
+        <v>9.9979226832421677</v>
       </c>
       <c r="B6" s="0">
-        <v>0.68402987789772418</v>
+        <v>1.3627694500424739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>10.07383480956341</v>
+        <v>9.9692804002606454</v>
       </c>
       <c r="B7" s="0">
-        <v>0.85384672519167126</v>
+        <v>1.6986755687539508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>10.080159087452051</v>
+        <v>9.9297853701355514</v>
       </c>
       <c r="B8" s="0">
-        <v>1.0231015725684109</v>
+        <v>2.031965944725008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>10.083758023723966</v>
+        <v>9.8796505351629929</v>
       </c>
       <c r="B9" s="0">
-        <v>1.191753938224372</v>
+        <v>2.3623128473688277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>10.084670042449339</v>
+        <v>9.8190961963076759</v>
       </c>
       <c r="B10" s="0">
-        <v>1.3597646700391977</v>
+        <v>2.6894016136473038</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>10.082933679255675</v>
+        <v>9.7483493819635569</v>
       </c>
       <c r="B11" s="0">
-        <v>1.5270959216366724</v>
+        <v>3.0129306037109562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>10.078587553685008</v>
+        <v>9.6676432361450146</v>
       </c>
       <c r="B12" s="0">
-        <v>1.6937111284259057</v>
+        <v>3.3326111347911542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>10.071670342711201</v>
+        <v>9.5772164262871495</v>
       </c>
       <c r="B13" s="0">
-        <v>1.8595749836494004</v>
+        <v>3.6481673947900921</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>10.062220755384798</v>
+        <v>9.4773125707710761</v>
       </c>
       <c r="B14" s="0">
-        <v>2.024653414462803</v>
+        <v>3.9593363369673846</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>10.050277508573263</v>
+        <v>9.3681796862320894</v>
       </c>
       <c r="B15" s="0">
-        <v>2.1889135580700612</v>
+        <v>4.2658675570742268</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>10.035879303765061</v>
+        <v>9.2500696546545953</v>
       </c>
       <c r="B16" s="0">
-        <v>2.3523237379355844</v>
+        <v>4.5675231542384944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>10.019064804906412</v>
+        <v>9.1232377102081337</v>
       </c>
       <c r="B17" s="0">
-        <v>2.5148534400942579</v>
+        <v>4.8640775768558413</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>9.9998726172401344</v>
+        <v>8.9879419457327536</v>
       </c>
       <c r="B18" s="0">
-        <v>2.6764732895784622</v>
+        <v>5.1553174546941936</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>9.9783412671165195</v>
+        <v>8.8444428387403651</v>
       </c>
       <c r="B19" s="0">
-        <v>2.8371550269799819</v>
+        <v>5.4410414183706495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9.9545091827466869</v>
+        <v>8.693002796759691</v>
       </c>
       <c r="B20" s="0">
-        <v>2.9968714851636618</v>
+        <v>5.7210599073130544</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.9284146758694831</v>
+        <v>8.5338857218177111</v>
       </c>
       <c r="B21" s="0">
-        <v>3.1555965661481555</v>
+        <v>5.9951949672709492</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>9.9000959243034465</v>
+        <v>8.3673565938185384</v>
       </c>
       <c r="B22" s="0">
-        <v>3.3133052181685319</v>
+        <v>6.2632800383942095</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>9.8695909553560277</v>
+        <v>8.1936810725517315</v>
       </c>
       <c r="B23" s="0">
-        <v>3.4699734129338209</v>
+        <v>6.5251597348522141</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>9.8369376300627938</v>
+        <v>8.0131251180362391</v>
       </c>
       <c r="B24" s="0">
-        <v>3.6255781230919268</v>
+        <v>6.7806896169210846</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>9.8021736282298573</v>
+        <v>7.8259546288830304</v>
       </c>
       <c r="B25" s="0">
-        <v>3.7800972999134532</v>
+        <v>7.0297359564223223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>9.7653364342534061</v>
+        <v>7.6324350983387808</v>
       </c>
       <c r="B26" s="0">
-        <v>3.9335098512047812</v>
+        <v>7.2721754963531504</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>9.7264633236908011</v>
+        <v>7.4328312876548175</v>
       </c>
       <c r="B27" s="0">
-        <v>4.0857956194600114</v>
+        <v>7.5078952055063457</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>9.6855913505582389</v>
+        <v>7.2274069164098282</v>
       </c>
       <c r="B28" s="0">
-        <v>4.2369353602604933</v>
+        <v>7.7367920288361098</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>9.6427573353305114</v>
+        <v>7.0164243694008412</v>
       </c>
       <c r="B29" s="0">
-        <v>4.3869107209301381</v>
+        <v>7.9587726342863956</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>9.5979978536191535</v>
+        <v>6.8001444197056715</v>
       </c>
       <c r="B30" s="0">
-        <v>4.5357042194533372</v>
+        <v>8.1737531567587478</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>9.5513492255055255</v>
+        <v>6.5788259675098359</v>
       </c>
       <c r="B31" s="0">
-        <v>4.6832992236623907</v>
+        <v>8.3816589398589922</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>9.5028475055063222</v>
+        <v>6.3527257942831055</v>
       </c>
       <c r="B32" s="0">
-        <v>4.8296799306999212</v>
+        <v>8.5824242760250744</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>9.4525284731491865</v>
+        <v>6.1220983318846134</v>
       </c>
       <c r="B33" s="0">
-        <v>4.9748313467617633</v>
+        <v>8.7759921456025101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>9.4004276241369773</v>
+        <v>5.8871954461702032</v>
       </c>
       <c r="B34" s="0">
-        <v>5.1187392671245435</v>
+        <v>8.9623139553997664</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>9.3465801620795439</v>
+        <v>5.6482662346725085</v>
       </c>
       <c r="B35" s="0">
-        <v>5.2613902564623283</v>
+        <v>9.14134927722219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>9.2910209907726262</v>
+        <v>5.405556837922326</v>
       </c>
       <c r="B36" s="0">
-        <v>5.4027716294553763</v>
+        <v>9.3130655868509464</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>9.2337847070038368</v>
+        <v>5.1593102639784014</v>
       </c>
       <c r="B37" s="0">
-        <v>5.5428714316942225</v>
+        <v>9.4774380039027264</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>9.1749055938663524</v>
+        <v>4.9097662257335033</v>
       </c>
       <c r="B38" s="0">
-        <v>5.6816784208813509</v>
+        <v>9.6344490329757768</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>9.1144176145613933</v>
+        <v>4.6571609905656333</v>
       </c>
       <c r="B39" s="0">
-        <v>5.8191820483325198</v>
+        <v>9.7840883064594291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>9.052354406671169</v>
+        <v>4.4017272419056379</v>
       </c>
       <c r="B40" s="0">
-        <v>5.9553724407791346</v>
+        <v>9.9263523293565221</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>8.9887492768843238</v>
+        <v>4.1436939522952034</v>
       </c>
       <c r="B41" s="0">
-        <v>6.0902403824729978</v>
+        <v>10.061244226442071</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>8.9236351961566278</v>
+        <v>3.8832862675135349</v>
       </c>
       <c r="B42" s="0">
-        <v>6.2237772975938972</v>
+        <v>10.188773492055889</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>8.8570447952899336</v>
+        <v>3.6207254013552261</v>
       </c>
       <c r="B43" s="0">
-        <v>6.3559752329607022</v>
+        <v>10.308955742803031</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>8.7890103609130836</v>
+        <v>3.3562285406474377</v>
       </c>
       <c r="B44" s="0">
-        <v>6.4868268410457182</v>
+        <v>10.421812473412531</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>8.7195638318488342</v>
+        <v>3.0900087600997086</v>
       </c>
       <c r="B45" s="0">
-        <v>6.6163253632921748</v>
+        <v>10.527370815983252</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>8.6487367958513062</v>
+        <v>2.8222749465869925</v>
       </c>
       <c r="B46" s="0">
-        <v>6.7444646137342046</v>
+        <v>10.625663302824154</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>8.5765604866990373</v>
+        <v>2.553231732472288</v>
       </c>
       <c r="B47" s="0">
-        <v>6.8712389629184081</v>
+        <v>10.716727633076861</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>8.5030657816290827</v>
+        <v>2.2830794375832393</v>
       </c>
       <c r="B48" s="0">
-        <v>6.996643322125867</v>
+        <v>10.800606443288897</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>8.4282831990979705</v>
+        <v>2.0120140194642966</v>
       </c>
       <c r="B49" s="0">
-        <v>7.1206731278933146</v>
+        <v>10.877347082088214</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>8.3522428968559783</v>
+        <v>1.7402270315339612</v>
       </c>
       <c r="B50" s="0">
-        <v>7.2433243268316856</v>
+        <v>10.947001389092334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>8.2749746703214129</v>
+        <v>1.4679055887848156</v>
       </c>
       <c r="B51" s="0">
-        <v>7.3645933607403071</v>
+        <v>11.009625478169314</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>8.1965079512420225</v>
+        <v>1.1952323406725427</v>
       </c>
       <c r="B52" s="0">
-        <v>7.4844771520147164</v>
+        <v>11.065279525152219</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>8.1168718066311794</v>
+        <v>0.92238545084848533</v>
       </c>
       <c r="B53" s="0">
-        <v>7.6029730893458645</v>
+        <v>11.114027560094488</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>8.0360949379667161</v>
+        <v>0.64953858339933934</v>
       </c>
       <c r="B54" s="0">
-        <v>7.7200790137082942</v>
+        <v>11.155937264139624</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>7.9542056806408707</v>
+        <v>0.3768608952658361</v>
       </c>
       <c r="B55" s="0">
-        <v>7.8357932046347818</v>
+        <v>11.191079771065969</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>7.8712320036498955</v>
+        <v>0.1045170345221864</v>
       </c>
       <c r="B56" s="0">
-        <v>7.9501143667747884</v>
+        <v>11.219529473554969</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>7.7872015095125899</v>
+        <v>-0.16733285579390172</v>
       </c>
       <c r="B57" s="0">
-        <v>8.0630416167338357</v>
+        <v>11.241363834220008</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>7.7021414344070385</v>
+        <v>-0.43853312860146165</v>
       </c>
       <c r="B58" s="0">
-        <v>8.174574470190942</v>
+        <v>11.256663201422207</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>7.6160786485155541</v>
+        <v>-0.70893261873813551</v>
       </c>
       <c r="B59" s="0">
-        <v>8.2847128292909193</v>
+        <v>11.265510629889416</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>7.5290396565676811</v>
+        <v>-0.9783846242467813</v>
       </c>
       <c r="B60" s="0">
-        <v>8.3934569703086392</v>
+        <v>11.267991706145365</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>7.4410505985720024</v>
+        <v>-1.246746883260218</v>
       </c>
       <c r="B61" s="0">
-        <v>8.5008075315817333</v>
+        <v>11.264194378747083</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>7.3521372507273801</v>
+        <v>-1.5138815467491544</v>
       </c>
       <c r="B62" s="0">
-        <v>8.6067655017085727</v>
+        <v>11.254208793320592</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>7.2623250265047119</v>
+        <v>-1.7796551473888993</v>
       </c>
       <c r="B63" s="0">
-        <v>8.7113322080081641</v>
+        <v>11.238127132377189</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>7.1716389778907264</v>
+        <v>-2.0439385647922488</v>
       </c>
       <c r="B64" s="0">
-        <v>8.8145093052383334</v>
+        <v>11.21604345988573</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>7.080103796785461</v>
+        <v>-2.3066069873468877</v>
       </c>
       <c r="B65" s="0">
-        <v>8.9162987645687934</v>
+        <v>11.188053570569624</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>6.9877438165454029</v>
+        <v>-2.5675398708870967</v>
       </c>
       <c r="B66" s="0">
-        <v>9.0167028628055164</v>
+        <v>11.154254843891337</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>6.8945830136645867</v>
+        <v>-2.8266208944211533</v>
       </c>
       <c r="B67" s="0">
-        <v>9.1157241718627464</v>
+        <v>11.114746102681679</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>6.8006450095862396</v>
+        <v>-3.0837379131276839</v>
       </c>
       <c r="B68" s="0">
-        <v>9.213365548479052</v>
+        <v>11.069627476365884</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>6.7059530726377474</v>
+        <v>-3.3387829088258192</v>
       </c>
       <c r="B69" s="0">
-        <v>9.3096301241736654</v>
+        <v>11.019000268734022</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>6.610530120082033</v>
+        <v>-3.5916519381157284</v>
       </c>
       <c r="B70" s="0">
-        <v>9.4045212954394817</v>
+        <v>10.96296683019893</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>6.5143987202786811</v>
+        <v>-3.8422450783791127</v>
       </c>
       <c r="B71" s="0">
-        <v>9.4980427141689301</v>
+        <v>10.901630434480928</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>6.4175810949484067</v>
+        <v>-4.0904663718204848</v>
       </c>
       <c r="B72" s="0">
-        <v>9.590198278309007</v>
+        <v>10.835095159655243</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>6.3200991215346329</v>
+        <v>-4.3362237677231379</v>
       </c>
       <c r="B73" s="0">
-        <v>9.6809921227416602</v>
+        <v>10.763465773494771</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>6.2219743356562942</v>
+        <v>-4.5794290630863692</v>
       </c>
       <c r="B74" s="0">
-        <v>9.7704286103858635</v>
+        <v>10.686847623038068</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>6.1232279336460191</v>
+        <v>-4.8199978418028993</v>
       </c>
       <c r="B75" s="0">
-        <v>9.8585123235175391</v>
+        <v>10.605346528309969</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>6.0238807751683501</v>
+        <v>-5.0578494125288804</v>
       </c>
       <c r="B76" s="0">
-        <v>9.9452480553035816</v>
+        <v>10.519068680119975</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>5.9239533859124398</v>
+        <v>-5.2929067453917797</v>
       </c>
       <c r="B77" s="0">
-        <v>10.03064080154633</v>
+        <v>10.428120541861659</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>5.8234659603544801</v>
+        <v>-5.5250964076747771</v>
       </c>
       <c r="B78" s="0">
-        <v>10.114695752634564</v>
+        <v>10.332608755234748</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>5.7224383645845416</v>
+        <v>-5.7543484986099935</v>
       </c>
       <c r="B79" s="0">
-        <v>10.197418285697518</v>
+        <v>10.232640049809985</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>5.6208901391934782</v>
+        <v>-5.9805965834065526</v>
       </c>
       <c r="B80" s="0">
-        <v>10.278813956958034</v>
+        <v>10.128321156355804</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>5.5188405022151654</v>
+        <v>-6.203777626633058</v>
       </c>
       <c r="B81" s="0">
-        <v>10.358888494281251</v>
+        <v>10.019758723844923</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>5.416308352119799</v>
+        <v>-6.4238319250688143</v>
       </c>
       <c r="B82" s="0">
-        <v>10.437647789915125</v>
+        <v>9.9070592400580253</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>5.3133122708540181</v>
+        <v>-6.6407030401315357</v>
       </c>
       <c r="B83" s="0">
-        <v>10.51509789341922</v>
+        <v>9.7903289557014173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>5.2098705269239893</v>
+        <v>-6.8543377299843957</v>
       </c>
       <c r="B84" s="0">
-        <v>10.591245004777997</v>
+        <v>9.6696738119549774</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>5.1060010785174175</v>
+        <v>-7.0646858814197602</v>
       </c>
       <c r="B85" s="0">
-        <v>10.666095467695223</v>
+        <v>9.5451993713664258</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>5.0017215766609944</v>
+        <v>-7.27170044161128</v>
       </c>
       <c r="B86" s="0">
-        <v>10.739655763065755</v>
+        <v>9.4170107520082258</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>4.8970493684096592</v>
+        <v>-7.4753373498217019</v>
       </c>
       <c r="B87" s="0">
-        <v>10.811932502621294</v>
+        <v>9.2852125648131381</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>4.7920015000642486</v>
+        <v>-7.6755554691482608</v>
       </c>
       <c r="B88" s="0">
-        <v>10.88293242274661</v>
+        <v>9.1499088540049733</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>4.6865947204143952</v>
+        <v>-7.8723165183834407</v>
       </c>
       <c r="B89" s="0">
-        <v>10.95266237846274</v>
+        <v>9.011203040541103</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>4.5808454840036203</v>
+        <v>-8.0655850040635553</v>
       </c>
       <c r="B90" s="0">
-        <v>11.021129337573765</v>
+        <v>8.8691978684843349</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>4.4747699544133992</v>
+        <v>-8.2553281527742026</v>
       </c>
       <c r="B91" s="0">
-        <v>11.08834037497386</v>
+        <v>8.7239953542215964</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>4.3683840075636935</v>
+        <v>-8.4415158437766955</v>
       </c>
       <c r="B92" s="0">
-        <v>11.154302667111178</v>
+        <v>8.5756967384481424</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>4.2617032350270412</v>
+        <v>-8.6241205420159446</v>
       </c>
       <c r="B93" s="0">
-        <v>11.219023486605321</v>
+        <v>8.4244024408364293</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>4.1547429473536717</v>
+        <v>-8.803117231566052</v>
       </c>
       <c r="B94" s="0">
-        <v>11.282510197015169</v>
+        <v>8.2702120173099853</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>4.0475181774051503</v>
+        <v>-8.9784833495667016</v>
       </c>
       <c r="B95" s="0">
-        <v>11.344770247753823</v>
+        <v>8.1132241198429238</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>3.9400436836942583</v>
+        <v>-9.1501987206990876</v>
       </c>
       <c r="B96" s="0">
-        <v>11.405811169147512</v>
+        <v>7.9535364587075659</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>3.8323339537287491</v>
+        <v>-9.3182454922474633</v>
       </c>
       <c r="B97" s="0">
-        <v>11.465640567635337</v>
+        <v>7.7912457670928426</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>3.7244032073569859</v>
+        <v>-9.4826080697884052</v>
       </c>
       <c r="B98" s="0">
-        <v>11.524266121106766</v>
+        <v>7.6264477680180196</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>3.6162654001132832</v>
+        <v>-9.6432730535472366</v>
       </c>
       <c r="B99" s="0">
-        <v>11.581695574373862</v>
+        <v>7.4592371434669058</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>3.5079342265610012</v>
+        <v>-9.8002291754578241</v>
       </c>
       <c r="B100" s="0">
-        <v>11.637936734775257</v>
+        <v>7.2897075056690399</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>3.3994231236317516</v>
+        <v>-9.9534672369589607</v>
       </c>
       <c r="B101" s="0">
-        <v>11.692997467908894</v>
+        <v>7.1179513704558897</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>3.2907452739586485</v>
+        <v>-10.102980047558017</v>
       </c>
       <c r="B102" s="0">
-        <v>11.746885693490679</v>
+        <v>6.9440601326209253</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>3.1819136092022089</v>
+        <v>-10.248762364189703</v>
       </c>
       <c r="B103" s="0">
-        <v>11.79960938133617</v>
+        <v>6.7681240432140584</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>3.0729408133670471</v>
+        <v>-10.390810831395358</v>
       </c>
       <c r="B104" s="0">
-        <v>11.851176547462536</v>
+        <v>6.5902321887021316</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>2.9638393261081788</v>
+        <v>-10.529123922345692</v>
       </c>
       <c r="B105" s="0">
-        <v>11.901595250307931</v>
+        <v>6.4104724719285713</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>2.8546213460251653</v>
+        <v>-10.663701880727707</v>
       </c>
       <c r="B106" s="0">
-        <v>11.950873587065697</v>
+        <v>6.2289315948066539</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>2.7452988339430662</v>
+        <v>-10.794546663514289</v>
       </c>
       <c r="B107" s="0">
-        <v>11.999019690130597</v>
+        <v>6.0456950426821079</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>2.6358835161786129</v>
+        <v>-10.921661884632735</v>
       </c>
       <c r="B108" s="0">
-        <v>12.046041723654589</v>
+        <v>5.8608470703025235</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>2.5263868877906765</v>
+        <v>-11.045052759546872</v>
       </c>
       <c r="B109" s="0">
-        <v>12.091947880209446</v>
+        <v>5.6744706893318471</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>2.4168202158136718</v>
+        <v>-11.164726050764946</v>
       </c>
       <c r="B110" s="0">
-        <v>12.136746377553759</v>
+        <v>5.4866476573505407</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>2.3071945424729541</v>
+        <v>-11.280690014284451</v>
       </c>
       <c r="B111" s="0">
-        <v>12.180445455501829</v>
+        <v>5.2974584682821622</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>2.1975206883811866</v>
+        <v>-11.392954346982483</v>
       </c>
       <c r="B112" s="0">
-        <v>12.223053372891959</v>
+        <v>5.1069823441900057</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>2.0878092557145611</v>
+        <v>-11.501530134959399</v>
       </c>
       <c r="B113" s="0">
-        <v>12.264578404651857</v>
+        <v>4.9152972283873959</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>1.9780706313682566</v>
+        <v>-11.606429802841491</v>
       </c>
       <c r="B114" s="0">
-        <v>12.305028838958659</v>
+        <v>4.7224797798078226</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>1.8683149900900158</v>
+        <v>-11.707667064047186</v>
       </c>
       <c r="B115" s="0">
-        <v>12.344412974491384</v>
+        <v>4.5286053685816867</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>1.7585522975912811</v>
+        <v>-11.805256872019884</v>
       </c>
       <c r="B116" s="0">
-        <v>12.382739117773488</v>
+        <v>4.3337480727683158</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>1.6487923136350107</v>
+        <v>-11.899215372429206</v>
       </c>
       <c r="B117" s="0">
-        <v>12.420015580603309</v>
+        <v>4.1379806761929494</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>1.53904459509944</v>
+        <v>-11.989559856341312</v>
       </c>
       <c r="B118" s="0">
-        <v>12.456250677570281</v>
+        <v>3.9413746673399377</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>1.4293184990174024</v>
+        <v>-12.076308714357642</v>
       </c>
       <c r="B119" s="0">
-        <v>12.491452723654691</v>
+        <v>3.7440002392548775</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>1.3196231855903664</v>
+        <v>-12.159481391720544</v>
       </c>
       <c r="B120" s="0">
-        <v>12.525630031908937</v>
+        <v>3.5459262904092959</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>1.2099676211766726</v>
+        <v>-12.239098344383139</v>
       </c>
       <c r="B121" s="0">
-        <v>12.558790911218267</v>
+        <v>3.3472204264833487</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>1.1003605812536263</v>
+        <v>-12.315180996039848</v>
       </c>
       <c r="B122" s="0">
-        <v>12.590943664138921</v>
+        <v>3.147948963022797</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.99081065335278173</v>
+        <v>-12.387751696113018</v>
       </c>
       <c r="B123" s="0">
-        <v>12.622096584811748</v>
+        <v>2.9481769289285467</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.88132623996809445</v>
+        <v>-12.456833678690568</v>
       </c>
       <c r="B124" s="0">
-        <v>12.652257956949382</v>
+        <v>2.7479680707370866</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.77191556143655105</v>
+        <v>-12.52245102240834</v>
       </c>
       <c r="B125" s="0">
-        <v>12.681436051895044</v>
+        <v>2.5473848576529159</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.66258665879081979</v>
+        <v>-12.584628611270549</v>
       </c>
       <c r="B126" s="0">
-        <v>12.709639126751172</v>
+        <v>2.3464884872939606</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.55334739658378218</v>
+        <v>-12.643392096400772</v>
       </c>
       <c r="B127" s="0">
-        <v>12.736875422576016</v>
+        <v>2.1453388921129775</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.44420546568443475</v>
+        <v>-12.698767858715437</v>
       </c>
       <c r="B128" s="0">
-        <v>12.763153162646478</v>
+        <v>1.9439947464589158</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.33516838604506116</v>
+        <v>-12.750782972511129</v>
       </c>
       <c r="B129" s="0">
-        <v>12.788480550785421</v>
+        <v>1.7425134742431134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.22624350943938498</v>
+        <v>-12.799465169956541</v>
       </c>
       <c r="B130" s="0">
-        <v>12.812865769751763</v>
+        <v>1.5409512571767856</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.1174380221715272</v>
+        <v>-12.844842806479354</v>
       </c>
       <c r="B131" s="0">
-        <v>12.836316979691713</v>
+        <v>1.339363043547239</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.0087589477554929768</v>
+        <v>-12.886944827037961</v>
       </c>
       <c r="B132" s="0">
-        <v>12.858842316649485</v>
+        <v>1.1378025575009136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>-0.099786850434785412</v>
+        <v>-12.925800733267458</v>
       </c>
       <c r="B133" s="0">
-        <v>12.88044989113595</v>
+        <v>0.93632230880312473</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>-0.20819266654516078</v>
+        <v>-12.961440551488995</v>
       </c>
       <c r="B134" s="0">
-        <v>12.901147786753617</v>
+        <v>0.73497360304500048</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>-0.31645194965066348</v>
+        <v>-12.993894801571219</v>
       </c>
       <c r="B135" s="0">
-        <v>12.92094405887646</v>
+        <v>0.53380655226906171</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>-0.4245583011948546</v>
+        <v>-13.023194466632271</v>
       </c>
       <c r="B136" s="0">
-        <v>12.939846733383103</v>
+        <v>0.33287008598636841</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>-0.53250547245895241</v>
+        <v>-13.049370963570459</v>
       </c>
       <c r="B137" s="0">
-        <v>12.957863805441885</v>
+        <v>0.13221196255846243</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>-0.64028736206108183</v>
+        <v>-13.072456114411555</v>
       </c>
       <c r="B138" s="0">
-        <v>12.97500323834641</v>
+        <v>-0.068121219080991904</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>-0.74789801348523166</v>
+        <v>-13.092482118460394</v>
       </c>
       <c r="B139" s="0">
-        <v>12.991272962400172</v>
+        <v>-0.26808400738969584</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>-0.85533161264047464</v>
+        <v>-13.109481525244281</v>
       </c>
       <c r="B140" s="0">
-        <v>13.006680873848916</v>
+        <v>-0.46763208588873478</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>-0.96258248544988356</v>
+        <v>-13.123487208235572</v>
       </c>
       <c r="B141" s="0">
-        <v>13.021234833859404</v>
+        <v>-0.66672226056580075</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>-1.0696450954695245</v>
+        <v>-13.134532339340591</v>
       </c>
       <c r="B142" s="0">
-        <v>13.034942667543268</v>
+        <v>-0.86531244703176735</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>-1.176514041537176</v>
+        <v>-13.142650364142014</v>
       </c>
       <c r="B143" s="0">
-        <v>13.047812163024732</v>
+        <v>-1.063361657451201</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>-1.2831840554509315</v>
+        <v>-13.147874977881669</v>
       </c>
       <c r="B144" s="0">
-        <v>13.0598510705509</v>
+        <v>-1.2608299872673883</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>-1.3896499996774923</v>
+        <v>-13.150240102170697</v>
       </c>
       <c r="B145" s="0">
-        <v>13.071067101643486</v>
+        <v>-1.4576786017409622</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>-1.4959068650901028</v>
+        <v>-13.149779862413924</v>
       </c>
       <c r="B146" s="0">
-        <v>13.081467928290712</v>
+        <v>-1.6538697223209136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>-1.6019497687359043</v>
+        <v>-13.146528565935229</v>
       </c>
       <c r="B147" s="0">
-        <v>13.091061182178301</v>
+        <v>-1.8493666128658048</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>-1.7077739516328378</v>
+        <v>-13.140520680790791</v>
       </c>
       <c r="B148" s="0">
-        <v>13.099854453958409</v>
+        <v>-2.0441335657321242</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>-1.8133747765956476</v>
+        <v>-13.131790815256918</v>
       </c>
       <c r="B149" s="0">
-        <v>13.107855292555371</v>
+        <v>-2.2381358877465658</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>-1.9187477260911361</v>
+        <v>-13.120373697979325</v>
       </c>
       <c r="B150" s="0">
-        <v>13.115071204507254</v>
+        <v>-2.4313398860775486</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>-2.0238884001223338</v>
+        <v>-13.106304158770685</v>
       </c>
       <c r="B151" s="0">
-        <v>13.121509653342109</v>
+        <v>-2.6237128540212034</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>-2.1287925141414621</v>
+        <v>-13.089617110043299</v>
       </c>
       <c r="B152" s="0">
-        <v>13.127178058987942</v>
+        <v>-2.815223056716198</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>-2.2334558969916003</v>
+        <v>-13.070347528863834</v>
       </c>
       <c r="B153" s="0">
-        <v>13.132083797215371</v>
+        <v>-3.005839716801145</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>-2.3378744888767442</v>
+        <v>-13.048530439617101</v>
       </c>
       <c r="B154" s="0">
-        <v>13.136234199112037</v>
+        <v>-3.1955330000276567</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>-2.4420443393602125</v>
+        <v>-13.024200897265935</v>
       </c>
       <c r="B155" s="0">
-        <v>13.139636550587808</v>
+        <v>-3.3842740008416987</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>-2.5459616053910854</v>
+        <v>-12.997393971194322</v>
       </c>
       <c r="B156" s="0">
-        <v>13.14229809190981</v>
+        <v>-3.5720347279450939</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>-2.649622549358523</v>
+        <v>-12.96814472962099</v>
       </c>
       <c r="B157" s="0">
-        <v>13.144226017266469</v>
+        <v>-3.7587880898486996</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>-2.7530235371737963</v>
+        <v>-12.936488224570844</v>
       </c>
       <c r="B158" s="0">
-        <v>13.145427474359577</v>
+        <v>-3.9445078804279468</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>-2.8561610363797589</v>
+        <v>-12.902459477391632</v>
       </c>
       <c r="B159" s="0">
-        <v>13.145909564023626</v>
+        <v>-4.1291687644913022</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>-2.9590316142875306</v>
+        <v>-12.866093464803475</v>
       </c>
       <c r="B160" s="0">
-        <v>13.145679339871499</v>
+        <v>-4.3127462633712916</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>-3.0616319361402646</v>
+        <v>-12.827425105468878</v>
       </c>
       <c r="B161" s="0">
-        <v>13.144743807965746</v>
+        <v>-4.4952167405475318</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>-3.1639587633036546</v>
+        <v>-12.786489247071138</v>
       </c>
       <c r="B162" s="0">
-        <v>13.143109926514603</v>
+        <v>-4.6765573873105453</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>-3.2660089514829633</v>
+        <v>-12.743320653888976</v>
       </c>
       <c r="B163" s="0">
-        <v>13.14078460559206</v>
+        <v>-4.8567462084750099</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>-3.3677794489664574</v>
+        <v>-12.697953994855627</v>
       </c>
       <c r="B164" s="0">
-        <v>13.137774706881119</v>
+        <v>-5.035762008150023</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>-3.4692672948948524</v>
+        <v>-12.650423832090548</v>
       </c>
       <c r="B165" s="0">
-        <v>13.134087043439587</v>
+        <v>-5.2135843755742899</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>-3.5704696175565731</v>
+        <v>-12.600764609892178</v>
       </c>
       <c r="B166" s="0">
-        <v>13.129728379487647</v>
+        <v>-5.3901936710231313</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>-3.6713836327086309</v>
+        <v>-12.549010644180264</v>
       </c>
       <c r="B167" s="0">
-        <v>13.12470543021651</v>
+        <v>-5.5655710117942023</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>-3.7720066419228351</v>
+        <v>-12.495196112376536</v>
       </c>
       <c r="B168" s="0">
-        <v>13.119024861617492</v>
+        <v>-5.7396982582781</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>-3.8723360309570434</v>
+        <v>-12.439355043712521</v>
       </c>
       <c r="B169" s="0">
-        <v>13.112693290330805</v>
+        <v>-5.9125580001200424</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>-3.9723692681512475</v>
+        <v>-12.381521309953579</v>
       </c>
       <c r="B170" s="0">
-        <v>13.105717283513465</v>
+        <v>-6.084133542478062</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>-4.0721039028481947</v>
+        <v>-12.321728616528359</v>
       </c>
       <c r="B171" s="0">
-        <v>13.098103358725664</v>
+        <v>-6.2544088923831458</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>-4.171537563838343</v>
+        <v>-12.260010494053072</v>
       </c>
       <c r="B172" s="0">
-        <v>13.089857983834975</v>
+        <v>-6.4233687452060666</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>-4.2706679578288771</v>
+        <v>-12.196400290240053</v>
       </c>
       <c r="B173" s="0">
-        <v>13.080987576937812</v>
+        <v>-6.5909984712357987</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>-4.3694928679363985</v>
+        <v>-12.130931162180367</v>
       </c>
       <c r="B174" s="0">
-        <v>13.071498506297592</v>
+        <v>-6.757284102373724</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>-4.4680101522032221</v>
+        <v>-12.063636068990437</v>
       </c>
       <c r="B175" s="0">
-        <v>13.06139709029897</v>
+        <v>-6.9222123189474472</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>-4.5662177421368906</v>
+        <v>-11.994547764812536</v>
       </c>
       <c r="B176" s="0">
-        <v>13.050689597417621</v>
+        <v>-7.0857704366484606</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>-4.6641136412726478</v>
+        <v>-11.923698792159634</v>
       </c>
       <c r="B177" s="0">
-        <v>13.039382246205069</v>
+        <v>-7.2479463935965898</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>-4.7616959237586505</v>
+        <v>-11.851121475594832</v>
       </c>
       <c r="B178" s="0">
-        <v>13.027481205287987</v>
+        <v>-7.4087287375348305</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>-4.8589627329636107</v>
+        <v>-11.776847915736013</v>
       </c>
       <c r="B179" s="0">
-        <v>13.014992593381479</v>
+        <v>-7.5681066131573989</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>-4.9559122801066318</v>
+        <v>-11.700909983576572</v>
       </c>
       <c r="B180" s="0">
-        <v>13.001922479315866</v>
+        <v>-7.7260697495735764</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>-5.0525428429089709</v>
+        <v>-11.623339315112982</v>
       </c>
       <c r="B181" s="0">
-        <v>12.988276882076464</v>
+        <v>-7.8826084479101386</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>-5.1488527642673949</v>
+        <v>-11.54416730627044</v>
       </c>
       <c r="B182" s="0">
-        <v>12.97406177085591</v>
+        <v>-8.0377135690544641</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>-5.2448404509489972</v>
+        <v>-11.463425108117898</v>
       </c>
       <c r="B183" s="0">
-        <v>12.959283065118555</v>
+        <v>-8.191376521540203</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>-5.3405043723070733</v>
+        <v>-11.381143622363778</v>
       </c>
       <c r="B184" s="0">
-        <v>12.943946634676529</v>
+        <v>-8.3435892495778443</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>-5.4358430590178735</v>
+        <v>-11.297353497124206</v>
       </c>
       <c r="B185" s="0">
-        <v>12.928058299776955</v>
+        <v>-8.4943442212312874</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>-5.5308551018379219</v>
+        <v>-11.212085122955401</v>
       </c>
       <c r="B186" s="0">
-        <v>12.911623831200027</v>
+        <v>-8.6436344167422803</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>-5.6255391503817025</v>
+        <v>-11.125368629142326</v>
       </c>
       <c r="B187" s="0">
-        <v>12.894648950367385</v>
+        <v>-8.7914533170038052</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>-5.7198939119193692</v>
+        <v>-11.037233880235574</v>
       </c>
       <c r="B188" s="0">
-        <v>12.877139329460533</v>
+        <v>-8.9377948921837351</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>-5.8139181501942554</v>
+        <v>-10.947710472829009</v>
       </c>
       <c r="B189" s="0">
-        <v>12.859100591548829</v>
+        <v>-9.0826535904994401</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>-5.9076106842599803</v>
+        <v>-10.856827732570448</v>
       </c>
       <c r="B190" s="0">
-        <v>12.840538310726682</v>
+        <v>-9.2260243271444189</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>-6.0009703873367313</v>
+        <v>-10.764614711398178</v>
       </c>
       <c r="B191" s="0">
-        <v>12.821458012259649</v>
+        <v>-9.3679024733673835</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>-6.0939961856867075</v>
+        <v>-10.671100184995915</v>
       </c>
       <c r="B192" s="0">
-        <v>12.801865172738978</v>
+        <v>-9.5082838457045789</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>-6.1866870575082249</v>
+        <v>-10.576312650459469</v>
       </c>
       <c r="B193" s="0">
-        <v>12.78176522024434</v>
+        <v>-9.6471646953653529</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>-6.2790420318483902</v>
+        <v>-10.480280324167854</v>
       </c>
       <c r="B194" s="0">
-        <v>12.761163534514392</v>
+        <v>-9.7845416977716084</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>-6.3710601875339705</v>
+        <v>-10.383031139852475</v>
       </c>
       <c r="B195" s="0">
-        <v>12.740065447124818</v>
+        <v>-9.9204119422509773</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>-6.4627406521204174</v>
+        <v>-10.28459274685761</v>
       </c>
       <c r="B196" s="0">
-        <v>12.718476241673541</v>
+        <v>-10.05477292188387</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>-6.5540826008584911</v>
+        <v>-10.184992508585871</v>
       </c>
       <c r="B197" s="0">
-        <v>12.696401153972834</v>
+        <v>-10.187622523504222</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>-6.6450852556784943</v>
+        <v>-10.084257501122298</v>
       </c>
       <c r="B198" s="0">
-        <v>12.673845372248008</v>
+        <v>-10.31895901785386</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>-6.7357478841917082</v>
+        <v>-9.9824145120311325</v>
       </c>
       <c r="B199" s="0">
-        <v>12.650814037342364</v>
+        <v>-10.448781049889956</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>-6.8260697987089713</v>
+        <v>-9.8794900393190908</v>
       </c>
       <c r="B200" s="0">
-        <v>12.627312242928154</v>
+        <v>-10.577087629245435</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>-6.916050355275873</v>
+        <v>-9.775510290559545</v>
       </c>
       <c r="B201" s="0">
-        <v>12.603345035723306</v>
+        <v>-10.703878120841601</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>-7.0056889527246682</v>
+        <v>-9.670501182171682</v>
       </c>
       <c r="B202" s="0">
-        <v>12.578917415713557</v>
+        <v>-10.829152235652641</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>-7.0949850317423104</v>
+        <v>-9.5644883388494044</v>
       </c>
       <c r="B203" s="0">
-        <v>12.554034336379873</v>
+        <v>-10.952910021621111</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>-7.1839380739547538</v>
+        <v>-9.4574970931343163</v>
       </c>
       <c r="B204" s="0">
-        <v>12.528700704930742</v>
+        <v>-11.075151854723822</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>-7.272547601026897</v>
+        <v>-9.3495524851276368</v>
       </c>
       <c r="B205" s="0">
-        <v>12.502921382539276</v>
+        <v>-11.195878430187371</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>-7.3608131737782925</v>
+        <v>-9.2406792623359362</v>
       </c>
       <c r="B206" s="0">
-        <v>12.476701184584712</v>
+        <v>-11.315090753852253</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>-7.4487343913141233</v>
+        <v>-9.1309018796456591</v>
       </c>
       <c r="B207" s="0">
-        <v>12.450044880898222</v>
+        <v>-11.432790133684815</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>-7.5363108901713636</v>
+        <v>-9.0202444994215583</v>
       </c>
       <c r="B208" s="0">
-        <v>12.422957196012758</v>
+        <v>-11.548978171435959</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>-7.6235423434798877</v>
+        <v>-8.9087309917243971</v>
       </c>
       <c r="B209" s="0">
-        <v>12.395442809416661</v>
+        <v>-11.663656754445512</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>-7.7104284601382407</v>
+        <v>-8.7963849346431129</v>
       </c>
       <c r="B210" s="0">
-        <v>12.367506355810949</v>
+        <v>-11.776828047591309</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>-7.7969689840038905</v>
+        <v>-8.6832296147371473</v>
       </c>
       <c r="B211" s="0">
-        <v>12.339152425369978</v>
+        <v>-11.888494485381663</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>-7.8831636930978091</v>
+        <v>-8.5692880275844434</v>
       </c>
       <c r="B212" s="0">
-        <v>12.310385564005301</v>
+        <v>-11.998658764190166</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>-7.9690123988229535</v>
+        <v>-8.4545828784309176</v>
       </c>
       <c r="B213" s="0">
-        <v>12.281210273632613</v>
+        <v>-12.107323834631496</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>-8.0545149451967593</v>
+        <v>-8.3391365829372628</v>
       </c>
       <c r="B214" s="0">
-        <v>12.251631012441463</v>
+        <v>-12.214492894076955</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>-8.1396712080971252</v>
+        <v>-8.2229712680189486</v>
       </c>
       <c r="B215" s="0">
-        <v>12.221652195167675</v>
+        <v>-12.320169379308556</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>-8.2244810945218756</v>
+        <v>-8.1061087727756949</v>
       </c>
       <c r="B216" s="0">
-        <v>12.191278193368229</v>
+        <v>-12.424356959310083</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>-8.3089445418613757</v>
+        <v>-7.9885706495065163</v>
       </c>
       <c r="B217" s="0">
-        <v>12.160513335698512</v>
+        <v>-12.527059528193918</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>-8.3930615171842184</v>
+        <v>-7.8703781648064925</v>
       </c>
       <c r="B218" s="0">
-        <v>12.129361908191672</v>
+        <v>-12.62828119826224</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>-8.4768320165356368</v>
+        <v>-7.751552300741988</v>
       </c>
       <c r="B219" s="0">
-        <v>12.097828154540018</v>
+        <v>-12.728026293200989</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>-8.5602560642486107</v>
+        <v>-7.6321137561005079</v>
       </c>
       <c r="B220" s="0">
-        <v>12.065916276378235</v>
+        <v>-12.826299341405363</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>-8.6433337122672764</v>
+        <v>-7.512082947712007</v>
       </c>
       <c r="B221" s="0">
-        <v>12.033630433568351</v>
+        <v>-12.923105069435179</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>-8.7260650394826023</v>
+        <v>-7.3914800118382722</v>
       </c>
       <c r="B222" s="0">
-        <v>12.000974744486244</v>
+        <v>-13.018448395598721</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>-8.8084501510800877</v>
+        <v>-7.2703248056272329</v>
       </c>
       <c r="B223" s="0">
-        <v>11.967953286309553</v>
+        <v>-13.112334423663478</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>-8.8904891778992816</v>
+        <v>-7.1486369086288963</v>
       </c>
       <c r="B224" s="0">
-        <v>11.934570095306912</v>
+        <v>-13.204768436692376</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>-8.9721822758049061</v>
+        <v>22.005838154839505</v>
       </c>
       <c r="B225" s="0">
-        <v>11.900829167128354</v>
+        <v>-5.1284936147387139</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>-9.0535296250695065</v>
+        <v>22.096271449619746</v>
       </c>
       <c r="B226" s="0">
-        <v>11.866734457096717</v>
+        <v>-4.9868658462158271</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>-9.1345314297672715</v>
+        <v>22.185523384294484</v>
       </c>
       <c r="B227" s="0">
-        <v>11.832289880500014</v>
+        <v>-4.8454781894270615</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>-9.2151879171790885</v>
+        <v>22.273610917469835</v>
       </c>
       <c r="B228" s="0">
-        <v>11.797499312884565</v>
+        <v>-4.7043392392707721</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>-9.2954993372083443</v>
+        <v>22.360550827726545</v>
       </c>
       <c r="B229" s="0">
-        <v>11.762366590348861</v>
+        <v>-4.5634572868761065</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>-9.3754659618076204</v>
+        <v>22.446359713711391</v>
       </c>
       <c r="B230" s="0">
-        <v>11.726895509837965</v>
+        <v>-4.4228403277189363</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>-9.4550880844158272</v>
+        <v>22.531053994327952</v>
       </c>
       <c r="B231" s="0">
-        <v>11.691089829438432</v>
+        <v>-4.2824960695447807</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>-9.5343660194058053</v>
+        <v>22.614649909021367</v>
       </c>
       <c r="B232" s="0">
-        <v>11.654953268673585</v>
+        <v>-4.1424319401024281</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>-9.6133001015421424</v>
+        <v>22.69716351815206</v>
       </c>
       <c r="B233" s="0">
-        <v>11.618489508799064</v>
+        <v>-4.0026550946924937</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>-9.6918906854490086</v>
+        <v>22.77861070345357</v>
       </c>
       <c r="B234" s="0">
-        <v>11.581702193098575</v>
+        <v>-3.8631724235346026</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>-9.7701381450878984</v>
+        <v>22.859007168569704</v>
       </c>
       <c r="B235" s="0">
-        <v>11.544594927179732</v>
+        <v>-3.7239905589570741</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>-9.8480428732451806</v>
+        <v>22.93836843966665</v>
       </c>
       <c r="B236" s="0">
-        <v>11.507171279269853</v>
+        <v>-3.5851158824129024</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>-9.9256052810290498</v>
+        <v>23.016709866115789</v>
       </c>
       <c r="B237" s="0">
-        <v>11.469434780511794</v>
+        <v>-3.4465545313256789</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>-10.002825797376053</v>
+        <v>23.094046621242974</v>
       </c>
       <c r="B238" s="0">
-        <v>11.431388925259485</v>
+        <v>-3.3083124057691391</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>-10.079704868566822</v>
+        <v>23.170393703140491</v>
       </c>
       <c r="B239" s="0">
-        <v>11.393037171373297</v>
+        <v>-3.170395174983955</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>-10.156242957750825</v>
+        <v>23.245765935537811</v>
       </c>
       <c r="B240" s="0">
-        <v>11.354382940515128</v>
+        <v>-3.0328082837355548</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>-10.232440544480211</v>
+        <v>23.320177968727734</v>
       </c>
       <c r="B241" s="0">
-        <v>11.315429618443003</v>
+        <v>-2.8955569585157561</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>-10.308298124252319</v>
+        <v>23.393644280544247</v>
       </c>
       <c r="B242" s="0">
-        <v>11.276180555305318</v>
+        <v>-2.75864621359257</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>-10.383816208060967</v>
+        <v>23.466179177388966</v>
       </c>
       <c r="B243" s="0">
-        <v>11.23663906593446</v>
+        <v>-2.6220808569109737</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>-10.458995321956143</v>
+        <v>23.53779679530297</v>
       </c>
       <c r="B244" s="0">
-        <v>11.196808430139937</v>
+        <v>-2.4858654958480844</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>-10.533836006612113</v>
+        <v>23.60851110108106</v>
       </c>
       <c r="B245" s="0">
-        <v>11.156691893000769</v>
+        <v>-2.3500045428259817</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>-10.608338816903775</v>
+        <v>23.678335893425473</v>
       </c>
       <c r="B246" s="0">
-        <v>11.116292665157198</v>
+        <v>-2.2145022207856067</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>-10.682504321491038</v>
+        <v>23.747284804136381</v>
       </c>
       <c r="B247" s="0">
-        <v>11.075613923101654</v>
+        <v>-2.0793625685246262</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>-10.756333102411213</v>
+        <v>23.815371299336533</v>
       </c>
       <c r="B248" s="0">
-        <v>11.034658809468828</v>
+        <v>-1.9445894459024551</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>-10.829825754679172</v>
+        <v>23.882608680727564</v>
       </c>
       <c r="B249" s="0">
-        <v>10.993430433324932</v>
+        <v>-1.8101865389154677</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>-10.902982885895227</v>
+        <v>23.949010086875482</v>
       </c>
       <c r="B250" s="0">
-        <v>10.951931870455983</v>
+        <v>-1.6761573646454442</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>-10.975805115860505</v>
+        <v>24.014588494523142</v>
       </c>
       <c r="B251" s="0">
-        <v>10.910166163655122</v>
+        <v>-1.5425052760840907</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>-11.048293076199807</v>
+        <v>24.079356719927492</v>
       </c>
       <c r="B252" s="0">
-        <v>10.868136323008915</v>
+        <v>-1.4092334668365063</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>-11.120447409991742</v>
+        <v>24.143327420219528</v>
       </c>
       <c r="B253" s="0">
-        <v>10.825845326182547</v>
+        <v>-1.2763449757065228</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>-11.192268771405969</v>
+        <v>24.206513094784928</v>
       </c>
       <c r="B254" s="0">
-        <v>10.783296118703964</v>
+        <v>-1.1438426911664521</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>-11.263757825347612</v>
+        <v>24.268926086663495</v>
       </c>
       <c r="B255" s="0">
-        <v>10.740491614246759</v>
+        <v>-1.0117293557142506</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>-11.334915247108466</v>
+        <v>24.330578583965664</v>
       </c>
       <c r="B256" s="0">
-        <v>10.697434694911973</v>
+        <v>-0.88000757012043829</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>-11.405741722025082</v>
+        <v>24.391482621304259</v>
       </c>
       <c r="B257" s="0">
-        <v>10.654128211508585</v>
+        <v>-0.74867979756759118</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>-11.476237945143524</v>
+        <v>24.451650081239894</v>
       </c>
       <c r="B258" s="0">
-        <v>10.610574983832771</v>
+        <v>-0.61774836768493968</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>-11.546404620890707</v>
+        <v>24.51109269573853</v>
       </c>
       <c r="B259" s="0">
-        <v>10.566777800945806</v>
+        <v>-0.48721548048031493</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>-11.616242462752162</v>
+        <v>24.569822047639597</v>
       </c>
       <c r="B260" s="0">
-        <v>10.522739421450721</v>
+        <v>-0.35708321017217665</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>-11.685752192956157</v>
+        <v>24.627849572133339</v>
       </c>
       <c r="B261" s="0">
-        <v>10.478462573767514</v>
+        <v>-0.22735350892407843</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>-11.754934542164081</v>
+        <v>24.685186558246023</v>
       </c>
       <c r="B262" s="0">
-        <v>10.433949956406973</v>
+        <v>-0.098028210483733155</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>-11.823790249166915</v>
+        <v>24.741844150331698</v>
       </c>
       <c r="B263" s="0">
-        <v>10.389204238243108</v>
+        <v>0.030890966270999787</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>-11.892320060587723</v>
+        <v>24.797833349569412</v>
       </c>
       <c r="B264" s="0">
-        <v>10.344228058784104</v>
+        <v>0.15940241387670126</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>-11.960524730590082</v>
+        <v>24.853165015464565</v>
       </c>
       <c r="B265" s="0">
-        <v>10.299024028441799</v>
+        <v>0.28750463291782669</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>-12.028405020592272</v>
+        <v>24.907849867353402</v>
       </c>
       <c r="B266" s="0">
-        <v>10.253594728799683</v>
+        <v>0.41519622874619877</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>-12.095961698987233</v>
+        <v>24.961898485909693</v>
       </c>
       <c r="B267" s="0">
-        <v>10.207942712879319</v>
+        <v>0.5424759082852989</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>-12.163195540868053</v>
+        <v>25.015321314652383</v>
       </c>
       <c r="B268" s="0">
-        <v>10.162070505405296</v>
+        <v>0.66934247691652027</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>-12.230107327759031</v>
+        <v>25.068128661453528</v>
       </c>
       <c r="B269" s="0">
-        <v>10.115980603068534</v>
+        <v>0.79579483544572449</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>-12.296697847352091</v>
+        <v>25.120330700045475</v>
       </c>
       <c r="B270" s="0">
-        <v>10.069675474788061</v>
+        <v>0.92183197714834053</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>-12.362967893248539</v>
+        <v>25.17193747152654</v>
       </c>
       <c r="B271" s="0">
-        <v>10.023157561971166</v>
+        <v>1.0474529848905669</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>-12.428918264706038</v>
+        <v>25.222958885864337</v>
       </c>
       <c r="B272" s="0">
-        <v>9.9764292787719153</v>
+        <v>1.1726570283253723</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>-12.494549766390653</v>
+        <v>25.273404723396006</v>
       </c>
       <c r="B273" s="0">
-        <v>9.9294930123480931</v>
+        <v>1.2974433611609557</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>-12.559863208134006</v>
+        <v>25.323284636324736</v>
       </c>
       <c r="B274" s="0">
-        <v>9.8823511231164076</v>
+        <v>1.4218113185002563</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>-12.624859404695318</v>
+        <v>25.372608150211793</v>
       </c>
       <c r="B275" s="0">
-        <v>9.8350059450060865</v>
+        <v>1.5457603142496334</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>-12.689539175528319</v>
+        <v>25.421384665463481</v>
       </c>
       <c r="B276" s="0">
-        <v>9.7874597857107961</v>
+        <v>1.6692898385947452</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>-12.753903344552919</v>
+        <v>25.46962345881246</v>
       </c>
       <c r="B277" s="0">
-        <v>9.7397149269388574</v>
+        <v>1.7923994555425806</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>-12.817952739931574</v>
+        <v>25.517333684792845</v>
       </c>
       <c r="B278" s="0">
-        <v>9.6917736246617281</v>
+        <v>1.9150888005271636</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>-12.881688193850191</v>
+        <v>25.564524377208581</v>
       </c>
       <c r="B279" s="0">
-        <v>9.643638109360877</v>
+        <v>2.0373575780782369</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>-12.945110542303651</v>
+        <v>25.611204450594553</v>
       </c>
       <c r="B280" s="0">
-        <v>9.5953105862728147</v>
+        <v>2.1592055595506223</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>-13.008220624885645</v>
+        <v>25.657382701670052</v>
       </c>
       <c r="B281" s="0">
-        <v>9.5467932356324692</v>
+        <v>2.280632580913017</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>-13.07101928458294</v>
+        <v>25.703067810784106</v>
       </c>
       <c r="B282" s="0">
-        <v>9.4980882129148281</v>
+        <v>2.40163854059508</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>-13.133507367573859</v>
+        <v>25.748268343352315</v>
       </c>
       <c r="B283" s="0">
-        <v>9.4491976490748133</v>
+        <v>2.5222233973905497</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>-13.195685723031005</v>
+        <v>25.79299275128475</v>
       </c>
       <c r="B284" s="0">
-        <v>9.4001236507854049</v>
+        <v>2.6423871684158979</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>-13.257555202928055</v>
+        <v>25.837249374404621</v>
       </c>
       <c r="B285" s="0">
-        <v>9.3508683006740529</v>
+        <v>2.7621299271223201</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>-13.319116661850634</v>
+        <v>25.881046441857443</v>
       </c>
       <c r="B286" s="0">
-        <v>9.3014336575572685</v>
+        <v>2.8814518013602863</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>-13.380370956811097</v>
+        <v>25.924392073510226</v>
       </c>
       <c r="B287" s="0">
-        <v>9.2518217566735377</v>
+        <v>3.000352971495134</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>-13.441318947067286</v>
+        <v>25.967294281340561</v>
       </c>
       <c r="B288" s="0">
-        <v>9.2020346099143531</v>
+        <v>3.11883366857217</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>-13.501961493945041</v>
+        <v>26.009760970815339</v>
       </c>
       <c r="B289" s="0">
-        <v>9.1520742060535909</v>
+        <v>3.2368941725305524</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>-13.562299460664473</v>
+        <v>26.051799942258729</v>
       </c>
       <c r="B290" s="0">
-        <v>9.1019425109750749</v>
+        <v>3.3545348104641666</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>-13.622333712169958</v>
+        <v>26.093418892209389</v>
       </c>
       <c r="B291" s="0">
-        <v>9.0516414678983228</v>
+        <v>3.4717559549286294</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>-13.682065114963677</v>
+        <v>26.134625414766496</v>
       </c>
       <c r="B292" s="0">
-        <v>9.001172997602632</v>
+        <v>3.5885580222931783</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>-13.741494536942801</v>
+        <v>26.175427002924643</v>
       </c>
       <c r="B293" s="0">
-        <v>8.9505389986492254</v>
+        <v>3.7049414711362965</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>-13.800622847240014</v>
+        <v>26.215831049897229</v>
       </c>
       <c r="B294" s="0">
-        <v>8.8997413476018341</v>
+        <v>3.8209068006839266</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>-13.859450916067615</v>
+        <v>26.255844850428318</v>
       </c>
       <c r="B295" s="0">
-        <v>8.8487818992453011</v>
+        <v>3.9364545492890932</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>-13.917979614564818</v>
+        <v>26.295475602092779</v>
       </c>
       <c r="B296" s="0">
-        <v>8.7976624868025759</v>
+        <v>4.0515852929521623</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>-13.976209814648472</v>
+        <v>26.334730406584622</v>
       </c>
       <c r="B297" s="0">
-        <v>8.7463849221498275</v>
+        <v>4.1662996438804303</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>-14.034142388866913</v>
+        <v>26.373616270993406</v>
       </c>
       <c r="B298" s="0">
-        <v>8.6949509960298492</v>
+        <v>4.2805982490859931</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>-14.091778210257022</v>
+        <v>26.412140109068581</v>
       </c>
       <c r="B299" s="0">
-        <v>8.6433624782637146</v>
+        <v>4.3944817890212606</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>-14.149118152204414</v>
+        <v>26.450308742471783</v>
       </c>
       <c r="B300" s="0">
-        <v>8.5916211179605657</v>
+        <v>4.5079509762506733</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>-14.206163088306589</v>
+        <v>26.488128902016907</v>
       </c>
       <c r="B301" s="0">
-        <v>8.5397286437258071</v>
+        <v>4.6210065541581429</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>-14.262913892239197</v>
+        <v>26.525607228898004</v>
       </c>
       <c r="B302" s="0">
-        <v>8.4876867638673783</v>
+        <v>4.7336492956887684</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>-14.319371437625124</v>
+        <v>26.562750275904826</v>
       </c>
       <c r="B303" s="0">
-        <v>8.4354971666004079</v>
+        <v>4.8458800021245843</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>-14.375536597906542</v>
+        <v>26.599564508626134</v>
       </c>
       <c r="B304" s="0">
-        <v>8.3831615202499972</v>
+        <v>4.9576995018928871</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>-14.431410246219707</v>
+        <v>26.636056306640626</v>
       </c>
       <c r="B305" s="0">
-        <v>8.3306814734524011</v>
+        <v>5.0691086494065765</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>-14.486993255272569</v>
+        <v>26.672231964695534</v>
       </c>
       <c r="B306" s="0">
-        <v>8.278058655354366</v>
+        <v>5.1801083239355554</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>-14.542286497225133</v>
+        <v>26.708097693872798</v>
       </c>
       <c r="B307" s="0">
-        <v>8.225294675810737</v>
+        <v>5.2906994285085096</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>-14.597290843572404</v>
+        <v>26.74365962274296</v>
       </c>
       <c r="B308" s="0">
-        <v>8.1723911255804005</v>
+        <v>5.4008828888441816</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>-14.652007165029998</v>
+        <v>26.778923798506661</v>
       </c>
       <c r="B309" s="0">
-        <v>8.1193495765204844</v>
+        <v>5.5106596523112747</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>-14.706436331422312</v>
+        <v>26.813896188123746</v>
       </c>
       <c r="B310" s="0">
-        <v>8.0661715817788018</v>
+        <v>5.6200306869165937</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>-14.760579211573187</v>
+        <v>26.848582679430148</v>
       </c>
       <c r="B311" s="0">
-        <v>8.0128586759846421</v>
+        <v>5.7289969803199581</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>-14.814436673199069</v>
+        <v>26.882989082242425</v>
       </c>
       <c r="B312" s="0">
-        <v>7.9594123754378279</v>
+        <v>5.837559538876155</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>-14.868009582804543</v>
+        <v>26.917121129450045</v>
       </c>
       <c r="B313" s="0">
-        <v>7.9058341782960904</v>
+        <v>5.9457193867023781</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>-14.921298805580282</v>
+        <v>26.950984478095489</v>
       </c>
       <c r="B314" s="0">
-        <v>7.8521255647607466</v>
+        <v>6.0534775647707688</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>-14.974305205303294</v>
+        <v>26.984584710442149</v>
       </c>
       <c r="B315" s="0">
-        <v>7.7982879972607222</v>
+        <v>6.1608351300256698</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>-15.027029644239455</v>
+        <v>27.017927335030144</v>
       </c>
       <c r="B316" s="0">
-        <v>7.7443229206348461</v>
+        <v>6.2677931545245276</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>-15.079472983048266</v>
+        <v>27.051017787720109</v>
       </c>
       <c r="B317" s="0">
-        <v>7.6902317623125809</v>
+        <v>6.3743527246017972</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>-15.131636080689825</v>
+        <v>27.083861432724905</v>
       </c>
       <c r="B318" s="0">
-        <v>7.6360159324929713</v>
+        <v>6.4805149400557793</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>-15.183519794333929</v>
+        <v>27.116463563629544</v>
       </c>
       <c r="B319" s="0">
-        <v>7.5816768243220318</v>
+        <v>6.5862809133569424</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>-15.23512497927126</v>
+        <v>27.148829404399109</v>
       </c>
       <c r="B320" s="0">
-        <v>7.5272158140684944</v>
+        <v>6.691651768878069</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>-15.286452488826692</v>
+        <v>27.180964110375054</v>
       </c>
       <c r="B321" s="0">
-        <v>7.4726342612978653</v>
+        <v>6.7966286421447117</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>-15.337503174274563</v>
+        <v>27.212872769259665</v>
       </c>
       <c r="B322" s="0">
-        <v>7.4179335090449037</v>
+        <v>6.9012126791061279</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>-15.388277884755961</v>
+        <v>27.244560402089032</v>
       </c>
       <c r="B323" s="0">
-        <v>7.3631148839844824</v>
+        <v>7.0054050354258495</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>-15.438777467197925</v>
+        <v>27.276031964194424</v>
       </c>
       <c r="B324" s="0">
-        <v>7.3081796966008605</v>
+        <v>7.109206875791247</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>-15.48900276623459</v>
+        <v>27.307292346152245</v>
       </c>
       <c r="B325" s="0">
-        <v>7.253129241355305</v>
+        <v>7.2126193732416803</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>-15.53895462413019</v>
+        <v>27.338346374722668</v>
       </c>
       <c r="B326" s="0">
-        <v>7.1979647968521281</v>
+        <v>7.3156437085149308</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>-15.588633880703824</v>
+        <v>27.369198813777007</v>
       </c>
       <c r="B327" s="0">
-        <v>7.1426876260032603</v>
+        <v>7.4182810694109396</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>-15.638041373256115</v>
+        <v>27.399854365213923</v>
       </c>
       <c r="B328" s="0">
-        <v>7.0872989761911258</v>
+        <v>7.5205326501728722</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>-15.687177936497536</v>
+        <v>27.430317669864618</v>
       </c>
       <c r="B329" s="0">
-        <v>7.0318000794299937</v>
+        <v>7.6223996508844669</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>-15.73604440247852</v>
+        <v>27.460593308387054</v>
       </c>
       <c r="B330" s="0">
-        <v>6.976192152525817</v>
+        <v>7.7238832768840027</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>-15.784641600521208</v>
+        <v>27.490685802149372</v>
       </c>
       <c r="B331" s="0">
-        <v>6.920476397234494</v>
+        <v>7.8249847381933932</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>-15.832970357152879</v>
+        <v>27.520599614102519</v>
       </c>
       <c r="B332" s="0">
-        <v>6.8646540004186223</v>
+        <v>7.9257052489631068</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>-15.881031496040979</v>
+        <v>27.550339149642273</v>
       </c>
       <c r="B333" s="0">
-        <v>6.8087261342027015</v>
+        <v>8.0260460269313576</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>-15.928825837929717</v>
+        <v>27.579908757460807</v>
       </c>
       <c r="B334" s="0">
-        <v>6.7526939561269224</v>
+        <v>8.1260082928980282</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>-15.976354200578257</v>
+        <v>27.60931273038776</v>
       </c>
       <c r="B335" s="0">
-        <v>6.6965586092992737</v>
+        <v>8.2255932702125243</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>-16.023617398700399</v>
+        <v>27.638555306221082</v>
       </c>
       <c r="B336" s="0">
-        <v>6.6403212225463504</v>
+        <v>8.3248021842749509</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>-16.070616243905743</v>
+        <v>27.667640668547683</v>
       </c>
       <c r="B337" s="0">
-        <v>6.5839829105625762</v>
+        <v>8.4236362620508025</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>-16.117351544642304</v>
+        <v>27.696572947554017</v>
       </c>
       <c r="B338" s="0">
-        <v>6.5275447740579748</v>
+        <v>8.5220967315982552</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>-16.163824106140581</v>
+        <v>27.725356220826757</v>
       </c>
       <c r="B339" s="0">
-        <v>6.4710078999045031</v>
+        <v>8.6201848216078005</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>-16.210034730358995</v>
+        <v>27.753994514143567</v>
       </c>
       <c r="B340" s="0">
-        <v>6.4143733612809202</v>
+        <v>8.7179017609540406</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>-16.255984215930699</v>
+        <v>27.782491802254299</v>
       </c>
       <c r="B341" s="0">
-        <v>6.3576422178161902</v>
+        <v>8.8152487782591429</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>-16.301673358111731</v>
+        <v>27.810852009652475</v>
       </c>
       <c r="B342" s="0">
-        <v>6.3008155157315429</v>
+        <v>8.9122271014675505</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>-16.34710294873047</v>
+        <v>27.839079011337393</v>
       </c>
       <c r="B343" s="0">
-        <v>6.2438942879809787</v>
+        <v>9.0088379574317106</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>-16.392273776138374</v>
+        <v>27.867176633566828</v>
       </c>
       <c r="B344" s="0">
-        <v>6.1868795543905355</v>
+        <v>9.1050825715084667</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>-16.437186625161964</v>
+        <v>27.895148654600582</v>
       </c>
       <c r="B345" s="0">
-        <v>6.1297723217959916</v>
+        <v>9.2009621671657023</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>-16.481842277056042</v>
+        <v>27.922998805434865</v>
       </c>
       <c r="B346" s="0">
-        <v>6.0725735841793052</v>
+        <v>9.296477965599049</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>-16.526241509458114</v>
+        <v>27.950730770527787</v>
       </c>
       <c r="B347" s="0">
-        <v>6.0152843228036081</v>
+        <v>9.3916311853581096</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>-16.570385096343973</v>
+        <v>27.978348188515888</v>
       </c>
       <c r="B348" s="0">
-        <v>5.9579055063468775</v>
+        <v>9.4864230419821887</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>-16.614273807984446</v>
+        <v>28.005854652922064</v>
       </c>
       <c r="B349" s="0">
-        <v>5.9004380910341965</v>
+        <v>9.5808547476450379</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>-16.657908410903229</v>
+        <v>28.033253712854815</v>
       </c>
       <c r="B350" s="0">
-        <v>5.8428830207687428</v>
+        <v>9.674927510808379</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>-16.701289667835855</v>
+        <v>28.060548873699037</v>
       </c>
       <c r="B351" s="0">
-        <v>5.7852412272613938</v>
+        <v>9.7686425358836644</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>-16.744418337689748</v>
+        <v>28.087743597798493</v>
       </c>
       <c r="B352" s="0">
-        <v>5.727513630158974</v>
+        <v>9.8620010229023976</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>-16.787295175505271</v>
+        <v>28.11484130513</v>
       </c>
       <c r="B353" s="0">
-        <v>5.6697011371712955</v>
+        <v>9.9550041671940939</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>-16.829920932417849</v>
+        <v>28.141845373969623</v>
       </c>
       <c r="B354" s="0">
-        <v>5.6118046441967806</v>
+        <v>10.047653159071793</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>-16.872296355621078</v>
+        <v>28.168759141550765</v>
       </c>
       <c r="B355" s="0">
-        <v>5.5538250354468737</v>
+        <v>10.139949183525204</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>-16.9144221883308</v>
+        <v>28.195585904714537</v>
       </c>
       <c r="B356" s="0">
-        <v>5.4957631835691085</v>
+        <v>10.231893419920658</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>-16.956299169750174</v>
+        <v>28.222328920552368</v>
       </c>
       <c r="B357" s="0">
-        <v>5.4376199497689601</v>
+        <v>10.323487041707997</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>-16.997928035035635</v>
+        <v>28.24899140704099</v>
       </c>
       <c r="B358" s="0">
-        <v>5.3793961839303748</v>
+        <v>10.414731216134117</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>-17.039309515263824</v>
+        <v>28.275576543670031</v>
       </c>
       <c r="B359" s="0">
-        <v>5.3210927247351067</v>
+        <v>10.50562710396256</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>-17.080444337399328</v>
+        <v>28.302087472062237</v>
       </c>
       <c r="B360" s="0">
-        <v>5.2627103997807838</v>
+        <v>10.596175859199489</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>-17.12133322426341</v>
+        <v>28.328527296586504</v>
       </c>
       <c r="B361" s="0">
-        <v>5.2042500256977045</v>
+        <v>10.686378628825297</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>-17.161976894503468</v>
+        <v>28.354899084963822</v>
       </c>
       <c r="B362" s="0">
-        <v>5.1457124082645169</v>
+        <v>10.77623655253177</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>-17.20237606256341</v>
+        <v>28.381205868866335</v>
       </c>
       <c r="B363" s="0">
-        <v>5.0870983425225615</v>
+        <v>10.865750762464682</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>-17.242531438654822</v>
+        <v>28.407450644509471</v>
       </c>
       <c r="B364" s="0">
-        <v>5.0284086128890912</v>
+        <v>10.954922382971567</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>-17.282443728728893</v>
+        <v>28.433636373237508</v>
       </c>
       <c r="B365" s="0">
-        <v>4.9696439932693046</v>
+        <v>11.043752530354146</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>-17.32211363444917</v>
+        <v>28.459765982102507</v>
       </c>
       <c r="B366" s="0">
-        <v>4.9108052471671542</v>
+        <v>11.132242312625612</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>-17.361541853165008</v>
+        <v>28.485842364436905</v>
       </c>
       <c r="B367" s="0">
-        <v>4.8518931277950044</v>
+        <v>11.220392829272193</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>-17.400729077885817</v>
+        <v>28.511868380419678</v>
       </c>
       <c r="B368" s="0">
-        <v>4.7929083781821511</v>
+        <v>11.308205171019099</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>-17.439675997255982</v>
+        <v>28.537846857636463</v>
       </c>
       <c r="B369" s="0">
-        <v>4.7338517312821322</v>
+        <v>11.395680419600318</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>-17.478383295530492</v>
+        <v>28.563780591633613</v>
       </c>
       <c r="B370" s="0">
-        <v>4.6747239100789564</v>
+        <v>11.482819647532143</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>-17.516851652551281</v>
+        <v>28.589672346466372</v>
       </c>
       <c r="B371" s="0">
-        <v>4.6155256276921968</v>
+        <v>11.569623917890349</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>-17.55508174372418</v>
+        <v>28.615524855241205</v>
       </c>
       <c r="B372" s="0">
-        <v>4.5562575874808964</v>
+        <v>11.656094284090786</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>-17.593074239996572</v>
+        <v>28.641340820652619</v>
       </c>
       <c r="B373" s="0">
-        <v>4.4969204831464547</v>
+        <v>11.742231789672831</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>-17.630829807835642</v>
+        <v>28.667122915514415</v>
       </c>
       <c r="B374" s="0">
-        <v>4.4375149988343248</v>
+        <v>11.82803746808594</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>-17.668349109207263</v>
+        <v>28.692873783285545</v>
       </c>
       <c r="B375" s="0">
-        <v>4.3780418092347082</v>
+        <v>11.913512342479022</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>-17.705632801555478</v>
+        <v>28.718596038590874</v>
       </c>
       <c r="B376" s="0">
-        <v>4.3185015796820734</v>
+        <v>11.99865742549197</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>-17.742681537782527</v>
+        <v>28.744292267736682</v>
       </c>
       <c r="B377" s="0">
-        <v>4.2588949662536706</v>
+        <v>12.083473719049815</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>-17.779495966229518</v>
+        <v>28.76996502922135</v>
       </c>
       <c r="B378" s="0">
-        <v>4.1992226158669688</v>
+        <v>12.167962214158756</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>-17.816076730657588</v>
+        <v>28.795616854241199</v>
       </c>
       <c r="B379" s="0">
-        <v>4.1394851663759757</v>
+        <v>12.252123890704118</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>-17.852424470229614</v>
+        <v>28.821250247191621</v>
       </c>
       <c r="B380" s="0">
-        <v>4.0796832466666215</v>
+        <v>12.335959717250004</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>-17.888539819492436</v>
+        <v>28.846867686163684</v>
       </c>
       <c r="B381" s="0">
-        <v>4.0198174767510517</v>
+        <v>12.419470650840386</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>-17.924423408359655</v>
+        <v>28.872471623436425</v>
       </c>
       <c r="B382" s="0">
-        <v>3.959888467860829</v>
+        <v>12.5026576368014</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>-17.960075862094808</v>
+        <v>28.898064485964788</v>
       </c>
       <c r="B383" s="0">
-        <v>3.8998968225392234</v>
+        <v>12.585521608544784</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>-17.99549780129513</v>
+        <v>28.923648675863543</v>
       </c>
       <c r="B384" s="0">
-        <v>3.8398431347324853</v>
+        <v>12.668063487372043</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>-18.03068984187572</v>
+        <v>28.94922657088723</v>
       </c>
       <c r="B385" s="0">
-        <v>3.7797279898800111</v>
+        <v>12.750284182279225</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>-18.065652595054175</v>
+        <v>28.974800524906318</v>
       </c>
       <c r="B386" s="0">
-        <v>3.719551965003614</v>
+        <v>12.832184589762205</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>-18.100386667335645</v>
+        <v>29.00037286837961</v>
       </c>
       <c r="B387" s="0">
-        <v>3.6593156287958624</v>
+        <v>12.913765593622191</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>-18.134892660498352</v>
+        <v>29.025945908823367</v>
       </c>
       <c r="B388" s="0">
-        <v>3.599019541707277</v>
+        <v>12.995028064770864</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>-18.169171171579489</v>
+        <v>29.05152193127681</v>
       </c>
       <c r="B389" s="0">
-        <v>3.53866425603271</v>
+        <v>13.075972861035838</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>-18.20322279286151</v>
+        <v>29.077103198764693</v>
       </c>
       <c r="B390" s="0">
-        <v>3.4782503159967106</v>
+        <v>13.156600826965125</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>-18.237048111858837</v>
+        <v>29.102691952756686</v>
       </c>
       <c r="B391" s="0">
-        <v>3.4177782578379747</v>
+        <v>13.23691279363125</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>-18.270647711304907</v>
+        <v>29.128290413623979</v>
       </c>
       <c r="B392" s="0">
-        <v>3.3572486098928165</v>
+        <v>13.316909578434165</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>-18.304022169139596</v>
+        <v>29.153900781093107</v>
       </c>
       <c r="B393" s="0">
-        <v>3.2966618926777493</v>
+        <v>13.39659198490344</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>-18.337172058497007</v>
+        <v>29.179525234697358</v>
       </c>
       <c r="B394" s="0">
-        <v>3.2360186189711184</v>
+        <v>13.475960802498566</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>-18.370097947693559</v>
+        <v>29.205165934225739</v>
       </c>
       <c r="B395" s="0">
-        <v>3.1753192938938124</v>
+        <v>13.555016806407991</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>-18.402800400216414</v>
+        <v>29.230825020169824</v>
       </c>
       <c r="B396" s="0">
-        <v>3.1145644149891489</v>
+        <v>13.633760757346041</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>-18.435279974712255</v>
+        <v>29.256504614168506</v>
       </c>
       <c r="B397" s="0">
-        <v>3.0537544723017387</v>
+        <v>13.712193401347985</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>-18.467537224976287</v>
+        <v>29.282206819451087</v>
       </c>
       <c r="B398" s="0">
-        <v>2.992889948455582</v>
+        <v>13.790315469562442</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>-18.499572699941623</v>
+        <v>29.307933721278591</v>
       </c>
       <c r="B399" s="0">
-        <v>2.9319713187312044</v>
+        <v>13.868127678041356</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>-18.531386943668863</v>
+        <v>29.33368738738373</v>
       </c>
       <c r="B400" s="0">
-        <v>2.8709990511419554</v>
+        <v>13.945630727526863</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>-18.562980495335996</v>
+        <v>29.359469868409661</v>
       </c>
       <c r="B401" s="0">
-        <v>2.8099736065094598</v>
+        <v>14.022825303235093</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>-18.59435388922854</v>
+        <v>29.38528319834759</v>
       </c>
       <c r="B402" s="0">
-        <v>2.7488954385381708</v>
+        <v>14.099712074636583</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>-18.62550765472994</v>
+        <v>29.411129394973678</v>
       </c>
       <c r="B403" s="0">
-        <v>2.6877649938890911</v>
+        <v>14.176291695232605</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>-18.656442316312177</v>
+        <v>29.437010460285304</v>
       </c>
       <c r="B404" s="0">
-        <v>2.6265827122527008</v>
+        <v>14.252564802327671</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>-18.687158393526641</v>
+        <v>29.462928380936926</v>
       </c>
       <c r="B405" s="0">
-        <v>2.5653490264209777</v>
+        <v>14.328532016797652</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>-18.717656400995189</v>
+        <v>29.488885128675783</v>
       </c>
       <c r="B406" s="0">
-        <v>2.5040643623586498</v>
+        <v>14.404193942853013</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>-18.747936848401409</v>
+        <v>29.51488266077774</v>
       </c>
       <c r="B407" s="0">
-        <v>2.4427291392735961</v>
+        <v>14.479551167797057</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>-18.778000240482122</v>
+        <v>29.540922920483354</v>
       </c>
       <c r="B408" s="0">
-        <v>2.3813437696864685</v>
+        <v>14.554604261778927</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>-18.807847077019009</v>
+        <v>29.567007837434652</v>
       </c>
       <c r="B409" s="0">
-        <v>2.3199086594995095</v>
+        <v>14.62935377754045</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>-18.83747785283046</v>
+        <v>29.593139328112606</v>
       </c>
       <c r="B410" s="0">
-        <v>2.2584242080645223</v>
+        <v>14.703800250157405</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>-18.866893057763569</v>
+        <v>29.619319296275872</v>
       </c>
       <c r="B411" s="0">
-        <v>2.1968908082501359</v>
+        <v>14.777944196773634</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>-18.896093176686307</v>
+        <v>29.645549633400819</v>
       </c>
       <c r="B412" s="0">
-        <v>2.1353088465082206</v>
+        <v>14.851786116328686</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>-18.92507868947979</v>
+        <v>29.67183221912325</v>
       </c>
       <c r="B413" s="0">
-        <v>2.0736787029395969</v>
+        <v>14.925326489277904</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>-18.953850071030775</v>
+        <v>29.698168921682214</v>
       </c>
       <c r="B414" s="0">
-        <v>2.0120007513589235</v>
+        <v>14.998565777304634</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>-18.982407791224208</v>
+        <v>29.724561598365973</v>
       </c>
       <c r="B415" s="0">
-        <v>1.950275359358834</v>
+        <v>15.071504423024361</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>-19.010752314935921</v>
+        <v>29.751012095960814</v>
       </c>
       <c r="B416" s="0">
-        <v>1.8885028883733312</v>
+        <v>15.144142849679818</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>-19.038884102025438</v>
+        <v>29.777522251202615</v>
       </c>
       <c r="B417" s="0">
-        <v>1.8266836937404765</v>
+        <v>15.216481460827065</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>-19.066803607328918</v>
+        <v>29.804093891231993</v>
       </c>
       <c r="B418" s="0">
-        <v>1.7648181247642809</v>
+        <v>15.288520640011635</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>-19.094511280652121</v>
+        <v>29.830728834052998</v>
       </c>
       <c r="B419" s="0">
-        <v>1.702906524775875</v>
+        <v>15.360260750434328</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>-19.122007566763525</v>
+        <v>29.857428888996051</v>
       </c>
       <c r="B420" s="0">
-        <v>1.640949231194015</v>
+        <v>15.431702134606075</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>-19.14929290538749</v>
+        <v>29.884195857185325</v>
       </c>
       <c r="B421" s="0">
-        <v>1.5789465755847816</v>
+        <v>15.502845113991315</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>-19.176367731197509</v>
+        <v>29.911031532011148</v>
       </c>
       <c r="B422" s="0">
-        <v>1.5168988837206172</v>
+        <v>15.573689988638971</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>-19.2032324738095</v>
+        <v>29.9379376996079</v>
       </c>
       <c r="B423" s="0">
-        <v>1.4548064756386831</v>
+        <v>15.644237036800645</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>-19.229887557775161</v>
+        <v>29.964916139337635</v>
       </c>
       <c r="B424" s="0">
-        <v>1.3926696656984432</v>
+        <v>15.714486514535199</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>-19.256333402575368</v>
+        <v>29.99196862428029</v>
       </c>
       <c r="B425" s="0">
-        <v>1.3304887626386428</v>
+        <v>15.784438655299001</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>-19.282570422613624</v>
+        <v>30.01909692173076</v>
       </c>
       <c r="B426" s="0">
-        <v>1.2682640696335377</v>
+        <v>15.854093669520724</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>-19.308599027209507</v>
+        <v>30.046302793703504</v>
       </c>
       <c r="B427" s="0">
-        <v>1.2059958843484573</v>
+        <v>15.923451744160433</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>-19.334419620592165</v>
+        <v>30.073587997445184</v>
       </c>
       <c r="B428" s="0">
-        <v>1.1436844989947585</v>
+        <v>15.992513042251609</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>-19.36003260189381</v>
+        <v>30.100954285956135</v>
       </c>
       <c r="B429" s="0">
-        <v>1.081330200383946</v>
+        <v>16.061277702425144</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>-19.385438365143219</v>
+        <v>30.128403408521148</v>
       </c>
       <c r="B430" s="0">
-        <v>1.0189332699813698</v>
+        <v>16.129745838414578</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>-19.410637299259243</v>
+        <v>30.15593711125025</v>
       </c>
       <c r="B431" s="0">
-        <v>0.95649398395904428</v>
+        <v>16.197917538541482</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>-19.435629788044292</v>
+        <v>30.18355713763054</v>
       </c>
       <c r="B432" s="0">
-        <v>0.89401261324795589</v>
+        <v>16.2657928651793</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>-19.460416210177808</v>
+        <v>30.211265229089395</v>
       </c>
       <c r="B433" s="0">
-        <v>0.83148942358968614</v>
+        <v>16.333371854195395</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>-19.484996939209708</v>
+        <v>30.239063125570283</v>
       </c>
       <c r="B434" s="0">
-        <v>0.7689246755873772</v>
+        <v>16.400654514369045</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>-19.50937234355381</v>
+        <v>30.266952566121784</v>
       </c>
       <c r="B435" s="0">
-        <v>0.70631862475608209</v>
+        <v>16.467640826784795</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>-19.533542786481192</v>
+        <v>30.294935289501066</v>
       </c>
       <c r="B436" s="0">
-        <v>0.64367152157251284</v>
+        <v>16.534330744198964</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>-19.557508626113531</v>
+        <v>30.323013034792428</v>
       </c>
       <c r="B437" s="0">
-        <v>0.58098361152410205</v>
+        <v>16.600724190378582</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>-19.581270215416364</v>
+        <v>30.351187542042425</v>
       </c>
       <c r="B438" s="0">
-        <v>0.51825513515752553</v>
+        <v>16.666821059410236</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>-19.604827902192309</v>
+        <v>30.379460552912303</v>
       </c>
       <c r="B439" s="0">
-        <v>0.4554863281265657</v>
+        <v>16.732621214977758</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>-19.628182029074182</v>
+        <v>30.407833811349306</v>
       </c>
       <c r="B440" s="0">
-        <v>0.39267742123938359</v>
+        <v>16.798124489606408</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>-19.651332933518088</v>
+        <v>30.436309064278024</v>
       </c>
       <c r="B441" s="0">
-        <v>0.32982864050520211</v>
+        <v>16.863330683871478</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>-19.674280947796369</v>
+        <v>30.46488806231304</v>
       </c>
       <c r="B442" s="0">
-        <v>0.26694020718031958</v>
+        <v>16.928239565569683</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>-19.697026398990527</v>
+        <v>30.493572560494727</v>
       </c>
       <c r="B443" s="0">
-        <v>0.20401233781367412</v>
+        <v>16.992850868850155</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>-19.719569608983974</v>
+        <v>30.522364319049494</v>
       </c>
       <c r="B444" s="0">
-        <v>0.14104524429171314</v>
+        <v>17.057164293303146</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>-19.741910894454744</v>
+        <v>30.551265104176309</v>
       </c>
       <c r="B445" s="0">
-        <v>0.078039133882708694</v>
+        <v>17.121179503003621</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>-19.76405056686805</v>
+        <v>30.580276688861495</v>
       </c>
       <c r="B446" s="0">
-        <v>0.014994209280499757</v>
+        <v>17.184896125506381</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>-19.785988932468719</v>
+        <v>30.609400853723624</v>
       </c>
       <c r="B447" s="0">
-        <v>-0.048089331352284444</v>
+        <v>17.248313750790221</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>-19.807726292273568</v>
+        <v>30.638639387890773</v>
       </c>
       <c r="B448" s="0">
-        <v>-0.11121129434172308</v>
+        <v>17.311431930147087</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>-19.829262942063529</v>
+        <v>30.66799408991249</v>
       </c>
       <c r="B449" s="0">
-        <v>-0.17437149046041153</v>
+        <v>17.374250175013028</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>-19.850599172375748</v>
+        <v>30.697466768708892</v>
       </c>
       <c r="B450" s="0">
-        <v>-0.23756973488606173</v>
+        <v>17.436767955736752</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>-19.87173526849546</v>
+        <v>30.727059244559804</v>
       </c>
       <c r="B451" s="0">
-        <v>-0.30080584716056141</v>
+        <v>17.498984700281351</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>-19.892671510447748</v>
+        <v>30.756773350136829</v>
       </c>
       <c r="B452" s="0">
-        <v>-0.36407965114951896</v>
+        <v>17.560899792854684</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>-19.913408172989122</v>
+        <v>30.786610931581375</v>
       </c>
       <c r="B453" s="0">
-        <v>-0.42739097500246132</v>
+        <v>17.622512572463513</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>-19.93394552559894</v>
+        <v>30.81657384963254</v>
       </c>
       <c r="B454" s="0">
-        <v>-0.49073965111349171</v>
+        <v>17.683822331385272</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>-19.954283832470644</v>
+        <v>30.846663980808234</v>
       </c>
       <c r="B455" s="0">
-        <v>-0.55412551608254867</v>
+        <v>17.744828313552329</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>-19.974423352502814</v>
+        <v>30.876883218643982</v>
       </c>
       <c r="B456" s="0">
-        <v>-0.61754841067708177</v>
+        <v>17.80552971284127</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>-19.994364339290055</v>
+        <v>30.907233474993753</v>
       </c>
       <c r="B457" s="0">
-        <v>-0.68100817979438211</v>
+        <v>17.86592567126079</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>-20.01410704111364</v>
+        <v>30.93771668139788</v>
       </c>
       <c r="B458" s="0">
-        <v>-0.7445046724244101</v>
+        <v>17.92601527702994</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>-20.033651700932001</v>
+        <v>30.968334790523357</v>
       </c>
       <c r="B459" s="0">
-        <v>-0.8080377416129978</v>
+        <v>17.985797562538309</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>-20.052998556370966</v>
+        <v>30.999089777682503</v>
       </c>
       <c r="B460" s="0">
-        <v>-0.87160724442578685</v>
+        <v>18.045271502178874</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>-20.072147839713807</v>
+        <v>31.029983642436452</v>
       </c>
       <c r="B461" s="0">
-        <v>-0.93521304191250576</v>
+        <v>18.10443601004302</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>-20.09109977789106</v>
+        <v>31.061018410290789</v>
       </c>
       <c r="B462" s="0">
-        <v>-0.99885499907182895</v>
+        <v>18.163289937466406</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>-20.109854592470075</v>
+        <v>31.092196134490809</v>
       </c>
       <c r="B463" s="0">
-        <v>-1.0625329848167235</v>
+        <v>18.221832070413459</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>-20.128412499644408</v>
+        <v>31.123518897925656</v>
       </c>
       <c r="B464" s="0">
-        <v>-1.1262468719402721</v>
+        <v>18.280061126686302</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
-        <v>-20.14677371022286</v>
+        <v>31.154988815150404</v>
       </c>
       <c r="B465" s="0">
-        <v>-1.1899965370820613</v>
+        <v>18.337975752943215</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
-        <v>-20.164938429618346</v>
+        <v>31.186608034537102</v>
       </c>
       <c r="B466" s="0">
-        <v>-1.2537818606949078</v>
+        <v>18.395574521509513</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
-        <v>-20.182906857836482</v>
+        <v>31.218378740566369</v>
       </c>
       <c r="B467" s="0">
-        <v>-1.3176027270123243</v>
+        <v>18.452855926962339</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
-        <v>-20.200679189463873</v>
+        <v>31.250303156272864</v>
       </c>
       <c r="B468" s="0">
-        <v>-1.3814590240161653</v>
+        <v>18.509818382468175</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
-        <v>-20.218255613656165</v>
+        <v>31.282383545859069</v>
       </c>
       <c r="B469" s="0">
-        <v>-1.4453506434050298</v>
+        <v>18.566460215850146</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
-        <v>-20.235636314125792</v>
+        <v>31.314622217493962</v>
       </c>
       <c r="B470" s="0">
-        <v>-1.5092774805629547</v>
+        <v>18.622779665358987</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>-20.252821469129426</v>
+        <v>31.347021526314613</v>
       </c>
       <c r="B471" s="0">
-        <v>-1.5732394345286589</v>
+        <v>18.678774875118638</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
-        <v>-20.26981125145517</v>
+        <v>31.379583877651509</v>
       </c>
       <c r="B472" s="0">
-        <v>-1.6372364079652522</v>
+        <v>18.734443890213981</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
-        <v>-20.286605828409375</v>
+        <v>31.412311730500672</v>
       </c>
       <c r="B473" s="0">
-        <v>-1.7012683071304251</v>
+        <v>18.789784651383531</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
-        <v>-20.303205361803226</v>
+        <v>31.445207601268351</v>
       </c>
       <c r="B474" s="0">
-        <v>-1.765335041847059</v>
+        <v>18.84479498927637</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
-        <v>-20.319610007938934</v>
+        <v>31.47827406781823</v>
       </c>
       <c r="B475" s="0">
-        <v>-1.8294365254743554</v>
+        <v>18.899472618225975</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>-20.335819917595646</v>
+        <v>31.511513773854194</v>
       </c>
       <c r="B476" s="0">
-        <v>-1.8935726748793706</v>
+        <v>18.953815129487932</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>-20.351835236015013</v>
+        <v>31.544929433676941</v>
       </c>
       <c r="B477" s="0">
-        <v>-1.957743410409015</v>
+        <v>19.007819983881255</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
-        <v>-20.367656102886372</v>
+        <v>31.578523837357597</v>
       </c>
       <c r="B478" s="0">
-        <v>-2.0219486558626079</v>
+        <v>19.061484503764213</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
-        <v>-20.383282652331655</v>
+        <v>31.612299856378311</v>
       </c>
       <c r="B479" s="0">
-        <v>-2.0861883384646869</v>
+        <v>19.114805864265744</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
-        <v>-20.398715012889848</v>
+        <v>31.646260449796653</v>
       </c>
       <c r="B480" s="0">
-        <v>-2.1504623888384784</v>
+        <v>19.167781083681717</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
-        <v>-20.413953307501171</v>
+        <v>31.680408670999672</v>
       </c>
       <c r="B481" s="0">
-        <v>-2.2147707409796209</v>
+        <v>19.220407012931673</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>-20.428997653490779</v>
+        <v>31.714747675123792</v>
       </c>
       <c r="B482" s="0">
-        <v>-2.2791133322304971</v>
+        <v>19.272680323954841</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>-20.443848162552193</v>
+        <v>31.749280727228829</v>
       </c>
       <c r="B483" s="0">
-        <v>-2.3434901032549074</v>
+        <v>19.324597496905085</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>-20.458504940730244</v>
+        <v>31.784011211329759</v>
       </c>
       <c r="B484" s="0">
-        <v>-2.4079009980132033</v>
+        <v>19.376154805980338</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>-20.472968088403665</v>
+        <v>31.818942640406426</v>
       </c>
       <c r="B485" s="0">
-        <v>-2.4723459637378582</v>
+        <v>19.427348303694966</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
-        <v>-20.487237700267258</v>
+        <v>31.854078667534363</v>
       </c>
       <c r="B486" s="0">
-        <v>-2.5368249509095162</v>
+        <v>19.478173803368122</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
-        <v>-20.501313865313655</v>
+        <v>31.889423098304579</v>
       </c>
       <c r="B487" s="0">
-        <v>-2.6013379132333792</v>
+        <v>19.528626859560813</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>-20.515196666814614</v>
+        <v>31.924979904733419</v>
       </c>
       <c r="B488" s="0">
-        <v>-2.6658848076161075</v>
+        <v>19.578702746142152</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>-20.528886182301939</v>
+        <v>31.960753240901639</v>
       </c>
       <c r="B489" s="0">
-        <v>-2.7304655941431357</v>
+        <v>19.628396431604752</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>-20.5423824835479</v>
+        <v>31.996747460612021</v>
       </c>
       <c r="B490" s="0">
-        <v>-2.7950802360563749</v>
+        <v>19.677702551169364</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
-        <v>-20.555685636545235</v>
+        <v>32.032967137415078</v>
       </c>
       <c r="B491" s="0">
-        <v>-2.8597286997323694</v>
+        <v>19.726615375122815</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
-        <v>-20.568795701486643</v>
+        <v>32.069417087429585</v>
       </c>
       <c r="B492" s="0">
-        <v>-2.9244109546608663</v>
+        <v>19.775128772711437</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>-20.581712732743878</v>
+        <v>32.106102395482687</v>
       </c>
       <c r="B493" s="0">
-        <v>-2.9891269734238497</v>
+        <v>19.823236170755351</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>-20.59443677884628</v>
+        <v>32.143028445219535</v>
       </c>
       <c r="B494" s="0">
-        <v>-3.0538767316748547</v>
+        <v>19.870930505950621</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
-        <v>-20.606967882458875</v>
+        <v>32.180200953995147</v>
       </c>
       <c r="B495" s="0">
-        <v>-3.1186602081189352</v>
+        <v>19.918204169567524</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
-        <v>-20.619306080359927</v>
+        <v>32.217626013573962</v>
       </c>
       <c r="B496" s="0">
-        <v>-3.1834773844928148</v>
+        <v>19.965048942914546</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>-20.631451403418023</v>
+        <v>32.25531013794464</v>
       </c>
       <c r="B497" s="0">
-        <v>-3.2483282455455988</v>
+        <v>20.011455921489773</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>-20.643403876568588</v>
+        <v>32.293260319936287</v>
       </c>
       <c r="B498" s="0">
-        <v>-3.313212779019802</v>
+        <v>20.057415425139112</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>-20.655163518789905</v>
+        <v>32.33148409883772</v>
       </c>
       <c r="B499" s="0">
-        <v>-3.3781309756328892</v>
+        <v>20.102916890721851</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>-20.666730343078587</v>
+        <v>32.369989641933849</v>
       </c>
       <c r="B500" s="0">
-        <v>-3.4430828290591546</v>
+        <v>20.147948742650563</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>-20.678104356424466</v>
+        <v>32.408785843875968</v>
       </c>
       <c r="B501" s="0">
-        <v>-3.5080683359120433</v>
+        <v>20.192498235079857</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>-20.689285559784953</v>
+        <v>32.447882449239557</v>
       </c>
       <c r="B502" s="0">
-        <v>-3.573087495726837</v>
+        <v>20.236551257232971</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>-20.700273948058808</v>
+        <v>32.487290205729231</v>
       </c>
       <c r="B503" s="0">
-        <v>-3.6381403109438648</v>
+        <v>20.280092090008132</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>-20.711069510059321</v>
+        <v>32.527021058650647</v>
       </c>
       <c r="B504" s="0">
-        <v>-3.7032267868919004</v>
+        <v>20.323103096983004</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>-20.721672228486902</v>
+        <v>32.567088402147021</v>
       </c>
       <c r="B505" s="0">
-        <v>-3.7683469317722533</v>
+        <v>20.365564325181204</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>-20.732082079901058</v>
+        <v>32.607507410466653</v>
       </c>
       <c r="B506" s="0">
-        <v>-3.8335007566430441</v>
+        <v>20.407452978615218</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>-20.742299034691751</v>
+        <v>32.648295485371683</v>
       </c>
       <c r="B507" s="0">
-        <v>-3.8986882754039609</v>
+        <v>20.448742707203124</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>-20.752323057050123</v>
+        <v>32.689472877976236</v>
       </c>
       <c r="B508" s="0">
-        <v>-3.9639095047814092</v>
+        <v>20.489402618400597</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>-20.762154104938563</v>
+        <v>32.73106358365434</v>
       </c>
       <c r="B509" s="0">
-        <v>-4.0291644643141336</v>
+        <v>20.529395854744497</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>-20.771792130060145</v>
+        <v>32.773096686930032</v>
       </c>
       <c r="B510" s="0">
-        <v>-4.0944531763391154</v>
+        <v>20.568677456077374</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>-20.781237077827374</v>
+        <v>32.81560849778819</v>
       </c>
       <c r="B511" s="0">
-        <v>-4.1597756659779765</v>
+        <v>20.607190963683383</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>-20.790488887330238</v>
+        <v>32.858646204787036</v>
       </c>
       <c r="B512" s="0">
-        <v>-4.2251319611237825</v>
+        <v>20.644862613228948</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>-20.79954749130361</v>
+        <v>32.902274804194903</v>
       </c>
       <c r="B513" s="0">
-        <v>-4.2905220924281675</v>
+        <v>20.681590319948143</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>-20.808412816093888</v>
+        <v>32.946592507573691</v>
       </c>
       <c r="B514" s="0">
-        <v>-4.3559460932889564</v>
+        <v>20.717219186008446</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>-20.817084781624949</v>
+        <v>32.991776451043691</v>
       </c>
       <c r="B515" s="0">
-        <v>-4.421403999838124</v>
+        <v>20.751468838607757</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>-20.825563301363321</v>
+        <v>33.038432453405846</v>
       </c>
       <c r="B516" s="0">
-        <v>-4.4868958509302503</v>
+        <v>20.783377433830108</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>-20.833848282282688</v>
+        <v>33.086241706893851</v>
       </c>
       <c r="B517" s="0">
-        <v>-4.5524216881312229</v>
+        <v>20.813452642799902</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>-20.841939624827525</v>
+        <v>33.134050960381849</v>
       </c>
       <c r="B518" s="0">
-        <v>-4.617981555707515</v>
+        <v>20.843527851769704</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>-20.849837222876022</v>
+        <v>33.181860213869854</v>
       </c>
       <c r="B519" s="0">
-        <v>-4.6835755006157376</v>
+        <v>20.873603060739502</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
-        <v>-20.85754096370221</v>
+        <v>33.229669467357859</v>
       </c>
       <c r="B520" s="0">
-        <v>-4.7492035724927124</v>
+        <v>20.903678269709307</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
-        <v>-20.865050727937231</v>
+        <v>33.277478720845863</v>
       </c>
       <c r="B521" s="0">
-        <v>-4.8148658236458237</v>
+        <v>20.933753478679108</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>-20.87236638952983</v>
+        <v>33.325287974333868</v>
       </c>
       <c r="B522" s="0">
-        <v>-4.8805623090438974</v>
+        <v>20.963828687648906</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>-20.879487815705978</v>
+        <v>33.373097227821866</v>
       </c>
       <c r="B523" s="0">
-        <v>-4.9462930863083967</v>
+        <v>20.993903896618708</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>-20.886414866927655</v>
+        <v>33.420906481309871</v>
       </c>
       <c r="B524" s="0">
-        <v>-5.0120582157050988</v>
+        <v>21.023979105588506</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
-        <v>-20.893147396850722</v>
+        <v>33.468715734797861</v>
       </c>
       <c r="B525" s="0">
-        <v>-5.0778577601361361</v>
+        <v>21.054054314558307</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>-20.899685252281955</v>
+        <v>33.516524988285866</v>
       </c>
       <c r="B526" s="0">
-        <v>-5.1436917851324528</v>
+        <v>21.084129523528102</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
-        <v>-20.90602827313511</v>
+        <v>33.564334241773871</v>
       </c>
       <c r="B527" s="0">
-        <v>-5.2095603588467112</v>
+        <v>21.114204732497907</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
-        <v>-20.9121762923861</v>
+        <v>33.612143495261869</v>
       </c>
       <c r="B528" s="0">
-        <v>-5.2754635520465367</v>
+        <v>21.144279941467705</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>-20.918129136027225</v>
+        <v>33.65995274874988</v>
       </c>
       <c r="B529" s="0">
-        <v>-5.3414014381082886</v>
+        <v>21.17435515043751</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
-        <v>-20.923886623020412</v>
+        <v>33.707762002237878</v>
       </c>
       <c r="B530" s="0">
-        <v>-5.4073740930111427</v>
+        <v>21.204430359407304</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
-        <v>-20.929448565249498</v>
+        <v>33.755571255725883</v>
       </c>
       <c r="B531" s="0">
-        <v>-5.4733815953316807</v>
+        <v>21.234505568377106</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>-20.934814767471472</v>
+        <v>33.803380509213881</v>
       </c>
       <c r="B532" s="0">
-        <v>-5.5394240262387848</v>
+        <v>21.264580777346904</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
-        <v>-20.939985027266761</v>
+        <v>33.851189762701885</v>
       </c>
       <c r="B533" s="0">
-        <v>-5.6055014694891323</v>
+        <v>21.294655986316705</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
-        <v>-20.944959134988416</v>
+        <v>33.89899901618989</v>
       </c>
       <c r="B534" s="0">
-        <v>-5.671614011422939</v>
+        <v>21.324731195286507</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
-        <v>-20.949736873710229</v>
+        <v>33.946808269677888</v>
       </c>
       <c r="B535" s="0">
-        <v>-5.7377617409602086</v>
+        <v>21.354806404256305</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
-        <v>-20.954318019173812</v>
+        <v>33.994617523165893</v>
       </c>
       <c r="B536" s="0">
-        <v>-5.8039447495974761</v>
+        <v>21.384881613226106</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
-        <v>-20.958702339734536</v>
+        <v>34.042426776653897</v>
       </c>
       <c r="B537" s="0">
-        <v>-5.8701631314048468</v>
+        <v>21.414956822195908</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
-        <v>-20.962889596306344</v>
+        <v>34.090236030141902</v>
       </c>
       <c r="B538" s="0">
-        <v>-5.936416983023566</v>
+        <v>21.445032031165709</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
-        <v>-20.966879542305424</v>
+        <v>34.138045283629893</v>
       </c>
       <c r="B539" s="0">
-        <v>-6.0027064036640176</v>
+        <v>21.475107240135504</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
-        <v>-20.970671923592686</v>
+        <v>34.185854537117898</v>
       </c>
       <c r="B540" s="0">
-        <v>-6.0690314951041548</v>
+        <v>21.505182449105305</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
-        <v>-20.974266478415061</v>
+        <v>34.233663790605902</v>
       </c>
       <c r="B541" s="0">
-        <v>-6.1353923616883357</v>
+        <v>21.535257658075107</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0">
-        <v>-20.977662937345563</v>
+        <v>34.2814730440939</v>
       </c>
       <c r="B542" s="0">
-        <v>-6.2017891103266738</v>
+        <v>21.565332867044908</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0">
-        <v>-20.980861023222115</v>
+        <v>34.329282297581905</v>
       </c>
       <c r="B543" s="0">
-        <v>-6.2682218504948368</v>
+        <v>21.595408076014706</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0">
-        <v>-20.983860451085079</v>
+        <v>34.37709155106991</v>
       </c>
       <c r="B544" s="0">
-        <v>-6.3346906942342098</v>
+        <v>21.625483284984508</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0">
-        <v>-20.986660928113512</v>
+        <v>34.424900804557907</v>
       </c>
       <c r="B545" s="0">
-        <v>-6.4011957561526351</v>
+        <v>21.655558493954306</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0">
-        <v>-20.98926215356007</v>
+        <v>34.472710058045912</v>
       </c>
       <c r="B546" s="0">
-        <v>-6.4677371534255341</v>
+        <v>21.685633702924108</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0">
-        <v>-20.991663818684565</v>
+        <v>34.52051931153391</v>
       </c>
       <c r="B547" s="0">
-        <v>-6.5343150057975636</v>
+        <v>21.715708911893906</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0">
-        <v>-20.993865606686171</v>
+        <v>34.568328565021915</v>
       </c>
       <c r="B548" s="0">
-        <v>-6.6009294355846562</v>
+        <v>21.745784120863703</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0">
-        <v>-20.995867192634147</v>
+        <v>34.61613781850992</v>
       </c>
       <c r="B549" s="0">
-        <v>-6.6675805676766053</v>
+        <v>21.775859329833509</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0">
-        <v>-20.997668243397179</v>
+        <v>34.663947071997924</v>
       </c>
       <c r="B550" s="0">
-        <v>-6.734268529540139</v>
+        <v>21.805934538803307</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0">
-        <v>-20.999268417571241</v>
+        <v>34.711756325485922</v>
       </c>
       <c r="B551" s="0">
-        <v>-6.8009934512224168</v>
+        <v>21.836009747773108</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0">
-        <v>-21.00066736540591</v>
+        <v>34.759565578973927</v>
       </c>
       <c r="B552" s="0">
-        <v>-6.8677554653550983</v>
+        <v>21.86608495674291</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0">
-        <v>-21.001864728729231</v>
+        <v>34.807374832461925</v>
       </c>
       <c r="B553" s="0">
-        <v>-6.9345547071587852</v>
+        <v>21.896160165712708</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
-        <v>-21.00286014087089</v>
+        <v>34.855184085949922</v>
       </c>
       <c r="B554" s="0">
-        <v>-7.0013913144481315</v>
+        <v>21.926235374682506</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0">
-        <v>-21.0036532265839</v>
+        <v>34.902993339437927</v>
       </c>
       <c r="B555" s="0">
-        <v>-7.0682654276373178</v>
+        <v>21.956310583652307</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0">
-        <v>-21.00424360196461</v>
+        <v>34.950802592925932</v>
       </c>
       <c r="B556" s="0">
-        <v>-7.1351771897460923</v>
+        <v>21.986385792622109</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0">
-        <v>-21.004630874371003</v>
+        <v>34.998611846413937</v>
       </c>
       <c r="B557" s="0">
-        <v>-7.2021267464063747</v>
+        <v>22.016461001591907</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0">
-        <v>-21.004814642339355</v>
+        <v>35.046421099901934</v>
       </c>
       <c r="B558" s="0">
-        <v>-7.2691142458692948</v>
+        <v>22.046536210561705</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0">
-        <v>-21.004794495499091</v>
+        <v>35.094230353389939</v>
       </c>
       <c r="B559" s="0">
-        <v>-7.3361398390128567</v>
+        <v>22.07661141953151</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0">
-        <v>-21.004570014485896</v>
+        <v>35.142039606877944</v>
       </c>
       <c r="B560" s="0">
-        <v>-7.4032036793500167</v>
+        <v>22.106686628501308</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
-        <v>-21.004140770852977</v>
+        <v>35.189848860365942</v>
       </c>
       <c r="B561" s="0">
-        <v>-7.470305923037496</v>
+        <v>22.136761837471109</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
-        <v>-21.003506326980478</v>
+        <v>35.237658113853946</v>
       </c>
       <c r="B562" s="0">
-        <v>-7.5374467288849623</v>
+        <v>22.166837046440907</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
-        <v>-21.002666235983</v>
+        <v>35.285467367341944</v>
       </c>
       <c r="B563" s="0">
-        <v>-7.6046262583648581</v>
+        <v>22.196912255410705</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
-        <v>-21.001620041615123</v>
+        <v>35.333276620829949</v>
       </c>
       <c r="B564" s="0">
-        <v>-7.6718446756228094</v>
+        <v>22.22698746438051</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0">
-        <v>-21.000367278175016</v>
+        <v>35.381085874317954</v>
       </c>
       <c r="B565" s="0">
-        <v>-7.7391021474885582</v>
+        <v>22.257062673350308</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0">
-        <v>-20.99890747040595</v>
+        <v>35.428895127805959</v>
       </c>
       <c r="B566" s="0">
-        <v>-7.8063988434875533</v>
+        <v>22.28713788232011</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0">
-        <v>-20.997240133395749</v>
+        <v>35.476704381293956</v>
       </c>
       <c r="B567" s="0">
-        <v>-7.8737349358530375</v>
+        <v>22.317213091289908</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
-        <v>-20.995364772474133</v>
+        <v>35.524513634781954</v>
       </c>
       <c r="B568" s="0">
-        <v>-7.941110599538816</v>
+        <v>22.347288300259709</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0">
-        <v>-20.993280883107833</v>
+        <v>35.572322888269959</v>
       </c>
       <c r="B569" s="0">
-        <v>-8.0085260122326467</v>
+        <v>22.377363509229507</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0">
-        <v>-20.990987950793553</v>
+        <v>35.620132141757956</v>
       </c>
       <c r="B570" s="0">
-        <v>-8.0759813543701533</v>
+        <v>22.407438718199309</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0">
-        <v>-20.988485450948588</v>
+        <v>35.667941395245961</v>
       </c>
       <c r="B571" s="0">
-        <v>-8.1434768091494778</v>
+        <v>22.437513927169107</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0">
-        <v>-20.985772848799133</v>
+        <v>35.715750648733966</v>
       </c>
       <c r="B572" s="0">
-        <v>-8.2110125625465393</v>
+        <v>22.467589136138908</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0">
-        <v>-20.982849599266231</v>
+        <v>35.763559902221964</v>
       </c>
       <c r="B573" s="0">
-        <v>-8.278588803330873</v>
+        <v>22.497664345108706</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0">
-        <v>-20.979715146849255</v>
+        <v>35.811369155709976</v>
       </c>
       <c r="B574" s="0">
-        <v>-8.3462057230822833</v>
+        <v>22.527739554078511</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0">
-        <v>-20.976368925506886</v>
+        <v>35.859178409197973</v>
       </c>
       <c r="B575" s="0">
-        <v>-8.4138635162080071</v>
+        <v>22.557814763048309</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
-        <v>-20.972810358535568</v>
+        <v>35.906987662685971</v>
       </c>
       <c r="B576" s="0">
-        <v>-8.4815623799607049</v>
+        <v>22.587889972018107</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
-        <v>-20.969038858445302</v>
+        <v>35.954796916173976</v>
       </c>
       <c r="B577" s="0">
-        <v>-8.5493025144570147</v>
+        <v>22.617965180987909</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0">
-        <v>-20.965053826832822</v>
+        <v>36.002606169661973</v>
       </c>
       <c r="B578" s="0">
-        <v>-8.6170841226969603</v>
+        <v>22.648040389957707</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0">
-        <v>-20.960854654251939</v>
+        <v>36.050415423149985</v>
       </c>
       <c r="B579" s="0">
-        <v>-8.6849074105839676</v>
+        <v>22.678115598927512</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0">
-        <v>-20.956440720081179</v>
+        <v>36.098224676637983</v>
       </c>
       <c r="B580" s="0">
-        <v>-8.7527725869456567</v>
+        <v>22.708190807897306</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0">
-        <v>-20.951811392388471</v>
+        <v>36.146033930125981</v>
       </c>
       <c r="B581" s="0">
-        <v>-8.8206798635553962</v>
+        <v>22.738266016867112</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0">
-        <v>-20.946966027792897</v>
+        <v>36.193843183613986</v>
       </c>
       <c r="B582" s="0">
-        <v>-8.888629455154641</v>
+        <v>22.76834122583691</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0">
-        <v>-20.941903971323466</v>
+        <v>36.241652437101983</v>
       </c>
       <c r="B583" s="0">
-        <v>-8.9566215794759945</v>
+        <v>22.798416434806711</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0">
-        <v>-20.936624556274758</v>
+        <v>36.289461690589988</v>
       </c>
       <c r="B584" s="0">
-        <v>-9.0246564572670724</v>
+        <v>22.828491643776506</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0">
-        <v>-20.931127104059382</v>
+        <v>36.337270944077986</v>
       </c>
       <c r="B585" s="0">
-        <v>-9.0927343123152706</v>
+        <v>22.858566852746307</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0">
-        <v>-20.925410924057278</v>
+        <v>36.385080197565998</v>
       </c>
       <c r="B586" s="0">
-        <v>-9.1608553714731844</v>
+        <v>22.888642061716112</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0">
-        <v>-20.91947531346155</v>
+        <v>36.432889451053995</v>
       </c>
       <c r="B587" s="0">
-        <v>-9.2290198646850783</v>
+        <v>22.91871727068591</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0">
-        <v>-20.913319557121039</v>
+        <v>36.480698704541993</v>
       </c>
       <c r="B588" s="0">
-        <v>-9.2972280250140482</v>
+        <v>22.948792479655712</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0">
-        <v>-20.906942927379294</v>
+        <v>36.528507958030005</v>
       </c>
       <c r="B589" s="0">
-        <v>-9.3654800886701288</v>
+        <v>22.97886768862551</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0">
-        <v>-20.900344683909971</v>
+        <v>36.576317211518003</v>
       </c>
       <c r="B590" s="0">
-        <v>-9.4337762950393227</v>
+        <v>23.008942897595311</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0">
-        <v>-20.893524073548633</v>
+        <v>36.624126465006007</v>
       </c>
       <c r="B591" s="0">
-        <v>-9.5021168867135124</v>
+        <v>23.039018106565109</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0">
-        <v>-20.886480330120683</v>
+        <v>36.671935718494005</v>
       </c>
       <c r="B592" s="0">
-        <v>-9.5705021095212839</v>
+        <v>23.069093315534911</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0">
-        <v>-20.879212674265506</v>
+        <v>36.71974497198201</v>
       </c>
       <c r="B593" s="0">
-        <v>-9.6389322125597534</v>
+        <v>23.099168524504709</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0">
-        <v>-20.871720313256585</v>
+        <v>36.767554225470015</v>
       </c>
       <c r="B594" s="0">
-        <v>-9.7074074482273716</v>
+        <v>23.12924373347451</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0">
-        <v>-20.864002440817607</v>
+        <v>36.815363478958012</v>
       </c>
       <c r="B595" s="0">
-        <v>-9.7759280722576669</v>
+        <v>23.159318942444308</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0">
-        <v>-20.85605823693437</v>
+        <v>36.863172732446017</v>
       </c>
       <c r="B596" s="0">
-        <v>-9.8444943437540857</v>
+        <v>23.189394151414113</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0">
-        <v>-20.847886867662371</v>
+        <v>36.910981985934015</v>
       </c>
       <c r="B597" s="0">
-        <v>-9.9131065252258317</v>
+        <v>23.219469360383911</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0">
-        <v>-20.839487484930082</v>
+        <v>36.95879123942202</v>
       </c>
       <c r="B598" s="0">
-        <v>-9.9817648826247805</v>
+        <v>23.249544569353709</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0">
-        <v>-20.830859226337637</v>
+        <v>37.006600492910017</v>
       </c>
       <c r="B599" s="0">
-        <v>-10.050469685383465</v>
+        <v>23.279619778323507</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0">
-        <v>-20.822001214950927</v>
+        <v>37.054409746398015</v>
       </c>
       <c r="B600" s="0">
-        <v>-10.11922120645427</v>
+        <v>23.309694987293309</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0">
-        <v>-20.812912559090933</v>
+        <v>37.102218999886027</v>
       </c>
       <c r="B601" s="0">
-        <v>-10.188019722349621</v>
+        <v>23.339770196263114</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0">
-        <v>-20.803592352118162</v>
+        <v>37.150028253374025</v>
       </c>
       <c r="B602" s="0">
-        <v>-10.256865513183518</v>
+        <v>23.369845405232908</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0">
-        <v>-20.794039672212111</v>
+        <v>37.197837506862029</v>
       </c>
       <c r="B603" s="0">
-        <v>-10.325758862714107</v>
+        <v>23.39992061420271</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0">
-        <v>-20.78425358214551</v>
+        <v>37.245646760350034</v>
       </c>
       <c r="B604" s="0">
-        <v>-10.394700058387633</v>
+        <v>23.429995823172511</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0">
-        <v>-20.774233129053361</v>
+        <v>37.293456013838032</v>
       </c>
       <c r="B605" s="0">
-        <v>-10.463689391383459</v>
+        <v>23.460071032142313</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0">
-        <v>-20.763977344196451</v>
+        <v>37.341265267326037</v>
       </c>
       <c r="B606" s="0">
-        <v>-10.532727156660636</v>
+        <v>23.490146241112111</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0">
-        <v>-20.753485242719357</v>
+        <v>37.389074520814034</v>
       </c>
       <c r="B607" s="0">
-        <v>-10.601813653005582</v>
+        <v>23.520221450081909</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0">
-        <v>-20.742755823402653</v>
+        <v>37.436883774302046</v>
       </c>
       <c r="B608" s="0">
-        <v>-10.6709491830812</v>
+        <v>23.55029665905171</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0">
-        <v>-20.731788068409262</v>
+        <v>37.484693027790044</v>
       </c>
       <c r="B609" s="0">
-        <v>-10.740134053477368</v>
+        <v>23.580371868021512</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0">
-        <v>-20.720580943024693</v>
+        <v>37.532502281278042</v>
       </c>
       <c r="B610" s="0">
-        <v>-10.809368574762916</v>
+        <v>23.61044707699131</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0">
-        <v>-20.709133395391099</v>
+        <v>37.580311534766047</v>
       </c>
       <c r="B611" s="0">
-        <v>-10.878653061538968</v>
+        <v>23.640522285961111</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0">
-        <v>-20.697444356234875</v>
+        <v>37.628120788254044</v>
       </c>
       <c r="B612" s="0">
-        <v>-10.947987832493867</v>
+        <v>23.670597494930913</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0">
-        <v>-20.685512738587647</v>
+        <v>37.675930041742049</v>
       </c>
       <c r="B613" s="0">
-        <v>-11.01737321045964</v>
+        <v>23.700672703900711</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0">
-        <v>-20.673337437500557</v>
+        <v>37.723739295230047</v>
       </c>
       <c r="B614" s="0">
-        <v>-11.086809522469991</v>
+        <v>23.730747912870513</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0">
-        <v>-20.660917329751463</v>
+        <v>37.771548548718052</v>
       </c>
       <c r="B615" s="0">
-        <v>-11.156297099819955</v>
+        <v>23.760823121840311</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0">
-        <v>-20.648251273545036</v>
+        <v>37.819357802206056</v>
       </c>
       <c r="B616" s="0">
-        <v>-11.225836278127264</v>
+        <v>23.790898330810112</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0">
-        <v>-20.635338108205399</v>
+        <v>37.867167055694054</v>
       </c>
       <c r="B617" s="0">
-        <v>-11.295427397395356</v>
+        <v>23.82097353977991</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0">
-        <v>-20.622176653861231</v>
+        <v>37.914976309182066</v>
       </c>
       <c r="B618" s="0">
-        <v>-11.365070802078193</v>
+        <v>23.851048748749715</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0">
-        <v>-20.608765711122963</v>
+        <v>37.962785562670064</v>
       </c>
       <c r="B619" s="0">
-        <v>-11.434766841146883</v>
+        <v>23.881123957719513</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0">
-        <v>-20.595104060751972</v>
+        <v>38.010594816158068</v>
       </c>
       <c r="B620" s="0">
-        <v>-11.504515868158146</v>
+        <v>23.911199166689311</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0">
-        <v>-20.581190463321384</v>
+        <v>38.058404069646066</v>
       </c>
       <c r="B621" s="0">
-        <v>-11.574318241324775</v>
+        <v>23.941274375659109</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0">
-        <v>-20.56702365886844</v>
+        <v>38.106213323134071</v>
       </c>
       <c r="B622" s="0">
-        <v>-11.644174323587929</v>
+        <v>23.971349584628911</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0">
-        <v>-20.552602366537943</v>
+        <v>38.154022576622076</v>
       </c>
       <c r="B623" s="0">
-        <v>-11.714084482691607</v>
+        <v>24.001424793598712</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0">
-        <v>-20.537925284216669</v>
+        <v>38.201831830110066</v>
       </c>
       <c r="B624" s="0">
-        <v>-11.784049091259092</v>
+        <v>24.031500002568514</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0">
-        <v>-20.522991088158438</v>
+        <v>38.249641083598071</v>
       </c>
       <c r="B625" s="0">
-        <v>-11.854068526871593</v>
+        <v>24.061575211538308</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0">
-        <v>-20.507798432599479</v>
+        <v>38.297450337086076</v>
       </c>
       <c r="B626" s="0">
-        <v>-11.924143172149151</v>
+        <v>24.091650420508113</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0">
-        <v>-20.492345949363941</v>
+        <v>38.345259590574081</v>
       </c>
       <c r="B627" s="0">
-        <v>-11.994273414833643</v>
+        <v>24.121725629477915</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0">
-        <v>-20.476632247459051</v>
+        <v>38.393068844062078</v>
       </c>
       <c r="B628" s="0">
-        <v>-12.064459647874385</v>
+        <v>24.151800838447713</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0">
-        <v>-20.460655912659789</v>
+        <v>38.440878097550083</v>
       </c>
       <c r="B629" s="0">
-        <v>-12.134702269515939</v>
+        <v>24.181876047417511</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0">
-        <v>-20.44441550708261</v>
+        <v>38.488687351038088</v>
       </c>
       <c r="B630" s="0">
-        <v>-12.205001683388508</v>
+        <v>24.211951256387312</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0">
-        <v>-20.427909568747932</v>
+        <v>38.536496604526086</v>
       </c>
       <c r="B631" s="0">
-        <v>-12.275358298600821</v>
+        <v>24.242026465357114</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0">
-        <v>-20.411136611131017</v>
+        <v>38.584305858014091</v>
       </c>
       <c r="B632" s="0">
-        <v>-12.345772529835793</v>
+        <v>24.272101674326912</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0">
-        <v>-20.394095122700858</v>
+        <v>38.632115111502095</v>
       </c>
       <c r="B633" s="0">
-        <v>-12.416244797448806</v>
+        <v>24.302176883296717</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0">
-        <v>-20.37678356644674</v>
+        <v>38.679924364990093</v>
       </c>
       <c r="B634" s="0">
-        <v>-12.486775527568774</v>
+        <v>24.332252092266511</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0">
-        <v>-20.359200379392</v>
+        <v>38.727733618478098</v>
       </c>
       <c r="B635" s="0">
-        <v>-12.557365152202212</v>
+        <v>24.362327301236313</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0">
-        <v>-20.341343972094631</v>
+        <v>38.775542871966096</v>
       </c>
       <c r="B636" s="0">
-        <v>-12.628014109340199</v>
+        <v>24.392402510206111</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0">
-        <v>-20.323212728134273</v>
+        <v>38.8233521254541</v>
       </c>
       <c r="B637" s="0">
-        <v>-12.69872284306849</v>
+        <v>24.422477719175912</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0">
-        <v>-20.304805003585106</v>
+        <v>38.871161378942098</v>
       </c>
       <c r="B638" s="0">
-        <v>-12.769491803680788</v>
+        <v>24.452552928145714</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0">
-        <v>-20.286119126474283</v>
+        <v>38.918970632430103</v>
       </c>
       <c r="B639" s="0">
-        <v>-12.840321447795279</v>
+        <v>24.482628137115512</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0">
-        <v>-20.267153396225286</v>
+        <v>38.9667798859181</v>
       </c>
       <c r="B640" s="0">
-        <v>-12.911212238474642</v>
+        <v>24.512703346085313</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0">
-        <v>-20.247906083085809</v>
+        <v>39.014589139406105</v>
       </c>
       <c r="B641" s="0">
-        <v>-12.982164645349444</v>
+        <v>24.542778555055115</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0">
-        <v>-20.228375427539564</v>
+        <v>39.06239839289411</v>
       </c>
       <c r="B642" s="0">
-        <v>-13.05317914474529</v>
+        <v>24.572853764024917</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0">
-        <v>-20.208559639701534</v>
+        <v>39.110207646382108</v>
       </c>
       <c r="B643" s="0">
-        <v>-13.124256219813606</v>
+        <v>24.602928972994711</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0">
-        <v>-20.188456898696003</v>
+        <v>39.158016899870113</v>
       </c>
       <c r="B644" s="0">
-        <v>-13.1953963606664</v>
+        <v>24.633004181964512</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0">
-        <v>-20.168065352016956</v>
+        <v>39.205826153358117</v>
       </c>
       <c r="B645" s="0">
-        <v>-13.266600064514899</v>
+        <v>24.663079390934314</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0">
-        <v>-20.147383114869957</v>
+        <v>39.253635406846122</v>
       </c>
       <c r="B646" s="0">
-        <v>-13.337867835812446</v>
+        <v>24.693154599904116</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0">
-        <v>-20.126408269495155</v>
+        <v>39.30144466033412</v>
       </c>
       <c r="B647" s="0">
-        <v>-13.40920018640159</v>
+        <v>24.72322980887391</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0">
-        <v>-20.10513886447054</v>
+        <v>39.349253913822125</v>
       </c>
       <c r="B648" s="0">
-        <v>-13.480597635665656</v>
+        <v>24.753305017843715</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0">
-        <v>-20.083572913994828</v>
+        <v>39.397063167310129</v>
       </c>
       <c r="B649" s="0">
-        <v>-13.552060710684879</v>
+        <v>24.783380226813513</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0">
-        <v>-20.061708397149307</v>
+        <v>39.444872420798127</v>
       </c>
       <c r="B650" s="0">
-        <v>-13.623589946397262</v>
+        <v>24.813455435783315</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0">
-        <v>-20.039543257137712</v>
+        <v>39.492681674286132</v>
       </c>
       <c r="B651" s="0">
-        <v>-13.695185885764392</v>
+        <v>24.843530644753113</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0">
-        <v>-20.0170754005036</v>
+        <v>39.540490927774123</v>
       </c>
       <c r="B652" s="0">
-        <v>-13.766849079942316</v>
+        <v>24.873605853722911</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0">
-        <v>-19.994302696324109</v>
+        <v>39.588300181262127</v>
       </c>
       <c r="B653" s="0">
-        <v>-13.83858008845767</v>
+        <v>24.903681062692716</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0">
-        <v>-19.971222975379508</v>
+        <v>39.636109434750132</v>
       </c>
       <c r="B654" s="0">
-        <v>-13.910379479389285</v>
+        <v>24.933756271662514</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0">
-        <v>-19.947834029297411</v>
+        <v>39.683918688238137</v>
       </c>
       <c r="B655" s="0">
-        <v>-13.982247829555506</v>
+        <v>24.963831480632319</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0">
-        <v>-19.924133609670939</v>
+        <v>39.731727941726142</v>
       </c>
       <c r="B656" s="0">
-        <v>-14.054185724707274</v>
+        <v>24.993906689602113</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0">
-        <v>-19.90011942714964</v>
+        <v>39.779537195214139</v>
       </c>
       <c r="B657" s="0">
-        <v>-14.126193759727357</v>
+        <v>25.023981898571915</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0">
-        <v>-19.875789150502285</v>
+        <v>39.827346448702144</v>
       </c>
       <c r="B658" s="0">
-        <v>-14.198272538835941</v>
+        <v>25.054057107541713</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0">
-        <v>-19.851140405650483</v>
+        <v>39.875155702190142</v>
       </c>
       <c r="B659" s="0">
-        <v>-14.2704226758026</v>
+        <v>25.084132316511514</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0">
-        <v>-19.826170774671819</v>
+        <v>39.922964955678147</v>
       </c>
       <c r="B660" s="0">
-        <v>-14.34264479416529</v>
+        <v>25.114207525481316</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0">
-        <v>-19.800877794771605</v>
+        <v>39.970774209166152</v>
       </c>
       <c r="B661" s="0">
-        <v>-14.414939527456246</v>
+        <v>25.144282734451114</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0">
-        <v>-19.775258957221833</v>
+        <v>40.018583462654149</v>
       </c>
       <c r="B662" s="0">
-        <v>-14.487307519435216</v>
+        <v>25.174357943420912</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0">
-        <v>-19.749311706266077</v>
+        <v>40.066392716142161</v>
       </c>
       <c r="B663" s="0">
-        <v>-14.559749424330397</v>
+        <v>25.204433152390717</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0">
-        <v>-19.723033437989155</v>
+        <v>40.114201969630159</v>
       </c>
       <c r="B664" s="0">
-        <v>-14.632265907087163</v>
+        <v>25.234508361360518</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0">
-        <v>-19.696421499149903</v>
+        <v>40.162011223118157</v>
       </c>
       <c r="B665" s="0">
-        <v>-14.704857643625093</v>
+        <v>25.264583570330313</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0">
-        <v>-19.669473185975818</v>
+        <v>40.209820476606154</v>
       </c>
       <c r="B666" s="0">
-        <v>-14.777525321103568</v>
+        <v>25.294658779300114</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0">
-        <v>-19.642185742917949</v>
+        <v>40.257629730094159</v>
       </c>
       <c r="B667" s="0">
-        <v>-14.850269638196114</v>
+        <v>25.324733988269916</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0">
-        <v>-19.61455636136434</v>
+        <v>40.305438983582164</v>
       </c>
       <c r="B668" s="0">
-        <v>-14.92309130537417</v>
+        <v>25.354809197239717</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0">
-        <v>-19.586582178310525</v>
+        <v>40.353248237070162</v>
       </c>
       <c r="B669" s="0">
-        <v>-14.995991045200363</v>
+        <v>25.384884406209515</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0">
-        <v>-19.558260274985152</v>
+        <v>40.401057490558166</v>
       </c>
       <c r="B670" s="0">
-        <v>-15.068969592631811</v>
+        <v>25.414959615179313</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0">
-        <v>-19.529587675428896</v>
+        <v>40.448866744046171</v>
       </c>
       <c r="B671" s="0">
-        <v>-15.142027695333864</v>
+        <v>25.445034824149115</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0">
-        <v>-19.500561345024824</v>
+        <v>40.496675997534169</v>
       </c>
       <c r="B672" s="0">
-        <v>-15.215166114004736</v>
+        <v>25.475110033118916</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0">
-        <v>-19.471178188977987</v>
+        <v>40.544485251022174</v>
       </c>
       <c r="B673" s="0">
-        <v>-15.288385622711417</v>
+        <v>25.505185242088714</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0">
-        <v>-19.441435050742317</v>
+        <v>40.592294504510171</v>
       </c>
       <c r="B674" s="0">
-        <v>-15.361687009237327</v>
+        <v>25.535260451058512</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0">
-        <v>-19.411328710392294</v>
+        <v>40.640103757998183</v>
       </c>
       <c r="B675" s="0">
-        <v>-15.4350710754424</v>
+        <v>25.565335660028314</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0">
-        <v>-19.380855882937283</v>
+        <v>40.687913011486181</v>
       </c>
       <c r="B676" s="0">
-        <v>-15.508538637635869</v>
+        <v>25.595410868998115</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0">
-        <v>-19.350013216575896</v>
+        <v>40.735722264974179</v>
       </c>
       <c r="B677" s="0">
-        <v>-15.582090526962439</v>
+        <v>25.625486077967917</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0">
-        <v>-19.318797290887737</v>
+        <v>40.78353151846219</v>
       </c>
       <c r="B678" s="0">
-        <v>-15.655727589802483</v>
+        <v>25.655561286937719</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0">
-        <v>-19.287204614959833</v>
+        <v>40.831340771950188</v>
       </c>
       <c r="B679" s="0">
-        <v>-15.729450688186812</v>
+        <v>25.685636495907517</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0">
-        <v>-19.255231625444893</v>
+        <v>40.879150025438186</v>
       </c>
       <c r="B680" s="0">
-        <v>-15.803260700226522</v>
+        <v>25.715711704877315</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0">
-        <v>-19.222874684548152</v>
+        <v>40.926959278926184</v>
       </c>
       <c r="B681" s="0">
-        <v>-15.877158520558973</v>
+        <v>25.745786913847116</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0">
-        <v>-19.19013007793977</v>
+        <v>40.974768532414188</v>
       </c>
       <c r="B682" s="0">
-        <v>-15.951145060810207</v>
+        <v>25.775862122816918</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0">
-        <v>-19.156994012589312</v>
+        <v>41.022577785902193</v>
       </c>
       <c r="B683" s="0">
-        <v>-16.025221250074779</v>
+        <v>25.805937331786716</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0">
-        <v>-19.12346261451864</v>
+        <v>41.070387039390191</v>
       </c>
       <c r="B684" s="0">
-        <v>-16.099388035413828</v>
+        <v>25.836012540756514</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0">
-        <v>-19.089531926469565</v>
+        <v>41.118196292878203</v>
       </c>
       <c r="B685" s="0">
-        <v>-16.173646382372123</v>
+        <v>25.866087749726319</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0">
-        <v>-19.05519790548222</v>
+        <v>41.1660055463662</v>
       </c>
       <c r="B686" s="0">
-        <v>-16.247997275514976</v>
+        <v>25.896162958696117</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0">
-        <v>-19.020456420379936</v>
+        <v>41.213814799854205</v>
       </c>
       <c r="B687" s="0">
-        <v>-16.322441718985989</v>
+        <v>25.926238167665918</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0">
-        <v>-18.9853032491561</v>
+        <v>41.261624053342203</v>
       </c>
       <c r="B688" s="0">
-        <v>-16.396980737086778</v>
+        <v>25.956313376635713</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0">
-        <v>-18.949734076258405</v>
+        <v>41.309433306830201</v>
       </c>
       <c r="B689" s="0">
-        <v>-16.471615374879391</v>
+        <v>25.986388585605514</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0">
-        <v>-18.913744489765485</v>
+        <v>41.357242560318213</v>
       </c>
       <c r="B690" s="0">
-        <v>-16.546346698812773</v>
+        <v>26.016463794575319</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0">
-        <v>-18.877329978450586</v>
+        <v>41.40505181380621</v>
       </c>
       <c r="B691" s="0">
-        <v>-16.621175797374452</v>
+        <v>26.046539003545117</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0">
-        <v>-18.8404859287268</v>
+        <v>41.452861067294215</v>
       </c>
       <c r="B692" s="0">
-        <v>-16.696103781768564</v>
+        <v>26.076614212514915</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0">
-        <v>-18.803207621467934</v>
+        <v>41.50067032078222</v>
       </c>
       <c r="B693" s="0">
-        <v>-16.771131786621545</v>
+        <v>26.106689421484717</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0">
-        <v>-18.765490228698688</v>
+        <v>41.548479574270218</v>
       </c>
       <c r="B694" s="0">
-        <v>-16.846260970717033</v>
+        <v>26.136764630454518</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0">
-        <v>-18.727328810147664</v>
+        <v>41.596288827758215</v>
       </c>
       <c r="B695" s="0">
-        <v>-16.921492517761269</v>
+        <v>26.166839839424316</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0">
-        <v>-18.688718309656</v>
+        <v>41.644098081246213</v>
       </c>
       <c r="B696" s="0">
-        <v>-16.996827637180644</v>
+        <v>26.196915048394118</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0">
-        <v>-18.649653551434298</v>
+        <v>41.691907334734225</v>
       </c>
       <c r="B697" s="0">
-        <v>-17.072267564953098</v>
+        <v>26.226990257363916</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0">
-        <v>-18.610129236159921</v>
+        <v>41.739716588222223</v>
       </c>
       <c r="B698" s="0">
-        <v>-17.14781356447499</v>
+        <v>26.257065466333717</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0">
-        <v>-18.570139936906099</v>
+        <v>41.787525841710227</v>
       </c>
       <c r="B699" s="0">
-        <v>-17.223466927465484</v>
+        <v>26.287140675303515</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0">
-        <v>-18.529680094894076</v>
+        <v>41.835335095198232</v>
       </c>
       <c r="B700" s="0">
-        <v>-17.29922897491037</v>
+        <v>26.31721588427332</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0">
-        <v>-18.488744015058696</v>
+        <v>41.88314434868623</v>
       </c>
       <c r="B701" s="0">
-        <v>-17.375101058047353</v>
+        <v>26.347291093243115</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0">
-        <v>-18.447325861417252</v>
+        <v>41.930953602174235</v>
       </c>
       <c r="B702" s="0">
-        <v>-17.451084559395223</v>
+        <v>26.377366302212916</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0">
-        <v>-18.405419652230975</v>
+        <v>41.978762855662232</v>
       </c>
       <c r="B703" s="0">
-        <v>-17.527180893829154</v>
+        <v>26.407441511182718</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0">
-        <v>-18.363019254947442</v>
+        <v>42.026572109150244</v>
       </c>
       <c r="B704" s="0">
-        <v>-17.603391509704821</v>
+        <v>26.437516720152519</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0">
-        <v>-18.320118380911875</v>
+        <v>42.074381362638242</v>
       </c>
       <c r="B705" s="0">
-        <v>-17.679717890033938</v>
+        <v>26.467591929122321</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0">
-        <v>-18.276710579834035</v>
+        <v>42.12219061612624</v>
       </c>
       <c r="B706" s="0">
-        <v>-17.756161553714286</v>
+        <v>26.497667138092115</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0">
-        <v>-18.232789233996986</v>
+        <v>42.169999869614244</v>
       </c>
       <c r="B707" s="0">
-        <v>-17.832724056817124</v>
+        <v>26.527742347061917</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0">
-        <v>-18.188347552192614</v>
+        <v>42.217809123102242</v>
       </c>
       <c r="B708" s="0">
-        <v>-17.909406993935512</v>
+        <v>26.557817556031718</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0">
-        <v>-18.143378563368039</v>
+        <v>42.265618376590247</v>
       </c>
       <c r="B709" s="0">
-        <v>-17.986211999596961</v>
+        <v>26.58789276500152</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0">
-        <v>-18.097875109965926</v>
+        <v>42.313427630078245</v>
       </c>
       <c r="B710" s="0">
-        <v>-18.063140749744218</v>
+        <v>26.617967973971314</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0">
-        <v>-18.051829840940268</v>
+        <v>42.361236883566249</v>
       </c>
       <c r="B711" s="0">
-        <v>-18.140194963288373</v>
+        <v>26.648043182941116</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0">
-        <v>-18.005235204428228</v>
+        <v>42.409046137054254</v>
       </c>
       <c r="B712" s="0">
-        <v>-18.217376403738481</v>
+        <v>26.678118391910917</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0">
-        <v>-17.958083440057031</v>
+        <v>42.456855390542252</v>
       </c>
       <c r="B713" s="0">
-        <v>-18.294686880912401</v>
+        <v>26.708193600880719</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0">
-        <v>-17.910366570863285</v>
+        <v>42.504664644030257</v>
       </c>
       <c r="B714" s="0">
-        <v>-18.372128252733969</v>
+        <v>26.738268809850517</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0">
-        <v>-17.862076394800706</v>
+        <v>42.552473897518261</v>
       </c>
       <c r="B715" s="0">
-        <v>-18.449702427121821</v>
+        <v>26.768344018820319</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0">
-        <v>-17.813204475810199</v>
+        <v>42.600283151006266</v>
       </c>
       <c r="B716" s="0">
-        <v>-18.527411363975542</v>
+        <v>26.79841922779012</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0">
-        <v>-17.763742134424316</v>
+        <v>42.648092404494264</v>
       </c>
       <c r="B717" s="0">
-        <v>-18.60525707726557</v>
+        <v>26.828494436759918</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0">
-        <v>-17.7136804378761</v>
+        <v>42.695901657982269</v>
       </c>
       <c r="B718" s="0">
-        <v>-18.683241637233348</v>
+        <v>26.85856964572972</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0">
-        <v>-17.66301018967987</v>
+        <v>42.743710911470274</v>
       </c>
       <c r="B719" s="0">
-        <v>-18.76136717270909</v>
+        <v>26.888644854699518</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0">
-        <v>-17.611721918648929</v>
+        <v>42.791520164958271</v>
       </c>
       <c r="B720" s="0">
-        <v>-18.839635873554816</v>
+        <v>26.918720063669319</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0">
-        <v>-17.559805867312669</v>
+        <v>42.839329418446276</v>
       </c>
       <c r="B721" s="0">
-        <v>-18.918049993241112</v>
+        <v>26.948795272639117</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0">
-        <v>-17.507251979692114</v>
+        <v>42.887138671934281</v>
       </c>
       <c r="B722" s="0">
-        <v>-18.99661185156673</v>
+        <v>26.978870481608922</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0">
-        <v>-17.454049888389982</v>
+        <v>42.934947925422271</v>
       </c>
       <c r="B723" s="0">
-        <v>-19.075323837530721</v>
+        <v>27.00894569057872</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0">
-        <v>-17.400188900947636</v>
+        <v>42.982757178910276</v>
       </c>
       <c r="B724" s="0">
-        <v>-19.154188412367734</v>
+        <v>27.039020899548518</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0">
-        <v>-17.345657985417066</v>
+        <v>43.030566432398274</v>
       </c>
       <c r="B725" s="0">
-        <v>-19.23320811275812</v>
+        <v>27.069096108518316</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0">
-        <v>-17.290445755092154</v>
+        <v>43.078375685886279</v>
       </c>
       <c r="B726" s="0">
-        <v>-19.312385554225106</v>
+        <v>27.099171317488118</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0">
-        <v>-17.234540452338219</v>
+        <v>43.126184939374284</v>
       </c>
       <c r="B727" s="0">
-        <v>-19.391723434732604</v>
+        <v>27.129246526457919</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0">
-        <v>-17.177929931453814</v>
+        <v>43.173994192862288</v>
       </c>
       <c r="B728" s="0">
-        <v>-19.471224538498628</v>
+        <v>27.159321735427717</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0">
-        <v>-17.120601640492993</v>
+        <v>43.221803446350286</v>
       </c>
       <c r="B729" s="0">
-        <v>-19.550891740039866</v>
+        <v>27.189396944397519</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0">
-        <v>-17.062542601969543</v>
+        <v>43.269612699838291</v>
       </c>
       <c r="B730" s="0">
-        <v>-19.630728008465244</v>
+        <v>27.21947215336732</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0">
-        <v>-17.003739392358057</v>
+        <v>43.317421953326296</v>
       </c>
       <c r="B731" s="0">
-        <v>-19.710736412037221</v>
+        <v>27.249547362337122</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0">
-        <v>-16.944178120298481</v>
+        <v>43.365231206814293</v>
       </c>
       <c r="B732" s="0">
-        <v>-19.79092012302165</v>
+        <v>27.27962257130692</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0">
-        <v>-16.883844403402307</v>
+        <v>43.413040460302298</v>
       </c>
       <c r="B733" s="0">
-        <v>-19.871282422848971</v>
+        <v>27.309697780276718</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0">
-        <v>-16.822723343549089</v>
+        <v>43.460849713790303</v>
       </c>
       <c r="B734" s="0">
-        <v>-19.951826707611254</v>
+        <v>27.339772989246519</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0">
-        <v>-16.760799500550956</v>
+        <v>43.508658967278308</v>
       </c>
       <c r="B735" s="0">
-        <v>-20.032556493922627</v>
+        <v>27.369848198216321</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0">
-        <v>-16.698056864051274</v>
+        <v>43.556468220766305</v>
       </c>
       <c r="B736" s="0">
-        <v>-20.11347542517268</v>
+        <v>27.399923407186119</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0">
-        <v>-16.634478823510261</v>
+        <v>43.604277474254303</v>
       </c>
       <c r="B737" s="0">
-        <v>-20.194587278205582</v>
+        <v>27.42999861615592</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0">
-        <v>-16.570048136115364</v>
+        <v>43.652086727742308</v>
       </c>
       <c r="B738" s="0">
-        <v>-20.275895970461267</v>
+        <v>27.460073825125718</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0">
-        <v>-16.504746892438494</v>
+        <v>43.699895981230306</v>
       </c>
       <c r="B739" s="0">
-        <v>-20.357405567617835</v>
+        <v>27.49014903409552</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0">
-        <v>-16.438556479642614</v>
+        <v>43.74770523471831</v>
       </c>
       <c r="B740" s="0">
-        <v>-20.439120291779641</v>
+        <v>27.520224243065318</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0">
-        <v>-16.371457542020611</v>
+        <v>43.795514488206315</v>
       </c>
       <c r="B741" s="0">
-        <v>-20.521044530258983</v>
+        <v>27.550299452035123</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0">
-        <v>-16.303429938625545</v>
+        <v>43.843323741694313</v>
       </c>
       <c r="B742" s="0">
-        <v>-20.603182845005183</v>
+        <v>27.580374661004921</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0">
-        <v>-16.234452697725313</v>
+        <v>43.891132995182318</v>
       </c>
       <c r="B743" s="0">
-        <v>-20.685539982740433</v>
+        <v>27.610449869974719</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0">
-        <v>-16.164503967785361</v>
+        <v>43.938942248670315</v>
       </c>
       <c r="B744" s="0">
-        <v>-20.768120885868466</v>
+        <v>27.64052507894452</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0">
-        <v>-16.093560964649907</v>
+        <v>43.986751502158327</v>
       </c>
       <c r="B745" s="0">
-        <v>-20.850930704229171</v>
+        <v>27.670600287914322</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0">
-        <v>-16.021599914554294</v>
+        <v>44.034560755646325</v>
       </c>
       <c r="B746" s="0">
-        <v>-20.933974807781105</v>
+        <v>27.70067549688412</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0">
-        <v>-15.948595992558086</v>
+        <v>44.08237000913433</v>
       </c>
       <c r="B747" s="0">
-        <v>-21.01725880030326</v>
+        <v>27.730750705853918</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0">
-        <v>-15.874523255940778</v>
+        <v>44.130179262622327</v>
       </c>
       <c r="B748" s="0">
-        <v>-21.100788534217845</v>
+        <v>27.76082591482372</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0">
-        <v>-15.799354572045534</v>
+        <v>44.177988516110332</v>
       </c>
       <c r="B749" s="0">
-        <v>-21.184570126648818</v>
+        <v>27.790901123793521</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0">
-        <v>-15.723061539993976</v>
+        <v>44.225797769598337</v>
       </c>
       <c r="B750" s="0">
-        <v>-21.268609976844473</v>
+        <v>27.820976332763323</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0">
-        <v>-15.645614405622233</v>
+        <v>44.273607023086328</v>
       </c>
       <c r="B751" s="0">
-        <v>-21.352914785108727</v>
+        <v>27.851051541733117</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0">
-        <v>-15.56698196890564</v>
+        <v>44.32141627657434</v>
       </c>
       <c r="B752" s="0">
-        <v>-21.437491573404124</v>
+        <v>27.881126750702922</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0">
-        <v>-15.487131483043465</v>
+        <v>44.369225530062337</v>
       </c>
       <c r="B753" s="0">
-        <v>-21.522347707811104</v>
+        <v>27.91120195967272</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0">
-        <v>-15.406028544265599</v>
+        <v>44.417034783550335</v>
       </c>
       <c r="B754" s="0">
-        <v>-21.607490923052087</v>
+        <v>27.941277168642522</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0">
-        <v>-15.323636971294587</v>
+        <v>44.46484403703834</v>
       </c>
       <c r="B755" s="0">
-        <v>-21.692929349317939</v>
+        <v>27.97135237761232</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0">
-        <v>-15.239918673249058</v>
+        <v>44.512653290526345</v>
       </c>
       <c r="B756" s="0">
-        <v>-21.778671541667002</v>
+        <v>28.001427586582121</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0">
-        <v>-15.154833504602186</v>
+        <v>44.560462544014349</v>
       </c>
       <c r="B757" s="0">
-        <v>-21.864726512305129</v>
+        <v>28.031502795551923</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0">
-        <v>-15.06833910560759</v>
+        <v>44.608271797502347</v>
       </c>
       <c r="B758" s="0">
-        <v>-21.951103766100093</v>
+        <v>28.061578004521721</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0">
-        <v>-14.980390726369734</v>
+        <v>44.656081050990352</v>
       </c>
       <c r="B759" s="0">
-        <v>-22.037813339736125</v>
+        <v>28.091653213491522</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0">
-        <v>-14.890941032458707</v>
+        <v>44.703890304478357</v>
       </c>
       <c r="B760" s="0">
-        <v>-22.124865844976043</v>
+        <v>28.12172842246132</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0">
-        <v>-14.799939889643335</v>
+        <v>44.751699557966354</v>
       </c>
       <c r="B761" s="0">
-        <v>-22.212272516570703</v>
+        <v>28.151803631431122</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0">
-        <v>-14.707334124929378</v>
+        <v>44.799508811454359</v>
       </c>
       <c r="B762" s="0">
-        <v>-22.300045265442151</v>
+        <v>28.18187884040092</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0">
-        <v>-14.613067260630496</v>
+        <v>44.847318064942357</v>
       </c>
       <c r="B763" s="0">
-        <v>-22.388196737868551</v>
+        <v>28.211954049370721</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0">
-        <v>-14.517079217651034</v>
+        <v>44.895127318430369</v>
       </c>
       <c r="B764" s="0">
-        <v>-22.476740381521417</v>
+        <v>28.242029258340519</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0">
-        <v>-14.419305983502619</v>
+        <v>44.942936571918359</v>
       </c>
       <c r="B765" s="0">
-        <v>-22.56569051935179</v>
+        <v>28.272104467310321</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0">
-        <v>-14.31967923978541</v>
+        <v>44.990745825406357</v>
       </c>
       <c r="B766" s="0">
-        <v>-22.655062432497903</v>
+        <v>28.302179676280119</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0">
-        <v>-14.218125942906941</v>
+        <v>45.038555078894369</v>
       </c>
       <c r="B767" s="0">
-        <v>-22.744872453600426</v>
+        <v>28.332254885249924</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0">
-        <v>-14.114567850648417</v>
+        <v>45.086364332382367</v>
       </c>
       <c r="B768" s="0">
-        <v>-22.835138072169997</v>
+        <v>28.362330094219725</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0">
-        <v>-14.008920985765688</v>
+        <v>45.134173585870371</v>
       </c>
       <c r="B769" s="0">
-        <v>-22.925878053968276</v>
+        <v>28.39240530318952</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0">
-        <v>-13.901095026063832</v>
+        <v>45.181982839358369</v>
       </c>
       <c r="B770" s="0">
-        <v>-23.017112576753266</v>
+        <v>28.422480512159321</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0">
-        <v>-13.790992608223748</v>
+        <v>45.229792092846374</v>
       </c>
       <c r="B771" s="0">
-        <v>-23.108863385220012</v>
+        <v>28.452555721129123</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0">
-        <v>-13.678508529970989</v>
+        <v>45.277601346334379</v>
       </c>
       <c r="B772" s="0">
-        <v>-23.201153968566384</v>
+        <v>28.482630930098924</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0">
-        <v>-13.563528831811549</v>
+        <v>45.325410599822376</v>
       </c>
       <c r="B773" s="0">
-        <v>-23.294009764862572</v>
+        <v>28.512706139068719</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0">
-        <v>-13.445929735315126</v>
+        <v>45.373219853310381</v>
       </c>
       <c r="B774" s="0">
-        <v>-23.387458397347547</v>
+        <v>28.54278134803852</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0">
-        <v>-13.325576409535545</v>
+        <v>45.421029106798386</v>
       </c>
       <c r="B775" s="0">
-        <v>-23.481529948975556</v>
+        <v>28.572856557008322</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0">
-        <v>-13.202321530254816</v>
+        <v>45.468838360286391</v>
       </c>
       <c r="B776" s="0">
-        <v>-23.57625728307195</v>
+        <v>28.602931765978123</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0">
-        <v>-13.076003587821958</v>
+        <v>45.516647613774389</v>
       </c>
       <c r="B777" s="0">
-        <v>-23.671676419942081</v>
+        <v>28.633006974947921</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0">
-        <v>-12.946444887739238</v>
+        <v>45.564456867262393</v>
       </c>
       <c r="B778" s="0">
-        <v>-23.767826981862711</v>
+        <v>28.663082183917723</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0">
-        <v>-12.81344917285911</v>
+        <v>45.612266120750391</v>
       </c>
       <c r="B779" s="0">
-        <v>-23.864752722288102</v>
+        <v>28.693157392887525</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0">
-        <v>-12.676798775717806</v>
+        <v>45.660075374238389</v>
       </c>
       <c r="B780" s="0">
-        <v>-23.962502159629448</v>
+        <v>28.723232601857323</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0">
-        <v>-12.53625118217618</v>
+        <v>45.707884627726393</v>
       </c>
       <c r="B781" s="0">
-        <v>-24.061129342054429</v>
+        <v>28.753307810827124</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0">
-        <v>-12.391534850280184</v>
+        <v>45.755693881214398</v>
       </c>
       <c r="B782" s="0">
-        <v>-24.160694778045858</v>
+        <v>28.783383019796922</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0">
-        <v>-12.242344076824185</v>
+        <v>45.803503134702396</v>
       </c>
       <c r="B783" s="0">
-        <v>-24.261266578904682</v>
+        <v>28.813458228766724</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0">
-        <v>-12.088332632062484</v>
+        <v>45.851312388190401</v>
       </c>
       <c r="B784" s="0">
-        <v>-24.362921875415235</v>
+        <v>28.843533437736522</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0">
-        <v>-11.929105780470767</v>
+        <v>45.899121641678398</v>
       </c>
       <c r="B785" s="0">
-        <v>-24.465748593713005</v>
+        <v>28.873608646706323</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0">
-        <v>-11.764210156887934</v>
+        <v>45.94693089516641</v>
       </c>
       <c r="B786" s="0">
-        <v>-24.569847708461243</v>
+        <v>28.903683855676125</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0">
-        <v>-11.59312074784191</v>
+        <v>45.994740148654408</v>
       </c>
       <c r="B787" s="0">
-        <v>-24.67533614030107</v>
+        <v>28.933759064645923</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0">
-        <v>-11.415223896337851</v>
+        <v>46.042549402142413</v>
       </c>
       <c r="B788" s="0">
-        <v>-24.782350538324035</v>
+        <v>28.963834273615721</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0">
-        <v>-11.229794735314561</v>
+        <v>46.090358655630418</v>
       </c>
       <c r="B789" s="0">
-        <v>-24.891052302506417</v>
+        <v>28.993909482585526</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0">
-        <v>-11.035966638696971</v>
+        <v>46.138167909118415</v>
       </c>
       <c r="B790" s="0">
-        <v>-25.001634382715999</v>
+        <v>29.023984691555324</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0">
-        <v>-10.832688938806836</v>
+        <v>46.18597716260642</v>
       </c>
       <c r="B791" s="0">
-        <v>-25.114330689171009</v>
+        <v>29.054059900525122</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0">
-        <v>-10.618666877599169</v>
+        <v>46.233786416094418</v>
       </c>
       <c r="B792" s="0">
-        <v>-25.229429456958059</v>
+        <v>29.08413510949492</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0">
-        <v>-10.392273709142119</v>
+        <v>46.281595669582423</v>
       </c>
       <c r="B793" s="0">
-        <v>-25.34729280859975</v>
+        <v>29.114210318464725</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0">
-        <v>-10.15141731544459</v>
+        <v>46.32940492307042</v>
       </c>
       <c r="B794" s="0">
-        <v>-25.468386440181092</v>
+        <v>29.144285527434526</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0">
-        <v>-9.8933287416809605</v>
+        <v>46.377214176558418</v>
       </c>
       <c r="B795" s="0">
-        <v>-25.593326685179896</v>
+        <v>29.174360736404324</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0">
-        <v>-9.6142082225564298</v>
+        <v>46.425023430046423</v>
       </c>
       <c r="B796" s="0">
-        <v>-25.72295929522415</v>
+        <v>29.204435945374122</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0">
-        <v>-9.3085900481976793</v>
+        <v>46.472832683534428</v>
       </c>
       <c r="B797" s="0">
-        <v>-25.85850079623059</v>
+        <v>29.234511154343924</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0">
-        <v>-8.9680927824470498</v>
+        <v>46.520641937022432</v>
       </c>
       <c r="B798" s="0">
-        <v>-26.001816641181659</v>
+        <v>29.264586363313725</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0">
-        <v>-8.578619728860863</v>
+        <v>46.56845119051043</v>
       </c>
       <c r="B799" s="0">
-        <v>-26.156044277460445</v>
+        <v>29.294661572283523</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0">
-        <v>-8.112709082367104</v>
+        <v>46.616260443998435</v>
       </c>
       <c r="B800" s="0">
-        <v>-26.327295705425708</v>
+        <v>29.324736781253321</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0">
-        <v>-7.4995291232169876</v>
+        <v>46.66406969748644</v>
       </c>
       <c r="B801" s="0">
-        <v>-26.531335380710861</v>
+        <v>29.354811990223123</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0">
-        <v>-5.9944365361729695</v>
+        <v>46.711878950974437</v>
       </c>
       <c r="B802" s="0">
-        <v>-26.933892001040995</v>
+        <v>29.384887199192924</v>
       </c>
     </row>
   </sheetData>

--- a/pulley.xlsx
+++ b/pulley.xlsx
@@ -13,7 +13,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -933,7 +963,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="151">
+  <borders count="156">
     <border>
       <left/>
       <right/>
@@ -1091,11 +1121,16 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1247,6 +1282,11 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1259,16 +1299,16 @@
   <dimension ref="A1:B802"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
@@ -1281,4922 +1321,4922 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>10.016727796975379</v>
+        <v>10.00521849299013</v>
       </c>
       <c r="B3" s="0">
-        <v>0.34283022506273064</v>
+        <v>0.2675990032385992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>10.021837953345303</v>
+        <v>10.003308764713262</v>
       </c>
       <c r="B4" s="0">
-        <v>0.68448634643180295</v>
+        <v>0.53477205497769642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>10.015507285876833</v>
+        <v>9.9943159359854317</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0245884078460654</v>
+        <v>0.80133151292864169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>9.9979226832421677</v>
+        <v>9.9782898232500941</v>
       </c>
       <c r="B6" s="0">
-        <v>1.3627694500424739</v>
+        <v>1.067092315135592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>9.9692804002606454</v>
+        <v>9.9552848227483004</v>
       </c>
       <c r="B7" s="0">
-        <v>1.6986755687539508</v>
+        <v>1.3318720819247067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>9.9297853701355514</v>
+        <v>9.9253597932933779</v>
       </c>
       <c r="B8" s="0">
-        <v>2.031965944725008</v>
+        <v>1.5954912134342765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>9.8796505351629929</v>
+        <v>9.888577937793773</v>
       </c>
       <c r="B9" s="0">
-        <v>2.3623128473688277</v>
+        <v>1.8577729827481375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>9.8190961963076759</v>
+        <v>9.8450066836642485</v>
       </c>
       <c r="B10" s="0">
-        <v>2.6894016136473038</v>
+        <v>2.1185436246627636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>9.7483493819635569</v>
+        <v>9.7947175622629583</v>
       </c>
       <c r="B11" s="0">
-        <v>3.0129306037109562</v>
+        <v>2.3776324201177816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>9.6676432361450146</v>
+        <v>9.7377860874881801</v>
       </c>
       <c r="B12" s="0">
-        <v>3.3326111347911542</v>
+        <v>2.6348717763272895</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>9.5772164262871495</v>
+        <v>9.6742916336661118</v>
       </c>
       <c r="B13" s="0">
-        <v>3.6481673947900921</v>
+        <v>2.8900973026477135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>9.4773125707710761</v>
+        <v>9.604317312856864</v>
       </c>
       <c r="B14" s="0">
-        <v>3.9593363369673846</v>
+        <v>3.1431478822262284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>9.3681796862320894</v>
+        <v>9.5279498517035233</v>
       </c>
       <c r="B15" s="0">
-        <v>4.2658675570742268</v>
+        <v>3.3938657394720404</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>9.2500696546545953</v>
+        <v>9.445279467945273</v>
       </c>
       <c r="B16" s="0">
-        <v>4.5675231542384944</v>
+        <v>3.6420965033984141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>9.1232377102081337</v>
+        <v>9.3563997467122544</v>
       </c>
       <c r="B17" s="0">
-        <v>4.8640775768558413</v>
+        <v>3.8876892668855314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8.9879419457327536</v>
+        <v>9.2614075167171688</v>
       </c>
       <c r="B18" s="0">
-        <v>5.1553174546941936</v>
+        <v>4.1304966419148359</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.8444428387403651</v>
+        <v>9.160402726454139</v>
       </c>
       <c r="B19" s="0">
-        <v>5.4410414183706495</v>
+        <v>4.3703748108314242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>8.693002796759691</v>
+        <v>9.0534883205135532</v>
       </c>
       <c r="B20" s="0">
-        <v>5.7210599073130544</v>
+        <v>4.6071835736888653</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>8.5338857218177111</v>
+        <v>8.9407701161166031</v>
       </c>
       <c r="B21" s="0">
-        <v>5.9951949672709492</v>
+        <v>4.8407863917372005</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>8.3673565938185384</v>
+        <v>8.8223566799715982</v>
       </c>
       <c r="B22" s="0">
-        <v>6.2632800383942095</v>
+        <v>5.0710504271129562</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>8.1936810725517315</v>
+        <v>8.6983592055491208</v>
       </c>
       <c r="B23" s="0">
-        <v>6.5251597348522141</v>
+        <v>5.2978465787953342</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>8.0131251180362391</v>
+        <v>8.5688913908715119</v>
       </c>
       <c r="B24" s="0">
-        <v>6.7806896169210846</v>
+        <v>5.5210495148909411</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>7.8259546288830304</v>
+        <v>8.4340693169071042</v>
       </c>
       <c r="B25" s="0">
-        <v>7.0297359564223223</v>
+        <v>5.7405377013144685</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>7.6324350983387808</v>
+        <v>8.2940113266583015</v>
       </c>
       <c r="B26" s="0">
-        <v>7.2721754963531504</v>
+        <v>5.9561934269304926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>7.4328312876548175</v>
+        <v>8.148837905027067</v>
       </c>
       <c r="B27" s="0">
-        <v>7.5078952055063457</v>
+        <v>6.1679028252269177</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>7.2274069164098282</v>
+        <v>7.9986715595405409</v>
       </c>
       <c r="B28" s="0">
-        <v>7.7367920288361098</v>
+        <v>6.3755558925876885</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>7.0164243694008412</v>
+        <v>7.843636702014531</v>
       </c>
       <c r="B29" s="0">
-        <v>7.9587726342863956</v>
+        <v>6.5790465032365786</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>6.8001444197056715</v>
+        <v>7.6838595312297873</v>
       </c>
       <c r="B30" s="0">
-        <v>8.1737531567587478</v>
+        <v>6.7782724209238525</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>6.5788259675098359</v>
+        <v>7.5194679166941309</v>
       </c>
       <c r="B31" s="0">
-        <v>8.3816589398589922</v>
+        <v>6.9731353074271087</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>6.3527257942831055</v>
+        <v>7.3505912835578853</v>
       </c>
       <c r="B32" s="0">
-        <v>8.5824242760250744</v>
+        <v>7.1635407279414078</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>6.1220983318846134</v>
+        <v>7.1773604987499819</v>
       </c>
       <c r="B33" s="0">
-        <v>8.7759921456025101</v>
+        <v>7.3493981534307791</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>5.8871954461702032</v>
+        <v>6.9999077583960414</v>
       </c>
       <c r="B34" s="0">
-        <v>8.9623139553997664</v>
+        <v>7.5306209600174041</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>5.6482662346725085</v>
+        <v>6.8183664765797527</v>
       </c>
       <c r="B35" s="0">
-        <v>9.14134927722219</v>
+        <v>7.7071264254818388</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>5.405556837922326</v>
+        <v>6.6328711755027836</v>
       </c>
       <c r="B36" s="0">
-        <v>9.3130655868509464</v>
+        <v>7.8788357229513473</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>5.1593102639784014</v>
+        <v>6.4435573770985206</v>
       </c>
       <c r="B37" s="0">
-        <v>9.4774380039027264</v>
+        <v>8.0456739118506633</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>4.9097662257335033</v>
+        <v>6.250561496149583</v>
       </c>
       <c r="B38" s="0">
-        <v>9.6344490329757768</v>
+        <v>8.2075699261922175</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>4.6571609905656333</v>
+        <v>6.0540207349583648</v>
       </c>
       <c r="B39" s="0">
-        <v>9.7840883064594291</v>
+        <v>8.364456560280928</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>4.4017272419056379</v>
+        <v>5.8540729796148927</v>
       </c>
       <c r="B40" s="0">
-        <v>9.9263523293565221</v>
+        <v>8.516270451910712</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>4.1436939522952034</v>
+        <v>5.6508566979054375</v>
       </c>
       <c r="B41" s="0">
-        <v>10.061244226442071</v>
+        <v>8.6629520631281594</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>3.8832862675135349</v>
+        <v>5.4445108389020875</v>
       </c>
       <c r="B42" s="0">
-        <v>10.188773492055889</v>
+        <v>8.8044456586393718</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>3.6207254013552261</v>
+        <v>5.2351747342694948</v>
       </c>
       <c r="B43" s="0">
-        <v>10.308955742803031</v>
+        <v>8.9406992819365936</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>3.3562285406474377</v>
+        <v>5.022988001325138</v>
       </c>
       <c r="B44" s="0">
-        <v>10.421812473412531</v>
+        <v>9.0716647292192381</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>3.0900087600997086</v>
+        <v>4.8080904478838491</v>
       </c>
       <c r="B45" s="0">
-        <v>10.527370815983252</v>
+        <v>9.1972975211856998</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>2.8222749465869925</v>
+        <v>4.5906219789178557</v>
       </c>
       <c r="B46" s="0">
-        <v>10.625663302824154</v>
+        <v>9.3175568727699734</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>2.553231732472288</v>
+        <v>4.3707225050580947</v>
       </c>
       <c r="B47" s="0">
-        <v>10.716727633076861</v>
+        <v>9.4324056608987004</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>2.2830794375832393</v>
+        <v>4.1485318529634396</v>
       </c>
       <c r="B48" s="0">
-        <v>10.800606443288897</v>
+        <v>9.5418103903417446</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>2.0120140194642966</v>
+        <v>3.9241896775790517</v>
       </c>
       <c r="B49" s="0">
-        <v>10.877347082088214</v>
+        <v>9.6457411577307592</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1.7402270315339612</v>
+        <v>3.6978353763055147</v>
       </c>
       <c r="B50" s="0">
-        <v>10.947001389092334</v>
+        <v>9.7441716138180805</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1.4679055887848156</v>
+        <v>3.4696080050956697</v>
       </c>
       <c r="B51" s="0">
-        <v>11.009625478169314</v>
+        <v>9.8370789240489707</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>1.1952323406725427</v>
+        <v>3.2396461964965639</v>
       </c>
       <c r="B52" s="0">
-        <v>11.065279525152219</v>
+        <v>9.9244437275183284</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.92238545084848533</v>
+        <v>3.0080880796496197</v>
       </c>
       <c r="B53" s="0">
-        <v>11.114027560094488</v>
+        <v>10.006250094383253</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.64953858339933934</v>
+        <v>2.7750712022607087</v>
       </c>
       <c r="B54" s="0">
-        <v>11.155937264139624</v>
+        <v>10.082485481801754</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.3768608952658361</v>
+        <v>2.5407324545513155</v>
       </c>
       <c r="B55" s="0">
-        <v>11.191079771065969</v>
+        <v>10.153140688466626</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.1045170345221864</v>
+        <v>2.3052079951973026</v>
       </c>
       <c r="B56" s="0">
-        <v>11.219529473554969</v>
+        <v>10.218209807803657</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>-0.16733285579390172</v>
+        <v>2.0686331792626915</v>
       </c>
       <c r="B57" s="0">
-        <v>11.241363834220008</v>
+        <v>10.277690179901402</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>-0.43853312860146165</v>
+        <v>1.8311424881317524</v>
       </c>
       <c r="B58" s="0">
-        <v>11.256663201422207</v>
+        <v>10.331582342239789</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>-0.70893261873813551</v>
+        <v>1.5928694614430197</v>
       </c>
       <c r="B59" s="0">
-        <v>11.265510629889416</v>
+        <v>10.379889979283066</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>-0.9783846242467813</v>
+        <v>1.3539466310248567</v>
       </c>
       <c r="B60" s="0">
-        <v>11.267991706145365</v>
+        <v>10.422619871002397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>-1.246746883260218</v>
+        <v>1.1145054568333805</v>
       </c>
       <c r="B61" s="0">
-        <v>11.264194378747083</v>
+        <v>10.459781840391665</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>-1.5138815467491544</v>
+        <v>0.87467626488873496</v>
       </c>
       <c r="B62" s="0">
-        <v>11.254208793320592</v>
+        <v>10.49138870003978</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>-1.7796551473888993</v>
+        <v>0.63458818720682852</v>
       </c>
       <c r="B63" s="0">
-        <v>11.238127132377189</v>
+        <v>10.517456197821097</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>-2.0439385647922488</v>
+        <v>0.39436910372102779</v>
       </c>
       <c r="B64" s="0">
-        <v>11.21604345988573</v>
+        <v>10.538002961764921</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>-2.3066069873468877</v>
+        <v>0.15414558618647847</v>
       </c>
       <c r="B65" s="0">
-        <v>11.188053570569624</v>
+        <v>10.553050444163794</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>-2.5675398708870967</v>
+        <v>-0.085957155940510788</v>
       </c>
       <c r="B66" s="0">
-        <v>11.154254843891337</v>
+        <v>10.562622864979218</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>-2.8266208944211533</v>
+        <v>-0.32581532765825849</v>
       </c>
       <c r="B67" s="0">
-        <v>11.114746102681679</v>
+        <v>10.566747154602368</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>-3.0837379131276839</v>
+        <v>-0.56530659862077293</v>
       </c>
       <c r="B68" s="0">
-        <v>11.069627476365884</v>
+        <v>10.565452896026157</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>-3.3387829088258192</v>
+        <v>-0.80431015139689166</v>
       </c>
       <c r="B69" s="0">
-        <v>11.019000268734022</v>
+        <v>10.558772266483984</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>-3.5916519381157284</v>
+        <v>-1.0427067277999593</v>
       </c>
       <c r="B70" s="0">
-        <v>10.96296683019893</v>
+        <v>10.54673997860923</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>-3.8422450783791127</v>
+        <v>-1.2803786733032936</v>
       </c>
       <c r="B71" s="0">
-        <v>10.901630434480928</v>
+        <v>10.529393221168448</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>-4.0904663718204848</v>
+        <v>-1.5172099795557283</v>
       </c>
       <c r="B72" s="0">
-        <v>10.835095159655243</v>
+        <v>10.506771599420118</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>-4.3362237677231379</v>
+        <v>-1.7530863250152702</v>
       </c>
       <c r="B73" s="0">
-        <v>10.763465773494771</v>
+        <v>10.478917075149427</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>-4.5794290630863692</v>
+        <v>-1.9878951137164156</v>
       </c>
       <c r="B74" s="0">
-        <v>10.686847623038068</v>
+        <v>10.44587390642868</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>-4.8199978418028993</v>
+        <v>-2.221525512191393</v>
       </c>
       <c r="B75" s="0">
-        <v>10.605346528309969</v>
+        <v>10.407688587151407</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>-5.0578494125288804</v>
+        <v>-2.4538684845635155</v>
       </c>
       <c r="B76" s="0">
-        <v>10.519068680119975</v>
+        <v>10.364409786387304</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>-5.2929067453917797</v>
+        <v>-2.6848168258325122</v>
       </c>
       <c r="B77" s="0">
-        <v>10.428120541861659</v>
+        <v>10.316088287603979</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>-5.5250964076747771</v>
+        <v>-2.9142651933743466</v>
       </c>
       <c r="B78" s="0">
-        <v>10.332608755234748</v>
+        <v>10.262776927799848</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>-5.7543484986099935</v>
+        <v>-3.1421101366750945</v>
       </c>
       <c r="B79" s="0">
-        <v>10.232640049809985</v>
+        <v>10.204530536592106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>-5.9805965834065526</v>
+        <v>-3.3682501253232995</v>
       </c>
       <c r="B80" s="0">
-        <v>10.128321156355804</v>
+        <v>10.141405875301615</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>-6.203777626633058</v>
+        <v>-3.5925855752822984</v>
       </c>
       <c r="B81" s="0">
-        <v>10.019758723844923</v>
+        <v>10.073461576076211</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>-6.4238319250688143</v>
+        <v>-3.815018873467519</v>
       </c>
       <c r="B82" s="0">
-        <v>9.9070592400580253</v>
+        <v>10.000758081092</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>-6.6407030401315357</v>
+        <v>-4.0354544006518811</v>
       </c>
       <c r="B83" s="0">
-        <v>9.7903289557014173</v>
+        <v>9.9233575818717732</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>-6.8543377299843957</v>
+        <v>-4.253798552725617</v>
       </c>
       <c r="B84" s="0">
-        <v>9.6696738119549774</v>
+        <v>9.8413239587576236</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>-7.0646858814197602</v>
+        <v>-4.4699597603341559</v>
       </c>
       <c r="B85" s="0">
-        <v>9.5451993713664258</v>
+        <v>9.7547227205747795</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>-7.27170044161128</v>
+        <v>-4.683848506921886</v>
       </c>
       <c r="B86" s="0">
-        <v>9.4170107520082258</v>
+        <v>9.6636209445212309</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>-7.4753373498217019</v>
+        <v>-4.8953773452062412</v>
       </c>
       <c r="B87" s="0">
-        <v>9.2852125648131381</v>
+        <v>9.5680872163179487</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>-7.6755554691482608</v>
+        <v>-5.1044609121103655</v>
       </c>
       <c r="B88" s="0">
-        <v>9.1499088540049733</v>
+        <v>9.4681915706520705</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>-7.8723165183834407</v>
+        <v>-5.3110159421808447</v>
       </c>
       <c r="B89" s="0">
-        <v>9.011203040541103</v>
+        <v>9.3640054319450705</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>-8.0655850040635553</v>
+        <v>-5.5149612795173786</v>
       </c>
       <c r="B90" s="0">
-        <v>8.8691978684843349</v>
+        <v>9.2556015554770159</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>-8.2553281527742026</v>
+        <v>-5.7162178882436354</v>
       </c>
       <c r="B91" s="0">
-        <v>8.7239953542215964</v>
+        <v>9.1430539688956785</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>-8.4415158437766955</v>
+        <v>-5.914708861545626</v>
       </c>
       <c r="B92" s="0">
-        <v>8.5756967384481424</v>
+        <v>9.0264379141399154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>-8.6241205420159446</v>
+        <v>-6.11035942930733</v>
       </c>
       <c r="B93" s="0">
-        <v>8.4244024408364293</v>
+        <v>8.905829789803958</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>-8.803117231566052</v>
+        <v>-6.3030969643709662</v>
       </c>
       <c r="B94" s="0">
-        <v>8.2702120173099853</v>
+        <v>8.7813070939695592</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>-8.9784833495667016</v>
+        <v>-6.4928509874517104</v>
       </c>
       <c r="B95" s="0">
-        <v>8.1132241198429238</v>
+        <v>8.6529483675305894</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>-9.1501987206990876</v>
+        <v>-6.6795531707341773</v>
       </c>
       <c r="B96" s="0">
-        <v>7.9535364587075659</v>
+        <v>8.5208331380353055</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>-9.3182454922474633</v>
+        <v>-6.8631373401814875</v>
       </c>
       <c r="B97" s="0">
-        <v>7.7912457670928426</v>
+        <v>8.3850418640682509</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>-9.4826080697884052</v>
+        <v>-7.0435394765845016</v>
       </c>
       <c r="B98" s="0">
-        <v>7.6264477680180196</v>
+        <v>8.2456558801949544</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>-9.6432730535472366</v>
+        <v>-7.2206977153809078</v>
       </c>
       <c r="B99" s="0">
-        <v>7.4592371434669058</v>
+        <v>8.1027573424902997</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>-9.8002291754578241</v>
+        <v>-7.3945523452738078</v>
       </c>
       <c r="B100" s="0">
-        <v>7.2897075056690399</v>
+        <v>7.9564291746703315</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>-9.9534672369589607</v>
+        <v>-7.565045805678265</v>
       </c>
       <c r="B101" s="0">
-        <v>7.1179513704558897</v>
+        <v>7.8067550148473064</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>-10.102980047558017</v>
+        <v>-7.7321226830255627</v>
       </c>
       <c r="B102" s="0">
-        <v>6.9440601326209253</v>
+        <v>7.6538191629259247</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>-10.248762364189703</v>
+        <v>-7.8957297059542313</v>
       </c>
       <c r="B103" s="0">
-        <v>6.7681240432140584</v>
+        <v>7.4977065286580409</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>-10.390810831395358</v>
+        <v>-8.0558157394172341</v>
       </c>
       <c r="B104" s="0">
-        <v>6.5902321887021316</v>
+        <v>7.33850258037213</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>-10.529123922345692</v>
+        <v>-8.2123317777338727</v>
       </c>
       <c r="B105" s="0">
-        <v>6.4104724719285713</v>
+        <v>7.1762932943934832</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>-10.663701880727707</v>
+        <v>-8.365230936616296</v>
       </c>
       <c r="B106" s="0">
-        <v>6.2289315948066539</v>
+        <v>7.011165105168903</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>-10.794546663514289</v>
+        <v>-8.5144684441988883</v>
       </c>
       <c r="B107" s="0">
-        <v>6.0456950426821079</v>
+        <v>6.843204856110189</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>-10.921661884632735</v>
+        <v>-8.6600016310995471</v>
       </c>
       <c r="B108" s="0">
-        <v>5.8608470703025235</v>
+        <v>6.6724997511691662</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>-11.045052759546872</v>
+        <v>-8.8017899195416547</v>
       </c>
       <c r="B109" s="0">
-        <v>5.6744706893318471</v>
+        <v>6.4991373071560226</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>-11.164726050764946</v>
+        <v>-8.9397948115653634</v>
       </c>
       <c r="B110" s="0">
-        <v>5.4866476573505407</v>
+        <v>6.3232053068120928</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>-11.280690014284451</v>
+        <v>-9.0739798763561232</v>
       </c>
       <c r="B111" s="0">
-        <v>5.2974584682821622</v>
+        <v>6.144791752647877</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>-11.392954346982483</v>
+        <v>-9.2043107367189858</v>
       </c>
       <c r="B112" s="0">
-        <v>5.1069823441900057</v>
+        <v>5.9639848215555302</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>-11.501530134959399</v>
+        <v>-9.3307550547268647</v>
       </c>
       <c r="B113" s="0">
-        <v>4.9152972283873959</v>
+        <v>5.7808728202042747</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>-11.606429802841491</v>
+        <v>-9.4532825165698551</v>
       </c>
       <c r="B114" s="0">
-        <v>4.7224797798078226</v>
+        <v>5.5955441412276246</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>-11.707667064047186</v>
+        <v>-9.571864816633795</v>
       </c>
       <c r="B115" s="0">
-        <v>4.5286053685816867</v>
+        <v>5.4080872202089267</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>-11.805256872019884</v>
+        <v>-9.686475640835015</v>
       </c>
       <c r="B116" s="0">
-        <v>4.3337480727683158</v>
+        <v>5.2185904934721723</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>-11.899215372429206</v>
+        <v>-9.7970906492384451</v>
       </c>
       <c r="B117" s="0">
-        <v>4.1379806761929494</v>
+        <v>5.027142356683818</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>-11.989559856341312</v>
+        <v>-9.9036874579856597</v>
       </c>
       <c r="B118" s="0">
-        <v>3.9413746673399377</v>
+        <v>4.8338311242710317</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>-12.076308714357642</v>
+        <v>-10.006245620559737</v>
       </c>
       <c r="B119" s="0">
-        <v>3.7440002392548775</v>
+        <v>4.6387449896603732</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>-12.159481391720544</v>
+        <v>-10.104746608412663</v>
       </c>
       <c r="B120" s="0">
-        <v>3.5459262904092959</v>
+        <v>4.4419719863413629</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>-12.239098344383139</v>
+        <v>-10.1991737909816</v>
       </c>
       <c r="B121" s="0">
-        <v>3.3472204264833487</v>
+        <v>4.2435999497577095</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>-12.315180996039848</v>
+        <v>-10.28951241511929</v>
       </c>
       <c r="B122" s="0">
-        <v>3.147948963022797</v>
+        <v>4.0437164800290848</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>-12.387751696113018</v>
+        <v>-10.375749583964144</v>
       </c>
       <c r="B123" s="0">
-        <v>2.9481769289285467</v>
+        <v>3.8424089055052892</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>-12.456833678690568</v>
+        <v>-10.457874235274815</v>
       </c>
       <c r="B124" s="0">
-        <v>2.7479680707370866</v>
+        <v>3.6397642471541416</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>-12.52245102240834</v>
+        <v>-10.535877119253803</v>
       </c>
       <c r="B125" s="0">
-        <v>2.5473848576529159</v>
+        <v>3.4358691837846207</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>-12.584628611270549</v>
+        <v>-10.60975077588477</v>
       </c>
       <c r="B126" s="0">
-        <v>2.3464884872939606</v>
+        <v>3.2308100181040849</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>-12.643392096400772</v>
+        <v>-10.67948951180683</v>
       </c>
       <c r="B127" s="0">
-        <v>2.1453388921129775</v>
+        <v>3.024672643611531</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>-12.698767858715437</v>
+        <v>-10.745089376750231</v>
       </c>
       <c r="B128" s="0">
-        <v>1.9439947464589158</v>
+        <v>2.8175425123235716</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>-12.750782972511129</v>
+        <v>-10.806548139555805</v>
       </c>
       <c r="B129" s="0">
-        <v>1.7425134742431134</v>
+        <v>2.6095046033344729</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>-12.799465169956541</v>
+        <v>-10.863865263801777</v>
       </c>
       <c r="B130" s="0">
-        <v>1.5409512571767856</v>
+        <v>2.4006433922063271</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>-12.844842806479354</v>
+        <v>-10.917041883059948</v>
       </c>
       <c r="B131" s="0">
-        <v>1.339363043547239</v>
+        <v>2.19104282118855</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>-12.886944827037961</v>
+        <v>-10.966080775803567</v>
       </c>
       <c r="B132" s="0">
-        <v>1.1378025575009136</v>
+        <v>1.9807862702636414</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>-12.925800733267458</v>
+        <v>-11.01098633998865</v>
       </c>
       <c r="B133" s="0">
-        <v>0.93632230880312473</v>
+        <v>1.7699565290158339</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>-12.961440551488995</v>
+        <v>-11.051764567330004</v>
       </c>
       <c r="B134" s="0">
-        <v>0.73497360304500048</v>
+        <v>1.5586357693196533</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>-12.993894801571219</v>
+        <v>-11.088423017293078</v>
       </c>
       <c r="B135" s="0">
-        <v>0.53380655226906171</v>
+        <v>1.3469055188439312</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>-13.023194466632271</v>
+        <v>-11.120970790822113</v>
       </c>
       <c r="B136" s="0">
-        <v>0.33287008598636841</v>
+        <v>1.134846635367271</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>-13.049370963570459</v>
+        <v>-11.149418503824851</v>
       </c>
       <c r="B137" s="0">
-        <v>0.13221196255846243</v>
+        <v>0.92253928190038526</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>-13.072456114411555</v>
+        <v>-11.173778260433613</v>
       </c>
       <c r="B138" s="0">
-        <v>-0.068121219080991904</v>
+        <v>0.7100629026100187</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>-13.092482118460394</v>
+        <v>-11.194063626062212</v>
       </c>
       <c r="B139" s="0">
-        <v>-0.26808400738969584</v>
+        <v>0.49749619953885021</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>-13.109481525244281</v>
+        <v>-11.210289600277628</v>
       </c>
       <c r="B140" s="0">
-        <v>-0.46763208588873478</v>
+        <v>0.28491711011646975</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>-13.123487208235572</v>
+        <v>-11.222472589505214</v>
       </c>
       <c r="B141" s="0">
-        <v>-0.66672226056580075</v>
+        <v>0.072402785454187352</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>-13.134532339340591</v>
+        <v>-11.230630379585559</v>
       </c>
       <c r="B142" s="0">
-        <v>-0.86531244703176735</v>
+        <v>-0.13997043058133365</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>-13.142650364142014</v>
+        <v>-11.234782108200948</v>
       </c>
       <c r="B143" s="0">
-        <v>-1.063361657451201</v>
+        <v>-0.35212702152386482</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>-13.147874977881669</v>
+        <v>-11.234948237188796</v>
       </c>
       <c r="B144" s="0">
-        <v>-1.2608299872673883</v>
+        <v>-0.56399231769794156</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>-13.150240102170697</v>
+        <v>-11.231150524759178</v>
       </c>
       <c r="B145" s="0">
-        <v>-1.4576786017409622</v>
+        <v>-0.77549251485258897</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>-13.149779862413924</v>
+        <v>-11.223411997633074</v>
       </c>
       <c r="B146" s="0">
-        <v>-1.6538697223209136</v>
+        <v>-0.98655469204495949</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>-13.146528565935229</v>
+        <v>-11.211756923117633</v>
       </c>
       <c r="B147" s="0">
-        <v>-1.8493666128658048</v>
+        <v>-1.1971068287814997</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>-13.140520680790791</v>
+        <v>-11.196210781134308</v>
       </c>
       <c r="B148" s="0">
-        <v>-2.0441335657321242</v>
+        <v>-1.4070778214253721</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>-13.131790815256918</v>
+        <v>-11.176800236215376</v>
       </c>
       <c r="B149" s="0">
-        <v>-2.2381358877465658</v>
+        <v>-1.6163974988774732</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>-13.120373697979325</v>
+        <v>-11.153553109483928</v>
       </c>
       <c r="B150" s="0">
-        <v>-2.4313398860775486</v>
+        <v>-1.8249966375397417</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>-13.106304158770685</v>
+        <v>-11.12649835063203</v>
       </c>
       <c r="B151" s="0">
-        <v>-2.6237128540212034</v>
+        <v>-2.0328069755693727</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>-13.089617110043299</v>
+        <v>-11.095666009911408</v>
       </c>
       <c r="B152" s="0">
-        <v>-2.815223056716198</v>
+        <v>-2.2397612264325533</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>-13.070347528863834</v>
+        <v>-11.061087210150628</v>
       </c>
       <c r="B153" s="0">
-        <v>-3.005839716801145</v>
+        <v>-2.4457930917662747</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>-13.048530439617101</v>
+        <v>-11.022794118812232</v>
       </c>
       <c r="B154" s="0">
-        <v>-3.1955330000276567</v>
+        <v>-2.6508372735582548</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>-13.024200897265935</v>
+        <v>-10.980819920103119</v>
       </c>
       <c r="B155" s="0">
-        <v>-3.3842740008416987</v>
+        <v>-2.8548294856530303</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>-12.997393971194322</v>
+        <v>-10.935198787150961</v>
       </c>
       <c r="B156" s="0">
-        <v>-3.5720347279450939</v>
+        <v>-3.057706464594347</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>-12.96814472962099</v>
+        <v>-10.885965854259066</v>
       </c>
       <c r="B157" s="0">
-        <v>-3.7587880898486996</v>
+        <v>-3.2594059798129433</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>-12.936488224570844</v>
+        <v>-10.833157189251752</v>
       </c>
       <c r="B158" s="0">
-        <v>-3.9445078804279468</v>
+        <v>-3.4598668431696726</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>-12.902459477391632</v>
+        <v>-10.776809765921996</v>
       </c>
       <c r="B159" s="0">
-        <v>-4.1291687644913022</v>
+        <v>-3.659028917863262</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>-12.866093464803475</v>
+        <v>-10.71696143659265</v>
       </c>
       <c r="B160" s="0">
-        <v>-4.3127462633712916</v>
+        <v>-3.8568331267127829</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>-12.827425105468878</v>
+        <v>-10.653650904802221</v>
       </c>
       <c r="B161" s="0">
-        <v>-4.4952167405475318</v>
+        <v>-4.0532214598247673</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>-12.786489247071138</v>
+        <v>-10.586917698125861</v>
       </c>
       <c r="B162" s="0">
-        <v>-4.6765573873105453</v>
+        <v>-4.2481369816547936</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>-12.743320653888976</v>
+        <v>-10.516802141141786</v>
       </c>
       <c r="B163" s="0">
-        <v>-4.8567462084750099</v>
+        <v>-4.4415238374738042</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>-12.697953994855627</v>
+        <v>-10.443345328553223</v>
       </c>
       <c r="B164" s="0">
-        <v>-5.035762008150023</v>
+        <v>-4.6333272592489276</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>-12.650423832090548</v>
+        <v>-10.366589098475114</v>
       </c>
       <c r="B165" s="0">
-        <v>-5.2135843755742899</v>
+        <v>-4.8234935709497906</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>-12.600764609892178</v>
+        <v>-10.286576005895505</v>
       </c>
       <c r="B166" s="0">
-        <v>-5.3901936710231313</v>
+        <v>-5.0119701932890308</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>-12.549010644180264</v>
+        <v>-10.203349296319557</v>
       </c>
       <c r="B167" s="0">
-        <v>-5.5655710117942023</v>
+        <v>-5.1987056479095068</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>-12.495196112376536</v>
+        <v>-10.116952879605774</v>
       </c>
       <c r="B168" s="0">
-        <v>-5.7396982582781</v>
+        <v>-5.3836495610262212</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>-12.439355043712521</v>
+        <v>-10.027431304001958</v>
       </c>
       <c r="B169" s="0">
-        <v>-5.9125580001200424</v>
+        <v>-5.5667526665351117</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>-12.381521309953579</v>
+        <v>-9.934829730389378</v>
       </c>
       <c r="B170" s="0">
-        <v>-6.084133542478062</v>
+        <v>-5.7479668085976785</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>-12.321728616528359</v>
+        <v>-9.8391939067421994</v>
       </c>
       <c r="B171" s="0">
-        <v>-6.2544088923831458</v>
+        <v>-5.9272449437132124</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>-12.260010494053072</v>
+        <v>-9.7405701428101086</v>
       </c>
       <c r="B172" s="0">
-        <v>-6.4233687452060666</v>
+        <v>-6.1045411422876601</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>-12.196400290240053</v>
+        <v>-9.6390052850307342</v>
       </c>
       <c r="B173" s="0">
-        <v>-6.5909984712357987</v>
+        <v>-6.2798105897103378</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>-12.130931162180367</v>
+        <v>-9.5345466916785231</v>
       </c>
       <c r="B174" s="0">
-        <v>-6.757284102373724</v>
+        <v>-6.453009586948955</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>-12.063636068990437</v>
+        <v>-9.427242208257006</v>
       </c>
       <c r="B175" s="0">
-        <v>-6.9222123189474472</v>
+        <v>-6.6240955506723527</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>-11.994547764812536</v>
+        <v>-9.3171401431396816</v>
       </c>
       <c r="B176" s="0">
-        <v>-7.0857704366484606</v>
+        <v>-6.7930270129128649</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>-11.923698792159634</v>
+        <v>-9.2042892434663699</v>
       </c>
       <c r="B177" s="0">
-        <v>-7.2479463935965898</v>
+        <v>-6.959763620276874</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>-11.851121475594832</v>
+        <v>-9.0887386712995912</v>
       </c>
       <c r="B178" s="0">
-        <v>-7.4087287375348305</v>
+        <v>-7.1242661327155155</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>-11.776847915736013</v>
+        <v>-8.9705379800471299</v>
       </c>
       <c r="B179" s="0">
-        <v>-7.5681066131573989</v>
+        <v>-7.2864964218643511</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>-11.700909983576572</v>
+        <v>-8.8497370911550366</v>
       </c>
       <c r="B180" s="0">
-        <v>-7.7260697495735764</v>
+        <v>-7.4464174689633946</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>-11.623339315112982</v>
+        <v>-8.7263862710761728</v>
       </c>
       <c r="B181" s="0">
-        <v>-7.8826084479101386</v>
+        <v>-7.6039933623670688</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>-11.54416730627044</v>
+        <v>-8.6005361085188987</v>
       </c>
       <c r="B182" s="0">
-        <v>-8.0377135690544641</v>
+        <v>-7.7591892946541021</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>-11.463425108117898</v>
+        <v>-8.4722374919796053</v>
       </c>
       <c r="B183" s="0">
-        <v>-8.191376521540203</v>
+        <v>-7.9119715593480713</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>-11.381143622363778</v>
+        <v>-8.3415415875635439</v>
       </c>
       <c r="B184" s="0">
-        <v>-8.3435892495778443</v>
+        <v>-8.0623075472579959</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>-11.297353497124206</v>
+        <v>-8.2084998170973584</v>
       </c>
       <c r="B185" s="0">
-        <v>-8.4943442212312874</v>
+        <v>-8.2101657424493002</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>-11.212085122955401</v>
+        <v>-8.0731638365369633</v>
       </c>
       <c r="B186" s="0">
-        <v>-8.6436344167422803</v>
+        <v>-8.3555157178548569</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>-11.125368629142326</v>
+        <v>-7.9355855146737504</v>
       </c>
       <c r="B187" s="0">
-        <v>-8.7914533170038052</v>
+        <v>-8.4983281305361835</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>-11.037233880235574</v>
+        <v>-7.7958169121424401</v>
       </c>
       <c r="B188" s="0">
-        <v>-8.9377948921837351</v>
+        <v>-8.6385747166042055</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>-10.947710472829009</v>
+        <v>-7.6539102607330118</v>
       </c>
       <c r="B189" s="0">
-        <v>-9.0826535904994401</v>
+        <v>-8.7762282858096192</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>-10.856827732570448</v>
+        <v>-7.5099179430095457</v>
       </c>
       <c r="B190" s="0">
-        <v>-9.2260243271444189</v>
+        <v>-8.9112627158121587</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>-10.764614711398178</v>
+        <v>-7.3638924722379731</v>
       </c>
       <c r="B191" s="0">
-        <v>-9.3679024733673835</v>
+        <v>-9.0436529461386108</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>-10.671100184995915</v>
+        <v>-7.215886472625332</v>
       </c>
       <c r="B192" s="0">
-        <v>-9.5082838457045789</v>
+        <v>-9.1733749718385393</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>-10.576312650459469</v>
+        <v>-7.065952659871666</v>
       </c>
       <c r="B193" s="0">
-        <v>-9.6471646953653529</v>
+        <v>-9.3004058368477782</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>-10.480280324167854</v>
+        <v>-6.9141438220371043</v>
       </c>
       <c r="B194" s="0">
-        <v>-9.7845416977716084</v>
+        <v>-9.4247236270681647</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>-10.383031139852475</v>
+        <v>-6.7605128007252064</v>
       </c>
       <c r="B195" s="0">
-        <v>-9.9204119422509773</v>
+        <v>-9.5463074631731129</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>-10.28459274685761</v>
+        <v>-6.6051124725836514</v>
       </c>
       <c r="B196" s="0">
-        <v>-10.05477292188387</v>
+        <v>-9.6651374931482295</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>-10.184992508585871</v>
+        <v>-6.4479957311239451</v>
       </c>
       <c r="B197" s="0">
-        <v>-10.187622523504222</v>
+        <v>-9.781194884575461</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>-10.084257501122298</v>
+        <v>-6.2892154688603847</v>
       </c>
       <c r="B198" s="0">
-        <v>-10.31895901785386</v>
+        <v>-9.8944618166702423</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>-9.9824145120311325</v>
+        <v>-6.1288245597701279</v>
       </c>
       <c r="B199" s="0">
-        <v>-10.448781049889956</v>
+        <v>-10.004921472079594</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>-9.8794900393190908</v>
+        <v>-5.9668758420732644</v>
       </c>
       <c r="B200" s="0">
-        <v>-10.577087629245435</v>
+        <v>-10.112558028450977</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>-9.775510290559545</v>
+        <v>-5.8034221013352694</v>
       </c>
       <c r="B201" s="0">
-        <v>-10.703878120841601</v>
+        <v>-10.217356649779163</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>-9.670501182171682</v>
+        <v>-5.6385160538903154</v>
       </c>
       <c r="B202" s="0">
-        <v>-10.829152235652641</v>
+        <v>-10.319303477540723</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>-9.5644883388494044</v>
+        <v>-5.4722103305868943</v>
       </c>
       <c r="B203" s="0">
-        <v>-10.952910021621111</v>
+        <v>-10.418385621623576</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>-9.4574970931343163</v>
+        <v>-5.3045574608544381</v>
       </c>
       <c r="B204" s="0">
-        <v>-11.075151854723822</v>
+        <v>-10.514591151060639</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>-9.3495524851276368</v>
+        <v>-5.135609857092323</v>
       </c>
       <c r="B205" s="0">
-        <v>-11.195878430187371</v>
+        <v>-10.607909084574677</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>-9.2406792623359362</v>
+        <v>-4.9654197993787195</v>
       </c>
       <c r="B206" s="0">
-        <v>-11.315090753852253</v>
+        <v>-10.698329380943671</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>-9.1309018796456591</v>
+        <v>-4.7940394205009742</v>
       </c>
       <c r="B207" s="0">
-        <v>-11.432790133684815</v>
+        <v>-10.785842929193285</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>-9.0202444994215583</v>
+        <v>-4.6215206913055074</v>
       </c>
       <c r="B208" s="0">
-        <v>-11.548978171435959</v>
+        <v>-10.870441538625043</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>-8.9087309917243971</v>
+        <v>-4.4479154063664836</v>
       </c>
       <c r="B209" s="0">
-        <v>-11.663656754445512</v>
+        <v>-10.952117928687739</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>-8.7963849346431129</v>
+        <v>-4.2732751699734264</v>
       </c>
       <c r="B210" s="0">
-        <v>-11.776828047591309</v>
+        <v>-11.030865718699172</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>-8.6832296147371473</v>
+        <v>-4.097651382435207</v>
       </c>
       <c r="B211" s="0">
-        <v>-11.888494485381663</v>
+        <v>-11.106679417426324</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>-8.5692880275844434</v>
+        <v>-3.9210952267003445</v>
       </c>
       <c r="B212" s="0">
-        <v>-11.998658764190166</v>
+        <v>-11.179554412530734</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>-8.4545828784309176</v>
+        <v>-3.7436576552920333</v>
       </c>
       <c r="B213" s="0">
-        <v>-12.107323834631496</v>
+        <v>-11.249486959886497</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>-8.3391365829372628</v>
+        <v>-3.5653893775563756</v>
       </c>
       <c r="B214" s="0">
-        <v>-12.214492894076955</v>
+        <v>-11.316474172777877</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>-8.2229712680189486</v>
+        <v>-3.3863408472222232</v>
       </c>
       <c r="B215" s="0">
-        <v>-12.320169379308556</v>
+        <v>-11.380514010983633</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>-8.1061087727756949</v>
+        <v>-3.2065622502716233</v>
       </c>
       <c r="B216" s="0">
-        <v>-12.424356959310083</v>
+        <v>-11.44160526975458</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>-7.9885706495065163</v>
+        <v>-3.0261034931181872</v>
       </c>
       <c r="B217" s="0">
-        <v>-12.527059528193918</v>
+        <v>-11.49974756869147</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>-7.8703781648064925</v>
+        <v>-2.8450141910925959</v>
       </c>
       <c r="B218" s="0">
-        <v>-12.62828119826224</v>
+        <v>-11.554941340529433</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>-7.751552300741988</v>
+        <v>-2.6633436572322582</v>
       </c>
       <c r="B219" s="0">
-        <v>-12.728026293200989</v>
+        <v>-11.607187819835792</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>-7.6321137561005079</v>
+        <v>-2.4811408913742805</v>
       </c>
       <c r="B220" s="0">
-        <v>-12.826299341405363</v>
+        <v>-11.65648903162722</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>-7.512082947712007</v>
+        <v>-2.2984545695486664</v>
       </c>
       <c r="B221" s="0">
-        <v>-12.923105069435179</v>
+        <v>-11.702847779912805</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>-7.3914800118382722</v>
+        <v>-2.1153330336701579</v>
       </c>
       <c r="B222" s="0">
-        <v>-13.018448395598721</v>
+        <v>-11.746267636168918</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>-7.2703248056272329</v>
+        <v>-1.9318242815262865</v>
       </c>
       <c r="B223" s="0">
-        <v>-13.112334423663478</v>
+        <v>-11.786752927751964</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>-7.1486369086288963</v>
+        <v>-1.7479759570589963</v>
       </c>
       <c r="B224" s="0">
-        <v>-13.204768436692376</v>
+        <v>-11.824308726254941</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>22.005838154839505</v>
+        <v>-1.5638353409383805</v>
       </c>
       <c r="B225" s="0">
-        <v>-5.1284936147387139</v>
+        <v>-11.858940835813305</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>22.096271449619746</v>
+        <v>-1.3794493414246911</v>
       </c>
       <c r="B226" s="0">
-        <v>-4.9868658462158271</v>
+        <v>-11.890655781366176</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>22.185523384294484</v>
+        <v>-1.1948644855173904</v>
       </c>
       <c r="B227" s="0">
-        <v>-4.8454781894270615</v>
+        <v>-11.91946079687798</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>22.273610917469835</v>
+        <v>-1.010126910387465</v>
       </c>
       <c r="B228" s="0">
-        <v>-4.7043392392707721</v>
+        <v>-11.94536381352628</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>22.360550827726545</v>
+        <v>-0.8252823550916587</v>
       </c>
       <c r="B229" s="0">
-        <v>-4.5634572868761065</v>
+        <v>-11.968373447860783</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>22.446359713711391</v>
+        <v>-0.64037615256446356</v>
       </c>
       <c r="B230" s="0">
-        <v>-4.4228403277189363</v>
+        <v>-11.988498989938911</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>22.531053994327952</v>
+        <v>-0.45545322188601883</v>
       </c>
       <c r="B231" s="0">
-        <v>-4.2824960695447807</v>
+        <v>-12.005750391442861</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>22.614649909021367</v>
+        <v>-0.27055806082320916</v>
       </c>
       <c r="B232" s="0">
-        <v>-4.1424319401024281</v>
+        <v>-12.020138253783104</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>22.69716351815206</v>
+        <v>-0.085734738639888508</v>
       </c>
       <c r="B233" s="0">
-        <v>-4.0026550946924937</v>
+        <v>-12.031673816193182</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>22.77861070345357</v>
+        <v>0.09897311082489034</v>
       </c>
       <c r="B234" s="0">
-        <v>-3.8631724235346026</v>
+        <v>-12.040368943820456</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>22.859007168569704</v>
+        <v>0.28352229581553484</v>
       </c>
       <c r="B235" s="0">
-        <v>-3.7239905589570741</v>
+        <v>-12.046236115817445</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>22.93836843966665</v>
+        <v>0.46787007305670464</v>
       </c>
       <c r="B236" s="0">
-        <v>-3.5851158824129024</v>
+        <v>-12.049288413438189</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>23.016709866115789</v>
+        <v>0.65197415389293689</v>
       </c>
       <c r="B237" s="0">
-        <v>-3.4465545313256789</v>
+        <v>-12.049539508144067</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>23.094046621242974</v>
+        <v>0.83579271017267709</v>
       </c>
       <c r="B238" s="0">
-        <v>-3.3083124057691391</v>
+        <v>-12.047003649723234</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>23.170393703140491</v>
+        <v>1.019284379881126</v>
       </c>
       <c r="B239" s="0">
-        <v>-3.170395174983955</v>
+        <v>-12.041695654427949</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>23.245765935537811</v>
+        <v>1.2024082725240497</v>
       </c>
       <c r="B240" s="0">
-        <v>-3.0328082837355548</v>
+        <v>-12.033630893133733</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>23.320177968727734</v>
+        <v>1.3851239742665555</v>
       </c>
       <c r="B241" s="0">
-        <v>-2.8955569585157561</v>
+        <v>-12.022825279524334</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>23.393644280544247</v>
+        <v>1.5673915528293996</v>
       </c>
       <c r="B242" s="0">
-        <v>-2.75864621359257</v>
+        <v>-12.009295258306347</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>23.466179177388966</v>
+        <v>1.7491715621464297</v>
       </c>
       <c r="B243" s="0">
-        <v>-2.6220808569109737</v>
+        <v>-11.993057793457165</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>23.53779679530297</v>
+        <v>1.930425046786183</v>
       </c>
       <c r="B244" s="0">
-        <v>-2.4858654958480844</v>
+        <v>-11.974130356509969</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>23.60851110108106</v>
+        <v>2.1111135461416497</v>
       </c>
       <c r="B245" s="0">
-        <v>-2.3500045428259817</v>
+        <v>-11.952530914879077</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>23.678335893425473</v>
+        <v>2.2911990983899724</v>
       </c>
       <c r="B246" s="0">
-        <v>-2.2145022207856067</v>
+        <v>-11.928277920229391</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>23.747284804136381</v>
+        <v>2.4706442442270906</v>
       </c>
       <c r="B247" s="0">
-        <v>-2.0793625685246262</v>
+        <v>-11.901390296892925</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>23.815371299336533</v>
+        <v>2.6494120303796276</v>
       </c>
       <c r="B248" s="0">
-        <v>-1.9445894459024551</v>
+        <v>-11.871887430335839</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>23.882608680727564</v>
+        <v>2.8274660128974616</v>
       </c>
       <c r="B249" s="0">
-        <v>-1.8101865389154677</v>
+        <v>-11.839789155679053</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>23.949010086875482</v>
+        <v>3.0047702602308708</v>
       </c>
       <c r="B250" s="0">
-        <v>-1.6761573646454442</v>
+        <v>-11.805115746275391</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>24.014588494523142</v>
+        <v>3.1812893560951241</v>
       </c>
       <c r="B251" s="0">
-        <v>-1.5425052760840907</v>
+        <v>-11.767887902346231</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>24.079356719927492</v>
+        <v>3.3569884021255869</v>
       </c>
       <c r="B252" s="0">
-        <v>-1.4092334668365063</v>
+        <v>-11.728126739680615</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>24.143327420219528</v>
+        <v>3.5318330203276163</v>
       </c>
       <c r="B253" s="0">
-        <v>-1.2763449757065228</v>
+        <v>-11.685853778399297</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>24.206513094784928</v>
+        <v>3.7057893553240664</v>
       </c>
       <c r="B254" s="0">
-        <v>-1.1438426911664521</v>
+        <v>-11.641090931786559</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>24.268926086663495</v>
+        <v>3.8788240764036068</v>
       </c>
       <c r="B255" s="0">
-        <v>-1.0117293557142506</v>
+        <v>-11.593860495192331</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>24.330578583965664</v>
+        <v>4.0509043793734199</v>
       </c>
       <c r="B256" s="0">
-        <v>-0.88000757012043829</v>
+        <v>-11.544185135007076</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>24.391482621304259</v>
+        <v>4.221997988220064</v>
       </c>
       <c r="B257" s="0">
-        <v>-0.74867979756759118</v>
+        <v>-11.492087877711722</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>24.451650081239894</v>
+        <v>4.3920731565809037</v>
       </c>
       <c r="B258" s="0">
-        <v>-0.61774836768493968</v>
+        <v>-11.43759209900513</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>24.51109269573853</v>
+        <v>4.5610986690307689</v>
       </c>
       <c r="B259" s="0">
-        <v>-0.48721548048031493</v>
+        <v>-11.380721513011</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>24.569822047639597</v>
+        <v>4.7290438421856127</v>
       </c>
       <c r="B260" s="0">
-        <v>-0.35708321017217665</v>
+        <v>-11.321500161566785</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>24.627849572133339</v>
+        <v>4.8958785256282278</v>
       </c>
       <c r="B261" s="0">
-        <v>-0.22735350892407843</v>
+        <v>-11.259952403596115</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>24.685186558246023</v>
+        <v>5.0615731026579134</v>
       </c>
       <c r="B262" s="0">
-        <v>-0.098028210483733155</v>
+        <v>-11.196102904567152</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>24.741844150331698</v>
+        <v>5.2260984908682975</v>
       </c>
       <c r="B263" s="0">
-        <v>0.030890966270999787</v>
+        <v>-11.129976626038481</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>24.797833349569412</v>
+        <v>5.3894261425564602</v>
       </c>
       <c r="B264" s="0">
-        <v>0.15940241387670126</v>
+        <v>-11.061598815294378</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>24.853165015464565</v>
+        <v>5.5515280449661528</v>
       </c>
       <c r="B265" s="0">
-        <v>0.28750463291782669</v>
+        <v>-10.990994995071363</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>24.907849867353402</v>
+        <v>5.7123767203691678</v>
       </c>
       <c r="B266" s="0">
-        <v>0.41519622874619877</v>
+        <v>-10.918190953377426</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>24.961898485909693</v>
+        <v>5.8719452259879672</v>
       </c>
       <c r="B267" s="0">
-        <v>0.5424759082852989</v>
+        <v>-10.843212733405467</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>25.015321314652383</v>
+        <v>6.0302071537621122</v>
       </c>
       <c r="B268" s="0">
-        <v>0.66934247691652027</v>
+        <v>-10.766086623542886</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>25.068128661453528</v>
+        <v>6.1871366299626622</v>
       </c>
       <c r="B269" s="0">
-        <v>0.79579483544572449</v>
+        <v>-10.686839147478214</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>25.120330700045475</v>
+        <v>6.3427083146573899</v>
       </c>
       <c r="B270" s="0">
-        <v>0.92183197714834053</v>
+        <v>-10.605497054406397</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>25.17193747152654</v>
+        <v>6.4968974010298002</v>
       </c>
       <c r="B271" s="0">
-        <v>1.0474529848905669</v>
+        <v>-10.522087309334086</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>25.222958885864337</v>
+        <v>6.6496796145557413</v>
       </c>
       <c r="B272" s="0">
-        <v>1.1726570283253723</v>
+        <v>-10.436637083485838</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>25.273404723396006</v>
+        <v>6.8010312120399696</v>
       </c>
       <c r="B273" s="0">
-        <v>1.2974433611609557</v>
+        <v>-10.349173744812829</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>25.323284636324736</v>
+        <v>6.9509289805166716</v>
       </c>
       <c r="B274" s="0">
-        <v>1.4218113185002563</v>
+        <v>-10.259724848604666</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>25.372608150211793</v>
+        <v>7.099350236016317</v>
       </c>
       <c r="B275" s="0">
-        <v>1.5457603142496334</v>
+        <v>-10.168318128205735</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>25.421384665463481</v>
+        <v>7.2462728222025179</v>
       </c>
       <c r="B276" s="0">
-        <v>1.6692898385947452</v>
+        <v>-10.074981485836762</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>25.46962345881246</v>
+        <v>7.3916751088817403</v>
       </c>
       <c r="B277" s="0">
-        <v>1.7923994555425806</v>
+        <v>-9.9797429835225184</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>25.517333684792845</v>
+        <v>7.5355359903886159</v>
       </c>
       <c r="B278" s="0">
-        <v>1.9150888005271636</v>
+        <v>-9.8826308341267843</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>25.564524377208581</v>
+        <v>7.6778348838505517</v>
       </c>
       <c r="B279" s="0">
-        <v>2.0373575780782369</v>
+        <v>-9.7836733924948796</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>25.611204450594553</v>
+        <v>7.8185517273343113</v>
       </c>
       <c r="B280" s="0">
-        <v>2.1592055595506223</v>
+        <v>-9.6828991467046546</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>25.657382701670052</v>
+        <v>7.9576669778771238</v>
       </c>
       <c r="B281" s="0">
-        <v>2.280632580913017</v>
+        <v>-9.5803367094269607</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>25.703067810784106</v>
+        <v>8.0951616094060803</v>
       </c>
       <c r="B282" s="0">
-        <v>2.40163854059508</v>
+        <v>-9.4760148093955561</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>25.748268343352315</v>
+        <v>8.2310171105481569</v>
       </c>
       <c r="B283" s="0">
-        <v>2.5222233973905497</v>
+        <v>-9.3699622829874727</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>25.79299275128475</v>
+        <v>8.3652154823338982</v>
       </c>
       <c r="B284" s="0">
-        <v>2.6423871684158979</v>
+        <v>-9.2622080659142121</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>25.837249374404621</v>
+        <v>8.4977392357979173</v>
       </c>
       <c r="B285" s="0">
-        <v>2.7621299271223201</v>
+        <v>-9.1527811850239669</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>25.881046441857443</v>
+        <v>8.6285713894784646</v>
       </c>
       <c r="B286" s="0">
-        <v>2.8814518013602863</v>
+        <v>-9.0417107502157581</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>25.924392073510226</v>
+        <v>8.7576954668195661</v>
       </c>
       <c r="B287" s="0">
-        <v>3.000352971495134</v>
+        <v>-8.9290259464652291</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>25.967294281340561</v>
+        <v>8.885095493477758</v>
       </c>
       <c r="B288" s="0">
-        <v>3.11883366857217</v>
+        <v>-8.8147560259630868</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>26.009760970815339</v>
+        <v>9.0107559945372095</v>
       </c>
       <c r="B289" s="0">
-        <v>3.2368941725305524</v>
+        <v>-8.6989303003654097</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>26.051799942258729</v>
+        <v>9.1346619916346867</v>
       </c>
       <c r="B290" s="0">
-        <v>3.3545348104641666</v>
+        <v>-8.5815781331572758</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>26.093418892209389</v>
+        <v>9.2567989999980167</v>
       </c>
       <c r="B291" s="0">
-        <v>3.4717559549286294</v>
+        <v>-8.4627289321288792</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>26.134625414766496</v>
+        <v>9.3771530254003856</v>
       </c>
       <c r="B292" s="0">
-        <v>3.5885580222931783</v>
+        <v>-8.3424121419646546</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>26.175427002924643</v>
+        <v>9.4957105610330927</v>
       </c>
       <c r="B293" s="0">
-        <v>3.7049414711362965</v>
+        <v>-8.2206572369453035</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>26.215831049897229</v>
+        <v>9.6124585842992367</v>
       </c>
       <c r="B294" s="0">
-        <v>3.8209068006839266</v>
+        <v>-8.0974937137630789</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>26.255844850428318</v>
+        <v>9.7273845535311949</v>
       </c>
       <c r="B295" s="0">
-        <v>3.9364545492890932</v>
+        <v>-7.9729510844498295</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>26.295475602092779</v>
+        <v>9.8404764046342557</v>
       </c>
       <c r="B296" s="0">
-        <v>4.0515852929521623</v>
+        <v>-7.8470588694180314</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>26.334730406584622</v>
+        <v>9.9517225476586955</v>
       </c>
       <c r="B297" s="0">
-        <v>4.1662996438804303</v>
+        <v>-7.7198465906148837</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>26.373616270993406</v>
+        <v>10.061111863303424</v>
       </c>
       <c r="B298" s="0">
-        <v>4.2805982490859931</v>
+        <v>-7.5913437647886282</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>26.412140109068581</v>
+        <v>10.16863369935278</v>
       </c>
       <c r="B299" s="0">
-        <v>4.3944817890212606</v>
+        <v>-7.4615798968678737</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>26.450308742471783</v>
+        <v>10.274277867049472</v>
       </c>
       <c r="B300" s="0">
-        <v>4.5079509762506733</v>
+        <v>-7.3305844734530679</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>26.488128902016907</v>
+        <v>10.378034637405879</v>
       </c>
       <c r="B301" s="0">
-        <v>4.6210065541581429</v>
+        <v>-7.1983869564200278</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>26.525607228898004</v>
+        <v>10.47989473745621</v>
       </c>
       <c r="B302" s="0">
-        <v>4.7336492956887684</v>
+        <v>-7.0650167766350336</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>26.562750275904826</v>
+        <v>10.579849346451311</v>
       </c>
       <c r="B303" s="0">
-        <v>4.8458800021245843</v>
+        <v>-6.9305033277818762</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>26.599564508626134</v>
+        <v>10.677890091998854</v>
       </c>
       <c r="B304" s="0">
-        <v>4.9576995018928871</v>
+        <v>-6.7948759602999314</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>26.636056306640626</v>
+        <v>10.774009046151418</v>
       </c>
       <c r="B305" s="0">
-        <v>5.0691086494065765</v>
+        <v>-6.6581639754324398</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>26.672231964695534</v>
+        <v>10.86819872144366</v>
       </c>
       <c r="B306" s="0">
-        <v>5.1801083239355554</v>
+        <v>-6.5203966193860721</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>26.708097693872798</v>
+        <v>10.960452066881873</v>
       </c>
       <c r="B307" s="0">
-        <v>5.2906994285085096</v>
+        <v>-6.3816030775997161</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>26.74365962274296</v>
+        <v>11.050762463887349</v>
       </c>
       <c r="B308" s="0">
-        <v>5.4008828888441816</v>
+        <v>-6.2418124691230759</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>26.778923798506661</v>
+        <v>11.13912372219596</v>
       </c>
       <c r="B309" s="0">
-        <v>5.5106596523112747</v>
+        <v>-6.1010538411041848</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>26.813896188123746</v>
+        <v>11.225530075715893</v>
       </c>
       <c r="B310" s="0">
-        <v>5.6200306869165937</v>
+        <v>-5.9593561633854515</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>26.848582679430148</v>
+        <v>11.309976178345751</v>
       </c>
       <c r="B311" s="0">
-        <v>5.7289969803199581</v>
+        <v>-5.816748323207519</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>26.882989082242425</v>
+        <v>11.392457099754839</v>
       </c>
       <c r="B312" s="0">
-        <v>5.837559538876155</v>
+        <v>-5.673259120020643</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>26.917121129450045</v>
+        <v>11.472968321127683</v>
       </c>
       <c r="B313" s="0">
-        <v>5.9457193867023781</v>
+        <v>-5.5289172604028778</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>26.950984478095489</v>
+        <v>11.551505730874817</v>
       </c>
       <c r="B314" s="0">
-        <v>6.0534775647707688</v>
+        <v>-5.3837513530843069</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>26.984584710442149</v>
+        <v>11.628065620311578</v>
       </c>
       <c r="B315" s="0">
-        <v>6.1608351300256698</v>
+        <v>-5.2377899040770712</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>27.017927335030144</v>
+        <v>11.702644679307046</v>
       </c>
       <c r="B316" s="0">
-        <v>6.2677931545245276</v>
+        <v>-5.0910613119098853</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>27.051017787720109</v>
+        <v>11.775239991904479</v>
       </c>
       <c r="B317" s="0">
-        <v>6.3743527246017972</v>
+        <v>-4.9435938629675205</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>27.083861432724905</v>
+        <v>11.845849031915852</v>
       </c>
       <c r="B318" s="0">
-        <v>6.4805149400557793</v>
+        <v>-4.7954157269328581</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>27.116463563629544</v>
+        <v>11.914469658491358</v>
       </c>
       <c r="B319" s="0">
-        <v>6.5862809133569424</v>
+        <v>-4.6465549523327363</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>27.148829404399109</v>
+        <v>11.981100111666354</v>
       </c>
       <c r="B320" s="0">
-        <v>6.691651768878069</v>
+        <v>-4.49703946218533</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>27.180964110375054</v>
+        <v>12.045739007887159</v>
       </c>
       <c r="B321" s="0">
-        <v>6.7966286421447117</v>
+        <v>-4.3468970497489678</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>27.212872769259665</v>
+        <v>12.10838533551734</v>
       </c>
       <c r="B322" s="0">
-        <v>6.9012126791061279</v>
+        <v>-4.1961553743717044</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>27.244560402089032</v>
+        <v>12.169038450326264</v>
       </c>
       <c r="B323" s="0">
-        <v>7.0054050354258495</v>
+        <v>-4.044841957440668</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>27.276031964194424</v>
+        <v>12.227698070961505</v>
       </c>
       <c r="B324" s="0">
-        <v>7.109206875791247</v>
+        <v>-3.8929841784304391</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>27.307292346152245</v>
+        <v>12.284364274406757</v>
       </c>
       <c r="B325" s="0">
-        <v>7.2126193732416803</v>
+        <v>-3.7406092710494003</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>27.338346374722668</v>
+        <v>12.339037491426552</v>
       </c>
       <c r="B326" s="0">
-        <v>7.3156437085149308</v>
+        <v>-3.5877443194840826</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>27.369198813777007</v>
+        <v>12.391718501999728</v>
       </c>
       <c r="B327" s="0">
-        <v>7.4182810694109396</v>
+        <v>-3.4344162547395034</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>27.399854365213923</v>
+        <v>12.442408430742823</v>
       </c>
       <c r="B328" s="0">
-        <v>7.5205326501728722</v>
+        <v>-3.2806518510754006</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>27.430317669864618</v>
+        <v>12.491108742324961</v>
       </c>
       <c r="B329" s="0">
-        <v>7.6223996508844669</v>
+        <v>-3.1264777225374751</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>27.460593308387054</v>
+        <v>12.537821236875661</v>
       </c>
       <c r="B330" s="0">
-        <v>7.7238832768840027</v>
+        <v>-2.9719203195825661</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>27.490685802149372</v>
+        <v>12.582548045387075</v>
       </c>
       <c r="B331" s="0">
-        <v>7.8249847381933932</v>
+        <v>-2.8170059257967925</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>27.520599614102519</v>
+        <v>12.625291625111865</v>
       </c>
       <c r="B332" s="0">
-        <v>7.9257052489631068</v>
+        <v>-2.6617606547060331</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>27.550339149642273</v>
+        <v>12.666054754958184</v>
       </c>
       <c r="B333" s="0">
-        <v>8.0260460269313576</v>
+        <v>-2.5062104466778057</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>27.579908757460807</v>
+        <v>12.704840530883066</v>
       </c>
       <c r="B334" s="0">
-        <v>8.1260082928980282</v>
+        <v>-2.3503810659133455</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>27.60931273038776</v>
+        <v>12.741652361285464</v>
       </c>
       <c r="B335" s="0">
-        <v>8.2255932702125243</v>
+        <v>-2.1942980975294262</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>27.638555306221082</v>
+        <v>12.776493962400265</v>
       </c>
       <c r="B336" s="0">
-        <v>8.3248021842749509</v>
+        <v>-2.0379869447285874</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>27.667640668547683</v>
+        <v>12.809369353694505</v>
       </c>
       <c r="B337" s="0">
-        <v>8.4236362620508025</v>
+        <v>-1.8814728260569824</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>27.696572947554017</v>
+        <v>12.840282853266922</v>
       </c>
       <c r="B338" s="0">
-        <v>8.5220967315982552</v>
+        <v>-1.7247807727490663</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>27.725356220826757</v>
+        <v>12.86923907325213</v>
       </c>
       <c r="B339" s="0">
-        <v>8.6201848216078005</v>
+        <v>-1.5679356261578401</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>27.753994514143567</v>
+        <v>12.896242915230472</v>
       </c>
       <c r="B340" s="0">
-        <v>8.7179017609540406</v>
+        <v>-1.4109620352700458</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>27.782491802254299</v>
+        <v>12.921299565644727</v>
       </c>
       <c r="B341" s="0">
-        <v>8.8152487782591429</v>
+        <v>-1.2538844543052972</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>27.810852009652475</v>
+        <v>12.94441449122478</v>
       </c>
       <c r="B342" s="0">
-        <v>8.9122271014675505</v>
+        <v>-1.0967271403976995</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>27.839079011337393</v>
+        <v>12.965593434421262</v>
       </c>
       <c r="B343" s="0">
-        <v>9.0088379574317106</v>
+        <v>-0.93951415135986638</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>27.867176633566828</v>
+        <v>12.984842408849287</v>
       </c>
       <c r="B344" s="0">
-        <v>9.1050825715084667</v>
+        <v>-0.78226934352739153</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>27.895148654600582</v>
+        <v>13.002167694743207</v>
       </c>
       <c r="B345" s="0">
-        <v>9.2009621671657023</v>
+        <v>-0.6250163696838299</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>27.922998805434865</v>
+        <v>13.01757583442347</v>
       </c>
       <c r="B346" s="0">
-        <v>9.296477965599049</v>
+        <v>-0.46777867706422538</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>27.950730770527787</v>
+        <v>13.031073627776497</v>
       </c>
       <c r="B347" s="0">
-        <v>9.3916311853581096</v>
+        <v>-0.31057950543670665</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>27.978348188515888</v>
+        <v>13.042668127748504</v>
       </c>
       <c r="B348" s="0">
-        <v>9.4864230419821887</v>
+        <v>-0.15344188526152505</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>28.005854652922064</v>
+        <v>13.052366635854241</v>
       </c>
       <c r="B349" s="0">
-        <v>9.5808547476450379</v>
+        <v>0.0036113640743795209</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>28.033253712854815</v>
+        <v>13.060176697701486</v>
       </c>
       <c r="B350" s="0">
-        <v>9.674927510808379</v>
+        <v>0.16055763594754954</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>28.060548873699037</v>
+        <v>13.066106098532178</v>
       </c>
       <c r="B351" s="0">
-        <v>9.7686425358836644</v>
+        <v>0.31737453811402011</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>28.087743597798493</v>
+        <v>13.070162858781041</v>
       </c>
       <c r="B352" s="0">
-        <v>9.8620010229023976</v>
+        <v>0.4740398942522227</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>28.11484130513</v>
+        <v>13.072355229652517</v>
       </c>
       <c r="B353" s="0">
-        <v>9.9550041671940939</v>
+        <v>0.63053174543404911</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>28.141845373969623</v>
+        <v>13.072691688716779</v>
       </c>
       <c r="B354" s="0">
-        <v>10.047653159071793</v>
+        <v>0.78682835152445663</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>28.168759141550765</v>
+        <v>13.071180935525639</v>
       </c>
       <c r="B355" s="0">
-        <v>10.139949183525204</v>
+        <v>0.94290819251118541</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>28.195585904714537</v>
+        <v>13.067831887249058</v>
       </c>
       <c r="B356" s="0">
-        <v>10.231893419920658</v>
+        <v>1.0987499697651257</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>28.222328920552368</v>
+        <v>13.062653674332985</v>
       </c>
       <c r="B357" s="0">
-        <v>10.323487041707997</v>
+        <v>1.2543326072330003</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>28.24899140704099</v>
+        <v>13.055655636179322</v>
       </c>
       <c r="B358" s="0">
-        <v>10.414731216134117</v>
+        <v>1.4096352525618989</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>28.275576543670031</v>
+        <v>13.046847316848506</v>
       </c>
       <c r="B359" s="0">
-        <v>10.50562710396256</v>
+        <v>1.5646372781589275</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>28.302087472062237</v>
+        <v>13.036238460785617</v>
       </c>
       <c r="B360" s="0">
-        <v>10.596175859199489</v>
+        <v>1.7193182821843485</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>28.328527296586504</v>
+        <v>13.023839008570395</v>
       </c>
       <c r="B361" s="0">
-        <v>10.686378628825297</v>
+        <v>1.8736580894815797</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>28.354899084963822</v>
+        <v>13.009659092692042</v>
       </c>
       <c r="B362" s="0">
-        <v>10.77623655253177</v>
+        <v>2.0276367524429668</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>28.381205868866335</v>
+        <v>12.993709033349139</v>
       </c>
       <c r="B363" s="0">
-        <v>10.865750762464682</v>
+        <v>2.1812345518141716</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>28.407450644509471</v>
+        <v>12.975999334275498</v>
       </c>
       <c r="B364" s="0">
-        <v>10.954922382971567</v>
+        <v>2.3344319974366261</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>28.433636373237508</v>
+        <v>12.956540678592397</v>
       </c>
       <c r="B365" s="0">
-        <v>11.043752530354146</v>
+        <v>2.487209828929613</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>28.459765982102507</v>
+        <v>12.935343924687645</v>
       </c>
       <c r="B366" s="0">
-        <v>11.132242312625612</v>
+        <v>2.6395490163135618</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>28.485842364436905</v>
+        <v>12.912420102122217</v>
       </c>
       <c r="B367" s="0">
-        <v>11.220392829272193</v>
+        <v>2.7914307605741557</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>28.511868380419678</v>
+        <v>12.887780407564755</v>
       </c>
       <c r="B368" s="0">
-        <v>11.308205171019099</v>
+        <v>2.9428364941695491</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>28.537846857636463</v>
+        <v>12.861436200754516</v>
       </c>
       <c r="B369" s="0">
-        <v>11.395680419600318</v>
+        <v>3.0937478814806618</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>28.563780591633613</v>
+        <v>12.833399000493204</v>
       </c>
       <c r="B370" s="0">
-        <v>11.482819647532143</v>
+        <v>3.244146819206259</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>28.589672346466372</v>
+        <v>12.803680480666145</v>
       </c>
       <c r="B371" s="0">
-        <v>11.569623917890349</v>
+        <v>3.3940154367029929</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>28.615524855241205</v>
+        <v>12.772292466293232</v>
       </c>
       <c r="B372" s="0">
-        <v>11.656094284090786</v>
+        <v>3.5433360962720375</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>28.641340820652619</v>
+        <v>12.739246929609964</v>
       </c>
       <c r="B373" s="0">
-        <v>11.742231789672831</v>
+        <v>3.6920913933929711</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>28.667122915514415</v>
+        <v>12.70455598617915</v>
       </c>
       <c r="B374" s="0">
-        <v>11.82803746808594</v>
+        <v>3.8402641569055347</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>28.692873783285545</v>
+        <v>12.668231891033471</v>
       </c>
       <c r="B375" s="0">
-        <v>11.913512342479022</v>
+        <v>3.9878374491407196</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>28.718596038590874</v>
+        <v>12.630287034849321</v>
       </c>
       <c r="B376" s="0">
-        <v>11.99865742549197</v>
+        <v>4.1347945660019088</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>28.744292267736682</v>
+        <v>12.590733940152303</v>
       </c>
       <c r="B377" s="0">
-        <v>12.083473719049815</v>
+        <v>4.2811190369967607</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>28.76996502922135</v>
+        <v>12.549585257554735</v>
       </c>
       <c r="B378" s="0">
-        <v>12.167962214158756</v>
+        <v>4.4267946252208059</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>28.795616854241199</v>
+        <v>12.506853762025292</v>
       </c>
       <c r="B379" s="0">
-        <v>12.252123890704118</v>
+        <v>4.5718053272941175</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>28.821250247191621</v>
+        <v>12.462552349191304</v>
       </c>
       <c r="B380" s="0">
-        <v>12.335959717250004</v>
+        <v>4.7161353732512632</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>28.846867686163684</v>
+        <v>12.416694031673851</v>
       </c>
       <c r="B381" s="0">
-        <v>12.419470650840386</v>
+        <v>4.8597692263858834</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>28.872471623436425</v>
+        <v>12.369291935455923</v>
       </c>
       <c r="B382" s="0">
-        <v>12.5026576368014</v>
+        <v>5.0026915830507104</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>28.898064485964788</v>
+        <v>12.32035929628401</v>
       </c>
       <c r="B383" s="0">
-        <v>12.585521608544784</v>
+        <v>5.1448873724136055</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>28.923648675863543</v>
+        <v>12.269909456103163</v>
       </c>
       <c r="B384" s="0">
-        <v>12.668063487372043</v>
+        <v>5.2863417561709696</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>28.94922657088723</v>
+        <v>12.217955859525928</v>
       </c>
       <c r="B385" s="0">
-        <v>12.750284182279225</v>
+        <v>5.4270401282189473</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>28.974800524906318</v>
+        <v>12.164512050335212</v>
       </c>
       <c r="B386" s="0">
-        <v>12.832184589762205</v>
+        <v>5.5669681142836174</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>29.00037286837961</v>
+        <v>12.109591668021448</v>
       </c>
       <c r="B387" s="0">
-        <v>12.913765593622191</v>
+        <v>5.7061115715106148</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>29.025945908823367</v>
+        <v>12.05320844435399</v>
       </c>
       <c r="B388" s="0">
-        <v>12.995028064770864</v>
+        <v>5.8444565880155661</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>29.05152193127681</v>
+        <v>11.99537619998719</v>
       </c>
       <c r="B389" s="0">
-        <v>13.075972861035838</v>
+        <v>5.9819894823955693</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>29.077103198764693</v>
+        <v>11.936108841101001</v>
       </c>
       <c r="B390" s="0">
-        <v>13.156600826965125</v>
+        <v>6.1186968032031617</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>29.102691952756686</v>
+        <v>11.875420356076608</v>
       </c>
       <c r="B391" s="0">
-        <v>13.23691279363125</v>
+        <v>6.2545653283828946</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>29.128290413623979</v>
+        <v>11.813324812206755</v>
       </c>
       <c r="B392" s="0">
-        <v>13.316909578434165</v>
+        <v>6.3895820646722115</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>29.153900781093107</v>
+        <v>11.749836352441468</v>
       </c>
       <c r="B393" s="0">
-        <v>13.39659198490344</v>
+        <v>6.5237342469662432</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>29.179525234697358</v>
+        <v>11.684969192168616</v>
       </c>
       <c r="B394" s="0">
-        <v>13.475960802498566</v>
+        <v>6.6570093376487485</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>29.205165934225739</v>
+        <v>11.618737616029934</v>
       </c>
       <c r="B395" s="0">
-        <v>13.555016806407991</v>
+        <v>6.7893950258887372</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>29.230825020169824</v>
+        <v>11.55115597477241</v>
       </c>
       <c r="B396" s="0">
-        <v>13.633760757346041</v>
+        <v>6.9208792269041304</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>29.256504614168506</v>
+        <v>11.482238682134973</v>
       </c>
       <c r="B397" s="0">
-        <v>13.712193401347985</v>
+        <v>7.0514500811932885</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>29.282206819451087</v>
+        <v>11.412000211770662</v>
       </c>
       <c r="B398" s="0">
-        <v>13.790315469562442</v>
+        <v>7.1810959537350714</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>29.307933721278591</v>
+        <v>11.340455094204478</v>
       </c>
       <c r="B399" s="0">
-        <v>13.868127678041356</v>
+        <v>7.3098054331578695</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>29.33368738738373</v>
+        <v>11.267617913826554</v>
       </c>
       <c r="B400" s="0">
-        <v>13.945630727526863</v>
+        <v>7.4375673308789985</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>29.359469868409661</v>
+        <v>11.193503305921112</v>
       </c>
       <c r="B401" s="0">
-        <v>14.022825303235093</v>
+        <v>7.5643706802145898</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>29.38528319834759</v>
+        <v>11.118125953730921</v>
       </c>
       <c r="B402" s="0">
-        <v>14.099712074636583</v>
+        <v>7.6902047354610508</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>29.411129394973678</v>
+        <v>11.04150058555734</v>
       </c>
       <c r="B403" s="0">
-        <v>14.176291695232605</v>
+        <v>7.8150589709488214</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>29.437010460285304</v>
+        <v>10.963641971896159</v>
       </c>
       <c r="B404" s="0">
-        <v>14.252564802327671</v>
+        <v>7.9389230800687303</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>29.462928380936926</v>
+        <v>10.884564922608698</v>
       </c>
       <c r="B405" s="0">
-        <v>14.328532016797652</v>
+        <v>8.0617869742725201</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>29.488885128675783</v>
+        <v>10.804284284128869</v>
       </c>
       <c r="B406" s="0">
-        <v>14.404193942853013</v>
+        <v>8.1836407820471155</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>29.51488266077774</v>
+        <v>10.722814936705495</v>
       </c>
       <c r="B407" s="0">
-        <v>14.479551167797057</v>
+        <v>8.304474847864352</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>29.540922920483354</v>
+        <v>10.640171791680235</v>
       </c>
       <c r="B408" s="0">
-        <v>14.554604261778927</v>
+        <v>8.424279731106278</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>29.567007837434652</v>
+        <v>10.556369788801106</v>
       </c>
       <c r="B409" s="0">
-        <v>14.62935377754045</v>
+        <v>8.5430462049666573</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>29.593139328112606</v>
+        <v>10.471423893571263</v>
       </c>
       <c r="B410" s="0">
-        <v>14.703800250157405</v>
+        <v>8.6607652553297534</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>29.619319296275872</v>
+        <v>10.385349094633023</v>
       </c>
       <c r="B411" s="0">
-        <v>14.777944196773634</v>
+        <v>8.777428079626965</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>29.645549633400819</v>
+        <v>10.298160401187545</v>
       </c>
       <c r="B412" s="0">
-        <v>14.851786116328686</v>
+        <v>8.8930260856713286</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>29.67183221912325</v>
+        <v>10.209872840449357</v>
       </c>
       <c r="B413" s="0">
-        <v>14.925326489277904</v>
+        <v>9.0075508904714905</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>29.698168921682214</v>
+        <v>10.120501455136132</v>
       </c>
       <c r="B414" s="0">
-        <v>14.998565777304634</v>
+        <v>9.1209943190252183</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>29.724561598365973</v>
+        <v>10.030061300993635</v>
       </c>
       <c r="B415" s="0">
-        <v>15.071504423024361</v>
+        <v>9.2333484030929291</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>29.751012095960814</v>
+        <v>9.9385674443552858</v>
       </c>
       <c r="B416" s="0">
-        <v>15.144142849679818</v>
+        <v>9.3446053799525632</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>29.777522251202615</v>
+        <v>9.8460349597368069</v>
       </c>
       <c r="B417" s="0">
-        <v>15.216481460827065</v>
+        <v>9.4547576911356348</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>29.804093891231993</v>
+        <v>9.7524789274656136</v>
       </c>
       <c r="B418" s="0">
-        <v>15.288520640011635</v>
+        <v>9.5637979811453562</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>29.830728834052998</v>
+        <v>9.6579144313444978</v>
       </c>
       <c r="B419" s="0">
-        <v>15.360260750434328</v>
+        <v>9.6717190961578208</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>29.857428888996051</v>
+        <v>9.5623565563502204</v>
       </c>
       <c r="B420" s="0">
-        <v>15.431702134606075</v>
+        <v>9.7785140827060069</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>29.884195857185325</v>
+        <v>9.4658203863659036</v>
       </c>
       <c r="B421" s="0">
-        <v>15.502845113991315</v>
+        <v>9.8841761863482276</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>29.911031532011148</v>
+        <v>9.3683210019482974</v>
       </c>
       <c r="B422" s="0">
-        <v>15.573689988638971</v>
+        <v>9.9886988503203202</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>29.9379376996079</v>
+        <v>9.2698734781284795</v>
       </c>
       <c r="B423" s="0">
-        <v>15.644237036800645</v>
+        <v>10.092075714173518</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>29.964916139337635</v>
+        <v>9.1704928822468794</v>
       </c>
       <c r="B424" s="0">
-        <v>15.714486514535199</v>
+        <v>10.194300612397447</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>29.99196862428029</v>
+        <v>9.0701942718218547</v>
       </c>
       <c r="B425" s="0">
-        <v>15.784438655299001</v>
+        <v>10.295367573029482</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>30.01909692173076</v>
+        <v>8.9689926924521082</v>
       </c>
       <c r="B426" s="0">
-        <v>15.854093669520724</v>
+        <v>10.395270816250498</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>30.046302793703504</v>
+        <v>8.8669031757521957</v>
       </c>
       <c r="B427" s="0">
-        <v>15.923451744160433</v>
+        <v>10.494004752968152</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>30.073587997445184</v>
+        <v>8.7639407373217217</v>
       </c>
       <c r="B428" s="0">
-        <v>15.992513042251609</v>
+        <v>10.591563983387516</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>30.100954285956135</v>
+        <v>8.6601203747472706</v>
       </c>
       <c r="B429" s="0">
-        <v>16.061277702425144</v>
+        <v>10.687943295570228</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>30.128403408521148</v>
+        <v>8.5554570656375262</v>
       </c>
       <c r="B430" s="0">
-        <v>16.129745838414578</v>
+        <v>10.783137663982192</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>30.15593711125025</v>
+        <v>8.449965765691104</v>
       </c>
       <c r="B431" s="0">
-        <v>16.197917538541482</v>
+        <v>10.877142248030502</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>30.18355713763054</v>
+        <v>8.3436614067967874</v>
       </c>
       <c r="B432" s="0">
-        <v>16.2657928651793</v>
+        <v>10.969952390590267</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>30.211265229089395</v>
+        <v>8.2365588951662385</v>
       </c>
       <c r="B433" s="0">
-        <v>16.333371854195395</v>
+        <v>11.061563616521543</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>30.239063125570283</v>
+        <v>8.1286731094990774</v>
       </c>
       <c r="B434" s="0">
-        <v>16.400654514369045</v>
+        <v>11.151971631176798</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>30.266952566121784</v>
+        <v>8.0200188991796164</v>
       </c>
       <c r="B435" s="0">
-        <v>16.467640826784795</v>
+        <v>11.241172318899835</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>30.294935289501066</v>
+        <v>7.9106110825054987</v>
       </c>
       <c r="B436" s="0">
-        <v>16.534330744198964</v>
+        <v>11.329161741516192</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>30.323013034792428</v>
+        <v>7.8004644449481679</v>
       </c>
       <c r="B437" s="0">
-        <v>16.600724190378582</v>
+        <v>11.415936136815489</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>30.351187542042425</v>
+        <v>7.6895937374442438</v>
       </c>
       <c r="B438" s="0">
-        <v>16.666821059410236</v>
+        <v>11.501491917026597</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>30.379460552912303</v>
+        <v>7.5780136747185933</v>
       </c>
       <c r="B439" s="0">
-        <v>16.732621214977758</v>
+        <v>11.585825667285425</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>30.407833811349306</v>
+        <v>7.4657389336378017</v>
       </c>
       <c r="B440" s="0">
-        <v>16.798124489606408</v>
+        <v>11.668934144096484</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>30.436309064278024</v>
+        <v>7.3527841515948982</v>
       </c>
       <c r="B441" s="0">
-        <v>16.863330683871478</v>
+        <v>11.750814273787903</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>30.46488806231304</v>
+        <v>7.239163924924175</v>
       </c>
       <c r="B442" s="0">
-        <v>16.928239565569683</v>
+        <v>11.831463150960996</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>30.493572560494727</v>
+        <v>-13.76861724773887</v>
       </c>
       <c r="B443" s="0">
-        <v>16.992850868850155</v>
+        <v>-14.455627507814809</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>30.522364319049494</v>
+        <v>-13.532817592528071</v>
       </c>
       <c r="B444" s="0">
-        <v>17.057164293303146</v>
+        <v>-14.707325078636092</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>30.551265104176309</v>
+        <v>-13.293302616424818</v>
       </c>
       <c r="B445" s="0">
-        <v>17.121179503003621</v>
+        <v>-14.954406199815894</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>30.580276688861495</v>
+        <v>-13.050173356001196</v>
       </c>
       <c r="B446" s="0">
-        <v>17.184896125506381</v>
+        <v>-15.196833610216673</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>30.609400853723624</v>
+        <v>-12.803530610052599</v>
       </c>
       <c r="B447" s="0">
-        <v>17.248313750790221</v>
+        <v>-15.434572179067001</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>30.638639387890773</v>
+        <v>-12.55347490299985</v>
       </c>
       <c r="B448" s="0">
-        <v>17.311431930147087</v>
+        <v>-15.667588876593495</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>30.66799408991249</v>
+        <v>-12.300106449377278</v>
       </c>
       <c r="B449" s="0">
-        <v>17.374250175013028</v>
+        <v>-15.895852744371531</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>30.697466768708892</v>
+        <v>-12.043525119395632</v>
       </c>
       <c r="B450" s="0">
-        <v>17.436767955736752</v>
+        <v>-16.119334865419479</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>30.727059244559804</v>
+        <v>-11.783830405565091</v>
       </c>
       <c r="B451" s="0">
-        <v>17.498984700281351</v>
+        <v>-16.338008334063829</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>30.756773350136829</v>
+        <v>-11.521121390367815</v>
       </c>
       <c r="B452" s="0">
-        <v>17.560899792854684</v>
+        <v>-16.551848225597602</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>30.786610931581375</v>
+        <v>-11.255496714963355</v>
       </c>
       <c r="B453" s="0">
-        <v>17.622512572463513</v>
+        <v>-16.760831565758934</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>30.81657384963254</v>
+        <v>-10.987054548916936</v>
       </c>
       <c r="B454" s="0">
-        <v>17.683822331385272</v>
+        <v>-16.964937300050071</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>30.846663980808234</v>
+        <v>-10.715892560933161</v>
       </c>
       <c r="B455" s="0">
-        <v>17.744828313552329</v>
+        <v>-17.164146262922344</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>30.876883218643982</v>
+        <v>-10.442107890584357</v>
       </c>
       <c r="B456" s="0">
-        <v>17.80552971284127</v>
+        <v>-17.358441146846371</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>30.907233474993753</v>
+        <v>-10.165797121016237</v>
       </c>
       <c r="B457" s="0">
-        <v>17.86592567126079</v>
+        <v>-17.547806471291025</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>30.93771668139788</v>
+        <v>-9.8870562526198249</v>
       </c>
       <c r="B458" s="0">
-        <v>17.92601527702994</v>
+        <v>-17.73222855162939</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>30.968334790523357</v>
+        <v>-9.6059806776513295</v>
       </c>
       <c r="B459" s="0">
-        <v>17.985797562538309</v>
+        <v>-17.911695467993962</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>30.999089777682503</v>
+        <v>-9.3226651557896005</v>
       </c>
       <c r="B460" s="0">
-        <v>18.045271502178874</v>
+        <v>-18.086197034097616</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>31.029983642436452</v>
+        <v>-9.0372037906116951</v>
       </c>
       <c r="B461" s="0">
-        <v>18.10443601004302</v>
+        <v>-18.255724766041748</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>31.061018410290789</v>
+        <v>-8.7496900069766586</v>
       </c>
       <c r="B462" s="0">
-        <v>18.163289937466406</v>
+        <v>-18.42027185112649</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>31.092196134490809</v>
+        <v>-8.4602165292977656</v>
       </c>
       <c r="B463" s="0">
-        <v>18.221832070413459</v>
+        <v>-18.579833116683076</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>31.123518897925656</v>
+        <v>-8.1688753606925673</v>
       </c>
       <c r="B464" s="0">
-        <v>18.280061126686302</v>
+        <v>-18.734404998942573</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
-        <v>31.154988815150404</v>
+        <v>-7.8757577629923157</v>
       </c>
       <c r="B465" s="0">
-        <v>18.337975752943215</v>
+        <v>-18.883985511958855</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
-        <v>31.186608034537102</v>
+        <v>-7.5809542375978634</v>
       </c>
       <c r="B466" s="0">
-        <v>18.395574521509513</v>
+        <v>-19.028574216600035</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
-        <v>31.218378740566369</v>
+        <v>-7.2845545071659412</v>
       </c>
       <c r="B467" s="0">
-        <v>18.452855926962339</v>
+        <v>-19.168172189623945</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
-        <v>31.250303156272864</v>
+        <v>-6.9866474981107816</v>
       </c>
       <c r="B468" s="0">
-        <v>18.509818382468175</v>
+        <v>-19.302781992851571</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
-        <v>31.282383545859069</v>
+        <v>-6.6873213239068017</v>
       </c>
       <c r="B469" s="0">
-        <v>18.566460215850146</v>
+        <v>-19.432407642452187</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
-        <v>31.314622217493962</v>
+        <v>-6.3866632691757275</v>
       </c>
       <c r="B470" s="0">
-        <v>18.622779665358987</v>
+        <v>-19.557054578353743</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>31.347021526314613</v>
+        <v>-6.0847597745445743</v>
       </c>
       <c r="B471" s="0">
-        <v>18.678774875118638</v>
+        <v>-19.676729633790643</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
-        <v>31.379583877651509</v>
+        <v>-5.7816964222591682</v>
       </c>
       <c r="B472" s="0">
-        <v>18.734443890213981</v>
+        <v>-19.791441005001214</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
-        <v>31.412311730500672</v>
+        <v>-5.4775579225368123</v>
       </c>
       <c r="B473" s="0">
-        <v>18.789784651383531</v>
+        <v>-19.90119822108689</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
-        <v>31.445207601268351</v>
+        <v>-5.1724281006455568</v>
       </c>
       <c r="B474" s="0">
-        <v>18.84479498927637</v>
+        <v>-20.006012114043425</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
-        <v>31.47827406781823</v>
+        <v>-4.8663898846931097</v>
       </c>
       <c r="B475" s="0">
-        <v>18.899472618225975</v>
+        <v>-20.105894788975473</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>31.511513773854194</v>
+        <v>-4.559525294111654</v>
       </c>
       <c r="B476" s="0">
-        <v>18.953815129487932</v>
+        <v>-20.200859594504326</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>31.544929433676941</v>
+        <v>-4.2519154288237093</v>
       </c>
       <c r="B477" s="0">
-        <v>19.007819983881255</v>
+        <v>-20.290921093378479</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
-        <v>31.578523837357597</v>
+        <v>-3.9436404590739143</v>
       </c>
       <c r="B478" s="0">
-        <v>19.061484503764213</v>
+        <v>-20.376095033296441</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
-        <v>31.612299856378311</v>
+        <v>-3.6347796159131311</v>
       </c>
       <c r="B479" s="0">
-        <v>19.114805864265744</v>
+        <v>-20.456398317950274</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
-        <v>31.646260449796653</v>
+        <v>-3.3254111823190518</v>
       </c>
       <c r="B480" s="0">
-        <v>19.167781083681717</v>
+        <v>-20.531848978298576</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
-        <v>31.680408670999672</v>
+        <v>-3.0156124849405801</v>
       </c>
       <c r="B481" s="0">
-        <v>19.220407012931673</v>
+        <v>-20.602466144076349</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>31.714747675123792</v>
+        <v>-2.7054598864503876</v>
       </c>
       <c r="B482" s="0">
-        <v>19.272680323954841</v>
+        <v>-20.668270015549698</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>31.749280727228829</v>
+        <v>-2.3950287784923305</v>
       </c>
       <c r="B483" s="0">
-        <v>19.324597496905085</v>
+        <v>-20.72928183552218</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>31.784011211329759</v>
+        <v>-2.0843935752092628</v>
       </c>
       <c r="B484" s="0">
-        <v>19.376154805980338</v>
+        <v>-20.785523861599653</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>31.818942640406426</v>
+        <v>-1.7736277073379512</v>
       </c>
       <c r="B485" s="0">
-        <v>19.427348303694966</v>
+        <v>-20.837019338719816</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
-        <v>31.854078667534363</v>
+        <v>-1.4628036168565848</v>
       </c>
       <c r="B486" s="0">
-        <v>19.478173803368122</v>
+        <v>-20.883792471952564</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
-        <v>31.889423098304579</v>
+        <v>-1.1519927521721047</v>
       </c>
       <c r="B487" s="0">
-        <v>19.528626859560813</v>
+        <v>-20.925868399576562</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>31.924979904733419</v>
+        <v>-0.84126556383339124</v>
       </c>
       <c r="B488" s="0">
-        <v>19.578702746142152</v>
+        <v>-20.963273166437475</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>31.960753240901639</v>
+        <v>-0.53069150075687321</v>
       </c>
       <c r="B489" s="0">
-        <v>19.628396431604752</v>
+        <v>-20.996033697592548</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>31.996747460612021</v>
+        <v>-0.22033900695244807</v>
       </c>
       <c r="B490" s="0">
-        <v>19.677702551169364</v>
+        <v>-21.024177772246233</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
-        <v>32.032967137415078</v>
+        <v>0.089724481265361547</v>
       </c>
       <c r="B491" s="0">
-        <v>19.726615375122815</v>
+        <v>-21.047733997981148</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
-        <v>32.069417087429585</v>
+        <v>0.39943253759139824</v>
       </c>
       <c r="B492" s="0">
-        <v>19.775128772711437</v>
+        <v>-21.066731785288098</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>32.106102395482687</v>
+        <v>0.70871974758294953</v>
       </c>
       <c r="B493" s="0">
-        <v>19.823236170755351</v>
+        <v>-21.081201322399011</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>32.143028445219535</v>
+        <v>1.0175217100657892</v>
       </c>
       <c r="B494" s="0">
-        <v>19.870930505950621</v>
+        <v>-21.091173550425928</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
-        <v>32.180200953995147</v>
+        <v>1.3257750381017936</v>
       </c>
       <c r="B495" s="0">
-        <v>19.918204169567524</v>
+        <v>-21.096680138809273</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
-        <v>32.217626013573962</v>
+        <v>1.6334173595350432</v>
       </c>
       <c r="B496" s="0">
-        <v>19.965048942914546</v>
+        <v>-21.097753461077968</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>32.25531013794464</v>
+        <v>1.9403873171241632</v>
       </c>
       <c r="B497" s="0">
-        <v>20.011455921489773</v>
+        <v>-21.094426570924089</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>32.293260319936287</v>
+        <v>2.2466245682762143</v>
       </c>
       <c r="B498" s="0">
-        <v>20.057415425139112</v>
+        <v>-21.086733178594105</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>32.33148409883772</v>
+        <v>2.5520697843908051</v>
       </c>
       <c r="B499" s="0">
-        <v>20.102916890721851</v>
+        <v>-21.07470762759888</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>32.369989641933849</v>
+        <v>2.8566646498288946</v>
       </c>
       <c r="B500" s="0">
-        <v>20.147948742650563</v>
+        <v>-21.058384871744011</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>32.408785843875968</v>
+        <v>3.16035186051512</v>
       </c>
       <c r="B501" s="0">
-        <v>20.192498235079857</v>
+        <v>-21.037800452482045</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>32.447882449239557</v>
+        <v>3.4630751221863458</v>
       </c>
       <c r="B502" s="0">
-        <v>20.236551257232971</v>
+        <v>-21.012990476587994</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>32.487290205729231</v>
+        <v>3.7647791482968898</v>
       </c>
       <c r="B503" s="0">
-        <v>20.280092090008132</v>
+        <v>-20.983991594158947</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>32.527021058650647</v>
+        <v>4.0654096575915561</v>
       </c>
       <c r="B504" s="0">
-        <v>20.323103096983004</v>
+        <v>-20.950840976938832</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>32.567088402147021</v>
+        <v>4.364913371356355</v>
       </c>
       <c r="B505" s="0">
-        <v>20.365564325181204</v>
+        <v>-20.913576296968866</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>32.607507410466653</v>
+        <v>4.6632380103587625</v>
       </c>
       <c r="B506" s="0">
-        <v>20.407452978615218</v>
+        <v>-20.872235705564147</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>32.648295485371683</v>
+        <v>4.9603322914860382</v>
       </c>
       <c r="B507" s="0">
-        <v>20.448742707203124</v>
+        <v>-20.826857812616687</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>32.689472877976236</v>
+        <v>5.2561459240940174</v>
       </c>
       <c r="B508" s="0">
-        <v>20.489402618400597</v>
+        <v>-20.77748166622473</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>32.73106358365434</v>
+        <v>5.5506296060734526</v>
       </c>
       <c r="B509" s="0">
-        <v>20.529395854744497</v>
+        <v>-20.724146732648624</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>32.773096686930032</v>
+        <v>5.8437350196467941</v>
       </c>
       <c r="B510" s="0">
-        <v>20.568677456077374</v>
+        <v>-20.666892876592534</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>32.81560849778819</v>
+        <v>6.135414826901771</v>
       </c>
       <c r="B511" s="0">
-        <v>20.607190963683383</v>
+        <v>-20.605760341811973</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>32.858646204787036</v>
+        <v>6.425622665074922</v>
       </c>
       <c r="B512" s="0">
-        <v>20.644862613228948</v>
+        <v>-20.540789732045969</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>32.902274804194903</v>
+        <v>6.7143131415902788</v>
       </c>
       <c r="B513" s="0">
-        <v>20.681590319948143</v>
+        <v>-20.472021992273802</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>32.946592507573691</v>
+        <v>7.0014418288658202</v>
       </c>
       <c r="B514" s="0">
-        <v>20.717219186008446</v>
+        <v>-20.399498390294777</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>32.991776451043691</v>
+        <v>7.2869652588937699</v>
       </c>
       <c r="B515" s="0">
-        <v>20.751468838607757</v>
+        <v>-20.323260498630521</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>33.038432453405846</v>
+        <v>7.5708409176064997</v>
       </c>
       <c r="B516" s="0">
-        <v>20.783377433830108</v>
+        <v>-20.243350176747857</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>33.086241706893851</v>
+        <v>7.853027239032695</v>
       </c>
       <c r="B517" s="0">
-        <v>20.813452642799902</v>
+        <v>-20.159809553602109</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>33.134050960381849</v>
+        <v>8.1334835992563406</v>
       </c>
       <c r="B518" s="0">
-        <v>20.843527851769704</v>
+        <v>-20.072681010498101</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>33.181860213869854</v>
+        <v>8.4121703101833791</v>
       </c>
       <c r="B519" s="0">
-        <v>20.873603060739502</v>
+        <v>-19.982007164268332</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
-        <v>33.229669467357859</v>
+        <v>8.6890486131265767</v>
       </c>
       <c r="B520" s="0">
-        <v>20.903678269709307</v>
+        <v>-19.887830850765905</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
-        <v>33.277478720845863</v>
+        <v>8.964080672214001</v>
       </c>
       <c r="B521" s="0">
-        <v>20.933753478679108</v>
+        <v>-19.790195108671259</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>33.325287974333868</v>
+        <v>9.2372295676320793</v>
       </c>
       <c r="B522" s="0">
-        <v>20.963828687648906</v>
+        <v>-19.689143163609639</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>33.373097227821866</v>
+        <v>9.5084592887069128</v>
       </c>
       <c r="B523" s="0">
-        <v>20.993903896618708</v>
+        <v>-19.584718412578823</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>33.420906481309871</v>
+        <v>9.777734726835309</v>
       </c>
       <c r="B524" s="0">
-        <v>21.023979105588506</v>
+        <v>-19.476964408683411</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
-        <v>33.468715734797861</v>
+        <v>10.045021668268701</v>
       </c>
       <c r="B525" s="0">
-        <v>21.054054314558307</v>
+        <v>-19.365924846175222</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>33.516524988285866</v>
+        <v>10.310286786760681</v>
       </c>
       <c r="B526" s="0">
-        <v>21.084129523528102</v>
+        <v>-19.251643545795982</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
-        <v>33.564334241773871</v>
+        <v>10.573497636082564</v>
       </c>
       <c r="B527" s="0">
-        <v>21.114204732497907</v>
+        <v>-19.13416444042107</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
-        <v>33.612143495261869</v>
+        <v>10.834622642415265</v>
       </c>
       <c r="B528" s="0">
-        <v>21.144279941467705</v>
+        <v>-19.013531561001248</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>33.65995274874988</v>
+        <v>11.093631096622577</v>
       </c>
       <c r="B529" s="0">
-        <v>21.17435515043751</v>
+        <v>-18.889789022800628</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
-        <v>33.707762002237878</v>
+        <v>11.350493146414165</v>
       </c>
       <c r="B530" s="0">
-        <v>21.204430359407304</v>
+        <v>-18.762981011927465</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
-        <v>33.755571255725883</v>
+        <v>11.60517978840277</v>
       </c>
       <c r="B531" s="0">
-        <v>21.234505568377106</v>
+        <v>-18.633151772156008</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>33.803380509213881</v>
+        <v>11.85766286006335</v>
       </c>
       <c r="B532" s="0">
-        <v>21.264580777346904</v>
+        <v>-18.500345592036027</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
-        <v>33.851189762701885</v>
+        <v>12.107915031598775</v>
       </c>
       <c r="B533" s="0">
-        <v>21.294655986316705</v>
+        <v>-18.364606792287955</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
-        <v>33.89899901618989</v>
+        <v>12.355909797719328</v>
       </c>
       <c r="B534" s="0">
-        <v>21.324731195286507</v>
+        <v>-18.225979713480218</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
-        <v>33.946808269677888</v>
+        <v>12.601621469340015</v>
       </c>
       <c r="B535" s="0">
-        <v>21.354806404256305</v>
+        <v>-18.084508703986806</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
-        <v>33.994617523165893</v>
+        <v>12.845025165203507</v>
       </c>
       <c r="B536" s="0">
-        <v>21.384881613226106</v>
+        <v>-17.940238108220957</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
-        <v>34.042426776653897</v>
+        <v>13.086096803431378</v>
       </c>
       <c r="B537" s="0">
-        <v>21.414956822195908</v>
+        <v>-17.793212255143796</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
-        <v>34.090236030141902</v>
+        <v>13.324813093012107</v>
       </c>
       <c r="B538" s="0">
-        <v>21.445032031165709</v>
+        <v>-17.643475447042839</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
-        <v>34.138045283629893</v>
+        <v>13.561151525227872</v>
       </c>
       <c r="B539" s="0">
-        <v>21.475107240135504</v>
+        <v>-17.491071948579545</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
-        <v>34.185854537117898</v>
+        <v>13.795090365027647</v>
       </c>
       <c r="B540" s="0">
-        <v>21.505182449105305</v>
+        <v>-17.336045976101254</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
-        <v>34.233663790605902</v>
+        <v>14.026608642349935</v>
       </c>
       <c r="B541" s="0">
-        <v>21.535257658075107</v>
+        <v>-17.178441687215411</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0">
-        <v>34.2814730440939</v>
+        <v>14.255686143400874</v>
       </c>
       <c r="B542" s="0">
-        <v>21.565332867044908</v>
+        <v>-17.018303170622442</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0">
-        <v>34.329282297581905</v>
+        <v>14.482303401891437</v>
       </c>
       <c r="B543" s="0">
-        <v>21.595408076014706</v>
+        <v>-16.855674436204829</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0">
-        <v>34.37709155106991</v>
+        <v>14.706441690239322</v>
       </c>
       <c r="B544" s="0">
-        <v>21.625483284984508</v>
+        <v>-16.690599405368406</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0">
-        <v>34.424900804557907</v>
+        <v>14.928083010738746</v>
       </c>
       <c r="B545" s="0">
-        <v>21.655558493954306</v>
+        <v>-16.523121901633694</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0">
-        <v>34.472710058045912</v>
+        <v>15.147210086703671</v>
       </c>
       <c r="B546" s="0">
-        <v>21.685633702924108</v>
+        <v>-16.353285641473072</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0">
-        <v>34.52051931153391</v>
+        <v>15.363806353587256</v>
       </c>
       <c r="B547" s="0">
-        <v>21.715708911893906</v>
+        <v>-16.181134225391734</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0">
-        <v>34.568328565021915</v>
+        <v>15.577855950082418</v>
       </c>
       <c r="B548" s="0">
-        <v>21.745784120863703</v>
+        <v>-16.006711129248611</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0">
-        <v>34.61613781850992</v>
+        <v>15.789343709207905</v>
       </c>
       <c r="B549" s="0">
-        <v>21.775859329833509</v>
+        <v>-15.830059695813414</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0">
-        <v>34.663947071997924</v>
+        <v>15.998255149381961</v>
       </c>
       <c r="B550" s="0">
-        <v>21.805934538803307</v>
+        <v>-15.651223126558364</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0">
-        <v>34.711756325485922</v>
+        <v>16.204576465488874</v>
       </c>
       <c r="B551" s="0">
-        <v>21.836009747773108</v>
+        <v>-15.470244473679804</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0">
-        <v>34.759565578973927</v>
+        <v>16.408294519941485</v>
       </c>
       <c r="B552" s="0">
-        <v>21.86608495674291</v>
+        <v>-15.28716663234694</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0">
-        <v>34.807374832461925</v>
+        <v>16.609396833742704</v>
       </c>
       <c r="B553" s="0">
-        <v>21.896160165712708</v>
+        <v>-15.102032333174925</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
-        <v>34.855184085949922</v>
+        <v>16.807871577549992</v>
       </c>
       <c r="B554" s="0">
-        <v>21.926235374682506</v>
+        <v>-14.914884134918445</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0">
-        <v>34.902993339437927</v>
+        <v>17.003707562745838</v>
       </c>
       <c r="B555" s="0">
-        <v>21.956310583652307</v>
+        <v>-14.725764417382853</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0">
-        <v>34.950802592925932</v>
+        <v>17.196894232516748</v>
       </c>
       <c r="B556" s="0">
-        <v>21.986385792622109</v>
+        <v>-14.534715374550263</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0">
-        <v>34.998611846413937</v>
+        <v>17.387421652945445</v>
       </c>
       <c r="B557" s="0">
-        <v>22.016461001591907</v>
+        <v>-14.341779007915594</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0">
-        <v>35.046421099901934</v>
+        <v>17.575280504117053</v>
       </c>
       <c r="B558" s="0">
-        <v>22.046536210561705</v>
+        <v>-14.146997120031825</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0">
-        <v>35.094230353389939</v>
+        <v>17.760462071243943</v>
       </c>
       <c r="B559" s="0">
-        <v>22.07661141953151</v>
+        <v>-13.950411308259149</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0">
-        <v>35.142039606877944</v>
+        <v>17.942958235811073</v>
       </c>
       <c r="B560" s="0">
-        <v>22.106686628501308</v>
+        <v>-13.752062958715866</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
-        <v>35.189848860365942</v>
+        <v>18.122761466744457</v>
       </c>
       <c r="B561" s="0">
-        <v>22.136761837471109</v>
+        <v>-13.551993240427997</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
-        <v>35.237658113853946</v>
+        <v>18.299864811606142</v>
       </c>
       <c r="B562" s="0">
-        <v>22.166837046440907</v>
+        <v>-13.350243099673277</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
-        <v>35.285467367341944</v>
+        <v>18.474261887816859</v>
       </c>
       <c r="B563" s="0">
-        <v>22.196912255410705</v>
+        <v>-13.14685325451819</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
-        <v>35.333276620829949</v>
+        <v>18.645946873909999</v>
       </c>
       <c r="B564" s="0">
-        <v>22.22698746438051</v>
+        <v>-12.941864189543145</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0">
-        <v>35.381085874317954</v>
+        <v>18.814914500818684</v>
       </c>
       <c r="B565" s="0">
-        <v>22.257062673350308</v>
+        <v>-12.735316150753546</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0">
-        <v>35.428895127805959</v>
+        <v>18.981160043197647</v>
       </c>
       <c r="B566" s="0">
-        <v>22.28713788232011</v>
+        <v>-12.527249140674042</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0">
-        <v>35.476704381293956</v>
+        <v>19.144679310783516</v>
       </c>
       <c r="B567" s="0">
-        <v>22.317213091289908</v>
+        <v>-12.317702913621183</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
-        <v>35.524513634781954</v>
+        <v>19.305468639793432</v>
       </c>
       <c r="B568" s="0">
-        <v>22.347288300259709</v>
+        <v>-12.10671697115413</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0">
-        <v>35.572322888269959</v>
+        <v>19.463524884366436</v>
       </c>
       <c r="B569" s="0">
-        <v>22.377363509229507</v>
+        <v>-11.894330557697014</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0">
-        <v>35.620132141757956</v>
+        <v>19.618845408047072</v>
       </c>
       <c r="B570" s="0">
-        <v>22.407438718199309</v>
+        <v>-11.680582656333392</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0">
-        <v>35.667941395245961</v>
+        <v>19.77142807531532</v>
       </c>
       <c r="B571" s="0">
-        <v>22.437513927169107</v>
+        <v>-11.465511984766378</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0">
-        <v>35.715750648733966</v>
+        <v>19.921271243162494</v>
       </c>
       <c r="B572" s="0">
-        <v>22.467589136138908</v>
+        <v>-11.249156991444728</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0">
-        <v>35.763559902221964</v>
+        <v>20.068373752716795</v>
       </c>
       <c r="B573" s="0">
-        <v>22.497664345108706</v>
+        <v>-11.031555851848701</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0">
-        <v>35.811369155709976</v>
+        <v>20.212734920918201</v>
       </c>
       <c r="B574" s="0">
-        <v>22.527739554078511</v>
+        <v>-10.812746464935843</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0">
-        <v>35.859178409197973</v>
+        <v>20.354354532245871</v>
       </c>
       <c r="B575" s="0">
-        <v>22.557814763048309</v>
+        <v>-10.592766449741186</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
-        <v>35.906987662685971</v>
+        <v>20.493232830498577</v>
       </c>
       <c r="B576" s="0">
-        <v>22.587889972018107</v>
+        <v>-10.371653142130215</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
-        <v>35.954796916173976</v>
+        <v>20.629370510629652</v>
       </c>
       <c r="B577" s="0">
-        <v>22.617965180987909</v>
+        <v>-10.149443591702186</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0">
-        <v>36.002606169661973</v>
+        <v>20.762768710638326</v>
       </c>
       <c r="B578" s="0">
-        <v>22.648040389957707</v>
+        <v>-9.9261745588392376</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0">
-        <v>36.050415423149985</v>
+        <v>20.89342900351814</v>
       </c>
       <c r="B579" s="0">
-        <v>22.678115598927512</v>
+        <v>-9.7018825119003402</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0">
-        <v>36.098224676637983</v>
+        <v>21.021353389263787</v>
       </c>
       <c r="B580" s="0">
-        <v>22.708190807897306</v>
+        <v>-9.476603624556196</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0">
-        <v>36.146033930125981</v>
+        <v>21.146544286938116</v>
       </c>
       <c r="B581" s="0">
-        <v>22.738266016867112</v>
+        <v>-9.2503737732620728</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0">
-        <v>36.193843183613986</v>
+        <v>21.269004526799201</v>
       </c>
       <c r="B582" s="0">
-        <v>22.76834122583691</v>
+        <v>-9.0232285348672701</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0">
-        <v>36.241652437101983</v>
+        <v>21.388737342490007</v>
       </c>
       <c r="B583" s="0">
-        <v>22.798416434806711</v>
+        <v>-8.7952031843563532</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0">
-        <v>36.289461690589988</v>
+        <v>21.505746363290111</v>
       </c>
       <c r="B584" s="0">
-        <v>22.828491643776506</v>
+        <v>-8.5663326927218524</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0">
-        <v>36.337270944077986</v>
+        <v>21.620035606431873</v>
       </c>
       <c r="B585" s="0">
-        <v>22.858566852746307</v>
+        <v>-8.3366517249633656</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0">
-        <v>36.385080197565998</v>
+        <v>21.731609469480539</v>
       </c>
       <c r="B586" s="0">
-        <v>22.888642061716112</v>
+        <v>-8.1061946382126759</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0">
-        <v>36.432889451053995</v>
+        <v>21.84047272278049</v>
       </c>
       <c r="B587" s="0">
-        <v>22.91871727068591</v>
+        <v>-7.8749954799800133</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0">
-        <v>36.480698704541993</v>
+        <v>21.946630501967039</v>
       </c>
       <c r="B588" s="0">
-        <v>22.948792479655712</v>
+        <v>-7.6430879865213281</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0">
-        <v>36.528507958030005</v>
+        <v>22.050088300545649</v>
       </c>
       <c r="B589" s="0">
-        <v>22.97886768862551</v>
+        <v>-7.4105055813217948</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0">
-        <v>36.576317211518003</v>
+        <v>22.150851962538649</v>
       </c>
       <c r="B590" s="0">
-        <v>23.008942897595311</v>
+        <v>-7.1772813736941004</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0">
-        <v>36.624126465006007</v>
+        <v>22.248927675200051</v>
       </c>
       <c r="B591" s="0">
-        <v>23.039018106565109</v>
+        <v>-6.9434481574895797</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0">
-        <v>36.671935718494005</v>
+        <v>22.34432196179943</v>
       </c>
       <c r="B592" s="0">
-        <v>23.069093315534911</v>
+        <v>-6.7090384099181914</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0">
-        <v>36.71974497198201</v>
+        <v>22.437041674475175</v>
       </c>
       <c r="B593" s="0">
-        <v>23.099168524504709</v>
+        <v>-6.4740842904760347</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0">
-        <v>36.767554225470015</v>
+        <v>22.527093987157357</v>
       </c>
       <c r="B594" s="0">
-        <v>23.12924373347451</v>
+        <v>-6.2386176399783944</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0">
-        <v>36.815363478958012</v>
+        <v>22.614486388561442</v>
       </c>
       <c r="B595" s="0">
-        <v>23.159318942444308</v>
+        <v>-6.0026699796939633</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0">
-        <v>36.863172732446017</v>
+        <v>22.699226675252238</v>
       </c>
       <c r="B596" s="0">
-        <v>23.189394151414113</v>
+        <v>-5.7662725105806851</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0">
-        <v>36.910981985934015</v>
+        <v>22.781322944779443</v>
       </c>
       <c r="B597" s="0">
-        <v>23.219469360383911</v>
+        <v>-5.5294561126181971</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0">
-        <v>36.95879123942202</v>
+        <v>22.860783588884473</v>
       </c>
       <c r="B598" s="0">
-        <v>23.249544569353709</v>
+        <v>-5.2922513442363606</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0">
-        <v>37.006600492910017</v>
+        <v>22.937617286779034</v>
       </c>
       <c r="B599" s="0">
-        <v>23.279619778323507</v>
+        <v>-5.0546884418374596</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0">
-        <v>37.054409746398015</v>
+        <v>23.011832998495954</v>
       </c>
       <c r="B600" s="0">
-        <v>23.309694987293309</v>
+        <v>-4.8167973194087326</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0">
-        <v>37.102218999886027</v>
+        <v>23.083439958312177</v>
       </c>
       <c r="B601" s="0">
-        <v>23.339770196263114</v>
+        <v>-4.5786075682242569</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0">
-        <v>37.150028253374025</v>
+        <v>23.15244766824431</v>
       </c>
       <c r="B602" s="0">
-        <v>23.369845405232908</v>
+        <v>-4.3401484566334698</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0">
-        <v>37.197837506862029</v>
+        <v>23.218865891616851</v>
       </c>
       <c r="B603" s="0">
-        <v>23.39992061420271</v>
+        <v>-4.1014489299342616</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0">
-        <v>37.245646760350034</v>
+        <v>23.282704646703241</v>
       </c>
       <c r="B604" s="0">
-        <v>23.429995823172511</v>
+        <v>-3.8625376103283222</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0">
-        <v>37.293456013838032</v>
+        <v>23.343974200439696</v>
       </c>
       <c r="B605" s="0">
-        <v>23.460071032142313</v>
+        <v>-3.6234427969579035</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0">
-        <v>37.341265267326037</v>
+        <v>23.402685062212274</v>
       </c>
       <c r="B606" s="0">
-        <v>23.490146241112111</v>
+        <v>-3.3841924660193037</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0">
-        <v>37.389074520814034</v>
+        <v>23.458847977716729</v>
       </c>
       <c r="B607" s="0">
-        <v>23.520221450081909</v>
+        <v>-3.1448142709544094</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0">
-        <v>37.436883774302046</v>
+        <v>23.512473922891605</v>
       </c>
       <c r="B608" s="0">
-        <v>23.55029665905171</v>
+        <v>-2.9053355427152976</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0">
-        <v>37.484693027790044</v>
+        <v>23.563574097924217</v>
       </c>
       <c r="B609" s="0">
-        <v>23.580371868021512</v>
+        <v>-2.6657832901024823</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0">
-        <v>37.532502281278042</v>
+        <v>23.612159921329773</v>
       </c>
       <c r="B610" s="0">
-        <v>23.61044707699131</v>
+        <v>-2.426184200172615</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0">
-        <v>37.580311534766047</v>
+        <v>23.658243024103339</v>
       </c>
       <c r="B611" s="0">
-        <v>23.640522285961111</v>
+        <v>-2.1865646387156823</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0">
-        <v>37.628120788254044</v>
+        <v>23.701835243944753</v>
       </c>
       <c r="B612" s="0">
-        <v>23.670597494930913</v>
+        <v>-1.9469506507982548</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0">
-        <v>37.675930041742049</v>
+        <v>23.742948619556213</v>
       </c>
       <c r="B613" s="0">
-        <v>23.700672703900711</v>
+        <v>-1.7073679613723858</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0">
-        <v>37.723739295230047</v>
+        <v>23.781595385012519</v>
       </c>
       <c r="B614" s="0">
-        <v>23.730747912870513</v>
+        <v>-1.4678419759471817</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0">
-        <v>37.771548548718052</v>
+        <v>23.817787964203795</v>
       </c>
       <c r="B615" s="0">
-        <v>23.760823121840311</v>
+        <v>-1.2283977813217837</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0">
-        <v>37.819357802206056</v>
+        <v>23.851538965350485</v>
       </c>
       <c r="B616" s="0">
-        <v>23.790898330810112</v>
+        <v>-0.98906014637827167</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0">
-        <v>37.867167055694054</v>
+        <v>23.882861175590406</v>
       </c>
       <c r="B617" s="0">
-        <v>23.82097353977991</v>
+        <v>-0.74985352293227181</v>
       </c>
     </row>
     <row r="618">
